--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tài liệu đi làm\DA_Covid19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C80BE558-4822-4EF2-B58F-26131DF0FADA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9077D-6984-4A75-AEB7-BBE7DAF77886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
+    <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="234">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -897,6 +898,339 @@
   </si>
   <si>
     <t>Untest</t>
+  </si>
+  <si>
+    <t>Check the bars functionality</t>
+  </si>
+  <si>
+    <t>Step 1: Check screen.
+Step 2: Click Bars on header.
+Step 2: Check screen.
+Step 4: Click Bars on header.</t>
+  </si>
+  <si>
+    <t>1. navbar is displayed.
+2. The navbar is hidden.
+3.Body in full screen mode.
+4. Return to default view</t>
+  </si>
+  <si>
+    <t>GD_AD_29</t>
+  </si>
+  <si>
+    <t>Check holver on vertical menu</t>
+  </si>
+  <si>
+    <t>Step 1: Hover over the menu bar.
+Step 2: Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 Navbar is displayed. 
+2 Each function is changed color when holver up.
+</t>
+  </si>
+  <si>
+    <t>GD_AD_30</t>
+  </si>
+  <si>
+    <t>Submenu test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Navbar is displayed. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navbar is displayed. 
+2. The submenu is spilled next to the corresponding function
+</t>
+  </si>
+  <si>
+    <t>GD_AD_32</t>
+  </si>
+  <si>
+    <t>Check holver on Submenu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submenu is displayed. </t>
+  </si>
+  <si>
+    <t>Step 1: Hover over the menu bar.
+Step 2: Hover over the submenu.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Navbar is displayed. 
+2. Submenu is display 
+3. Each function is changed color when holver up.
+</t>
+  </si>
+  <si>
+    <t>Pre-condition</t>
+  </si>
+  <si>
+    <t>FU_AD_01</t>
+  </si>
+  <si>
+    <t>Definition Language</t>
+  </si>
+  <si>
+    <t>Step 1: Check language.
+Step 2: Select the flag icon in the upper right corner of the screen.
+Step 3: Select flags corresponding to the language.
+Step 3: Check language</t>
+  </si>
+  <si>
+    <t>1. Definition Language is French.
+2. The British flag and the French flag appear.
+3. Select the flag, the language of the definition to be changed accordingly</t>
+  </si>
+  <si>
+    <t>FU_AD_02</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking on the avatar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Step 1: Click on the avatar.
+Step 2: Check screen. </t>
+  </si>
+  <si>
+    <t>Function displayed right below the avatar like the design</t>
+  </si>
+  <si>
+    <t>FU_AD_03</t>
+  </si>
+  <si>
+    <t>Test hover over avatar functionality</t>
+  </si>
+  <si>
+    <t>Function displayed 
+right below the avatar</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the avatar.
+Step 2: Hover over functions that appear just below the avatar.</t>
+  </si>
+  <si>
+    <t>Each function is changed color to match the design when hovering over.</t>
+  </si>
+  <si>
+    <t>FU_AD_04</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Profile'</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the avatar.
+Step 2: Click PROFILE button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+The screen switches to the profile view.</t>
+  </si>
+  <si>
+    <t>FU_AD_05</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Setting'</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the avatar.
+Step 2: Click SETTING button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>The screen switches to the setting view.</t>
+  </si>
+  <si>
+    <t>FU_AD_06</t>
+  </si>
+  <si>
+    <t>POST Button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'ALL POST'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the news button on the vertical menu
+Step 2: Click All Post button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display table containing the list of articles</t>
+  </si>
+  <si>
+    <t>FU_AD_07</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Creat new post'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "POST" button on the vertical menu.
+Step 2: Click "Create new post" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create a new post.</t>
+  </si>
+  <si>
+    <t>FU_AD_08</t>
+  </si>
+  <si>
+    <t>LEARNING button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'All modules '</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "All modules" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of modules</t>
+  </si>
+  <si>
+    <t>FU_AD_09</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'New learning '</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "NEW LEARNING" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create  a new learning.</t>
+  </si>
+  <si>
+    <t>FU_AD_10</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'All Capsules'</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of capsules.</t>
+  </si>
+  <si>
+    <t>FU_AD_11</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'New Capsule'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "NEW Capsule" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create  a new capsule.</t>
+  </si>
+  <si>
+    <t>FU_AD_12</t>
+  </si>
+  <si>
+    <t>KNOWLEDGE LIBRARY button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'All Categories'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "All Categories" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of  Categories.</t>
+  </si>
+  <si>
+    <t>FU_AD_13</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'New Category'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "New Category" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create  a new Category.</t>
+  </si>
+  <si>
+    <t>FU_AD_14</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'All Documents'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "All Documents" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of  Documents.</t>
+  </si>
+  <si>
+    <t>FU_AD_15</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'New Document'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "New Document" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create  a new Document.</t>
+  </si>
+  <si>
+    <t>FU_AD_16</t>
+  </si>
+  <si>
+    <t>FORUMS button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'All Group'</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
+Step 2: Click "All Group" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of  Groups.</t>
+  </si>
+  <si>
+    <t>FU_AD_17</t>
+  </si>
+  <si>
+    <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
+Step 2: Click "New Group" button.
+Step 3: Check screen.</t>
+  </si>
+  <si>
+    <t>Display interface to create  a new Group.</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'New Group'</t>
   </si>
 </sst>
 </file>
@@ -1054,7 +1388,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1089,6 +1423,12 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1105,7 +1445,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1417,10 +1763,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1464,21 +1810,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
     </row>
     <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1594,7 +1940,7 @@
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1623,7 +1969,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="15"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1650,7 +1996,7 @@
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="13"/>
+      <c r="B11" s="15"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -1677,7 +2023,7 @@
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="13"/>
+      <c r="B12" s="15"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -1759,7 +2105,7 @@
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="18" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -1788,7 +2134,7 @@
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="16"/>
+      <c r="B16" s="18"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -1815,7 +2161,7 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="16"/>
+      <c r="B17" s="18"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -1842,7 +2188,7 @@
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -1869,7 +2215,7 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="18"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -1896,7 +2242,7 @@
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="16"/>
+      <c r="B20" s="18"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -1923,7 +2269,7 @@
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="16"/>
+      <c r="B21" s="18"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -1950,7 +2296,7 @@
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -1977,7 +2323,7 @@
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="16"/>
+      <c r="B23" s="18"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -2004,7 +2350,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="16"/>
+      <c r="B24" s="18"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -2031,7 +2377,7 @@
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="16"/>
+      <c r="B25" s="18"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -2058,7 +2404,7 @@
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="16"/>
+      <c r="B26" s="18"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -2085,7 +2431,7 @@
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="16"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -2112,7 +2458,7 @@
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -2139,7 +2485,7 @@
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="18"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -2447,10 +2793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B31C9-1D37-4557-BE0E-E2D9FDCC55D6}">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2471,10 +2818,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="14" t="s">
+      <c r="H2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="15"/>
+      <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2527,7 +2874,7 @@
       <c r="C4" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="13" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -2543,94 +2890,109 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="9"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="I15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="I16" s="2"/>
-    </row>
-    <row r="17" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
+      <c r="C5" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>155</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2639,4 +3001,522 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
+  <dimension ref="A2:M20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="3" max="3" width="31" customWidth="1"/>
+    <col min="4" max="4" width="33.21875" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="8" max="8" width="16" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="20"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D4" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D5" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>185</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="B15" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="B16" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>216</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9077D-6984-4A75-AEB7-BBE7DAF77886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97A439CF-E7E2-4454-94DF-E8A6EA95656A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
+    <sheet name="Learning" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="363">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1022,11 +1023,6 @@
  when clicking 'Profile'</t>
   </si>
   <si>
-    <t>Step 1: Click on the avatar.
-Step 2: Click PROFILE button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t xml:space="preserve">
 The screen switches to the profile view.</t>
   </si>
@@ -1038,11 +1034,6 @@
  when clicking 'Setting'</t>
   </si>
   <si>
-    <t>Step 1: Click on the avatar.
-Step 2: Click SETTING button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>The screen switches to the setting view.</t>
   </si>
   <si>
@@ -1056,11 +1047,6 @@
  when clicking 'ALL POST'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the news button on the vertical menu
-Step 2: Click All Post button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display table containing the list of articles</t>
   </si>
   <si>
@@ -1071,11 +1057,6 @@
  when clicking 'Creat new post'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "POST" button on the vertical menu.
-Step 2: Click "Create new post" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create a new post.</t>
   </si>
   <si>
@@ -1089,11 +1070,6 @@
  when clicking 'All modules '</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
-Step 2: Click "All modules" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Displays the table containing the list of modules</t>
   </si>
   <si>
@@ -1104,11 +1080,6 @@
  when clicking 'New learning '</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
-Step 2: Click "NEW LEARNING" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create  a new learning.</t>
   </si>
   <si>
@@ -1129,11 +1100,6 @@
  when clicking 'New Capsule'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
-Step 2: Click "NEW Capsule" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create  a new capsule.</t>
   </si>
   <si>
@@ -1147,11 +1113,6 @@
  when clicking 'All Categories'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
-Step 2: Click "All Categories" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Displays the table containing the list of  Categories.</t>
   </si>
   <si>
@@ -1162,11 +1123,6 @@
  when clicking 'New Category'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
-Step 2: Click "New Category" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create  a new Category.</t>
   </si>
   <si>
@@ -1177,11 +1133,6 @@
  when clicking 'All Documents'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
-Step 2: Click "All Documents" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Displays the table containing the list of  Documents.</t>
   </si>
   <si>
@@ -1192,11 +1143,6 @@
  when clicking 'New Document'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
-Step 2: Click "New Document" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create  a new Document.</t>
   </si>
   <si>
@@ -1210,20 +1156,10 @@
  when clicking 'All Group'</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
-Step 2: Click "All Group" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Displays the table containing the list of  Groups.</t>
   </si>
   <si>
     <t>FU_AD_17</t>
-  </si>
-  <si>
-    <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
-Step 2: Click "New Group" button.
-Step 3: Check screen.</t>
   </si>
   <si>
     <t>Display interface to create  a new Group.</t>
@@ -1231,6 +1167,1497 @@
   <si>
     <t>Check the event
  when clicking 'New Group'</t>
+  </si>
+  <si>
+    <t>FU_AD_18</t>
+  </si>
+  <si>
+    <t>USERS button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Users'</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of  Users.</t>
+  </si>
+  <si>
+    <t>FU_AD_19</t>
+  </si>
+  <si>
+    <t>FU_AD_20</t>
+  </si>
+  <si>
+    <t>ADMINISTRATOR button</t>
+  </si>
+  <si>
+    <t>Displays the table containing the list of Administrators information.</t>
+  </si>
+  <si>
+    <t>FU_AD_21</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Accounts'</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Create new account'</t>
+  </si>
+  <si>
+    <t>FU_AD_22</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Roles'</t>
+  </si>
+  <si>
+    <t>NOTIFICATION button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Notifications'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create new account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "USERS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Click on the avatar.
+Step 2: Click </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PROFILE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Click on the avatar.
+Step 2: Click </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SETTING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the news button on the vertical menu
+Step 2: Click</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> All Post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "POST" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create new post</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW LEARNING</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "LEARNING" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>NEW Capsule</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Categories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Category</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Documents</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "KNOWLEDGE LIBRARY" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Document</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "USERS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>The interface switches to the table containing the notifications.</t>
+  </si>
+  <si>
+    <t>The interface switches to the table containing the roles information.</t>
+  </si>
+  <si>
+    <t>Go to the interface to create a new account.</t>
+  </si>
+  <si>
+    <t>Appears a form to fill in information to create a new user.</t>
+  </si>
+  <si>
+    <t>FU_AD_23</t>
+  </si>
+  <si>
+    <t>Go to the view to create a new notification</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>FU_AD_24</t>
+  </si>
+  <si>
+    <t>SETTING button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Site Configuration'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Site Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the website configuration settings interface</t>
+  </si>
+  <si>
+    <t>FU_AD_25</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Language'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the language settings interface</t>
+  </si>
+  <si>
+    <t>LE_01</t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>Check the path on the "card-header "</t>
+  </si>
+  <si>
+    <t>The dashboard displays successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Allow hover on learning button.
+2. Allow click on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+3. Correct path : 
+"Dashboard &gt; Learning".
+Background Color : #f0f3f5.</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_02</t>
+  </si>
+  <si>
+    <t>Check the 'Create new' button on the "card-header"</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+Step 4: Hover on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 5: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The button's default color is: #3699ff.
+2. On hover, the color is: #62aa2a.</t>
+  </si>
+  <si>
+    <t>LE_03</t>
+  </si>
+  <si>
+    <t>Check out the data fields</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check if the data fields are complete.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Displays a table containing the modules information.
+2. The full range of columns: 
+No., Title, Duration, Capsules, Status, Tags, Date, Action.</t>
+  </si>
+  <si>
+    <t>LE_04</t>
+  </si>
+  <si>
+    <t>Check data filtering by title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Focus mouse on the title box.
+Step 2: In turn enter the values ​​in column G into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Allows data entry.
+2. Allows  click the Apply button.
+3.Filtered data related to the data entered.
+4. If left empty, do not filter.
+5.If the data entry does not exist, message: "There are no records"</t>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'learning'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_05</t>
+  </si>
+  <si>
+    <t>Check data filtering by Status</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the combobox under status.
+Step 2: choose Status.
+Step 3: Check the filtered results</t>
+  </si>
+  <si>
+    <t>1.Allows clicking on the combobox.
+2.Shows a list of options: Public, Hide, Draft.
+3. Filters the correct data for the selected state.</t>
+  </si>
+  <si>
+    <t>LE_06</t>
+  </si>
+  <si>
+    <t>Check data filtering by Tags</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Focus mouse on the Tags box.
+Step 2: In turn enter the values ​​in column G into the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'string'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_07</t>
+  </si>
+  <si>
+    <t>Check data filtering</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Enter the information in column G in turn into the fields to be filled in.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: Information of the line already exists
+Round 3: Any information does not exist in the table.</t>
+  </si>
+  <si>
+    <t>LE_08</t>
+  </si>
+  <si>
+    <t>Check clear button functionality</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:enter any data in the title box
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Show clear button.
+2.Blank data cells on the data filter area.</t>
+  </si>
+  <si>
+    <t>LE_09</t>
+  </si>
+  <si>
+    <t>Check data fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 3 record</t>
+    </r>
+  </si>
+  <si>
+    <t>Checks if the information on the rows matches the column name or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information displayed is correct with the field name:
+1."No." : automatically increments by 1, starting from 1.
+2. "Title": thumbnail and title.
+3. "Capsule": Total capsule of this learning.
+4."Status": hide/Draft/Public and matching icons.
+5."Date" column: Displays the posted time or last modified time, specify hour, minute, day, month, year.
+</t>
+  </si>
+  <si>
+    <t>LE_10</t>
+  </si>
+  <si>
+    <t>Check "Actions" button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Hover on "Actions" button.
+2. Click "Actions".
+3. Check the functions shown in the action panel.</t>
+  </si>
+  <si>
+    <t>1. Default Background color: #3699ff.
+when hover : Background-color : #62aa2a.
+2. The functions appear: Detail, public, hide, Draft, Edit, Delete, show capsules, new capsule.</t>
+  </si>
+  <si>
+    <t>LE_11</t>
+  </si>
+  <si>
+    <t>Check the show detail function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+3.Click "Detail".</t>
+  </si>
+  <si>
+    <t>1.Show learning details incude: Title, Tags, create date, create by, Lasted update, Updated by, Duration, Status, Thumbnail, Background.
+2.The path on the "card-header " is correct.
+3.Correct spelling.</t>
+  </si>
+  <si>
+    <t>LE_12</t>
+  </si>
+  <si>
+    <t>Check the status change function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Hide/Public/Draft.</t>
+  </si>
+  <si>
+    <t>Update the data in the table: change the status column to the selected state.</t>
+  </si>
+  <si>
+    <t>LE_13</t>
+  </si>
+  <si>
+    <t>Check editing is successful.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. edit text in title, description.
+4.edit Tags or add new tag.
+5.Edit Thumbnail, Background
+6. click SUBMIT.</t>
+  </si>
+  <si>
+    <t>1. Open interface that allows successful editing of information.
+2. Allows entering text in the title, description boxes.
+3.Allows create New Tag.
+4.Access the user's computer to upload new photos.
+5. When click Submit: 
+ Go to the all modules interface.</t>
+  </si>
+  <si>
+    <t>Title: Master Learning.
+Description: String.
+Thumbnail: https://nmbdev.blob.core.windows.net/blob-test/su-tich-hoa-huong-duong-696cd3c4-9df1-442f-9ade-f98dd9e6860e.jpg
+Background: https://nmbdev.blob.core.windows.net/blob-test/21158728-41e4a48f-1946-44c5-9db9-8c02eca74e2c.jpg</t>
+  </si>
+  <si>
+    <t>LE_14</t>
+  </si>
+  <si>
+    <t>Check editing is failed.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. Delete all existing data of the module.
+4. Click submit.</t>
+  </si>
+  <si>
+    <t>Error message: 
+  - Title is required .
+ - Description is required.
+ - Thumbnail is requied.
+ - Background is required.
+ Edit failed.</t>
+  </si>
+  <si>
+    <t>LE_15</t>
+  </si>
+  <si>
+    <t>Check for delete functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click delete.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>Ask again, if you agree, delete.</t>
+  </si>
+  <si>
+    <t>LE_16</t>
+  </si>
+  <si>
+    <t>Check for show capsules functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Show capsules.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>Show capsules information  of module if exist.</t>
+  </si>
+  <si>
+    <t>LE_17</t>
+  </si>
+  <si>
+    <t>Check create capsule for learning functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click "New capsule".
+3.Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to interface to create capsule for that learning.
+At this interface, there is no need to choose learning.
+</t>
+  </si>
+  <si>
+    <t>LE_18</t>
+  </si>
+  <si>
+    <t>Checks the line that describes the number 
+of displayed and existing records.
+ Record management function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 11 record.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose page size  5/10/20.
+2.Check screen.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If number of modules &gt; page size will display the page number and press the next button to view the next page.
+Show: 
+ "Showing from … to … of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total number of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_19</t>
+  </si>
+  <si>
+    <t>New Learning</t>
+  </si>
+  <si>
+    <t>Check the path on the card-header</t>
+  </si>
+  <si>
+    <t>Open the "New Learning" interface successfully</t>
+  </si>
+  <si>
+    <t>1. Click New Learning.
+2. Check the path.</t>
+  </si>
+  <si>
+    <t>Path indicates the current location:
+ Dashboard &gt; Learning&gt; Create Learning.</t>
+  </si>
+  <si>
+    <t>LE_20</t>
+  </si>
+  <si>
+    <t>Create new learning successful</t>
+  </si>
+  <si>
+    <t>1. Enter information.
+2. Click "Submit" or "Submit and add new"</t>
+  </si>
+  <si>
+    <t>1.Notification: "Create successful ".
+2. click submit -&gt;  Detail  interface of this learning.
+   Click Submit and add new - &gt; New learning interface.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Title: Test Learning
+Description: No Description.
+Tags : Tag01.
+Thumbnail: </t>
   </si>
 </sst>
 </file>
@@ -1306,7 +2733,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1384,11 +2811,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,6 +2867,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1444,14 +2888,17 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1763,10 +3210,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -1810,21 +3257,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
     </row>
     <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
@@ -1940,7 +3387,7 @@
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="17" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1969,7 +3416,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1996,7 +3443,7 @@
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="17"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -2023,7 +3470,7 @@
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="17"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2105,7 +3552,7 @@
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="20" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2134,7 +3581,7 @@
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -2161,7 +3608,7 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="20"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -2188,7 +3635,7 @@
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -2215,7 +3662,7 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="20"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -2242,7 +3689,7 @@
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -2269,7 +3716,7 @@
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -2296,7 +3743,7 @@
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -2323,7 +3770,7 @@
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="20"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -2350,7 +3797,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -2377,7 +3824,7 @@
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="20"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -2404,7 +3851,7 @@
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -2431,7 +3878,7 @@
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="20"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -2458,7 +3905,7 @@
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -2485,7 +3932,7 @@
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="20"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -2818,10 +4265,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17"/>
+      <c r="I2" s="19"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -2932,7 +4379,7 @@
       <c r="E6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2958,7 +4405,7 @@
       <c r="E7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -3005,10 +4452,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3017,7 +4464,7 @@
     <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
     <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="5" max="5" width="40.88671875" customWidth="1"/>
     <col min="6" max="6" width="26.5546875" customWidth="1"/>
     <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
@@ -3025,10 +4472,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+      <c r="H2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -3075,13 +4522,13 @@
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="22" t="s">
         <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3101,13 +4548,11 @@
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B5" s="20"/>
       <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3127,9 +4572,7 @@
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="B6" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B6" s="20"/>
       <c r="C6" s="6" t="s">
         <v>171</v>
       </c>
@@ -3153,9 +4596,7 @@
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="B7" s="12" t="s">
-        <v>138</v>
-      </c>
+      <c r="B7" s="20"/>
       <c r="C7" s="6" t="s">
         <v>176</v>
       </c>
@@ -3163,10 +4604,10 @@
         <v>27</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>177</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>144</v>
@@ -3177,22 +4618,20 @@
     </row>
     <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="6" t="s">
         <v>179</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>180</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>144</v>
@@ -3203,22 +4642,22 @@
     </row>
     <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>183</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>184</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>185</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>186</v>
+        <v>242</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>144</v>
@@ -3229,22 +4668,20 @@
     </row>
     <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>184</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="B10" s="20"/>
       <c r="C10" s="6" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>190</v>
+        <v>244</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>144</v>
@@ -3255,22 +4692,22 @@
     </row>
     <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>192</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>193</v>
+        <v>188</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>144</v>
@@ -3281,22 +4718,20 @@
     </row>
     <row r="12" spans="1:13" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="B12" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="6" t="s">
         <v>193</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>198</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>144</v>
@@ -3307,22 +4742,20 @@
     </row>
     <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B13" s="12" t="s">
-        <v>193</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B13" s="20"/>
       <c r="C13" s="6" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>144</v>
@@ -3333,22 +4766,20 @@
     </row>
     <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>193</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="B14" s="20"/>
       <c r="C14" s="6" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>144</v>
@@ -3359,22 +4790,22 @@
     </row>
     <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>209</v>
+        <v>201</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>202</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>144</v>
@@ -3385,22 +4816,20 @@
     </row>
     <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="B16" s="20"/>
       <c r="C16" s="6" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>215</v>
+        <v>248</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>144</v>
@@ -3411,22 +4840,20 @@
     </row>
     <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>217</v>
-      </c>
-      <c r="B17" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="6" t="s">
         <v>209</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>144</v>
@@ -3437,22 +4864,20 @@
     </row>
     <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>209</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B18" s="20"/>
       <c r="C18" s="6" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>144</v>
@@ -3463,22 +4888,22 @@
     </row>
     <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>226</v>
+        <v>214</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>215</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>144</v>
@@ -3489,23 +4914,790 @@
     </row>
     <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>226</v>
-      </c>
+        <v>218</v>
+      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="6" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>225</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
         <v>232</v>
       </c>
+      <c r="B25" s="20"/>
+      <c r="C25" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="6" t="s">
+        <v>235</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B15:B18"/>
+    <mergeCell ref="B11:B14"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B4:B8"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38E893BC-6A88-4FCA-8C1B-3FA3F7E48C7B}">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.21875" customWidth="1"/>
+    <col min="3" max="3" width="42" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" customWidth="1"/>
+    <col min="5" max="5" width="35.77734375" customWidth="1"/>
+    <col min="6" max="6" width="31.44140625" customWidth="1"/>
+    <col min="7" max="7" width="35.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="19.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="21"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="112.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>272</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>274</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="B6" s="24"/>
+      <c r="C6" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B7" s="24"/>
+      <c r="C7" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B8" s="24"/>
+      <c r="C8" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="24"/>
+      <c r="C9" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="100.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="B10" s="24"/>
+      <c r="C10" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="225.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="B11" s="24"/>
+      <c r="C11" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="166.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="B12" s="24"/>
+      <c r="C12" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="B13" s="24"/>
+      <c r="C13" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>322</v>
+      </c>
+      <c r="B14" s="24"/>
+      <c r="C14" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="186.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="B15" s="24"/>
+      <c r="C15" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B16" s="24"/>
+      <c r="C16" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>335</v>
+      </c>
+      <c r="B17" s="24"/>
+      <c r="C17" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="99" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B18" s="24"/>
+      <c r="C18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="B19" s="24"/>
+      <c r="C19" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="121.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B20" s="24"/>
+      <c r="C20" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="2" t="s">
         <v>144</v>
       </c>
@@ -3513,9 +5705,64 @@
         <v>144</v>
       </c>
     </row>
+    <row r="21" spans="1:9" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="110.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="H2:I2"/>
+  <mergeCells count="2">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3F9077D-6984-4A75-AEB7-BBE7DAF77886}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBC9F1-4054-4BEB-89CD-776FEE0F9F50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
+    <sheet name="POST" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="331">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1232,12 +1233,601 @@
     <t>Check the event
  when clicking 'New Group'</t>
   </si>
+  <si>
+    <t>PO-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang ALL POST</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Kiểm tra kết quả màn hình trên header 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Mockup</t>
+  </si>
+  <si>
+    <t>PO-AD-002</t>
+  </si>
+  <si>
+    <t>PO-AD-003</t>
+  </si>
+  <si>
+    <t>PO-AD-004</t>
+  </si>
+  <si>
+    <t>PO-AD-005</t>
+  </si>
+  <si>
+    <t>PO-AD-006</t>
+  </si>
+  <si>
+    <t>Trang ALL POST</t>
+  </si>
+  <si>
+    <t>Kiểm tra đường dẫn trên header hiển thị chính xác.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một bản ghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Màn hình hiện ra đường dẫn trên header:'Dashboard &gt; Post'.
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra button có tên "Create New" khi được hover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một bản ghi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm tới button "Create New" 
+4. Hover vào button "Create New" 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy button "Create New" 
+4. Button có màu nền là: '#62aa2a'
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra khi nhấn vào button có tên "Create New" giao diện trang 'Create New Post' được hiện ra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm tới button "Create New" 
+4. Nhấn vào button "Create New" 
+5. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy button "Create New" 
+4. Cho phép nhấn vào button "Create New"
+5. Màn hình hiện ra giao diện trang New
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra nội dung tiêu đề hiển thị </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến tiêu đề của bảng
+4. Kiểm tra nội dung tiêu đề, font chữ, cỡ chữ, màu sắc.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy tiêu đề của bảng
+4. Nội dung tiêu đề hiển thị chính xác, font chữ, cỡ chữ, màu sắc hiển thị đúng.
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra  tiêu đề của bảng khi được hover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm thấy tiêu đề của bảng
+4. Hover vào tiêu đề của bảng
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy tiêu đề của bảng
+4. Background của tiêu đề được có màu: '#f3f2f1'
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra Số thứ tự được tăng lần lượt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm danh sánh số thứ tự nội dung của từng hàng hàng
+4. Kiểm tra số thứ tự có được tăng lần lượt
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy  danh sánh số thứ tự nội dung của từng hàng hàng
+4. Số thứ tự bắt đầu từ 1 và được tăng lần lượt thêm 1 đơn vị.
+</t>
+  </si>
+  <si>
+    <t>PO-AD-007</t>
+  </si>
+  <si>
+    <t>Kiểm tra các thành phần trong mục Author</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Author
+4. Kiểm tra mục thành phần trong mục Author
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Author
+4. Trong mục Author bao gồm Avatar, Họ và tên
+</t>
+  </si>
+  <si>
+    <t>PO-AD-008</t>
+  </si>
+  <si>
+    <t>Kiểm tra trong mục Author khi nhấn vào avatar hiển thị các thông tin của user được chọn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Author
+4. Nhấn vào một Avatar
+5. Kiểm tra các trường Profile, Information, About me.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Author
+4. Cho phép nhấn vào avatar
+5. Trong mục: 
+    -   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Profile: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hiển thị ảnh avatar, ảnh bìa, tên user, số lượt post, số bạn bè.
+     -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Information: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">hiển thị họ và tên, ngày sinh, giới tính, số điện thoại, Email, Địa chỉ,'Verified?',
+'Locked?', 'Blocked?' 
+      -  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Contact Information:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hiển thị Email, số điện thoại, đại chỉ
+</t>
+    </r>
+  </si>
+  <si>
+    <t>PO-AD-009</t>
+  </si>
+  <si>
+    <t>Kiểm tra các thành phần có trong mục content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Content
+4. Kiểm tra các phần có trong Content là: nội dung content, trạng thái của content, Lượt like và lượt bình luận
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Content
+4. Trong mục Content bao gồm các hành phần: nội dung content, trạng thái của content, Lượt like và lượt bình luận được hiển thị.</t>
+  </si>
+  <si>
+    <t>PO-AD-010</t>
+  </si>
+  <si>
+    <t>Kiểm tra Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Tags
+4. Kiểm tra nội dung thẻ tag
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục  Tags
+4. Hiển thị nội dung tag</t>
+  </si>
+  <si>
+    <t>PO-AD-011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra trường  Visible </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Visible 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Hiển thị icon mắt có chế độ là 'Hide' hoặc 'Unhide' </t>
+  </si>
+  <si>
+    <t>PO-AD-012</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Date
+4. Kiểm tra trường Date có thời gian: chỉnh sửa lần cuối(Last Modified) hoặc thời gian đăng(Published), giờ phút đăng, ngày tháng năm đăng.
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Date
+4. Trường Date  hiển thị  thời gian gồm: chỉnh sửa lần cuối(Last Modified) hoặc thời gian đăng(Published), giờ phút đăng, ngày tháng năm đăng</t>
+  </si>
+  <si>
+    <t>PO-AD-013</t>
+  </si>
+  <si>
+    <t>Kiểm tra button Action khi chọn vào Detail</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Detail
+6. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Actions
+4. Cho phép nhấn button Actions
+5. Cho phép nhấn Detail
+6. Màn hình chuyển đến chi tiết bài post</t>
+  </si>
+  <si>
+    <t>PO-AD-014</t>
+  </si>
+  <si>
+    <t>Kiểm tra button Action khi chọn vào Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một bản ghi
+3. Phần Visible có trạng thái là Unhide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Hide
+6. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Actions
+4. Cho phép nhấn button Actions
+5. Cho phép nhấn Hide
+6. Trong phần 'Visible' chế độ unhide chuyển sang hide</t>
+  </si>
+  <si>
+    <t>PO-AD-015</t>
+  </si>
+  <si>
+    <t>Kiểm tra button  Action khi chọn vào Unhide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một bản ghi
+3. Phần Visible có trạng thái là Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Unhide
+6. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Actions
+4. Cho phép nhấn button Actions
+5. Cho phép nhấn Unhide
+6. Trong phần 'Visible' chế độ Hide chuyển sang Unhide</t>
+  </si>
+  <si>
+    <t>PO-AD-016</t>
+  </si>
+  <si>
+    <t>Kiểm tra button khi chọn vào Edit cho phép chỉnh sửa content thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Edit
+6. Viết thêm chữ vào content
+7. Nhấn vào Submit
+8. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Actions
+4. Cho phép nhấn button Actions
+5. Cho phép nhấn Edit, màn hình chuyển đến bài viết được chọn để thực hiện chỉnh sửa 
+6. Cho phép nhập thêm chữ vào content
+7. Cho Phép nhấn Submit
+8. Thông báo cập nhật bài viết thành công</t>
+  </si>
+  <si>
+    <t>PO-AD-017</t>
+  </si>
+  <si>
+    <t>Kiểm tra button khi chọn vào 'Delete' xóa bài viết thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào ALL POST
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Delete
+6. Nhấn vào Confirm
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Tìm thấy mục Actions
+4. Cho phép nhấn button Actions
+5. Cho phép nhấn vào Delete
+6. Cho phép nhấn Confirm
+7. Màn hình hiện thông báo: 'Delete post success.'</t>
+  </si>
+  <si>
+    <t>Trang Create New Post</t>
+  </si>
+  <si>
+    <t>CN-PO-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra đường dẫn trên 'header-content' với trang Create New Post</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập thành công vào giao diện trang addmin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào Create New Post
+3. Kiểm tra đường dẫn trên 'header-content'
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Đường đẫn hiển thị chính xác chỏ tới từng mục 'Dashboard &gt; Post &gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'</t>
+    </r>
+  </si>
+  <si>
+    <t>CN-PO-AD-002</t>
+  </si>
+  <si>
+    <t>Thực tạo mới một bài Post thành công(Create New Post)</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập thành công vào giao diện trang addmin
+2. Có một Sẵn một file upload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào Create New Post
+3. Nhập nội dung vào trường Content
+4. Nhập nội dung tag vào ô New Tag
+5. Chọn một 'Group'
+6. Trong mục 'Attachments' nhấn chọn tải file
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Cho phép nhập nội dung vào ô trường Content
+4. Cho phép nhập nội dung vào trường New tag
+5. Cho phép chọn 1 Group bất kỳ
+6. Cho phép tải file thành công
+7. Bài viết được tạo thành công</t>
+  </si>
+  <si>
+    <t>CN-PO-AD-003</t>
+  </si>
+  <si>
+    <t>Thực hiện tạo mới bài Post không thành công khi để trống Content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Đăng nhập thành công vào giao diện trang addmin
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào Create New Post
+3. Nhấn Submit.
+4. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Màn hình hiển thị thông báo:'Content is required.' và xung quang content được border màu đỏ
+</t>
+  </si>
+  <si>
+    <t>CN-PO-AD-004</t>
+  </si>
+  <si>
+    <t>Thực hiện Upload file không thành công khi dung lượng quá lớn</t>
+  </si>
+  <si>
+    <t>1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một file dung lượng lớn (15,6 MB )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Di chuột vào POST trên thanh menu đứng
+2. Nhấn vào Create New Post
+3. Nhập nội dung vào trường Content
+4. Nhập nội dung tag vào ô New Tag
+5. Chọn một 'Group'
+6. Trong mục 'Attachments' nhấn chọn tải file 'Click to upload'
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Cho phép nhập nội dung vào ô trường Content
+4. Cho phép nhập nội dung vào trường New tag
+5. Cho phép chọn 1 Group bất kỳ
+6. Cho phép tải file 
+7. Bài viết được tạo. File Upload không thành công. Hiển thị thông báo 'Dung lượng file quá lớn'</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang
+ 'Create New Post'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1273,8 +1863,53 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1305,8 +1940,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1384,11 +2031,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1429,6 +2087,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1444,14 +2120,29 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1745,30 +2436,30 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.77734375" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
-    <col min="4" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="46.21875" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.77734375" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.77734375" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1809,24 +2500,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="14" t="s">
+    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-    </row>
-    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+    </row>
+    <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -1852,7 +2543,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -1878,7 +2569,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -1907,7 +2598,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -1936,11 +2627,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -1965,11 +2656,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="15"/>
+      <c r="B10" s="21"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -1992,11 +2683,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="15"/>
+      <c r="B11" s="21"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -2019,11 +2710,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="15"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -2046,7 +2737,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -2072,7 +2763,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -2101,11 +2792,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="24" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -2130,11 +2821,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="18"/>
+      <c r="B16" s="24"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -2157,11 +2848,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="18"/>
+      <c r="B17" s="24"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -2184,11 +2875,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="18"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -2211,11 +2902,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="18"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -2238,11 +2929,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="18"/>
+      <c r="B20" s="24"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -2265,11 +2956,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="18"/>
+      <c r="B21" s="24"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -2292,11 +2983,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="18"/>
+      <c r="B22" s="24"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -2319,11 +3010,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="18"/>
+      <c r="B23" s="24"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -2346,11 +3037,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="18"/>
+      <c r="B24" s="24"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -2373,11 +3064,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="18"/>
+      <c r="B25" s="24"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -2400,11 +3091,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="18"/>
+      <c r="B26" s="24"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -2427,11 +3118,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="18"/>
+      <c r="B27" s="24"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -2454,11 +3145,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="18"/>
+      <c r="B28" s="24"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -2481,11 +3172,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="94.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="18"/>
+      <c r="B29" s="24"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -2508,7 +3199,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -2537,7 +3228,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -2566,217 +3257,217 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="5"/>
     </row>
   </sheetData>
@@ -2800,30 +3491,30 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.21875" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.21875" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.77734375" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.21875" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="17"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="23"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +3555,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>137</v>
       </c>
@@ -2890,7 +3581,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="67.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
@@ -2916,7 +3607,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>148</v>
       </c>
@@ -2932,7 +3623,7 @@
       <c r="E6" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F6" s="19" t="s">
+      <c r="F6" s="14" t="s">
         <v>151</v>
       </c>
       <c r="H6" s="2" t="s">
@@ -2942,7 +3633,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
@@ -2958,7 +3649,7 @@
       <c r="E7" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="14" t="s">
         <v>155</v>
       </c>
       <c r="H7" s="2" t="s">
@@ -2968,7 +3659,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -3007,30 +3698,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.21875" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="16" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3071,7 +3762,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -3081,7 +3772,7 @@
       <c r="C4" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D4" s="21" t="s">
+      <c r="D4" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E4" s="5" t="s">
@@ -3097,7 +3788,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
@@ -3107,7 +3798,7 @@
       <c r="C5" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="D5" s="15" t="s">
         <v>139</v>
       </c>
       <c r="E5" s="5" t="s">
@@ -3123,7 +3814,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
@@ -3149,7 +3840,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
@@ -3175,7 +3866,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>179</v>
       </c>
@@ -3201,7 +3892,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>183</v>
       </c>
@@ -3227,7 +3918,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>188</v>
       </c>
@@ -3253,7 +3944,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>192</v>
       </c>
@@ -3279,7 +3970,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>197</v>
       </c>
@@ -3305,7 +3996,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>201</v>
       </c>
@@ -3331,7 +4022,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>204</v>
       </c>
@@ -3357,7 +4048,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -3383,7 +4074,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
@@ -3409,7 +4100,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>217</v>
       </c>
@@ -3435,7 +4126,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
@@ -3461,7 +4152,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>225</v>
       </c>
@@ -3487,7 +4178,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
@@ -3519,4 +4210,687 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
+  <dimension ref="A1:M24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>235</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="B4" s="31"/>
+      <c r="C4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="B5" s="31"/>
+      <c r="C5" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="31"/>
+      <c r="C6" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="B7" s="31"/>
+      <c r="C7" s="19" t="s">
+        <v>257</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="B8" s="31"/>
+      <c r="C8" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10" s="31"/>
+      <c r="C10" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="B11" s="31"/>
+      <c r="C11" s="19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>275</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="19" t="s">
+        <v>276</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>279</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="19" t="s">
+        <v>280</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>283</v>
+      </c>
+      <c r="B14" s="31"/>
+      <c r="C14" s="19" t="s">
+        <v>284</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>291</v>
+      </c>
+      <c r="B16" s="31"/>
+      <c r="C16" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="19" t="s">
+        <v>297</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>305</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>309</v>
+      </c>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+    </row>
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>330</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>311</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="B22" s="27"/>
+      <c r="C22" s="19" t="s">
+        <v>316</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="B3:B19"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBC9F1-4054-4BEB-89CD-776FEE0F9F50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82C907DB-D9D8-47AE-8B40-7266A5DFAC60}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
-    <sheet name="POST" sheetId="4" r:id="rId4"/>
+    <sheet name="LEARNING" sheetId="5" r:id="rId4"/>
+    <sheet name="POST" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="538">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1222,11 +1223,6 @@
     <t>FU_AD_17</t>
   </si>
   <si>
-    <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
-Step 2: Click "New Group" button.
-Step 3: Check screen.</t>
-  </si>
-  <si>
     <t>Display interface to create  a new Group.</t>
   </si>
   <si>
@@ -1821,6 +1817,1688 @@
   <si>
     <t>Kiểm tra giao diện trang
  'Create New Post'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "FORUMS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Group</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>FU_AD_18</t>
+  </si>
+  <si>
+    <t>USERS button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Users'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "USERS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Displays the table containing the list of  Users.</t>
+  </si>
+  <si>
+    <t>FU_AD_19</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "USERS" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New Users</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Appears a form to fill in information to create a new user.</t>
+  </si>
+  <si>
+    <t>FU_AD_20</t>
+  </si>
+  <si>
+    <t>ADMINISTRATOR button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Accounts'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Accounts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Displays the table containing the list of Administrators information.</t>
+  </si>
+  <si>
+    <t>FU_AD_21</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Create new account'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Create new account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the interface to create a new account.</t>
+  </si>
+  <si>
+    <t>FU_AD_22</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Roles'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "ADMINISTRATOR" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Roles</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>The interface switches to the table containing the roles information.</t>
+  </si>
+  <si>
+    <t>NOTIFICATION button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Notifications'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notifications</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>The interface switches to the table containing the notifications.</t>
+  </si>
+  <si>
+    <t>FU_AD_23</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>New</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notification</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the view to create a new notification</t>
+  </si>
+  <si>
+    <t>FU_AD_24</t>
+  </si>
+  <si>
+    <t>SETTING button</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Site Configuration'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Site Configuration</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the website configuration settings interface</t>
+  </si>
+  <si>
+    <t>FU_AD_25</t>
+  </si>
+  <si>
+    <t>Check the event
+ when clicking 'Language'</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:Hover the mouse on the "NOTIFICATION" button on the vertical menu.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Language</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>Go to the language settings interface</t>
+  </si>
+  <si>
+    <t>LE_01</t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>Check the path on the "card-header "</t>
+  </si>
+  <si>
+    <t>The dashboard displays successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Allow hover on learning button.
+2. Allow click on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+3. Correct path : 
+"Dashboard &gt; Learning".
+Background Color : #f0f3f5.</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_02</t>
+  </si>
+  <si>
+    <t>Check the 'Create new' button on the "card-header"</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+Step 4: Hover on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 5: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The button's default color is: #3699ff.
+2. On hover, the color is: #62aa2a.</t>
+  </si>
+  <si>
+    <t>LE_03</t>
+  </si>
+  <si>
+    <t>Check out the data fields</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check if the data fields are complete.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Displays a table containing the modules information.
+2. The full range of columns: 
+No., Title, Duration, Capsules, Status, Tags, Date, Action.</t>
+  </si>
+  <si>
+    <t>LE_04</t>
+  </si>
+  <si>
+    <t>Check data filtering by title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Focus mouse on the title box.
+Step 2: In turn enter the values ​​in column G into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Allows data entry.
+2. Allows  click the Apply button.
+3.Filtered data related to the data entered.
+4. If left empty, do not filter.
+5.If the data entry does not exist, message: "There are no records"</t>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'learning'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_05</t>
+  </si>
+  <si>
+    <t>Check data filtering by Status</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the combobox under status.
+Step 2: choose Status.
+Step 3: Check the filtered results</t>
+  </si>
+  <si>
+    <t>1.Allows clicking on the combobox.
+2.Shows a list of options: Public, Hide, Draft.
+3. Filters the correct data for the selected state.</t>
+  </si>
+  <si>
+    <t>LE_06</t>
+  </si>
+  <si>
+    <t>Check data filtering by Tags</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Focus mouse on the Tags box.
+Step 2: In turn enter the values ​​in column G into the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'string'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_07</t>
+  </si>
+  <si>
+    <t>Check data filtering</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Enter the information in column G in turn into the fields to be filled in.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: Information of the line already exists
+Round 3: Any information does not exist in the table.</t>
+  </si>
+  <si>
+    <t>LE_08</t>
+  </si>
+  <si>
+    <t>Check clear button functionality</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:enter any data in the title box
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Show clear button.
+2.Blank data cells on the data filter area.</t>
+  </si>
+  <si>
+    <t>LE_09</t>
+  </si>
+  <si>
+    <t>Check data fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 3 record</t>
+    </r>
+  </si>
+  <si>
+    <t>Checks if the information on the rows matches the column name or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information displayed is correct with the field name:
+1."No." : automatically increments by 1, starting from 1.
+2. "Title": thumbnail and title.
+3. "Capsule": Total capsule of this learning.
+4."Status": hide/Draft/Public and matching icons.
+5."Date" column: Displays the posted time or last modified time, specify hour, minute, day, month, year.
+</t>
+  </si>
+  <si>
+    <t>LE_10</t>
+  </si>
+  <si>
+    <t>Check "Actions" button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Hover on "Actions" button.
+2. Click "Actions".
+3. Check the functions shown in the action panel.</t>
+  </si>
+  <si>
+    <t>1. Default Background color: #3699ff.
+when hover : Background-color : #62aa2a.
+2. The functions appear: Detail, public, hide, Draft, Edit, Delete, show capsules, new capsule.</t>
+  </si>
+  <si>
+    <t>LE_11</t>
+  </si>
+  <si>
+    <t>Check the show detail function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+3.Click "Detail".</t>
+  </si>
+  <si>
+    <t>1.Show learning details incude: Title, Tags, create date, create by, Lasted update, Updated by, Duration, Status, Thumbnail, Background.
+2.The path on the "card-header " is correct.
+3.Correct spelling.</t>
+  </si>
+  <si>
+    <t>LE_12</t>
+  </si>
+  <si>
+    <t>Check the status change function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Hide/Public/Draft.</t>
+  </si>
+  <si>
+    <t>Update the data in the table: change the status column to the selected state.</t>
+  </si>
+  <si>
+    <t>LE_13</t>
+  </si>
+  <si>
+    <t>Check editing is successful.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. edit text in title, description.
+4.edit Tags or add new tag.
+5.Edit Thumbnail, Background
+6. click SUBMIT.</t>
+  </si>
+  <si>
+    <t>1. Open interface that allows successful editing of information.
+2. Allows entering text in the title, description boxes.
+3.Allows create New Tag.
+4.Access the user's computer to upload new photos.
+5. When click Submit: 
+ Go to the all modules interface.</t>
+  </si>
+  <si>
+    <t>Title: Master Learning.
+Description: String.
+Thumbnail: https://nmbdev.blob.core.windows.net/blob-test/su-tich-hoa-huong-duong-696cd3c4-9df1-442f-9ade-f98dd9e6860e.jpg
+Background: https://nmbdev.blob.core.windows.net/blob-test/21158728-41e4a48f-1946-44c5-9db9-8c02eca74e2c.jpg</t>
+  </si>
+  <si>
+    <t>LE_14</t>
+  </si>
+  <si>
+    <t>Check editing is failed.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. Delete all existing data of the module.
+4. Click submit.</t>
+  </si>
+  <si>
+    <t>Error message: 
+  - Title is required .
+ - Description is required.
+ - Thumbnail is requied.
+ - Background is required.
+ Edit failed.</t>
+  </si>
+  <si>
+    <t>LE_15</t>
+  </si>
+  <si>
+    <t>Check for delete functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click DELETE.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1.Ask again, if you agree, delete.
+2.Update the table with the appropriate number of records</t>
+  </si>
+  <si>
+    <t>LE_16</t>
+  </si>
+  <si>
+    <t>Check for show capsules functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Show capsules.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>Show capsules information  of module if exist.</t>
+  </si>
+  <si>
+    <t>LE_17</t>
+  </si>
+  <si>
+    <t>Check create capsule for learning functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click "New capsule".
+3.Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to interface to create capsule for that learning.
+At this interface, there is no need to choose learning.
+</t>
+  </si>
+  <si>
+    <t>LE_18</t>
+  </si>
+  <si>
+    <t>Checks the line that describes the number 
+of displayed and existing records.
+ Record management function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 11 record.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose page size  5/10/20.
+2.Check screen.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If number of modules &gt; page size will display the page number and press the next button to view the next page.
+Show: 
+ "Showing from … to … of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total number of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_19</t>
+  </si>
+  <si>
+    <t>New Learning</t>
+  </si>
+  <si>
+    <t>Check the path on the card-header</t>
+  </si>
+  <si>
+    <t>Open the "New Learning" interface successfully</t>
+  </si>
+  <si>
+    <t>1. Click New Learning.
+2. Check the path.</t>
+  </si>
+  <si>
+    <t>Path indicates the current location:
+ Dashboard &gt; Learning&gt; Create Learning.</t>
+  </si>
+  <si>
+    <t>LE_20</t>
+  </si>
+  <si>
+    <t>Create new learning successfully.
+(Have Tag)</t>
+  </si>
+  <si>
+    <t>1. Enter information in column G.
+2. Click "Submit" or "Submit and add new"</t>
+  </si>
+  <si>
+    <t>1.Notification: "Create successful ".
+2. click submit -&gt;  Detail  interface of this learning.
+   Click Submit and add new - &gt; New learning interface.
+3. - New learning must have all completed information:
+title, description, tags, thumbnail, background.</t>
+  </si>
+  <si>
+    <t>Title: Test Learning
+Description: No Description.
+Tags : Tag01.
+Thumbnail:  image size &lt;= 2MB.
+Background: image size &lt;= 2MB.</t>
+  </si>
+  <si>
+    <t>Create new learning successfully.
+(Don't have tag)</t>
+  </si>
+  <si>
+    <t>1.Notification: "Create successful ".
+2. click submit -&gt;  Detail  interface of this learning.
+   Click Submit and add new - &gt; New learning interface.</t>
+  </si>
+  <si>
+    <t>Title: Test Learning
+Description: No Description.
+Thumbnail: image size &lt;= 2MB.
+Background:  image size &lt;= 2MB.</t>
+  </si>
+  <si>
+    <t>LE_21</t>
+  </si>
+  <si>
+    <t>Create new learning failed.
+(Missing error information)</t>
+  </si>
+  <si>
+    <t>1.Show error message: 
+- "Title is requied"
+- "Description is requied".
+- "Thumbnail is requied".
+- "Background is requied".
+2. Create failed.</t>
+  </si>
+  <si>
+    <t>Leave the information fields blank in turn, the rest get the information in cell G23.</t>
+  </si>
+  <si>
+    <t>LE_22</t>
+  </si>
+  <si>
+    <t>Create new learning failed.
+(Upload pictures or files that are too sized)</t>
+  </si>
+  <si>
+    <t>1.Show error message: 
+- "Thumbnail over size".
+- "Background over size".
+2. Create failed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: Test Learning
+Description: No Description.
+Tags : Tag01.
+Thumbnail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image size&gt; 2mb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Background:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Image size&gt; 2mb</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_23</t>
+  </si>
+  <si>
+    <t>ALL CAPSULES</t>
+  </si>
+  <si>
+    <t>Check out the look, layout, path</t>
+  </si>
+  <si>
+    <t>Open the "All Capsules" interface successfully</t>
+  </si>
+  <si>
+    <t>1.Check the path on the card header.
+2.Check that the fields in the Capsules table are correct.</t>
+  </si>
+  <si>
+    <t>1.The path is only correct at the current location.
+2. Show full information: Title, Duration, Status, Date, Actions.
+3.The first line contains cells to enter filter information.</t>
+  </si>
+  <si>
+    <t>LE_24</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when entering only the title</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.There is a filter input box</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter information in comlumn G.
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The capsules can be filtered with titles related to the title entered.
+2. All states are accepted.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: a
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_25</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when choose only the status</t>
+  </si>
+  <si>
+    <t>1. The capsules can be filtered with selected state.
+2. All titles are accepted.</t>
+  </si>
+  <si>
+    <r>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: hide/Public/Draft.</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_26</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when blank</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Show all capsules.</t>
+  </si>
+  <si>
+    <r>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test filtered successfully
+when there is no satisfying capsule </t>
+  </si>
+  <si>
+    <t>Notification: There are no records.</t>
+  </si>
+  <si>
+    <t>Title: No record/////.
+Status: Draft</t>
+  </si>
+  <si>
+    <t>Check the Clear function</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.There is a filter input box.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter information in comlumn G.
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Blanking the input fields in the filter</t>
+  </si>
+  <si>
+    <t>Title: abcngldcj
+Status: Draft</t>
+  </si>
+  <si>
+    <t>LE_28</t>
+  </si>
+  <si>
+    <t>Functional test show details</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.exists at least 1 record.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Hover on "Detail".
+3. Click "Detail".
+4. Click "Info" icon.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Detail button change Background-Color.
+3. Show title, description, Attachment.
+4. Show: Create date, Create user, Latest update, Update user, Duration, status, thumbnail, background.</t>
+  </si>
+  <si>
+    <t>LE_29</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click Hide/Draft/Public.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Hide/Draft/Public.</t>
+  </si>
+  <si>
+    <t>LE_30</t>
+  </si>
+  <si>
+    <t>Check editing functionality</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click EDIT.
+3. Edit information.
+4. Click Submit.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click EDIT.
+3. Switch to the editing interface and default information is capsule to edit.
+4. check information and announcements.</t>
+  </si>
+  <si>
+    <t>LE_31</t>
+  </si>
+  <si>
+    <t>Check delete successfully</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click DELETE.
+3. Click Confirm.
+4. Check screen</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Delete.
+3. Allow click confirm and announcements.
+4.Delete successfull and update information.</t>
+  </si>
+  <si>
+    <t>LE_32</t>
+  </si>
+  <si>
+    <t>Check delete failed</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click DELETE.
+3. Click cancel.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Delete.
+3. Allow click cancel and delete failed.</t>
+  </si>
+  <si>
+    <t>LE_33</t>
+  </si>
+  <si>
+    <t>Check record after delete successful</t>
+  </si>
+  <si>
+    <t>1.exists at least 6 record.
+2. Delete successful</t>
+  </si>
+  <si>
+    <t>1. Click DELETE.
+2. Click Confirm.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1. Total records change.
+2. order of change.</t>
+  </si>
+  <si>
+    <t>LE_34</t>
+  </si>
+  <si>
+    <t>New Capsule.</t>
+  </si>
+  <si>
+    <t>Create capsules successful</t>
+  </si>
+  <si>
+    <t>1.Open the "New Capsule" interface successfully.</t>
+  </si>
+  <si>
+    <t>1. Hover on LEARNING.
+2. Click New Capsule.
+3.Enter information in column G.
+4. Click Submit.</t>
+  </si>
+  <si>
+    <t>1.Create successful.
+2. Go to All capsule interface.</t>
+  </si>
+  <si>
+    <t>1.Title: Capsule0001
+  Duration : 30
+  Description: This is new capsule.
+  Learning: Test Learning 1.
+  Attacment: max size = 5MB
+  Thumbnail: max size = 2MB
+  Background: max size = 2MB</t>
+  </si>
+  <si>
+    <t>Create capsules failed</t>
+  </si>
+  <si>
+    <t>1.Create failed.
+2. Show error: 
+  - Title is requied.
+  - Duration is requied.
+  - Learning is requied.
+  - Attacment is requied.
+  - Thumbnail is requied.
+  - Background is requied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Title: 
+  Duration :
+  Description: 
+  Learning:
+  Attacment: 
+  Thumbnail:
+  Background: </t>
+  </si>
+  <si>
+    <t>1.Create failed.
+2. Show appropriate notice</t>
+  </si>
+  <si>
+    <t>1.Title: -blank
+              -number
+              -"abcdefgh"
+              -space.
+accept: a-f, number.
+2.Duration : blank
+                   - negative numbers 
+                   - positive numbers
+                   -0
+                   -characters.
+   accept: positive numbers.
+3. Description: image/file doc/ string/video.
+4. Learning: (learning does not exist).
+5.Attacment:
+     -  file have size &lt;= 5 MB.
+      -  file have size &gt; 5 MB.
+6.Thumbnail: 
+      -  image have size &lt;= 5 MB.
+      -  image have size &gt; 5 MB.
+7.Background:
+       -  image have size &lt;= 5 MB.
+       -  image have size &gt; 5 MB.</t>
   </si>
 </sst>
 </file>
@@ -2046,7 +3724,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2142,6 +3820,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2436,30 +4120,30 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -2500,7 +4184,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20" t="s">
         <v>19</v>
       </c>
@@ -2517,7 +4201,7 @@
       <c r="L4" s="20"/>
       <c r="M4" s="20"/>
     </row>
-    <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -2543,7 +4227,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -2569,7 +4253,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -2598,7 +4282,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -2627,7 +4311,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
@@ -2656,7 +4340,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
@@ -2683,7 +4367,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
@@ -2710,7 +4394,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
@@ -2737,7 +4421,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -2763,7 +4447,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -2792,7 +4476,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
@@ -2821,7 +4505,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
@@ -2848,7 +4532,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
@@ -2875,7 +4559,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
@@ -2902,7 +4586,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
@@ -2929,7 +4613,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
@@ -2956,7 +4640,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
@@ -2983,7 +4667,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
@@ -3010,7 +4694,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
@@ -3037,7 +4721,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
@@ -3064,7 +4748,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
@@ -3091,7 +4775,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
@@ -3118,7 +4802,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
@@ -3145,7 +4829,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
@@ -3172,7 +4856,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
@@ -3199,7 +4883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -3228,7 +4912,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -3257,217 +4941,217 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="5"/>
     </row>
   </sheetData>
@@ -3486,35 +5170,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B31C9-1D37-4557-BE0E-E2D9FDCC55D6}">
   <dimension ref="A2:M8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3555,7 +5239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>137</v>
       </c>
@@ -3581,7 +5265,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
@@ -3607,7 +5291,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>148</v>
       </c>
@@ -3633,7 +5317,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
@@ -3659,7 +5343,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -3696,32 +5380,32 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
-  <dimension ref="A2:M20"/>
+  <dimension ref="A2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
       <c r="H2" s="22" t="s">
         <v>5</v>
       </c>
       <c r="I2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -3762,7 +5446,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -3788,7 +5472,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
@@ -3814,7 +5498,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
@@ -3840,7 +5524,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
@@ -3866,7 +5550,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>179</v>
       </c>
@@ -3892,7 +5576,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>183</v>
       </c>
@@ -3918,7 +5602,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>188</v>
       </c>
@@ -3944,7 +5628,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>192</v>
       </c>
@@ -3970,7 +5654,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>197</v>
       </c>
@@ -3996,7 +5680,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>201</v>
       </c>
@@ -4022,7 +5706,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>204</v>
       </c>
@@ -4048,7 +5732,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -4074,7 +5758,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
@@ -4100,7 +5784,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>217</v>
       </c>
@@ -4126,7 +5810,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
@@ -4152,7 +5836,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>225</v>
       </c>
@@ -4178,25 +5862,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="12" t="s">
-        <v>226</v>
-      </c>
       <c r="C20" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>27</v>
       </c>
       <c r="E20" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>232</v>
-      </c>
       <c r="H20" s="2" t="s">
         <v>144</v>
       </c>
@@ -4204,41 +5885,1345 @@
         <v>144</v>
       </c>
     </row>
+    <row r="21" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>332</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="B22" s="24"/>
+      <c r="C22" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>344</v>
+      </c>
+      <c r="B24" s="24"/>
+      <c r="C24" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B25" s="24"/>
+      <c r="C25" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B27" s="24"/>
+      <c r="C27" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B25"/>
+    <mergeCell ref="B26:B27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EB6438C-DABB-4E36-B70B-29A8FB509E29}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="G58" sqref="G58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="26.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37" customWidth="1"/>
+    <col min="6" max="6" width="35.44140625" customWidth="1"/>
+    <col min="7" max="7" width="38.44140625" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" customWidth="1"/>
+    <col min="9" max="9" width="10.5546875" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="15.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="25"/>
+    </row>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="130.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>369</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="129" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B4" s="34"/>
+      <c r="C4" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="B5" s="34"/>
+      <c r="C5" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>371</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="127.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="114.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="B7" s="34"/>
+      <c r="C7" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="133.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="B8" s="34"/>
+      <c r="C8" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="163.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" s="34"/>
+      <c r="C9" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="114" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="B10" s="34"/>
+      <c r="C10" s="2" t="s">
+        <v>401</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>402</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="182.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="B11" s="34"/>
+      <c r="C11" s="2" t="s">
+        <v>406</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="123.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B12" s="34"/>
+      <c r="C12" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="403.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="34"/>
+      <c r="C13" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="68.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B14" s="34"/>
+      <c r="C14" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="194.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="B15" s="34"/>
+      <c r="C15" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="105.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>432</v>
+      </c>
+      <c r="B17" s="34"/>
+      <c r="C17" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="77.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="102" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="B19" s="34"/>
+      <c r="C19" s="2" t="s">
+        <v>441</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>444</v>
+      </c>
+      <c r="B20" s="34"/>
+      <c r="C20" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>449</v>
+      </c>
+      <c r="B21" s="34" t="s">
+        <v>450</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="142.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="112.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>455</v>
+      </c>
+      <c r="B23" s="34"/>
+      <c r="C23" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="126.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>463</v>
+      </c>
+      <c r="B24" s="34"/>
+      <c r="C24" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>467</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="139.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>472</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>476</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="B27" s="34"/>
+      <c r="C27" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>481</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>482</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="B28" s="34"/>
+      <c r="C28" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>485</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>489</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>490</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>491</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>480</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>494</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="B31" s="34"/>
+      <c r="C31" s="6" t="s">
+        <v>496</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>497</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>500</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="141" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>501</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="6" t="s">
+        <v>502</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>506</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="144.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>509</v>
+      </c>
+      <c r="B34" s="34"/>
+      <c r="C34" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="96.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>513</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>515</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="6" t="s">
+        <v>518</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>503</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>520</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>521</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>523</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>524</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>525</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="151.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>531</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>532</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="148.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>534</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>535</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="321" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>526</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>529</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>536</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A72" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -4279,9 +7264,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="28" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B2" s="29"/>
       <c r="C2" s="29"/>
@@ -4296,54 +7281,54 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="B3" s="30" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="C3" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>244</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>246</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
         <v>237</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>238</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>250</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>144</v>
@@ -4352,25 +7337,25 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>253</v>
-      </c>
       <c r="G5" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H5" s="5" t="s">
         <v>144</v>
@@ -4379,25 +7364,25 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="F6" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="G6" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H6" s="5" t="s">
         <v>144</v>
@@ -4406,25 +7391,25 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B7" s="31"/>
       <c r="C7" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="D7" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>259</v>
-      </c>
       <c r="G7" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>144</v>
@@ -4433,333 +7418,333 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="19" t="s">
+        <v>259</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>260</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="G8" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
         <v>262</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>263</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="G9" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>266</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H9" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
-      <c r="A10" s="8" t="s">
-        <v>267</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="D10" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="G10" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
         <v>270</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A11" s="8" t="s">
-        <v>271</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="19" t="s">
+        <v>271</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="G11" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
         <v>274</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>275</v>
       </c>
       <c r="B12" s="31"/>
       <c r="C12" s="19" t="s">
+        <v>275</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="F12" s="5" t="s">
+      <c r="G12" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
         <v>278</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H12" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
-        <v>279</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="19" t="s">
+        <v>279</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="G13" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>282</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>283</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="19" t="s">
+        <v>283</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E14" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D14" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="F14" s="5" t="s">
+      <c r="G14" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
         <v>286</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H14" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>287</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="E15" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="F15" s="5" t="s">
+      <c r="G15" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
         <v>290</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>291</v>
       </c>
       <c r="B16" s="31"/>
       <c r="C16" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="F16" s="5" t="s">
+      <c r="G16" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
         <v>295</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
-        <v>296</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="F17" s="5" t="s">
+      <c r="G17" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
         <v>300</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="8" t="s">
-        <v>301</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="G18" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
         <v>304</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>305</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="F19" s="5" t="s">
+      <c r="G19" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
         <v>308</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H19" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>309</v>
       </c>
       <c r="B20" s="29"/>
       <c r="C20" s="29"/>
@@ -4774,108 +7759,108 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="F21" s="5" t="s">
+      <c r="G21" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
         <v>314</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I21" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>315</v>
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="19" t="s">
+        <v>315</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="G22" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>320</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="19" t="s">
+        <v>320</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>323</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="G23" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
         <v>324</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>325</v>
       </c>
       <c r="B24" s="27"/>
       <c r="C24" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>328</v>
       </c>
-      <c r="F24" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="G24" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H24" s="5" t="s">
         <v>144</v>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96FBC9F1-4054-4BEB-89CD-776FEE0F9F50}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C740A-4D9B-40F8-B171-AF3A6924BA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
     <sheet name="POST" sheetId="4" r:id="rId4"/>
+    <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="532">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1822,12 +1823,1170 @@
     <t>Kiểm tra giao diện trang
  'Create New Post'</t>
   </si>
+  <si>
+    <t>All CATEGORIES</t>
+  </si>
+  <si>
+    <t>ALL-CATE_001</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Trang 'All Categories'</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang 'All Categories'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Kiểm tra giao diện tổng thể trang web  các item đặt đúng vị trí, cỡ chữ, font chữ đúng.</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Giao diện hiển thị các thành phần đúng với Design, không xô lệch, font-size, font chữ hiển thị đúng.</t>
+  </si>
+  <si>
+    <t>ALL-CATE_002</t>
+  </si>
+  <si>
+    <t>kiểm tra đường dẫn trên header-content hiển thị chính xác</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm  đường dẫn trên header-content thể hiện vị trí của bạn trên Website
+4. Kiểm tra đường dẫn</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy đường dẫn trên header-content thể hiện vị trí của bạn trên Website
+4. Đường dẫn hiển thị chính xác vị trí của bạn: 'Dashboard &gt; Knowledge'</t>
+  </si>
+  <si>
+    <t>ALL-CATE_003</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo mới danh mục thành công khi nhấn vào button
+ 'Create new'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn 1 file ảnh nhỏ hơn hoặc bằng 2MB</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến button 'Create new'
+4. Nhấn chọn button 'Create new'
+5. Nhập tiêu đề vào trường 'Title'
+6. Nhập mô tả vào trường 'Description'
+7. Nhập tag vào trường tags
+8. Chọn ảnh background tại trường 'Background'
+9. Nhấn vào button 'Submit'
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy  button 'Create new'
+4. Cho phép chọn button 'Create new'
+5. Cho phép nhập tiêu đề vào trường 'Title'
+6. Cho phép nhập mô tả vào trường 'Description'
+7. Cho phép nhập tag vào trường 'Tags'
+8. Chọn ảnh thành công tại trường 'Background'
+9. Cho phép nhấn button 'Submit'
+10. Tạo mới danh mục thành công và hiển thị danh mục vừa tạo trong mục 'All Categories' </t>
+  </si>
+  <si>
+    <t>ALL-CATE_004</t>
+  </si>
+  <si>
+    <t>kiểm tra mục số thứ tự được tăng lần lượt</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục số thứ tự
+4. Kiểm tra số thứ tự có đường tăng lần lượt thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục số thứ tự
+4. Số thứ tự được tăng lần lượt  thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t>ALL-CATE_005</t>
+  </si>
+  <si>
+    <t>Kiểm tra mục Title hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một trường dữ liệu đã nhập
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Title'
+4. Kiểm tra Title  hiển thị dữ liệu là tiêu đề và số lượng document của category</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Title'
+4. Mục Title hiển thị tiêu đề và lượng document của category</t>
+  </si>
+  <si>
+    <t>ALL-CATE_006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Status hiển thị </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Status'
+4. Kiểm tra status hiển thị là chế độ hiển thị là Hide, Public và Draft</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Status'
+4. Mục Status hiển thị là chế độ hiển thị là Hide, Public và Draft</t>
+  </si>
+  <si>
+    <t>ALL-CATE_007</t>
+  </si>
+  <si>
+    <t>Kiểm tra mục Tags hiển thị</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Tags'
+4. Kiểm tra mục Tags  hiển thị Tag của người dùng</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Tags'
+4. Trường Tags  hiển thị Tag của người dùng</t>
+  </si>
+  <si>
+    <t>ALL-CATE_008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra trường Date </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Date'
+4. Kiểm tra mục Date hiển thị thời gian đăng</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Date'
+4. Mục Date hiển thị thời gian đăng: 'Published' hoặc 'Last Modified', giờ phút đăng và ngày đăng</t>
+  </si>
+  <si>
+    <t>ALL-CATE_009</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Actions khi nhấn vào detail</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Detail'
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn 'Detail'
+6. Màn hình hiển thị kết quả Thông tin của danh mục: Tiêu đề, mô tả, Danh mục, Document. Khi nhấn vào icon i show ra thông tin chi tiết của bài viết</t>
+  </si>
+  <si>
+    <t>ALL-CATE_010</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái(Status) từ Hide sang Public</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một trường dữ liệu đã nhập
+3. Trạng thái status là Hide</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'public'
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'public'
+6. Màn hình hiển thị trạng thái từ Hide sang 'public'</t>
+  </si>
+  <si>
+    <t>ALL-CATE_011</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái(Status) từ Public sang Hide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một trường dữ liệu đã nhập
+3. Trạng thái status là Public</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Hide'
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Hide'
+6. Màn hình hiển thị trạng thái từ Pubic sang 'Hide'</t>
+  </si>
+  <si>
+    <t>ALL-CATE_012</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái(Status)  sang Draft</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn một trường dữ liệu đã nhập
+3. Trạng thái status là Public hoặc Hide</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Draft'
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Draft'
+6. Màn hình hiển thị trạng thái sang 'Draft'</t>
+  </si>
+  <si>
+    <t>ALL-CATE_013</t>
+  </si>
+  <si>
+    <t>Kiểm tra danh mục khi được Edit</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Edit'
+6. Nhập nội dung mà bạn muốn chỉnh sửa
+7. Nhấn Submit
+8. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Edit'
+6. Cho phép chỉnh sửa bất kì nội dung nào bạn muốn sửa
+7. Cho phé nhấn vào button Submit
+8. Chỉnh sửa nội dung được cập nhật thành công
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_014</t>
+  </si>
+  <si>
+    <t>Kiểm tra xóa danh mục thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Delete'
+6. Nhấn Confirm
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Delete'
+6. Màn hình hiển thị 'Delete knowledge success.'
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_015</t>
+  </si>
+  <si>
+    <t>Kiểm tra Add Document thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Add Document'
+6. Nhập thông tin vào các trường
+7. Nhấn Submit
+8. Kiểm tra tra kết quả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Add Document'
+6. Điền đầy đủ thông tin vào các trường
+7. Cho phép nhấn Submit
+8. Thêm thành công Document
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_016</t>
+  </si>
+  <si>
+    <t>Kiểm tra Show Document</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Actions'
+4. Nhấn vào button 'Actions'
+5. Nhấn vào 'Show Document'
+6. Kiểm tra tra kết quả</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button 'Actions'
+5. Cho phép nhấn vào 'Show Document'
+6. Màn hình hiển thị thông tin trường dữ liệu nằm trong document nào
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_017</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo tiêu đề thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Title'
+4. Nhập tiêu đề có sẵn vào ô input
+5. Tìm Apply
+6. Nhấn Apply
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Title'
+4. Cho phép nhập tiêu đề
+5. TÌm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn hình hiển thị ra kết quả theo thông tin bạn nhập ô Title
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_018</t>
+  </si>
+  <si>
+    <t>Tìm kiếm theo trạng thái</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Status'
+4. Tìm Apply
+5. Nhấn Apply
+6. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Status'
+4. TÌm thấy Apply
+5. Cho phép nhấn Apply
+6. Màn hình hiển thị ra kết quả theo thông tin bạn chọn theo trạng thái
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_019</t>
+  </si>
+  <si>
+    <t>Tìm theo thẻ Tags</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn  một trường dữ liệu đã nhập
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Tags'
+4. Nhập thẻ tag mà bạn muốn tìm kiếm vào ô input
+5. Tìm Apply
+6. Nhấn Apply
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục 'Tags'
+4. Cho phép nhập thẻ tag mà bạn muốn tìm kiếm vào ô onput
+5. TÌm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn hình hiển thị ra kết quả theo thông tin bạn nhập ô Tags
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_020</t>
+  </si>
+  <si>
+    <t>Thực hiện chức năng clear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  'Tags' hoặc Title hoặc Status
+4. Nhập thông tin vào trường Title  hoặc Tags hoặc  chọn  bất kì trạng thái nào  
+5. Tìm Clear
+6. Nhấn Clear
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục  'Tags' hoặc Title hoặc Status
+4. Cho phép nhập thông tin vào trường Title  hoặc Tags hoặc  chọn  bất kì trạng thái nào
+5. TÌm thấy Clear
+6. Cho phép nhấn Clear
+7. Màn hình Xóa hết dữ liệu bạn vừa nhập để tìm kiếm
+</t>
+  </si>
+  <si>
+    <t>ALL-CATE_021</t>
+  </si>
+  <si>
+    <t>Kiểm tra chức năng Show page(Phân trang)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn 20 trường dữ liệu đã nhập
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Categories'
+3. Tìm đến mục  phân trang
+4. Nhấn vào 20 trong mục page Size
+5. Nhấn vào 5
+6. Kiểm tra kết quả màn hình
+7. Tìm mục page Size nhấn vào 10
+8. Kiểm tra kết quả màn hình
+9. Tìm mục page SIze nhấn vào 20
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Categories'
+3. Tìm thấy mục  phân trang
+4. Cho phép nhấn vào 20
+5. Cho phép nhấn vào 5
+6. Màn hình hiển thị từ 1 đến 5 trong tổng số 5 bản ghi
+7. Cho phép nhấn vào 10
+8. Màn hình hiển thị từ 1 đến 10 trong tổng số 10 bản ghi
+9. Cho phép nhấn vào mục page Size
+10. Màn hình hiển thị từ 1 đến 20 trong tổng số 20 bản ghi
+</t>
+  </si>
+  <si>
+    <t>New Category</t>
+  </si>
+  <si>
+    <t>NC-AD-001</t>
+  </si>
+  <si>
+    <t>Tạo Mới danh mục thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn 1 ảnh dung lượng nhỏ hơn hoặc bằng 2 MB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Nhập tiêu đề vào trường Title
+4. Nhập mô tả vào trường Description
+5. Nhập Tag vào trường Tags
+6. Nhấn vào khung nét đứt trong mục Background
+7. Chọn ảnh mà bạn muốn tải lên
+8. Nhấn Submit
+9. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép tiêu đề vào ô input
+4. Cho phép mô tả vào trường Description
+5. Cho phép Tag vào trường Tags
+6. Cho phép nhấn vào vào khung nét đứt trong mục Background
+7. Tải ảnh thành công
+8. Cho phép nhấn Submit
+9. Danh mục được thêm thành công vào trang 'All Categories''
+</t>
+  </si>
+  <si>
+    <t>NC-AD-002</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang New Category</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi bỏ trống tất cả các trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Nhấn Submit
+4. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép nhấn vào button Submit
+4. Màn hình xuất hiện thông báo lỗi cho từng mục và xung quanh ô input boder màu đỏ.(Title is required, Description is required, Background is required.)
+</t>
+  </si>
+  <si>
+    <t>NC-AD-003</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi bỏ trống trường Title</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Nhập mô tả vào trường Description
+4. Nhập Tag vào trường Tags
+5. Nhấn vào khung nét đứt trong mục Background
+6. Chọn ảnh mà bạn muốn tải lên
+7. Nhấn Submit
+8. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép mô tả vào trường Description
+4. Cho phép Tag vào trường Tags
+5. Cho phép nhấn vào vào khung nét đứt trong mục Background
+6. Tải ảnh thành công
+7. Cho phép nhấn Submit
+8. Trường Title hiển thị 'Title is required.' và xung quanh ô input xuất hiện màu đỏ
+</t>
+  </si>
+  <si>
+    <t>NC-AD-004</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi bỏ trống trường Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Nhập tiêu đề vào trường Title
+4. Nhập Tag vào trường Tags
+5. Nhấn vào khung nét đứt trong mục Background
+6. Chọn ảnh mà bạn muốn tải lên
+7. Nhấn Submit
+8. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép tiêu đề vào ô input
+4. Cho phép Tag vào trường Tags
+5. Cho phép nhấn vào vào khung nét đứt trong mục Background
+6. Tải ảnh thành công
+7. Cho phép nhấn Submit
+8. Trường Description hiển thị 'Title is Description' và xung quanh ô input xuất hiện màu đỏ
+</t>
+  </si>
+  <si>
+    <t>NC-AD-005</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi không chọn background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Nhập tiêu đề vào trường Title
+4. Nhập mô tả vào trường Description
+5. Nhập Tag vào trường Tags
+6. Nhấn Submit
+7. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép tiêu đề vào ô input
+4. Cho phép mô tả vào trường Description
+5. Cho phép Tag vào trường Tags
+6. Cho phép nhấn Submit
+7. Trường background hiển thị 'Background is required.'
+</t>
+  </si>
+  <si>
+    <t>NC-AD-006</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại với Ảnh hớn hơn 2 MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn 1 ảnh dung lượng lớn hơn  2 MB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép tiêu đề vào ô input
+4. Cho phép mô tả vào trường Description
+5. Cho phép Tag vào trường Tags
+6. Cho phép nhấn vào vào khung nét đứt trong mục Background
+7. Tải ảnh thành công
+8. Cho phép nhấn Submit
+9. Trường background hiển thị 'Background is required.'
+</t>
+  </si>
+  <si>
+    <t>NC-AD-007</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang New Category</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Category'
+3. Kiểm tra giao diện  với Design</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Giao diện Website được bố trí đúng như thiết kế, không xô lệch, Font chữ, font-size đúng như yêu cầu</t>
+  </si>
+  <si>
+    <t>All Documents</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang All Documents</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang All Document</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Kiểm tra giao diện  với Design</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Giao diện Website được bố trí đúng như thiết kế, không xô lệch, Font chữ, font-size đúng như yêu cầu</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-002</t>
+  </si>
+  <si>
+    <t>Kiểm tra đường đẫn trên header</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Kiểm tra đường dẫn</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Đường dẫn hiển thiij ví trí của bạn: '   Dashboard  &gt; Document'</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-003</t>
+  </si>
+  <si>
+    <t>Kiểm tra số thứ tự được tăng lần lượt thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục số thứ tự
+4. Kiểm tra mục số thứ tự</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục số thứ tự
+4. Số thứ tự được tăng lần lượt thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-004</t>
+  </si>
+  <si>
+    <t>Kiểm tra Title hiển thị tiêu đề</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 1 bản ghi</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Title
+4. Kiểm tra  Title</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Title
+4. Title hiển thị tiêu đề. Nếu tiêu đề quá dài thì phần còn lại sẽ được mô tả bằng dấu chấm chấm(...)</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Description hiển thị mô tả </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Description
+4. Kiểm tra  mục Description</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Description
+4. Mục Description hiển thị mô tả. Nếu Description  quá dài thì phần còn lại sẽ được mô tả bằng dấu chấm chấm(...)</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-006</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Date
+4. Kiểm tra Date</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Date
+4. Mục Date hiển thị trạng thái ngày giờ đăng, Published hoặc Last Modified</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-007</t>
+  </si>
+  <si>
+    <t>Kiểm tra Detail một 1 bản ghi Document</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Detail
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Detail
+6. Màn hình hiển thị chi tiết bản ghi Document được chọn: Đường dẫn, tiêu đề, nội dung. Hiển thị thông tin thời gian đăng và thời gian cập nhật</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-008</t>
+  </si>
+  <si>
+    <t>Thực hiện chức năng Edit thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Edit
+6. Thực hiện chỉnh sửa nội dung mong muốn chỉnh sửa
+7. Nhấn Submit
+8. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Edit
+6. Cho phép chỉnh sửa nội dung bạn muốn sửa
+7. Cho phép nhấn button Submit
+8. Cập nhật thành công nội dung bạn vừa chỉnh sửa</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện chức năng Delete thành công </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Delete
+6. Nhấn vào Confirm
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Delete
+6. Cho phép nhấn Confirm
+7. Xóa thành công. Màn hình xuất hiện thông báo 'Delete Successfully'</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tìm kiếm  theo Title </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 2 bản ghi</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Title 
+4. Nhập nội dung tìm kiếm  vào ô input
+5. Nhấn Apply
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Title
+4. Cho phép nhập nội dung tìm kiếm vào ô input
+5. Cho phép nhấn Apply
+6. Màn hình hiển thị kết quả tìm kiếm</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-011</t>
+  </si>
+  <si>
+    <t>Thực hiện chức năng Xóa tìm kiếm tại ô input Title</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm mục  Title 
+4. Nhập text vào title 
+5. Nhấn Clear
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'All Document'
+3. Tìm thấy mục Title
+4. Cho phép nhập text vào Title
+5. Cho phép nhấn Clear
+6. Text nhập tại ô input Title được xóa</t>
+  </si>
+  <si>
+    <t>ALL-DOC-AD-012</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'All Documents'
+3. Tìm đến mục  phân trang
+4. Nhấn vào 20 trong mục page Size
+5. Nhấn vào 5
+6. Kiểm tra kết quả màn hình
+7. Tìm mục page Size nhấn vào 10
+8. Kiểm tra kết quả màn hình
+9. Tìm mục page SIze nhấn vào 20
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép nhấn vào 'All Documents'
+3. Tìm thấy mục  phân trang
+4. Cho phép nhấn vào 20
+5. Cho phép nhấn vào 5
+6. Màn hình hiển thị từ 1 đến 5 trong tổng số 5 bản ghi
+7. Cho phép nhấn vào 10
+8. Màn hình hiển thị từ 1 đến 10 trong tổng số 10 bản ghi
+9. Cho phép nhấn vào mục page Size
+10. Màn hình hiển thị từ 1 đến 20 trong tổng số 20 bản ghi
+</t>
+  </si>
+  <si>
+    <t>New Document</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-001</t>
+  </si>
+  <si>
+    <t>Thực hiện chức năng tạo mới New Document thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có 1 ảnh nhỏ hơn hoặc bằng 2MB
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhập tiêu đề vào trường Title
+4. Nhập mô tả vào Description
+5. Nhập nội dung vào Content
+6. Tìm đến trường  Choose Knowledge
+7. Chọn một trường
+8. Nhấn vào button Click to Upload
+9. Tải ảnh lên
+10. Nhấn button submit
+11. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép  nhập tiêu đề vào trường Title
+4. Cho phép nhập mô tả vào Description
+5. Cho phép nhập nội dung vào Content
+6. Tìm thấy trường  Choose Knowledge
+7. Chọn thành công một trường
+8. Cho phép nhấn vào button Click to Upload
+9. Tải ảnh thành công
+10. Cho phép nhấn button Submit
+11. Tạo mới Document thành công</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhấn Submit
+4. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Category'
+3. Cho phép nhấn vào button Submit
+4. Màn hình xuất hiện thông báo lỗi cho từng mục và xung quanh ô input boder màu đỏ.(Title is required, Description is required, Background is required,Content is required,Knowledge is required.)
+</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-003</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhập mô tả vào Description
+4. Nhập nội dung vào Content
+5. Tìm đến trường  Choose Knowledge
+6. Chọn một trường
+7. Nhấn vào button Click to Upload
+8. Tải ảnh lên
+9. Nhấn button submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép nhập mô tả vào Description
+4. Cho phép nhập nội dung vào Content
+5. Tìm thấy trường  Choose Knowledge
+6. Chọn thành công một trường
+7. Cho phép nhấn vào button Click to Upload
+8. Tải ảnh thành công
+9. Cho phép nhấn button Submit
+10. Màn hình hiển thị Title is required.</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-004</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhập tiêu đề vào trường Title
+4. Nhập nội dung vào Content
+5. Tìm đến trường  Choose Knowledge
+6. Chọn một trường
+7. Nhấn vào button Click to Upload
+8. Tải ảnh lên
+9. Nhấn button submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép  nhập tiêu đề vào trường Title
+4. Cho phép nhập nội dung vào Content
+5. Tìm thấy trường  Choose Knowledge
+6. Chọn thành công một trường
+7. Cho phép nhấn vào button Click to Upload
+8. Tải ảnh thành công
+9. Cho phép nhấn button Submit
+10. Màn hình xuất hiện dòng test tại Description: 'Description is required.'</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-005</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi bỏ trống trường Content</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhập tiêu đề vào trường Title
+4. Nhập mô tả vào Description
+5. Tìm đến trường  Choose Knowledge
+6. Chọn một trường
+7. Nhấn vào button Click to Upload
+8. Tải ảnh lên
+9. Nhấn button submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép  nhập tiêu đề vào trường Title
+4. Cho phép nhập mô tả vào Description
+5. Tìm thấy trường  Choose Knowledge
+6. Chọn thành công một trường
+7. Cho phép nhấn vào button Click to Upload
+8. Tải ảnh thành công
+9. Cho phép nhấn button Submit
+10. Tại mục Content 'Content is required.'</t>
+  </si>
+  <si>
+    <t>New-DOC-AD-006</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi bỏ trống trường Knowledge</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'KNOWLEDGE LIBRARY' trên thanh menu đứng
+2. Nhấn chọn 'New Document'
+3. Nhập tiêu đề vào trường Title
+4. Nhập mô tả vào Description
+5. Nhập nội dung vào Content
+6. Nhấn vào button Click to Upload
+7. Tải ảnh lên
+8. Nhấn button submit
+9. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép  nhập tiêu đề vào trường Title
+4. Cho phép nhập mô tả vào Description
+5. Cho phép nhập nội dung vào Content
+6. Cho phép nhấn vào button Click to Upload
+7. Tải ảnh thành công
+8. Cho phép nhấn button Submit
+9. Tại mục  Knowledge thông báo dòng text : 'Knowledge is required.'</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1908,8 +3067,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1952,8 +3147,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2042,11 +3249,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF9D9D9D"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2142,6 +3358,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4216,8 +5475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
@@ -4893,4 +6152,1256 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
+  <dimension ref="A1:M51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="5" max="5" width="50" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="35" t="s">
+        <v>331</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+    </row>
+    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>332</v>
+      </c>
+      <c r="B3" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>336</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>337</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>338</v>
+      </c>
+      <c r="B4" s="37"/>
+      <c r="C4" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>342</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>345</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="15" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E6" s="43" t="s">
+        <v>349</v>
+      </c>
+      <c r="F6" s="43" t="s">
+        <v>350</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="15" t="s">
+        <v>352</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>354</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E8" s="43" t="s">
+        <v>358</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>359</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="15" t="s">
+        <v>361</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>364</v>
+      </c>
+      <c r="B10" s="37"/>
+      <c r="C10" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>353</v>
+      </c>
+      <c r="E10" s="43" t="s">
+        <v>366</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>367</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" s="37"/>
+      <c r="C11" s="15" t="s">
+        <v>369</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="15" t="s">
+        <v>373</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>375</v>
+      </c>
+      <c r="F12" s="43" t="s">
+        <v>376</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B13" s="37"/>
+      <c r="C13" s="15" t="s">
+        <v>378</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>380</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B14" s="37"/>
+      <c r="C14" s="15" t="s">
+        <v>383</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="B15" s="37"/>
+      <c r="C15" s="15" t="s">
+        <v>388</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E15" s="43" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>390</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16" s="37"/>
+      <c r="C16" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="B17" s="37"/>
+      <c r="C17" s="15" t="s">
+        <v>396</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="B18" s="37"/>
+      <c r="C18" s="15" t="s">
+        <v>400</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="15" t="s">
+        <v>404</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="B20" s="37"/>
+      <c r="C20" s="15" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>411</v>
+      </c>
+      <c r="B21" s="37"/>
+      <c r="C21" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>416</v>
+      </c>
+      <c r="B22" s="37"/>
+      <c r="C22" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>420</v>
+      </c>
+      <c r="B23" s="37"/>
+      <c r="C23" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="38" t="s">
+        <v>425</v>
+      </c>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="33"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33"/>
+    </row>
+    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>426</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="39" t="s">
+        <v>431</v>
+      </c>
+      <c r="B26" s="41" t="s">
+        <v>432</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="39" t="s">
+        <v>436</v>
+      </c>
+      <c r="B27" s="42"/>
+      <c r="C27" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="39" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" s="42"/>
+      <c r="C28" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>443</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="39" t="s">
+        <v>444</v>
+      </c>
+      <c r="B29" s="42"/>
+      <c r="C29" s="15" t="s">
+        <v>445</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="39" t="s">
+        <v>448</v>
+      </c>
+      <c r="B30" s="42"/>
+      <c r="C30" s="15" t="s">
+        <v>449</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="E30" s="43" t="s">
+        <v>429</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>451</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H30" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="39" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="42"/>
+      <c r="C31" s="15" t="s">
+        <v>453</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>454</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>455</v>
+      </c>
+      <c r="F31" s="43" t="s">
+        <v>456</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="35" t="s">
+        <v>457</v>
+      </c>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+    </row>
+    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="39" t="s">
+        <v>458</v>
+      </c>
+      <c r="B33" s="44" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>460</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>462</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="39" t="s">
+        <v>464</v>
+      </c>
+      <c r="B34" s="44"/>
+      <c r="C34" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="E34" s="43" t="s">
+        <v>466</v>
+      </c>
+      <c r="F34" s="43" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="39" t="s">
+        <v>468</v>
+      </c>
+      <c r="B35" s="44"/>
+      <c r="C35" s="5" t="s">
+        <v>469</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>471</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="39" t="s">
+        <v>473</v>
+      </c>
+      <c r="B36" s="44"/>
+      <c r="C36" s="15" t="s">
+        <v>474</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E36" s="43" t="s">
+        <v>476</v>
+      </c>
+      <c r="F36" s="43" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="39" t="s">
+        <v>478</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="15" t="s">
+        <v>479</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>480</v>
+      </c>
+      <c r="F37" s="43" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="39" t="s">
+        <v>482</v>
+      </c>
+      <c r="B38" s="44"/>
+      <c r="C38" s="15" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E38" s="43" t="s">
+        <v>483</v>
+      </c>
+      <c r="F38" s="43" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="39" t="s">
+        <v>485</v>
+      </c>
+      <c r="B39" s="44"/>
+      <c r="C39" s="15" t="s">
+        <v>486</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>487</v>
+      </c>
+      <c r="F39" s="43" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="39" t="s">
+        <v>489</v>
+      </c>
+      <c r="B40" s="44"/>
+      <c r="C40" s="15" t="s">
+        <v>490</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E40" s="43" t="s">
+        <v>491</v>
+      </c>
+      <c r="F40" s="43" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="39" t="s">
+        <v>493</v>
+      </c>
+      <c r="B41" s="44"/>
+      <c r="C41" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>475</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>495</v>
+      </c>
+      <c r="F41" s="43" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="39" t="s">
+        <v>497</v>
+      </c>
+      <c r="B42" s="44"/>
+      <c r="C42" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>500</v>
+      </c>
+      <c r="F42" s="43" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="39" t="s">
+        <v>502</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="15" t="s">
+        <v>503</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>499</v>
+      </c>
+      <c r="E43" s="43" t="s">
+        <v>504</v>
+      </c>
+      <c r="F43" s="43" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="39" t="s">
+        <v>506</v>
+      </c>
+      <c r="B44" s="44"/>
+      <c r="C44" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A45" s="45"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="46" t="s">
+        <v>509</v>
+      </c>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+    </row>
+    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="39" t="s">
+        <v>510</v>
+      </c>
+      <c r="B46" s="49" t="s">
+        <v>509</v>
+      </c>
+      <c r="C46" s="47" t="s">
+        <v>511</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>513</v>
+      </c>
+      <c r="F46" s="43" t="s">
+        <v>514</v>
+      </c>
+      <c r="G46" s="48"/>
+      <c r="H46" s="48"/>
+      <c r="I46" s="48"/>
+      <c r="J46" s="48"/>
+      <c r="K46" s="48"/>
+      <c r="L46" s="48"/>
+      <c r="M46" s="48"/>
+    </row>
+    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="39" t="s">
+        <v>515</v>
+      </c>
+      <c r="B47" s="49"/>
+      <c r="C47" s="15" t="s">
+        <v>433</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>516</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>517</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="39" t="s">
+        <v>518</v>
+      </c>
+      <c r="B48" s="49"/>
+      <c r="C48" s="15" t="s">
+        <v>437</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>519</v>
+      </c>
+      <c r="F48" s="43" t="s">
+        <v>520</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H48" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="39" t="s">
+        <v>521</v>
+      </c>
+      <c r="B49" s="49"/>
+      <c r="C49" s="15" t="s">
+        <v>441</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>522</v>
+      </c>
+      <c r="F49" s="43" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>524</v>
+      </c>
+      <c r="B50" s="49"/>
+      <c r="C50" s="15" t="s">
+        <v>525</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>526</v>
+      </c>
+      <c r="F50" s="43" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="39" t="s">
+        <v>528</v>
+      </c>
+      <c r="B51" s="49"/>
+      <c r="C51" s="15" t="s">
+        <v>529</v>
+      </c>
+      <c r="D51" s="5" t="s">
+        <v>512</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>530</v>
+      </c>
+      <c r="F51" s="43" t="s">
+        <v>531</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B23"/>
+    <mergeCell ref="B33:B44"/>
+    <mergeCell ref="B46:B51"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F69C740A-4D9B-40F8-B171-AF3A6924BA55}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E40306-8119-4BA4-B8A4-9322C4B34D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3321,6 +3321,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3360,46 +3394,12 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3713,10 +3713,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -3760,21 +3760,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
-      <c r="D4" s="20"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="20"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="20"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
-      <c r="K4" s="20"/>
-      <c r="L4" s="20"/>
-      <c r="M4" s="20"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="34"/>
+      <c r="I4" s="34"/>
+      <c r="J4" s="34"/>
+      <c r="K4" s="34"/>
+      <c r="L4" s="34"/>
+      <c r="M4" s="34"/>
     </row>
     <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3890,7 +3890,7 @@
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="35" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3919,7 +3919,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="35"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3946,7 +3946,7 @@
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -3973,7 +3973,7 @@
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="21"/>
+      <c r="B12" s="35"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -4055,7 +4055,7 @@
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="38" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4084,7 +4084,7 @@
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="24"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -4111,7 +4111,7 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="24"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -4138,7 +4138,7 @@
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="24"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -4165,7 +4165,7 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="24"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -4192,7 +4192,7 @@
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="24"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4219,7 +4219,7 @@
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="24"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -4246,7 +4246,7 @@
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="24"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -4273,7 +4273,7 @@
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="24"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -4300,7 +4300,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -4327,7 +4327,7 @@
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="24"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -4354,7 +4354,7 @@
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="24"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -4381,7 +4381,7 @@
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="24"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -4408,7 +4408,7 @@
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="24"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -4435,7 +4435,7 @@
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="24"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -4768,10 +4768,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="23"/>
+      <c r="I2" s="37"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4975,10 +4975,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="22" t="s">
+      <c r="H2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="25"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5539,13 +5539,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5559,7 +5559,7 @@
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="44" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5588,7 +5588,7 @@
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="31"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5615,7 +5615,7 @@
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="6" t="s">
         <v>251</v>
       </c>
@@ -5642,7 +5642,7 @@
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="31"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="19" t="s">
         <v>254</v>
       </c>
@@ -5669,7 +5669,7 @@
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="31"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="19" t="s">
         <v>257</v>
       </c>
@@ -5696,7 +5696,7 @@
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="31"/>
+      <c r="B8" s="45"/>
       <c r="C8" s="19" t="s">
         <v>260</v>
       </c>
@@ -5723,7 +5723,7 @@
       <c r="A9" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="31"/>
+      <c r="B9" s="45"/>
       <c r="C9" s="19" t="s">
         <v>264</v>
       </c>
@@ -5750,7 +5750,7 @@
       <c r="A10" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="31"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="19" t="s">
         <v>268</v>
       </c>
@@ -5777,7 +5777,7 @@
       <c r="A11" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="31"/>
+      <c r="B11" s="45"/>
       <c r="C11" s="19" t="s">
         <v>272</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="31"/>
+      <c r="B12" s="45"/>
       <c r="C12" s="19" t="s">
         <v>276</v>
       </c>
@@ -5831,7 +5831,7 @@
       <c r="A13" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="31"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="19" t="s">
         <v>280</v>
       </c>
@@ -5858,7 +5858,7 @@
       <c r="A14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="31"/>
+      <c r="B14" s="45"/>
       <c r="C14" s="19" t="s">
         <v>284</v>
       </c>
@@ -5885,7 +5885,7 @@
       <c r="A15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="31"/>
+      <c r="B15" s="45"/>
       <c r="C15" s="19" t="s">
         <v>288</v>
       </c>
@@ -5912,7 +5912,7 @@
       <c r="A16" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="31"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="19" t="s">
         <v>292</v>
       </c>
@@ -5939,7 +5939,7 @@
       <c r="A17" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="31"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="19" t="s">
         <v>297</v>
       </c>
@@ -5966,7 +5966,7 @@
       <c r="A18" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="31"/>
+      <c r="B18" s="45"/>
       <c r="C18" s="19" t="s">
         <v>302</v>
       </c>
@@ -5993,7 +5993,7 @@
       <c r="A19" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="31"/>
+      <c r="B19" s="45"/>
       <c r="C19" s="19" t="s">
         <v>306</v>
       </c>
@@ -6017,13 +6017,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
+      <c r="A20" s="46" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6037,7 +6037,7 @@
       <c r="A21" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="40" t="s">
         <v>330</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -6066,7 +6066,7 @@
       <c r="A22" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="27"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="19" t="s">
         <v>316</v>
       </c>
@@ -6093,7 +6093,7 @@
       <c r="A23" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="27"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="19" t="s">
         <v>321</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="A24" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="27"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="19" t="s">
         <v>326</v>
       </c>
@@ -6159,7 +6159,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46:B51"/>
     </sheetView>
@@ -6219,27 +6219,27 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="33"/>
-      <c r="B2" s="34"/>
-      <c r="C2" s="35" t="s">
+      <c r="A2" s="20"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="22" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="36"/>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="37" t="s">
+      <c r="B3" s="47" t="s">
         <v>333</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -6248,10 +6248,10 @@
       <c r="D3" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="29" t="s">
         <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
@@ -6268,7 +6268,7 @@
       <c r="A4" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="15" t="s">
         <v>339</v>
       </c>
@@ -6295,14 +6295,14 @@
       <c r="A5" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="5" t="s">
         <v>343</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="29" t="s">
         <v>345</v>
       </c>
       <c r="F5" s="5" t="s">
@@ -6322,17 +6322,17 @@
       <c r="A6" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="15" t="s">
         <v>348</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="E6" s="43" t="s">
+      <c r="E6" s="29" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="43" t="s">
+      <c r="F6" s="29" t="s">
         <v>350</v>
       </c>
       <c r="G6" s="2" t="s">
@@ -6349,7 +6349,7 @@
       <c r="A7" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="37"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="15" t="s">
         <v>352</v>
       </c>
@@ -6376,17 +6376,17 @@
       <c r="A8" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="5" t="s">
         <v>357</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E8" s="43" t="s">
+      <c r="E8" s="29" t="s">
         <v>358</v>
       </c>
-      <c r="F8" s="43" t="s">
+      <c r="F8" s="29" t="s">
         <v>359</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -6403,7 +6403,7 @@
       <c r="A9" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="15" t="s">
         <v>361</v>
       </c>
@@ -6430,17 +6430,17 @@
       <c r="A10" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="15" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="43" t="s">
+      <c r="D10" s="29" t="s">
         <v>353</v>
       </c>
-      <c r="E10" s="43" t="s">
+      <c r="E10" s="29" t="s">
         <v>366</v>
       </c>
-      <c r="F10" s="43" t="s">
+      <c r="F10" s="29" t="s">
         <v>367</v>
       </c>
       <c r="G10" s="2" t="s">
@@ -6457,7 +6457,7 @@
       <c r="A11" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="15" t="s">
         <v>369</v>
       </c>
@@ -6484,17 +6484,17 @@
       <c r="A12" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="15" t="s">
         <v>373</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="43" t="s">
+      <c r="E12" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="F12" s="43" t="s">
+      <c r="F12" s="29" t="s">
         <v>376</v>
       </c>
       <c r="G12" s="2" t="s">
@@ -6511,17 +6511,17 @@
       <c r="A13" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="37"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="15" t="s">
         <v>378</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="43" t="s">
+      <c r="E13" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="F13" s="43" t="s">
+      <c r="F13" s="29" t="s">
         <v>381</v>
       </c>
       <c r="G13" s="2" t="s">
@@ -6538,7 +6538,7 @@
       <c r="A14" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="37"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="15" t="s">
         <v>383</v>
       </c>
@@ -6565,17 +6565,17 @@
       <c r="A15" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="15" t="s">
         <v>388</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="F15" s="43" t="s">
+      <c r="F15" s="29" t="s">
         <v>390</v>
       </c>
       <c r="G15" s="2" t="s">
@@ -6592,7 +6592,7 @@
       <c r="A16" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="15" t="s">
         <v>392</v>
       </c>
@@ -6619,7 +6619,7 @@
       <c r="A17" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="37"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="15" t="s">
         <v>396</v>
       </c>
@@ -6646,7 +6646,7 @@
       <c r="A18" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="37"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="15" t="s">
         <v>400</v>
       </c>
@@ -6673,7 +6673,7 @@
       <c r="A19" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="37"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="15" t="s">
         <v>404</v>
       </c>
@@ -6696,11 +6696,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="37"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="15" t="s">
         <v>408</v>
       </c>
@@ -6727,7 +6727,7 @@
       <c r="A21" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="37"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="15" t="s">
         <v>412</v>
       </c>
@@ -6754,7 +6754,7 @@
       <c r="A22" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="37"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="15" t="s">
         <v>417</v>
       </c>
@@ -6781,7 +6781,7 @@
       <c r="A23" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B23" s="37"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="15" t="s">
         <v>421</v>
       </c>
@@ -6805,27 +6805,27 @@
       </c>
     </row>
     <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="38" t="s">
+      <c r="A24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="24" t="s">
         <v>425</v>
       </c>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
     </row>
     <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="25" t="s">
         <v>426</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="26"/>
       <c r="C25" s="2" t="s">
         <v>427</v>
       </c>
@@ -6848,11 +6848,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="27" t="s">
         <v>432</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -6878,10 +6878,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="25" t="s">
         <v>436</v>
       </c>
-      <c r="B27" s="42"/>
+      <c r="B27" s="28"/>
       <c r="C27" s="15" t="s">
         <v>437</v>
       </c>
@@ -6905,10 +6905,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
+      <c r="A28" s="25" t="s">
         <v>440</v>
       </c>
-      <c r="B28" s="42"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="15" t="s">
         <v>441</v>
       </c>
@@ -6931,11 +6931,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="39" t="s">
+    <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
         <v>444</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="28"/>
       <c r="C29" s="15" t="s">
         <v>445</v>
       </c>
@@ -6959,20 +6959,20 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="25" t="s">
         <v>448</v>
       </c>
-      <c r="B30" s="42"/>
+      <c r="B30" s="28"/>
       <c r="C30" s="15" t="s">
         <v>449</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="E30" s="43" t="s">
+      <c r="E30" s="29" t="s">
         <v>429</v>
       </c>
-      <c r="F30" s="43" t="s">
+      <c r="F30" s="29" t="s">
         <v>451</v>
       </c>
       <c r="G30" s="2" t="s">
@@ -6986,20 +6986,20 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="25" t="s">
         <v>452</v>
       </c>
-      <c r="B31" s="42"/>
+      <c r="B31" s="28"/>
       <c r="C31" s="15" t="s">
         <v>453</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="E31" s="43" t="s">
+      <c r="E31" s="29" t="s">
         <v>455</v>
       </c>
-      <c r="F31" s="43" t="s">
+      <c r="F31" s="29" t="s">
         <v>456</v>
       </c>
       <c r="G31" s="2" t="s">
@@ -7013,27 +7013,27 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="35" t="s">
+      <c r="A32" s="20"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="22" t="s">
         <v>457</v>
       </c>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="33"/>
-      <c r="K32" s="33"/>
-      <c r="L32" s="33"/>
-      <c r="M32" s="33"/>
+      <c r="D32" s="20"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20"/>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="20"/>
+      <c r="M32" s="20"/>
     </row>
     <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="48" t="s">
         <v>459</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -7042,198 +7042,198 @@
       <c r="D33" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E33" s="43" t="s">
+      <c r="E33" s="29" t="s">
         <v>462</v>
       </c>
-      <c r="F33" s="43" t="s">
+      <c r="F33" s="29" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39" t="s">
+      <c r="A34" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="44"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="5" t="s">
         <v>465</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>461</v>
       </c>
-      <c r="E34" s="43" t="s">
+      <c r="E34" s="29" t="s">
         <v>466</v>
       </c>
-      <c r="F34" s="43" t="s">
+      <c r="F34" s="29" t="s">
         <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B35" s="44"/>
+      <c r="B35" s="48"/>
       <c r="C35" s="5" t="s">
         <v>469</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="E35" s="43" t="s">
+      <c r="E35" s="29" t="s">
         <v>471</v>
       </c>
-      <c r="F35" s="43" t="s">
+      <c r="F35" s="29" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39" t="s">
+      <c r="A36" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="44"/>
+      <c r="B36" s="48"/>
       <c r="C36" s="15" t="s">
         <v>474</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E36" s="43" t="s">
+      <c r="E36" s="29" t="s">
         <v>476</v>
       </c>
-      <c r="F36" s="43" t="s">
+      <c r="F36" s="29" t="s">
         <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="44"/>
+      <c r="B37" s="48"/>
       <c r="C37" s="15" t="s">
         <v>479</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E37" s="43" t="s">
+      <c r="E37" s="29" t="s">
         <v>480</v>
       </c>
-      <c r="F37" s="43" t="s">
+      <c r="F37" s="29" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B38" s="44"/>
+      <c r="B38" s="48"/>
       <c r="C38" s="15" t="s">
         <v>365</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E38" s="43" t="s">
+      <c r="E38" s="29" t="s">
         <v>483</v>
       </c>
-      <c r="F38" s="43" t="s">
+      <c r="F38" s="29" t="s">
         <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="B39" s="44"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="15" t="s">
         <v>486</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E39" s="43" t="s">
+      <c r="E39" s="29" t="s">
         <v>487</v>
       </c>
-      <c r="F39" s="43" t="s">
+      <c r="F39" s="29" t="s">
         <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="44"/>
+      <c r="B40" s="48"/>
       <c r="C40" s="15" t="s">
         <v>490</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E40" s="43" t="s">
+      <c r="E40" s="29" t="s">
         <v>491</v>
       </c>
-      <c r="F40" s="43" t="s">
+      <c r="F40" s="29" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="44"/>
+      <c r="B41" s="48"/>
       <c r="C41" s="15" t="s">
         <v>494</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="E41" s="43" t="s">
+      <c r="E41" s="29" t="s">
         <v>495</v>
       </c>
-      <c r="F41" s="43" t="s">
+      <c r="F41" s="29" t="s">
         <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B42" s="44"/>
+      <c r="B42" s="48"/>
       <c r="C42" s="15" t="s">
         <v>498</v>
       </c>
       <c r="D42" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E42" s="43" t="s">
+      <c r="E42" s="29" t="s">
         <v>500</v>
       </c>
-      <c r="F42" s="43" t="s">
+      <c r="F42" s="29" t="s">
         <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B43" s="44"/>
+      <c r="B43" s="48"/>
       <c r="C43" s="15" t="s">
         <v>503</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>499</v>
       </c>
-      <c r="E43" s="43" t="s">
+      <c r="E43" s="29" t="s">
         <v>504</v>
       </c>
-      <c r="F43" s="43" t="s">
+      <c r="F43" s="29" t="s">
         <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="44"/>
+      <c r="B44" s="48"/>
       <c r="C44" s="15" t="s">
         <v>421</v>
       </c>
@@ -7248,30 +7248,30 @@
       </c>
     </row>
     <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="45"/>
-      <c r="B45" s="45"/>
-      <c r="C45" s="46" t="s">
+      <c r="A45" s="30"/>
+      <c r="B45" s="30"/>
+      <c r="C45" s="31" t="s">
         <v>509</v>
       </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="45"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="45"/>
-      <c r="H45" s="45"/>
-      <c r="I45" s="45"/>
-      <c r="J45" s="45"/>
-      <c r="K45" s="45"/>
-      <c r="L45" s="45"/>
-      <c r="M45" s="45"/>
+      <c r="D45" s="30"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
+      <c r="L45" s="30"/>
+      <c r="M45" s="30"/>
     </row>
     <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39" t="s">
+      <c r="A46" s="25" t="s">
         <v>510</v>
       </c>
       <c r="B46" s="49" t="s">
         <v>509</v>
       </c>
-      <c r="C46" s="47" t="s">
+      <c r="C46" s="32" t="s">
         <v>511</v>
       </c>
       <c r="D46" s="5" t="s">
@@ -7280,19 +7280,19 @@
       <c r="E46" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="F46" s="43" t="s">
+      <c r="F46" s="29" t="s">
         <v>514</v>
       </c>
-      <c r="G46" s="48"/>
-      <c r="H46" s="48"/>
-      <c r="I46" s="48"/>
-      <c r="J46" s="48"/>
-      <c r="K46" s="48"/>
-      <c r="L46" s="48"/>
-      <c r="M46" s="48"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="33"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="33"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="33"/>
+      <c r="M46" s="33"/>
     </row>
     <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="25" t="s">
         <v>515</v>
       </c>
       <c r="B47" s="49"/>
@@ -7319,7 +7319,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="25" t="s">
         <v>518</v>
       </c>
       <c r="B48" s="49"/>
@@ -7332,7 +7332,7 @@
       <c r="E48" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="F48" s="43" t="s">
+      <c r="F48" s="29" t="s">
         <v>520</v>
       </c>
       <c r="G48" s="2" t="s">
@@ -7343,7 +7343,7 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="25" t="s">
         <v>521</v>
       </c>
       <c r="B49" s="49"/>
@@ -7356,12 +7356,12 @@
       <c r="E49" s="5" t="s">
         <v>522</v>
       </c>
-      <c r="F49" s="43" t="s">
+      <c r="F49" s="29" t="s">
         <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="25" t="s">
         <v>524</v>
       </c>
       <c r="B50" s="49"/>
@@ -7374,12 +7374,12 @@
       <c r="E50" s="5" t="s">
         <v>526</v>
       </c>
-      <c r="F50" s="43" t="s">
+      <c r="F50" s="29" t="s">
         <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="25" t="s">
         <v>528</v>
       </c>
       <c r="B51" s="49"/>
@@ -7392,7 +7392,7 @@
       <c r="E51" s="5" t="s">
         <v>530</v>
       </c>
-      <c r="F51" s="43" t="s">
+      <c r="F51" s="29" t="s">
         <v>531</v>
       </c>
     </row>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71E40306-8119-4BA4-B8A4-9322C4B34D7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D3FF96-EB71-4759-98A8-93624C841CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
     <sheet name="POST" sheetId="4" r:id="rId4"/>
     <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
+    <sheet name="FORUMS" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="967" uniqueCount="532">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="533">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -2981,12 +2982,15 @@
 8. Cho phép nhấn button Submit
 9. Tại mục  Knowledge thông báo dòng text : 'Knowledge is required.'</t>
   </si>
+  <si>
+    <t>FORUMS</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3102,6 +3106,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3262,7 +3273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3402,6 +3413,9 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -6158,8 +6172,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46:B51"/>
     </sheetView>
@@ -7404,4 +7418,25 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>532</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D3FF96-EB71-4759-98A8-93624C841CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114524D3-61A0-489B-B69A-4B50078E25DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,9 @@
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
     <sheet name="POST" sheetId="4" r:id="rId4"/>
     <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
-    <sheet name="FORUMS" sheetId="6" r:id="rId6"/>
+    <sheet name="LEARNING" sheetId="7" r:id="rId6"/>
+    <sheet name="ADMINSTRATOR" sheetId="8" r:id="rId7"/>
+    <sheet name="FORUMS" sheetId="6" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1522" uniqueCount="847">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -2985,12 +2987,2460 @@
   <si>
     <t>FORUMS</t>
   </si>
+  <si>
+    <t>LE_01</t>
+  </si>
+  <si>
+    <t>All Modules</t>
+  </si>
+  <si>
+    <t>Check the path on the "card-header "</t>
+  </si>
+  <si>
+    <t>The dashboard displays successfully</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Allow hover on learning button.
+2. Allow click on </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> button
+3. Correct path : 
+"Dashboard &gt; Learning".
+Background Color : #f0f3f5.</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_02</t>
+  </si>
+  <si>
+    <t>Check the 'Create new' button on the "card-header"</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"
+Step 4: Hover on "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 5: Check color of "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>+ Create new</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The button's default color is: #3699ff.
+2. On hover, the color is: #62aa2a.</t>
+  </si>
+  <si>
+    <t>LE_03</t>
+  </si>
+  <si>
+    <t>Check out the data fields</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Hover on Learning button.
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check if the data fields are complete.</t>
+    </r>
+  </si>
+  <si>
+    <t>1. Displays a table containing the modules information.
+2. The full range of columns: 
+No., Title, Duration, Capsules, Status, Tags, Date, Action.</t>
+  </si>
+  <si>
+    <t>LE_04</t>
+  </si>
+  <si>
+    <t>Check data filtering by title</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Step 1: Focus mouse on the title box.
+Step 2: In turn enter the values ​​in column G into the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>title</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Allows data entry.
+2. Allows  click the Apply button.
+3.Filtered data related to the data entered.
+4. If left empty, do not filter.
+5.If the data entry does not exist, message: "There are no records"</t>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'learning'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_05</t>
+  </si>
+  <si>
+    <t>Check data filtering by Status</t>
+  </si>
+  <si>
+    <t>Step 1: Click on the combobox under status.
+Step 2: choose Status.
+Step 3: Check the filtered results</t>
+  </si>
+  <si>
+    <t>1.Allows clicking on the combobox.
+2.Shows a list of options: Public, Hide, Draft.
+3. Filters the correct data for the selected state.</t>
+  </si>
+  <si>
+    <t>LE_06</t>
+  </si>
+  <si>
+    <t>Check data filtering by Tags</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Focus mouse on the Tags box.
+Step 2: In turn enter the values ​​in column G into the</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tags</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> box.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: 'string'.
+Round 3: '1'.</t>
+  </si>
+  <si>
+    <t>LE_07</t>
+  </si>
+  <si>
+    <t>Check data filtering</t>
+  </si>
+  <si>
+    <r>
+      <t>Step 1: Enter the information in column G in turn into the fields to be filled in.
+Step 3: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 4: Check the filtered results.</t>
+    </r>
+  </si>
+  <si>
+    <t>Round 1: empty.
+Round 2: Information of the line already exists
+Round 3: Any information does not exist in the table.</t>
+  </si>
+  <si>
+    <t>LE_08</t>
+  </si>
+  <si>
+    <t>Check clear button functionality</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Step 1:enter any data in the title box
+Step 2: Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" button.
+Step 3: Check screen.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Show clear button.
+2.Blank data cells on the data filter area.</t>
+  </si>
+  <si>
+    <t>LE_09</t>
+  </si>
+  <si>
+    <t>Check data fields</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 3 record</t>
+    </r>
+  </si>
+  <si>
+    <t>Checks if the information on the rows matches the column name or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The information displayed is correct with the field name:
+1."No." : automatically increments by 1, starting from 1.
+2. "Title": thumbnail and title.
+3. "Capsule": Total capsule of this learning.
+4."Status": hide/Draft/Public and matching icons.
+5."Date" column: Displays the posted time or last modified time, specify hour, minute, day, month, year.
+</t>
+  </si>
+  <si>
+    <t>LE_10</t>
+  </si>
+  <si>
+    <t>Check "Actions" button.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 1 record.</t>
+    </r>
+  </si>
+  <si>
+    <t>1.Hover on "Actions" button.
+2. Click "Actions".
+3. Check the functions shown in the action panel.</t>
+  </si>
+  <si>
+    <t>1. Default Background color: #3699ff.
+when hover : Background-color : #62aa2a.
+2. The functions appear: Detail, public, hide, Draft, Edit, Delete, show capsules, new capsule.</t>
+  </si>
+  <si>
+    <t>LE_11</t>
+  </si>
+  <si>
+    <t>Check the show detail function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+3.Click "Detail".</t>
+  </si>
+  <si>
+    <t>1.Show learning details incude: Title, Tags, create date, create by, Lasted update, Updated by, Duration, Status, Thumbnail, Background.
+2.The path on the "card-header " is correct.
+3.Correct spelling.</t>
+  </si>
+  <si>
+    <t>LE_12</t>
+  </si>
+  <si>
+    <t>Check the status change function</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Hide/Public/Draft.</t>
+  </si>
+  <si>
+    <t>Update the data in the table: change the status column to the selected state.</t>
+  </si>
+  <si>
+    <t>LE_13</t>
+  </si>
+  <si>
+    <t>Check editing is successful.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. edit text in title, description.
+4.edit Tags or add new tag.
+5.Edit Thumbnail, Background
+6. click SUBMIT.</t>
+  </si>
+  <si>
+    <t>1. Open interface that allows successful editing of information.
+2. Allows entering text in the title, description boxes.
+3.Allows create New Tag.
+4.Access the user's computer to upload new photos.
+5. When click Submit: 
+ Go to the all modules interface.</t>
+  </si>
+  <si>
+    <t>Title: Master Learning.
+Description: String.
+Thumbnail: https://nmbdev.blob.core.windows.net/blob-test/su-tich-hoa-huong-duong-696cd3c4-9df1-442f-9ade-f98dd9e6860e.jpg
+Background: https://nmbdev.blob.core.windows.net/blob-test/21158728-41e4a48f-1946-44c5-9db9-8c02eca74e2c.jpg</t>
+  </si>
+  <si>
+    <t>LE_14</t>
+  </si>
+  <si>
+    <t>Check editing is failed.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click EDIT.
+3. Delete all existing data of the module.
+4. Click submit.</t>
+  </si>
+  <si>
+    <t>Error message: 
+  - Title is required .
+ - Description is required.
+ - Thumbnail is requied.
+ - Background is required.
+ Edit failed.</t>
+  </si>
+  <si>
+    <t>LE_15</t>
+  </si>
+  <si>
+    <t>Check for delete functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click DELETE.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1.Ask again, if you agree, delete.
+2.Update the table with the appropriate number of records</t>
+  </si>
+  <si>
+    <t>LE_16</t>
+  </si>
+  <si>
+    <t>Check for show capsules functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click Show capsules.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>Show capsules information  of module if exist.</t>
+  </si>
+  <si>
+    <t>LE_17</t>
+  </si>
+  <si>
+    <t>Check create capsule for learning functions</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Click "New capsule".
+3.Check screen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to interface to create capsule for that learning.
+At this interface, there is no need to choose learning.
+</t>
+  </si>
+  <si>
+    <t>LE_18</t>
+  </si>
+  <si>
+    <t>Checks the line that describes the number 
+of displayed and existing records.
+ Record management function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Open the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>All modules</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> interface successfully 
+and exists at least 11 record.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Choose page size  5/10/20.
+2.Check screen.
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If number of modules &gt; page size will display the page number and press the next button to view the next page.
+Show: 
+ "Showing from … to … of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total number of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ".</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_19</t>
+  </si>
+  <si>
+    <t>New Learning</t>
+  </si>
+  <si>
+    <t>Check the path on the card-header</t>
+  </si>
+  <si>
+    <t>Open the "New Learning" interface successfully</t>
+  </si>
+  <si>
+    <t>1. Click New Learning.
+2. Check the path.</t>
+  </si>
+  <si>
+    <t>Path indicates the current location:
+ Dashboard &gt; Learning&gt; Create Learning.</t>
+  </si>
+  <si>
+    <t>LE_20</t>
+  </si>
+  <si>
+    <t>Create new learning successfully.
+(Have Tag)</t>
+  </si>
+  <si>
+    <t>1. Enter information in column G.
+2. Click "Submit" or "Submit and add new"</t>
+  </si>
+  <si>
+    <t>1.Notification: "Create successful ".
+2. click submit -&gt;  Detail  interface of this learning.
+   Click Submit and add new - &gt; New learning interface.
+3. - New learning must have all completed information:
+title, description, tags, thumbnail, background.</t>
+  </si>
+  <si>
+    <t>Title: Test Learning
+Description: No Description.
+Tags : Tag01.
+Thumbnail:  image size &lt;= 2MB.
+Background: image size &lt;= 2MB.</t>
+  </si>
+  <si>
+    <t>Create new learning successfully.
+(Don't have tag)</t>
+  </si>
+  <si>
+    <t>1.Notification: "Create successful ".
+2. click submit -&gt;  Detail  interface of this learning.
+   Click Submit and add new - &gt; New learning interface.</t>
+  </si>
+  <si>
+    <t>Title: Test Learning
+Description: No Description.
+Thumbnail: image size &lt;= 2MB.
+Background:  image size &lt;= 2MB.</t>
+  </si>
+  <si>
+    <t>LE_21</t>
+  </si>
+  <si>
+    <t>Create new learning failed.
+(Missing error information)</t>
+  </si>
+  <si>
+    <t>1.Show error message: 
+- "Title is requied"
+- "Description is requied".
+- "Thumbnail is requied".
+- "Background is requied".
+2. Create failed.</t>
+  </si>
+  <si>
+    <t>Leave the information fields blank in turn, the rest get the information in cell G23.</t>
+  </si>
+  <si>
+    <t>LE_22</t>
+  </si>
+  <si>
+    <t>Create new learning failed.
+(Upload pictures or files that are too sized)</t>
+  </si>
+  <si>
+    <t>1.Show error message: 
+- "Thumbnail over size".
+- "Background over size".
+2. Create failed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: Test Learning
+Description: No Description.
+Tags : Tag01.
+Thumbnail: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Image size&gt; 2mb</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Background:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Image size&gt; 2mb</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_23</t>
+  </si>
+  <si>
+    <t>ALL CAPSULES</t>
+  </si>
+  <si>
+    <t>Check out the look, layout, path</t>
+  </si>
+  <si>
+    <t>Open the "All Capsules" interface successfully</t>
+  </si>
+  <si>
+    <t>1.Check the path on the card header.
+2.Check that the fields in the Capsules table are correct.</t>
+  </si>
+  <si>
+    <t>1.The path is only correct at the current location.
+2. Show full information: Title, Duration, Status, Date, Actions.
+3.The first line contains cells to enter filter information.</t>
+  </si>
+  <si>
+    <t>LE_24</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when entering only the title</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.There is a filter input box</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter information in comlumn G.
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>1. The capsules can be filtered with titles related to the title entered.
+2. All states are accepted.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Title: a
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_25</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when choose only the status</t>
+  </si>
+  <si>
+    <t>1. The capsules can be filtered with selected state.
+2. All titles are accepted.</t>
+  </si>
+  <si>
+    <r>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: hide/Public/Draft.</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_26</t>
+  </si>
+  <si>
+    <t>Test filtered successfully
+when blank</t>
+  </si>
+  <si>
+    <r>
+      <t>1.Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apply</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Show all capsules.</t>
+  </si>
+  <si>
+    <r>
+      <t>Title:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Status: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+  </si>
+  <si>
+    <t>LE_27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test filtered successfully
+when there is no satisfying capsule </t>
+  </si>
+  <si>
+    <t>Notification: There are no records.</t>
+  </si>
+  <si>
+    <t>Title: No record/////.
+Status: Draft</t>
+  </si>
+  <si>
+    <t>Check the Clear function</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.There is a filter input box.</t>
+  </si>
+  <si>
+    <r>
+      <t>1. Enter information in comlumn G.
+2. Click "</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Clear</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>".</t>
+    </r>
+  </si>
+  <si>
+    <t>Blanking the input fields in the filter</t>
+  </si>
+  <si>
+    <t>Title: abcngldcj
+Status: Draft</t>
+  </si>
+  <si>
+    <t>LE_28</t>
+  </si>
+  <si>
+    <t>Functional test show details</t>
+  </si>
+  <si>
+    <t>1.Open the "All Capsules" interface successfully
+2.exists at least 1 record.</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2.Hover on "Detail".
+3. Click "Detail".
+4. Click "Info" icon.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Detail button change Background-Color.
+3. Show title, description, Attachment.
+4. Show: Create date, Create user, Latest update, Update user, Duration, status, thumbnail, background.</t>
+  </si>
+  <si>
+    <t>LE_29</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click Hide/Draft/Public.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Hide/Draft/Public.</t>
+  </si>
+  <si>
+    <t>LE_30</t>
+  </si>
+  <si>
+    <t>Check editing functionality</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click EDIT.
+3. Edit information.
+4. Click Submit.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click EDIT.
+3. Switch to the editing interface and default information is capsule to edit.
+4. check information and announcements.</t>
+  </si>
+  <si>
+    <t>LE_31</t>
+  </si>
+  <si>
+    <t>Check delete successfully</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click DELETE.
+3. Click Confirm.
+4. Check screen</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Delete.
+3. Allow click confirm and announcements.
+4.Delete successfull and update information.</t>
+  </si>
+  <si>
+    <t>LE_32</t>
+  </si>
+  <si>
+    <t>Check delete failed</t>
+  </si>
+  <si>
+    <t>1. Click "Actions".
+2. Click DELETE.
+3. Click cancel.</t>
+  </si>
+  <si>
+    <t>1.Allow click Actions.
+2. Allow click Delete.
+3. Allow click cancel and delete failed.</t>
+  </si>
+  <si>
+    <t>LE_33</t>
+  </si>
+  <si>
+    <t>Check record after delete successful</t>
+  </si>
+  <si>
+    <t>1.exists at least 6 record.
+2. Delete successful</t>
+  </si>
+  <si>
+    <t>1. Click DELETE.
+2. Click Confirm.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1. Total records change.
+2. order of change.</t>
+  </si>
+  <si>
+    <t>LE_34</t>
+  </si>
+  <si>
+    <t>New Capsule.</t>
+  </si>
+  <si>
+    <t>Create capsules successful</t>
+  </si>
+  <si>
+    <t>1.Open the "New Capsule" interface successfully.</t>
+  </si>
+  <si>
+    <t>1. Hover on LEARNING.
+2. Click New Capsule.
+3.Enter information in column G.
+4. Click Submit.</t>
+  </si>
+  <si>
+    <t>1.Create successful.
+2. Go to All capsule interface.</t>
+  </si>
+  <si>
+    <t>1.Title: Capsule0001
+  Duration : 30
+  Description: This is new capsule.
+  Learning: Test Learning 1.
+  Attacment: max size = 5MB
+  Thumbnail: max size = 2MB
+  Background: max size = 2MB</t>
+  </si>
+  <si>
+    <t>Create capsules failed</t>
+  </si>
+  <si>
+    <t>1.Create failed.
+2. Show error: 
+  - Title is requied.
+  - Duration is requied.
+  - Learning is requied.
+  - Attacment is requied.
+  - Thumbnail is requied.
+  - Background is requied.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Title: 
+  Duration :
+  Description: 
+  Learning:
+  Attacment: 
+  Thumbnail:
+  Background: </t>
+  </si>
+  <si>
+    <t>1.Create failed.
+2. Show appropriate notice</t>
+  </si>
+  <si>
+    <t>1.Title: -blank
+              -number
+              -"abcdefgh"
+              -space.
+accept: a-f, number.
+2.Duration : blank
+                   - negative numbers 
+                   - positive numbers
+                   -0
+                   -characters.
+   accept: positive numbers.
+3. Description: image/file doc/ string/video.
+4. Learning: (learning does not exist).
+5.Attacment:
+     -  file have size &lt;= 5 MB.
+      -  file have size &gt; 5 MB.
+6.Thumbnail: 
+      -  image have size &lt;= 5 MB.
+      -  image have size &gt; 5 MB.
+7.Background:
+       -  image have size &lt;= 5 MB.
+       -  image have size &gt; 5 MB.</t>
+  </si>
+  <si>
+    <t>AD_01</t>
+  </si>
+  <si>
+    <t>Check Card-header</t>
+  </si>
+  <si>
+    <t>Check information in card-header</t>
+  </si>
+  <si>
+    <t>Open "Accounts" interface successfully</t>
+  </si>
+  <si>
+    <t>1.Hover on Administrator button.
+2.Click "Accounts" button.
+3.Check card-header.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.The path on the Card-header is correct.
+2.Have "Create New" button.
+3.Background-color: #f0f3f5. (like the design file).
+</t>
+  </si>
+  <si>
+    <t>AD_02</t>
+  </si>
+  <si>
+    <t>Check event 
+when click "Create New" button.</t>
+  </si>
+  <si>
+    <t>1.Hover on "Create New" button.
+2.Click "Create New" button.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1. Background-color change: #62aa2a.
+2.Allow click "Craete New" button.
+3.Go to "Create New Account" interface.</t>
+  </si>
+  <si>
+    <t>List Administrator Accounts</t>
+  </si>
+  <si>
+    <t>AD_03</t>
+  </si>
+  <si>
+    <t>Check layout, page size, 
+span total of records</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check if the table has enough information fields
+Page size levels
+Descriptiont 
+</t>
+  </si>
+  <si>
+    <t>Open "Accounts" interface successfully
+Exist at least 6 records.</t>
+  </si>
+  <si>
+    <t>1. Check table screen.
+2.Click page size.
+3. Choose page size.
+4.Count the number of records in the table
+5. Read the description.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. Fields: Name, Date of birth, Email, Date, Blocked ? , Action.
+2.Page size: 5/10/20.
+3.if page size = 5 -&gt; Number of records in the table &lt;=5.
+4. Showing from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">1+x </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to          </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>x + page size</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+                                                    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> of  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>total of records</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+ X =  page size x (page number -1).</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_04</t>
+  </si>
+  <si>
+    <t>Filter test</t>
+  </si>
+  <si>
+    <t>Filtered Successfully</t>
+  </si>
+  <si>
+    <t>Open "Accounts" interface successfully
+Exist at least 5 records.</t>
+  </si>
+  <si>
+    <t>1. Enter information on column G.
+2. Click "Apply" button.
+3. Check result.</t>
+  </si>
+  <si>
+    <t>1.Allow Enter information.
+2. Allow click "Apply" button.
+3. Displays records that match the information you just entered.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name: Boss Admin
+ </t>
+  </si>
+  <si>
+    <t>AD_05</t>
+  </si>
+  <si>
+    <t>Filtered failed</t>
+  </si>
+  <si>
+    <t>1.Allow Enter information.
+2. Allow click "Apply" button.
+3. show: There are no records.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name: @@@@@@
+ </t>
+  </si>
+  <si>
+    <t>AD_06</t>
+  </si>
+  <si>
+    <t>Check event 
+when click "Clear" button.</t>
+  </si>
+  <si>
+    <t>1. Enter information on column G.
+2. Click "Clear" button.
+3. Check result.</t>
+  </si>
+  <si>
+    <t>1.Allow Enter information.
+2. Allow click "Clear" button.
+3. Clear the information in the input box</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Name: @
+ </t>
+  </si>
+  <si>
+    <t>AD_07</t>
+  </si>
+  <si>
+    <t>Check list</t>
+  </si>
+  <si>
+    <t>Check information by column</t>
+  </si>
+  <si>
+    <t>Open "Acounts" interface successfully
+Open "Profile" interface successfully
+Exist at least 3 records.</t>
+  </si>
+  <si>
+    <t>1. Check the order of records, name, ..
+2. Distance between columns</t>
+  </si>
+  <si>
+    <t>1.the order increases from 1.
+2.Name column has: avatar + name
+3.Date regex: mm/dd/yyyy.
+4.Email: show email 
+5. Date : show time, date, Last Modified / Published.
+6. Blocked : on/off
+7.Actions: Have Actions button .</t>
+  </si>
+  <si>
+    <t>AD_08</t>
+  </si>
+  <si>
+    <t>Check profile view functionality</t>
+  </si>
+  <si>
+    <t>Open "Acounts" interface successfully
+Open "Profile" interface successfully
+Exist at least 1 records.</t>
+  </si>
+  <si>
+    <t>1. Click Actions.
+2.Click Profile.
+3.Check screen.</t>
+  </si>
+  <si>
+    <t>1. Allow click Actions.
+2. Allow click Profile.
+3. Go to Profile interface.
+4. Profile interface Only allow viewing, not editing.</t>
+  </si>
+  <si>
+    <t>AD_09</t>
+  </si>
+  <si>
+    <t>Check profile interface</t>
+  </si>
+  <si>
+    <t>1. Check layout.
+2.Check information.</t>
+  </si>
+  <si>
+    <t>1. Card-header: have the path, "Update Profile" button.
+2. Show : avatar, cover photo, email, fullname, date of birth, phone, address, Gender, Region, Verified, locked, blocked.</t>
+  </si>
+  <si>
+    <t>AD_10</t>
+  </si>
+  <si>
+    <t>Check EDIT profile function.</t>
+  </si>
+  <si>
+    <t>Edit successful.</t>
+  </si>
+  <si>
+    <t>1. Click Actions
+2. Click Edit
+3. Enter information on column G.
+4. Click Submit.</t>
+  </si>
+  <si>
+    <t>1.Allow click Edit.
+2.Get all the information of the admin to edit into the edit interface : show avatar, cover image, ….
+3. Allow enter information.
+4. Allow edit role.
+5. Edit successful and go to Profile Interface.</t>
+  </si>
+  <si>
+    <t>1. avatar/ cover image: size &lt;= 2MB.
+2. first name: John
+3. Last name: Legent.
+4. Gender: male/female/other.
+5. Date of Birth &lt; Now.</t>
+  </si>
+  <si>
+    <t>AD_11</t>
+  </si>
+  <si>
+    <t>Edit failed.</t>
+  </si>
+  <si>
+    <t>1.Allow click Edit.
+2. Allow enter information on column G.
+3. Show error.
+ - Image over size.
+ - First is invalid /  First name is too length / First name is requied.
+ - Password is requied
+ - Confirm password is requied.
+ - Repeat Password not match.
+ - Password must contain at least one lowercase letter, one uppercase letter, one number, one special character and contain at least 8 characters
+4. Edit failed.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1. avatar/ cover image: size &gt; 2MB.
+2. first name:- John@@@@@@@@@@
+                        - hhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhhh
+                        - 111111111111111111111111111
+                        - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Last name: like first name.
+4.PassWord : </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">blank
+                         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>aaaaaa
+                         111111111
+                         @@@@@
+5. Confirm password : like password.</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_12</t>
+  </si>
+  <si>
+    <t>Check Blocked field</t>
+  </si>
+  <si>
+    <t>Check choose Block/ Unblock</t>
+  </si>
+  <si>
+    <t>1. Check Blocked? field.
+2. Click Actions.
+3. Click Block/ Unblock 
+4. Check result.</t>
+  </si>
+  <si>
+    <t>1.Show state : On/Off
+2. Allow click Action
+3.Allow click Block/Unblock.
+4.If click Block -- &gt; State: On
+   If click Unblock --&gt; State: Off.</t>
+  </si>
+  <si>
+    <t>Create new Account</t>
+  </si>
+  <si>
+    <t>AD_13</t>
+  </si>
+  <si>
+    <t>Check Create New Account function</t>
+  </si>
+  <si>
+    <t>Check interface</t>
+  </si>
+  <si>
+    <t>Login with Admin account successfully</t>
+  </si>
+  <si>
+    <t>1. Hover on Adminstrator.
+2. Click Create new account. 
+3. Check fields.
+4. Check place holder.
+5. Check default values.</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2.Allow click Create new account.
+3. Enought fields for create account.
+4. Place holder like field name, when enter information --&gt; place holder hide.
+5.Gender: male.
+   Roles: Dashboard, content.</t>
+  </si>
+  <si>
+    <t>untest</t>
+  </si>
+  <si>
+    <t>AD_14</t>
+  </si>
+  <si>
+    <t>Create successfully</t>
+  </si>
+  <si>
+    <t>1. Hover on Adminstrator.
+2. Click "Create new account".
+3.Enter information on column G.
+4. Click Roles.
+5. Choose roles.
+6. submit.</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on  column G
+4.Allow click Roles
+5.Allow choose roles.
+6. Notification:  Create account successfully.</t>
+  </si>
+  <si>
+    <t>First name: John
+Last name: Legent
+Email:  abc@abc.vn
+Password: Dthsen1912@pass
+Confirm : Dthsen1912@pass
+Gender: female
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+  </si>
+  <si>
+    <t>AD_15</t>
+  </si>
+  <si>
+    <t>Create new account failed 
+(First name failed)</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on column G.
+4.Allow click Roles
+5.Allow choose roles.
+6.Create new account failed.
+7. Notification: 
+    - First name is requied.
+    - First name is in valid.
+    - First name is too long.</t>
+  </si>
+  <si>
+    <r>
+      <t>First name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> blank
+                     </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 1234567890
+                      [!@#$%^&amp;*() -_+=]
+                      aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+Last name: Legent
+Email:  abc@abc.vn
+Password: Dthsen1912@pass
+Confirm : Dthsen1912@pass
+Gender: male
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_16</t>
+  </si>
+  <si>
+    <t>Create new account failed 
+(Last name failed)</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on column G.
+4.Allow click Roles
+5.Allow choose roles.
+6.Create new account failed.
+7. Notification: 
+    - Last name is requied.
+    - Last name is in valid.
+    - Last name is too long.</t>
+  </si>
+  <si>
+    <r>
+      <t>First name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Last name: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                      1234567890
+                      [!@#$%^&amp;*() -_+=]
+                      aaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaaa
+Email:  abc@abc.vn
+Password: Dthsen1912@pass
+Confirm : Dthsen1912@pass
+Gender: female
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_17</t>
+  </si>
+  <si>
+    <t>Create new account failed 
+(Email failed)</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on column G.
+4.Allow click Roles
+5.Allow choose roles.
+6.Create new account failed.
+7. Notification: 
+    - Email is requied.
+    - Email  is in valid.
+    - Last name is too long.</t>
+  </si>
+  <si>
+    <r>
+      <t>First name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Last name: Legent.
+Email:  -</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+             - 11111111111111
+             - aaaaaaaaaaaaaa
+             - @@@@@@@@
+             - abc#asd@dfvfd
+             - Dthsen1912@passjnhgbfddddddddddddddddd...(254)
+Password: Dthsen1912@pass
+Confirm : Dthsen1912@pass
+Gender: female
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_18</t>
+  </si>
+  <si>
+    <t>Create new account failed 
+(Password and Confirm Password failed)</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on column G.
+4.Allow click Roles
+5.Allow choose roles.
+6.Create new account failed.
+7. Notification: 
+    - Password is requied.
+    - Password must contain at least 1 lowercase letter, 1 uppercase letter, 1 number, 1 special character and have at least 8 characters.
+    - Password does not contain any spaces.</t>
+  </si>
+  <si>
+    <r>
+      <t>First name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Last name: Legent.
+Email:  abc@abc.vn
+Password: - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                    - 1111111111
+                    - aaaaaaaaaa
+                    - !!!!!!!!!!!!!!!
+                    - aA@2
+                    - a   A@2aaaaa
+Confirm : Dthsen1912@pass
+Gender: female
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+    </r>
+  </si>
+  <si>
+    <t>AD_19</t>
+  </si>
+  <si>
+    <t>1. Allow hover on Adminstrator.
+2. Allow click "Create new account".
+3. Allow enter information on column G.
+4.Allow click Roles
+5.Allow choose roles.
+6.Create new account failed.
+7. Notification: 
+    - Password is requied.
+    - Password must contain at least 1 lowercase letter, 1 uppercase letter, 1 number, 1 special character and have at least 8 characters.
+    - Password does not contain any spaces.
+    - Repeat password not match.</t>
+  </si>
+  <si>
+    <r>
+      <t>First name:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Last name: Legent.
+Email:  abc@abc.vn
+Password: - </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blank</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+                    - 1111111111
+                    - aaaaaaaaaa
+                    - !!!!!!!!!!!!!!!
+                    - aA@2
+                    - a   A@2aaaaa
+Confirm :  - Dthsen1912@pass.
+Gender: male
+DOB: 12/19/2001.
+Phone: 0355213743.
+Role: Dashboard/Post/Content/Adminstrator/...</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">         ROLES</t>
+  </si>
+  <si>
+    <t>AD_RO_01</t>
+  </si>
+  <si>
+    <t>List Roles</t>
+  </si>
+  <si>
+    <t>1. Hover on Adminstrator.
+2. Click Roles. 
+3. Check layout.
+4. Check path.
+5. Check page size and description.</t>
+  </si>
+  <si>
+    <t>1. Allow hover on adminstrator.
+2. Allow click Roles.
+3. Layout like design.
+4. The path indicates exact current position.
+5. Page size : 5/10/20 
+6. Accurately describes the current page record number and the total number of records</t>
+  </si>
+  <si>
+    <t>AD_RO_02</t>
+  </si>
+  <si>
+    <t>Check filter</t>
+  </si>
+  <si>
+    <t>1. Hover on Adminstrator.
+2. Click Roles. 
+3. check screen.
+4. Enter information on column G.
+5. Click apply button.
+6. Check result.</t>
+  </si>
+  <si>
+    <t>1. Allow hover on adminstrator.
+2. Allow click Roles.
+3.Have input allow enter information.
+4. Show records matching the information just enter.
+5. If no record --&gt; Notification: There are no records.</t>
+  </si>
+  <si>
+    <t>AD_RO_03</t>
+  </si>
+  <si>
+    <t>Test page-turning functionality when there are multiple pages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Admin account successfully
+2. Open "Roles" interface successfully.
+3. Exist at least 6 records.
+</t>
+  </si>
+  <si>
+    <t>1. Check screen.
+2. Choose page size = 5
+3. Click button : &gt;| and Check screen.
+4. Click button |&lt;  and check screen.
+5. Click  &lt;&lt; button and check screen.
+6. Click &gt;&gt; button and check screen.l</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Show records.
+2. Allow choose page size.
+3. Go to Last page.
+4. Go to First page.
+5. Go to back page.
+6. Go to next page.
+</t>
+  </si>
+  <si>
+    <t>AD_RO_04</t>
+  </si>
+  <si>
+    <t>Check Action button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Admin account successfully
+2. Open "Roles" interface successfully.
+3. Exist at least 1 record.
+</t>
+  </si>
+  <si>
+    <t>1. Check screen.
+2. Click Actions button.
+3. Check screen.</t>
+  </si>
+  <si>
+    <t>1. show all roles.
+2. Allow click Actions button.
+3. If is normal role --&gt; Edit, Delete.
+     If is static role --&gt; Edit.</t>
+  </si>
+  <si>
+    <t>AD_RO_05</t>
+  </si>
+  <si>
+    <t>Check Edit role successfully</t>
+  </si>
+  <si>
+    <t>1. Check screen.
+2. Click Actions button.
+3. Click Edit.
+4. Edit in role name
+5. Edit Permission.
+6. Click Submit.</t>
+  </si>
+  <si>
+    <t>1. show all roles.
+2. Allow click Actions button.
+3.Allow click Edit.
+4. Allow edit.
+5. Allow click submit and notification: Edit successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit : Name
+          Description
+          Choose options on Permission.
+          </t>
+  </si>
+  <si>
+    <t>AD_RO_06</t>
+  </si>
+  <si>
+    <t>Check Edit role failed</t>
+  </si>
+  <si>
+    <t>1. Check screen.
+2. Click Actions button.
+3. Click Edit.
+4. Delete name and description.
+5. Unchecked all options
+6. Click Submit.</t>
+  </si>
+  <si>
+    <t>1. show all roles.
+2. Allow click Actions button.
+3.Allow click Edit.
+4. Show error: 
+               - Title is requied.
+               - Description is requied.
+               - Selection of permissions is required.
+5. Allow click submit and notification: Edit successfully.</t>
+  </si>
+  <si>
+    <t>AD_RO_07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check Delete role </t>
+  </si>
+  <si>
+    <t>1. Check screen.
+2. Click Actions button.
+3. Click Delete
+4. Check screen.
+5. Choose confirm.
+6. Check screen.</t>
+  </si>
+  <si>
+    <t>1. show all roles.
+2. Allow click Actions button.
+3.Allow click Delete.
+4. Show confirm dialog.
+5. Delete successfully.
+6. Notification: Delete role successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">      Create New ROLES</t>
+  </si>
+  <si>
+    <t>AD_RO_08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create new role </t>
+  </si>
+  <si>
+    <t>Check Create New role interface</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Admin account successfully
+2. Open "Roles" interface successfully.
+</t>
+  </si>
+  <si>
+    <t>1. Click  Create New Role button.
+2. Check screen.
+3. Click Permission.
+4. Check screen.</t>
+  </si>
+  <si>
+    <t>1. Allow click Create New Role button.
+2. Display role creation interface.
+3. Allow click Permission.
+4. Display List Options of Permission .</t>
+  </si>
+  <si>
+    <t>AD_RO_09</t>
+  </si>
+  <si>
+    <t>Check placeholder, layout, border,…</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Login with Admin account successfully
+2. Open "Roles" interface successfully.
+2. Open "Create new Role" interface successfully.
+</t>
+  </si>
+  <si>
+    <t>1.Click Name box.
+2.Enter information.
+3.Check placeholder.
+4.Click Descripton.
+5. Enter information.
+6. Check screen.
+7. Click on "default"
+8. Check color.</t>
+  </si>
+  <si>
+    <t>1.Allow click Name box, place holder display : Name
+2. Allow enter information.
+3. Hide placeholder.
+4. Allow click Description.
+5. Show placeholder: type description in here.
+6. Hide placeholder.
+7. Allow click.
+8. Default color: white
+    Clicked : #3799ff.</t>
+  </si>
+  <si>
+    <t>AD_RO_10</t>
+  </si>
+  <si>
+    <t>Check the function to retain value when submit is not pressed</t>
+  </si>
+  <si>
+    <t>1. Enter information on column G.
+2. Click outside the role creation interface.
+3. Click "Create New Role" button.
+4. Check screen.</t>
+  </si>
+  <si>
+    <t>1. Allow enter information.
+2. Allow click outside and Go to Roles interface.
+3. Allow click "Create New Role" button .
+4. Display "Create New role" interface and value is the same as the information entered.</t>
+  </si>
+  <si>
+    <t>Name: Test retain value
+Description: 1234567890</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3113,6 +5563,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -3273,7 +5731,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3366,6 +5824,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3414,8 +5875,23 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3437,6 +5913,117 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1363980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>662940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1638300</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>670560</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="2" name="Straight Arrow Connector 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A41B323-06E0-47F6-BDFE-36D39588B0FF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="12031980" y="3589020"/>
+          <a:ext cx="274320" cy="7620"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1363980</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>716280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1607820</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>868680</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2648B959-70E6-4C4E-BB24-306B13D00BD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12031980" y="3642360"/>
+          <a:ext cx="243840" cy="152400"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3705,34 +6292,34 @@
   <dimension ref="A2:M102"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.7109375" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -3773,24 +6360,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
-    </row>
-    <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="35"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="35"/>
+      <c r="K4" s="35"/>
+      <c r="L4" s="35"/>
+      <c r="M4" s="35"/>
+    </row>
+    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -3816,7 +6403,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -3842,7 +6429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -3871,7 +6458,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -3900,11 +6487,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="36" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3929,11 +6516,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3956,11 +6543,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -3983,11 +6570,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -4010,7 +6597,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -4036,7 +6623,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -4065,11 +6652,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="39" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4094,11 +6681,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="39"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -4121,11 +6708,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="39"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -4148,11 +6735,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="39"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -4175,11 +6762,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -4202,11 +6789,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4229,11 +6816,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -4256,11 +6843,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -4283,11 +6870,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -4310,11 +6897,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -4337,11 +6924,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="39"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -4364,11 +6951,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="39"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -4391,11 +6978,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -4418,11 +7005,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="39"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -4445,11 +7032,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -4472,7 +7059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -4501,7 +7088,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -4530,217 +7117,217 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E102" s="5"/>
     </row>
   </sheetData>
@@ -4764,30 +7351,30 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="32.28515625" customWidth="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.42578125" customWidth="1"/>
-    <col min="10" max="10" width="19.7109375" customWidth="1"/>
-    <col min="11" max="11" width="12.140625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.33203125" customWidth="1"/>
+    <col min="4" max="4" width="30.44140625" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.44140625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="11" max="11" width="12.109375" customWidth="1"/>
+    <col min="12" max="12" width="18.109375" customWidth="1"/>
+    <col min="13" max="13" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="38"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -4828,7 +7415,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="11" t="s">
         <v>137</v>
       </c>
@@ -4854,7 +7441,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
@@ -4880,7 +7467,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>148</v>
       </c>
@@ -4906,7 +7493,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
@@ -4932,7 +7519,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -4971,30 +7558,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="40"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -5035,7 +7622,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -5061,7 +7648,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
@@ -5087,7 +7674,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
@@ -5113,7 +7700,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
@@ -5139,7 +7726,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>179</v>
       </c>
@@ -5165,7 +7752,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>183</v>
       </c>
@@ -5191,7 +7778,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>188</v>
       </c>
@@ -5217,7 +7804,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>192</v>
       </c>
@@ -5243,7 +7830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>197</v>
       </c>
@@ -5269,7 +7856,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>201</v>
       </c>
@@ -5295,7 +7882,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>204</v>
       </c>
@@ -5321,7 +7908,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -5347,7 +7934,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
@@ -5373,7 +7960,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>217</v>
       </c>
@@ -5399,7 +7986,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
@@ -5425,7 +8012,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>225</v>
       </c>
@@ -5451,7 +8038,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
@@ -5490,28 +8077,28 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21:B24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="8" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="27.85546875" customWidth="1"/>
-    <col min="10" max="10" width="32.85546875" customWidth="1"/>
-    <col min="11" max="11" width="19.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.5546875" customWidth="1"/>
+    <col min="9" max="9" width="27.88671875" customWidth="1"/>
+    <col min="10" max="10" width="32.88671875" customWidth="1"/>
+    <col min="11" max="11" width="19.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -5552,14 +8139,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="43" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5569,11 +8156,11 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="45" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5598,11 +8185,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="46"/>
       <c r="C4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5625,11 +8212,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="46"/>
       <c r="C5" s="6" t="s">
         <v>251</v>
       </c>
@@ -5652,11 +8239,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="19" t="s">
         <v>254</v>
       </c>
@@ -5679,11 +8266,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="46"/>
       <c r="C7" s="19" t="s">
         <v>257</v>
       </c>
@@ -5706,11 +8293,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="46"/>
       <c r="C8" s="19" t="s">
         <v>260</v>
       </c>
@@ -5733,11 +8320,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="46"/>
       <c r="C9" s="19" t="s">
         <v>264</v>
       </c>
@@ -5760,11 +8347,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="46"/>
       <c r="C10" s="19" t="s">
         <v>268</v>
       </c>
@@ -5787,11 +8374,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="46"/>
       <c r="C11" s="19" t="s">
         <v>272</v>
       </c>
@@ -5814,11 +8401,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="46"/>
       <c r="C12" s="19" t="s">
         <v>276</v>
       </c>
@@ -5841,11 +8428,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="46"/>
       <c r="C13" s="19" t="s">
         <v>280</v>
       </c>
@@ -5868,11 +8455,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="46"/>
       <c r="C14" s="19" t="s">
         <v>284</v>
       </c>
@@ -5895,11 +8482,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="46"/>
       <c r="C15" s="19" t="s">
         <v>288</v>
       </c>
@@ -5922,11 +8509,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="46"/>
       <c r="C16" s="19" t="s">
         <v>292</v>
       </c>
@@ -5949,11 +8536,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="46"/>
       <c r="C17" s="19" t="s">
         <v>297</v>
       </c>
@@ -5976,11 +8563,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="46"/>
       <c r="C18" s="19" t="s">
         <v>302</v>
       </c>
@@ -6003,11 +8590,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="46"/>
       <c r="C19" s="19" t="s">
         <v>306</v>
       </c>
@@ -6030,14 +8617,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="47" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6047,11 +8634,11 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="41" t="s">
         <v>330</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -6076,11 +8663,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="19" t="s">
         <v>316</v>
       </c>
@@ -6103,11 +8690,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="19" t="s">
         <v>321</v>
       </c>
@@ -6130,11 +8717,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="144" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="19" t="s">
         <v>326</v>
       </c>
@@ -6173,25 +8760,25 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="B46" sqref="B46:B51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="8" width="30.88671875" customWidth="1"/>
+    <col min="9" max="9" width="28.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -6232,7 +8819,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
@@ -6249,11 +8836,11 @@
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="48" t="s">
         <v>333</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -6278,11 +8865,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="48"/>
       <c r="C4" s="15" t="s">
         <v>339</v>
       </c>
@@ -6305,11 +8892,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="48"/>
       <c r="C5" s="5" t="s">
         <v>343</v>
       </c>
@@ -6332,11 +8919,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="48"/>
       <c r="C6" s="15" t="s">
         <v>348</v>
       </c>
@@ -6359,11 +8946,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="48"/>
       <c r="C7" s="15" t="s">
         <v>352</v>
       </c>
@@ -6386,11 +8973,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="48"/>
       <c r="C8" s="5" t="s">
         <v>357</v>
       </c>
@@ -6413,11 +9000,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="15" t="s">
         <v>361</v>
       </c>
@@ -6440,11 +9027,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="48"/>
       <c r="C10" s="15" t="s">
         <v>365</v>
       </c>
@@ -6467,11 +9054,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="48"/>
       <c r="C11" s="15" t="s">
         <v>369</v>
       </c>
@@ -6494,11 +9081,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="48"/>
       <c r="C12" s="15" t="s">
         <v>373</v>
       </c>
@@ -6521,11 +9108,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="48"/>
       <c r="C13" s="15" t="s">
         <v>378</v>
       </c>
@@ -6548,11 +9135,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="15" t="s">
         <v>383</v>
       </c>
@@ -6575,11 +9162,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="48"/>
       <c r="C15" s="15" t="s">
         <v>388</v>
       </c>
@@ -6602,11 +9189,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="48"/>
       <c r="C16" s="15" t="s">
         <v>392</v>
       </c>
@@ -6629,11 +9216,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="48"/>
       <c r="C17" s="15" t="s">
         <v>396</v>
       </c>
@@ -6656,11 +9243,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="48"/>
       <c r="C18" s="15" t="s">
         <v>400</v>
       </c>
@@ -6683,11 +9270,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="15" t="s">
         <v>404</v>
       </c>
@@ -6710,11 +9297,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="15" t="s">
         <v>408</v>
       </c>
@@ -6737,11 +9324,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="15" t="s">
         <v>412</v>
       </c>
@@ -6764,11 +9351,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="15" t="s">
         <v>417</v>
       </c>
@@ -6791,11 +9378,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="15" t="s">
         <v>421</v>
       </c>
@@ -6818,7 +9405,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="24" t="s">
@@ -6835,7 +9422,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="25" t="s">
         <v>426</v>
       </c>
@@ -6862,7 +9449,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A26" s="25" t="s">
         <v>431</v>
       </c>
@@ -6891,7 +9478,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25" t="s">
         <v>436</v>
       </c>
@@ -6918,7 +9505,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25" t="s">
         <v>440</v>
       </c>
@@ -6945,7 +9532,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A29" s="25" t="s">
         <v>444</v>
       </c>
@@ -6972,7 +9559,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25" t="s">
         <v>448</v>
       </c>
@@ -6999,7 +9586,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25" t="s">
         <v>452</v>
       </c>
@@ -7026,7 +9613,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
@@ -7043,11 +9630,11 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="49" t="s">
         <v>459</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -7063,11 +9650,11 @@
         <v>463</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="49"/>
       <c r="C34" s="5" t="s">
         <v>465</v>
       </c>
@@ -7081,11 +9668,11 @@
         <v>467</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="49"/>
       <c r="C35" s="5" t="s">
         <v>469</v>
       </c>
@@ -7099,11 +9686,11 @@
         <v>472</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="49"/>
       <c r="C36" s="15" t="s">
         <v>474</v>
       </c>
@@ -7117,11 +9704,11 @@
         <v>477</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="49"/>
       <c r="C37" s="15" t="s">
         <v>479</v>
       </c>
@@ -7135,11 +9722,11 @@
         <v>481</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="49"/>
       <c r="C38" s="15" t="s">
         <v>365</v>
       </c>
@@ -7153,11 +9740,11 @@
         <v>484</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="15" t="s">
         <v>486</v>
       </c>
@@ -7171,11 +9758,11 @@
         <v>488</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="49"/>
       <c r="C40" s="15" t="s">
         <v>490</v>
       </c>
@@ -7189,11 +9776,11 @@
         <v>492</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="49"/>
       <c r="C41" s="15" t="s">
         <v>494</v>
       </c>
@@ -7207,11 +9794,11 @@
         <v>496</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="49"/>
       <c r="C42" s="15" t="s">
         <v>498</v>
       </c>
@@ -7225,11 +9812,11 @@
         <v>501</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="49"/>
       <c r="C43" s="15" t="s">
         <v>503</v>
       </c>
@@ -7243,11 +9830,11 @@
         <v>505</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="49"/>
       <c r="C44" s="15" t="s">
         <v>421</v>
       </c>
@@ -7261,7 +9848,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
@@ -7278,11 +9865,11 @@
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="50" t="s">
         <v>509</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -7305,11 +9892,11 @@
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
     </row>
-    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="B47" s="49"/>
+      <c r="B47" s="50"/>
       <c r="C47" s="15" t="s">
         <v>433</v>
       </c>
@@ -7332,11 +9919,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="50"/>
       <c r="C48" s="15" t="s">
         <v>437</v>
       </c>
@@ -7356,11 +9943,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="50"/>
       <c r="C49" s="15" t="s">
         <v>441</v>
       </c>
@@ -7374,11 +9961,11 @@
         <v>523</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="49"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="15" t="s">
         <v>525</v>
       </c>
@@ -7392,11 +9979,11 @@
         <v>527</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="50"/>
       <c r="C51" s="15" t="s">
         <v>529</v>
       </c>
@@ -7421,17 +10008,2020 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC95DB3-68F5-4A0E-802E-6D210325D366}">
+  <dimension ref="A1:M40"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:XFD2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.77734375" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
+    <col min="3" max="3" width="49.33203125" customWidth="1"/>
+    <col min="4" max="4" width="23.44140625" customWidth="1"/>
+    <col min="5" max="5" width="32" customWidth="1"/>
+    <col min="6" max="6" width="22.44140625" customWidth="1"/>
+    <col min="7" max="7" width="21.21875" customWidth="1"/>
+    <col min="8" max="8" width="19.109375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>534</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>535</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>537</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>541</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>542</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B5" s="52"/>
+      <c r="C5" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>536</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>546</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B6" s="52"/>
+      <c r="C6" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>550</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>552</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>553</v>
+      </c>
+      <c r="B7" s="52"/>
+      <c r="C7" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>556</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>557</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="2" t="s">
+        <v>558</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>559</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>560</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="B9" s="52"/>
+      <c r="C9" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>549</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>563</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>564</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>565</v>
+      </c>
+      <c r="B10" s="52"/>
+      <c r="C10" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>568</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B11" s="52"/>
+      <c r="C11" s="2" t="s">
+        <v>571</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>573</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>575</v>
+      </c>
+      <c r="B12" s="52"/>
+      <c r="C12" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>578</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>579</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="B13" s="52"/>
+      <c r="C13" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>582</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>583</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="B14" s="52"/>
+      <c r="C14" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>587</v>
+      </c>
+      <c r="G14" s="5"/>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="B15" s="52"/>
+      <c r="C15" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>591</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>593</v>
+      </c>
+      <c r="B16" s="52"/>
+      <c r="C16" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="G16" s="5"/>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>597</v>
+      </c>
+      <c r="B17" s="52"/>
+      <c r="C17" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>599</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>601</v>
+      </c>
+      <c r="B18" s="52"/>
+      <c r="C18" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>603</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>604</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>605</v>
+      </c>
+      <c r="B19" s="52"/>
+      <c r="C19" s="2" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>577</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="G19" s="5"/>
+      <c r="H19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="B20" s="52"/>
+      <c r="C20" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="G20" s="5"/>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>614</v>
+      </c>
+      <c r="B21" s="52" t="s">
+        <v>615</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>618</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>619</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="H21" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B22" s="52"/>
+      <c r="C22" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>624</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="B23" s="52"/>
+      <c r="C23" s="6" t="s">
+        <v>625</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>626</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>627</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B24" s="52"/>
+      <c r="C24" s="6" t="s">
+        <v>629</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>630</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>631</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="B25" s="52"/>
+      <c r="C25" s="6" t="s">
+        <v>633</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>617</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>635</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="B26" s="52" t="s">
+        <v>637</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>639</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>640</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>641</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>642</v>
+      </c>
+      <c r="B27" s="52"/>
+      <c r="C27" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>646</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>647</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="B28" s="52"/>
+      <c r="C28" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>651</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>652</v>
+      </c>
+      <c r="B29" s="52"/>
+      <c r="C29" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>656</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B30" s="52"/>
+      <c r="C30" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>644</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>645</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>659</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>660</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>657</v>
+      </c>
+      <c r="B31" s="52"/>
+      <c r="C31" s="6" t="s">
+        <v>661</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>662</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>663</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>664</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>666</v>
+      </c>
+      <c r="B32" s="52"/>
+      <c r="C32" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="B33" s="52"/>
+      <c r="C33" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="6" t="s">
+        <v>675</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>677</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>678</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>680</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>681</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="6" t="s">
+        <v>683</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>684</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>685</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>686</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>690</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>696</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="G39" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="340.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>691</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>695</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B3:B20"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="B26:B37"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56E98624-3BA3-4F52-BE37-CF3015B57FC9}">
+  <dimension ref="A1:M35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G35" sqref="G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="21.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="24.44140625" customWidth="1"/>
+    <col min="4" max="4" width="34.44140625" customWidth="1"/>
+    <col min="5" max="5" width="38.33203125" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.109375" customWidth="1"/>
+    <col min="10" max="10" width="16.33203125" customWidth="1"/>
+    <col min="11" max="11" width="16.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>703</v>
+      </c>
+      <c r="B3" s="51" t="s">
+        <v>704</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>707</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>708</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="B4" s="52"/>
+      <c r="C4" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>712</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" s="55" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="53" t="s">
+        <v>713</v>
+      </c>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="54"/>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+    </row>
+    <row r="6" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>714</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>715</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>716</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>717</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>718</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>722</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>725</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>726</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>727</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>728</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>724</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>729</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>721</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>732</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>723</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>733</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>734</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>735</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>738</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>739</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>740</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>741</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>743</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>745</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>746</v>
+      </c>
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>747</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>737</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>748</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>749</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>750</v>
+      </c>
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>751</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>752</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>755</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>756</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>757</v>
+      </c>
+      <c r="B14" s="56"/>
+      <c r="C14" s="3" t="s">
+        <v>758</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>754</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>759</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>762</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>763</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>744</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>765</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>760</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="55" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="53" t="s">
+        <v>766</v>
+      </c>
+      <c r="B16" s="54"/>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="54"/>
+      <c r="I16" s="54"/>
+      <c r="J16" s="54"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="54"/>
+      <c r="M16" s="54"/>
+    </row>
+    <row r="17" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>767</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>771</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="G17" s="5"/>
+      <c r="H17" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>775</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>777</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>768</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>780</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>781</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>782</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>783</v>
+      </c>
+      <c r="B20" s="56" t="s">
+        <v>768</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>784</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>785</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>787</v>
+      </c>
+      <c r="B21" s="56"/>
+      <c r="C21" s="3" t="s">
+        <v>788</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>789</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>790</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>791</v>
+      </c>
+      <c r="B22" s="56"/>
+      <c r="C22" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>793</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>794</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>795</v>
+      </c>
+      <c r="B23" s="56"/>
+      <c r="C23" s="3" t="s">
+        <v>792</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>776</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>773</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="55" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="53" t="s">
+        <v>798</v>
+      </c>
+      <c r="B24" s="54"/>
+      <c r="C24" s="54"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="54"/>
+      <c r="F24" s="54"/>
+      <c r="G24" s="54"/>
+      <c r="H24" s="54"/>
+      <c r="I24" s="54"/>
+      <c r="J24" s="54"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="54"/>
+      <c r="M24" s="54"/>
+    </row>
+    <row r="25" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>799</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>800</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>802</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>803</v>
+      </c>
+      <c r="B26" s="56"/>
+      <c r="C26" s="3" t="s">
+        <v>804</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>805</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>806</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>807</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="3" t="s">
+        <v>808</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>809</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>810</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>811</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>812</v>
+      </c>
+      <c r="B28" s="56"/>
+      <c r="C28" s="3" t="s">
+        <v>813</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>817</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="3" t="s">
+        <v>818</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>819</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>820</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>822</v>
+      </c>
+      <c r="B30" s="56"/>
+      <c r="C30" s="3" t="s">
+        <v>823</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>824</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>825</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>821</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>826</v>
+      </c>
+      <c r="B31" s="56"/>
+      <c r="C31" s="3" t="s">
+        <v>827</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>814</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" s="55" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="53" t="s">
+        <v>830</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54"/>
+      <c r="M32" s="54"/>
+    </row>
+    <row r="33" spans="1:9" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>831</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>834</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>835</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>837</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>838</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>840</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>841</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>842</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>832</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>839</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="G35" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B25:B31"/>
+    <mergeCell ref="A32:XFD32"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A24:XFD24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
         <v>532</v>
       </c>
     </row>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72D3FF96-EB71-4759-98A8-93624C841CF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A08670-C620-400B-A8C3-D5DC50B5348E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="POST" sheetId="4" r:id="rId4"/>
     <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
     <sheet name="FORUMS" sheetId="6" r:id="rId6"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="572">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -2984,6 +2985,221 @@
   </si>
   <si>
     <t>FORUMS</t>
+  </si>
+  <si>
+    <t>DB-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang Dashboard</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang Dashboard</t>
+  </si>
+  <si>
+    <t>1. Cho phép bấm vào icon menu. Menu đứng được đẩy vào trong 
+2. Font chữ, cỡ chữ, màu sắc đúng như file thiết kế
+3. Giao diện không xô lệch. Được thiết kế giống với Design</t>
+  </si>
+  <si>
+    <t>Kiểm tra tổng số lượng Post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. 10 bản ít nhất ghi tại mục post
+</t>
+  </si>
+  <si>
+    <t>DB-AD-002</t>
+  </si>
+  <si>
+    <t>DB-AD-003</t>
+  </si>
+  <si>
+    <t>Kiểm tra số lượt tạo Post mới</t>
+  </si>
+  <si>
+    <t>DB-AD-004</t>
+  </si>
+  <si>
+    <t>DB-AD-005</t>
+  </si>
+  <si>
+    <t>DB-AD-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi tại All Modules
+</t>
+  </si>
+  <si>
+    <t>DB-AD-007</t>
+  </si>
+  <si>
+    <t>DB-AD-008</t>
+  </si>
+  <si>
+    <t>Kiểm tra tổng số User</t>
+  </si>
+  <si>
+    <t>Kiểm tra tổng só User mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Total Documents </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi tại Knowledge Library
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra tổng số Total Modules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra Total Capsules </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi tại Users
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi tại All Documents
+</t>
+  </si>
+  <si>
+    <t>1. Nhấn vào icon menu trên đầu header
+2. Kiểm tra Font chữ, cỡ chữ màu sắc
+3. So sánh giao diện với Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào Post
+2. Nhấn vào All Post
+3. Kéo chuột đến footer, tìm đến phân trang
+4. Chọn đến trang cuối cùng
+5. Kiểm tra số bài Post so sánh với tổng số bài Post ở đầu trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào All Post
+3.  Tìm đến phân trang
+4. Tìm được trang cuối cùng
+5. Số bài Post ở trang All Post giống với tổng số bài Post ở trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào Post
+2. Nhấn vào Create New Post
+3. Tạo mới một bài Post
+4. Kiểm tra kết quả tại màn hình Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào Create New Post
+3.  Tạo mới một bài Post thành công
+4. Màn hình hiển thị có 1 bài Post được tạo mới</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào LEARNING
+2. Nhấn vào All Modules
+3. Kéo chuột đến footer, tìm đến phân trang
+4. Chọn đến trang cuối cùng
+5. Kiểm tra số Mục, so sánh với tổng số bài Total Modules ở   trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào CAll Modules
+3. Tìm đến phân trang
+4. Tìm được trang cuối cùng
+5. Số bài Post ở trang All Modules giống với tổng số bài Total Modules ở trang Dasbroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào LEARNING
+2. Nhấn vào All Capsules
+3. Kéo chuột đến footer, tìm đến phân trang
+4. Chọn đến trang cuối cùng
+5. Kiểm tra số Mục, so sánh với tổng số bài Total Capsules ở  trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào All Capsules
+3. Tìm đến phân trang
+4. Tìm được trang cuối cùng
+5. Số bài Post ở trang All Capsules giống với tổng số bài Total Capsules ở trang Dasbroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào Knowledge Library
+2. Nhấn vào AllDocuments
+3. Kéo chuột đến footer, tìm đến phân trang
+4. Chọn đến trang cuối cùng
+5. Kiểm tra số Mục, so sánh với tổng số bài Knowledge Total Documents ở trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào AllDocuments
+3. Tìm  thấy phân trang
+4. Tìm được trang cuối cùng
+5. Số bài Post ở trang AllDocuments giống với tổng số bài Knowledge Total Documents ở trang Dasbroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào USERS
+2. Nhấn vào Users
+3. Kéo chuột đến footer, tìm đến phân trang
+4. Chọn đến trang cuối cùng
+5. Kiểm tra số Mục, so sánh với tổng số bài Total Users ở trang Dasbroad
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào Users
+3. Tìm  thấy phân trang
+4. Tìm được trang cuối cùng
+5. Số bài Post ở trang User giống với tổng số bài Total Users ở trang Dasbroad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hover vào USERS
+2. Nhấn vào Users
+3. Tìm đến phần Date
+4. Tìm những User được tạo trước 24h và đếm số lượng
+5. So sánh số lượng user new ở trang Dasbroad có khớp với số lượng user vừa tổng hợp
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Hiện ra Sub-menu
+2. Cho phép nhấn vào Users
+3. Tìm  thấy mục Date
+4. Tổng hợp được những User được tạo trước 24h và có được số lượng
+5. Số lượng user new ở trang Dasbroad giống với số lượng user vừa tổng hợp.</t>
   </si>
 </sst>
 </file>
@@ -3273,7 +3489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3366,6 +3582,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3414,8 +3636,11 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3727,10 +3952,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -3774,21 +3999,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="34"/>
-      <c r="L4" s="34"/>
-      <c r="M4" s="34"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="36"/>
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
     </row>
     <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -3904,7 +4129,7 @@
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="37" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -3933,7 +4158,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="35"/>
+      <c r="B10" s="37"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -3960,7 +4185,7 @@
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="37"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -3987,7 +4212,7 @@
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="37"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -4069,7 +4294,7 @@
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="38" t="s">
+      <c r="B15" s="40" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4098,7 +4323,7 @@
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="38"/>
+      <c r="B16" s="40"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -4125,7 +4350,7 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="40"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -4152,7 +4377,7 @@
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="38"/>
+      <c r="B18" s="40"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -4179,7 +4404,7 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -4206,7 +4431,7 @@
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="38"/>
+      <c r="B20" s="40"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4233,7 +4458,7 @@
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="38"/>
+      <c r="B21" s="40"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -4260,7 +4485,7 @@
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="38"/>
+      <c r="B22" s="40"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -4287,7 +4512,7 @@
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="38"/>
+      <c r="B23" s="40"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -4314,7 +4539,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="38"/>
+      <c r="B24" s="40"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -4341,7 +4566,7 @@
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="38"/>
+      <c r="B25" s="40"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -4368,7 +4593,7 @@
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="38"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -4395,7 +4620,7 @@
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="38"/>
+      <c r="B27" s="40"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -4422,7 +4647,7 @@
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -4449,7 +4674,7 @@
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -4782,10 +5007,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="37"/>
+      <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -4989,10 +5214,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="36" t="s">
+      <c r="H2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5553,13 +5778,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="44" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5573,7 +5798,7 @@
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="46" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5602,7 +5827,7 @@
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="45"/>
+      <c r="B4" s="47"/>
       <c r="C4" s="6" t="s">
         <v>247</v>
       </c>
@@ -5629,7 +5854,7 @@
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="45"/>
+      <c r="B5" s="47"/>
       <c r="C5" s="6" t="s">
         <v>251</v>
       </c>
@@ -5656,7 +5881,7 @@
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="45"/>
+      <c r="B6" s="47"/>
       <c r="C6" s="19" t="s">
         <v>254</v>
       </c>
@@ -5683,7 +5908,7 @@
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="45"/>
+      <c r="B7" s="47"/>
       <c r="C7" s="19" t="s">
         <v>257</v>
       </c>
@@ -5710,7 +5935,7 @@
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="45"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="19" t="s">
         <v>260</v>
       </c>
@@ -5737,7 +5962,7 @@
       <c r="A9" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="B9" s="45"/>
+      <c r="B9" s="47"/>
       <c r="C9" s="19" t="s">
         <v>264</v>
       </c>
@@ -5764,7 +5989,7 @@
       <c r="A10" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="B10" s="45"/>
+      <c r="B10" s="47"/>
       <c r="C10" s="19" t="s">
         <v>268</v>
       </c>
@@ -5791,7 +6016,7 @@
       <c r="A11" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="45"/>
+      <c r="B11" s="47"/>
       <c r="C11" s="19" t="s">
         <v>272</v>
       </c>
@@ -5818,7 +6043,7 @@
       <c r="A12" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="45"/>
+      <c r="B12" s="47"/>
       <c r="C12" s="19" t="s">
         <v>276</v>
       </c>
@@ -5845,7 +6070,7 @@
       <c r="A13" s="8" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="45"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="19" t="s">
         <v>280</v>
       </c>
@@ -5872,7 +6097,7 @@
       <c r="A14" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="B14" s="45"/>
+      <c r="B14" s="47"/>
       <c r="C14" s="19" t="s">
         <v>284</v>
       </c>
@@ -5899,7 +6124,7 @@
       <c r="A15" s="8" t="s">
         <v>287</v>
       </c>
-      <c r="B15" s="45"/>
+      <c r="B15" s="47"/>
       <c r="C15" s="19" t="s">
         <v>288</v>
       </c>
@@ -5926,7 +6151,7 @@
       <c r="A16" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="45"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="19" t="s">
         <v>292</v>
       </c>
@@ -5953,7 +6178,7 @@
       <c r="A17" s="8" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="45"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="19" t="s">
         <v>297</v>
       </c>
@@ -5980,7 +6205,7 @@
       <c r="A18" s="8" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="45"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="19" t="s">
         <v>302</v>
       </c>
@@ -6007,7 +6232,7 @@
       <c r="A19" s="8" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="45"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="19" t="s">
         <v>306</v>
       </c>
@@ -6031,13 +6256,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
+      <c r="A20" s="48" t="s">
         <v>309</v>
       </c>
-      <c r="B20" s="43"/>
-      <c r="C20" s="43"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
+      <c r="B20" s="45"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6051,7 +6276,7 @@
       <c r="A21" s="8" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="42" t="s">
         <v>330</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -6080,7 +6305,7 @@
       <c r="A22" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="19" t="s">
         <v>316</v>
       </c>
@@ -6107,7 +6332,7 @@
       <c r="A23" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="19" t="s">
         <v>321</v>
       </c>
@@ -6134,7 +6359,7 @@
       <c r="A24" s="8" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="19" t="s">
         <v>326</v>
       </c>
@@ -6173,9 +6398,9 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B46" sqref="B46:B51"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6253,7 +6478,7 @@
       <c r="A3" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="49" t="s">
         <v>333</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -6282,7 +6507,7 @@
       <c r="A4" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="15" t="s">
         <v>339</v>
       </c>
@@ -6309,7 +6534,7 @@
       <c r="A5" s="8" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="5" t="s">
         <v>343</v>
       </c>
@@ -6336,7 +6561,7 @@
       <c r="A6" s="8" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="15" t="s">
         <v>348</v>
       </c>
@@ -6363,7 +6588,7 @@
       <c r="A7" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="15" t="s">
         <v>352</v>
       </c>
@@ -6390,7 +6615,7 @@
       <c r="A8" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="5" t="s">
         <v>357</v>
       </c>
@@ -6417,7 +6642,7 @@
       <c r="A9" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="47"/>
+      <c r="B9" s="49"/>
       <c r="C9" s="15" t="s">
         <v>361</v>
       </c>
@@ -6444,7 +6669,7 @@
       <c r="A10" s="8" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="47"/>
+      <c r="B10" s="49"/>
       <c r="C10" s="15" t="s">
         <v>365</v>
       </c>
@@ -6471,7 +6696,7 @@
       <c r="A11" s="8" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="47"/>
+      <c r="B11" s="49"/>
       <c r="C11" s="15" t="s">
         <v>369</v>
       </c>
@@ -6498,7 +6723,7 @@
       <c r="A12" s="8" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="47"/>
+      <c r="B12" s="49"/>
       <c r="C12" s="15" t="s">
         <v>373</v>
       </c>
@@ -6525,7 +6750,7 @@
       <c r="A13" s="8" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="47"/>
+      <c r="B13" s="49"/>
       <c r="C13" s="15" t="s">
         <v>378</v>
       </c>
@@ -6552,7 +6777,7 @@
       <c r="A14" s="8" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="47"/>
+      <c r="B14" s="49"/>
       <c r="C14" s="15" t="s">
         <v>383</v>
       </c>
@@ -6579,7 +6804,7 @@
       <c r="A15" s="8" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="47"/>
+      <c r="B15" s="49"/>
       <c r="C15" s="15" t="s">
         <v>388</v>
       </c>
@@ -6606,7 +6831,7 @@
       <c r="A16" s="8" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="47"/>
+      <c r="B16" s="49"/>
       <c r="C16" s="15" t="s">
         <v>392</v>
       </c>
@@ -6633,7 +6858,7 @@
       <c r="A17" s="8" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="47"/>
+      <c r="B17" s="49"/>
       <c r="C17" s="15" t="s">
         <v>396</v>
       </c>
@@ -6660,7 +6885,7 @@
       <c r="A18" s="8" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="47"/>
+      <c r="B18" s="49"/>
       <c r="C18" s="15" t="s">
         <v>400</v>
       </c>
@@ -6687,7 +6912,7 @@
       <c r="A19" s="8" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="47"/>
+      <c r="B19" s="49"/>
       <c r="C19" s="15" t="s">
         <v>404</v>
       </c>
@@ -6714,7 +6939,7 @@
       <c r="A20" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="47"/>
+      <c r="B20" s="49"/>
       <c r="C20" s="15" t="s">
         <v>408</v>
       </c>
@@ -6741,7 +6966,7 @@
       <c r="A21" s="8" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="47"/>
+      <c r="B21" s="49"/>
       <c r="C21" s="15" t="s">
         <v>412</v>
       </c>
@@ -6768,7 +6993,7 @@
       <c r="A22" s="8" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="47"/>
+      <c r="B22" s="49"/>
       <c r="C22" s="15" t="s">
         <v>417</v>
       </c>
@@ -6795,7 +7020,7 @@
       <c r="A23" s="8" t="s">
         <v>420</v>
       </c>
-      <c r="B23" s="47"/>
+      <c r="B23" s="49"/>
       <c r="C23" s="15" t="s">
         <v>421</v>
       </c>
@@ -7047,7 +7272,7 @@
       <c r="A33" s="25" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="48" t="s">
+      <c r="B33" s="50" t="s">
         <v>459</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -7067,7 +7292,7 @@
       <c r="A34" s="25" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="48"/>
+      <c r="B34" s="50"/>
       <c r="C34" s="5" t="s">
         <v>465</v>
       </c>
@@ -7085,7 +7310,7 @@
       <c r="A35" s="25" t="s">
         <v>468</v>
       </c>
-      <c r="B35" s="48"/>
+      <c r="B35" s="50"/>
       <c r="C35" s="5" t="s">
         <v>469</v>
       </c>
@@ -7103,7 +7328,7 @@
       <c r="A36" s="25" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="48"/>
+      <c r="B36" s="50"/>
       <c r="C36" s="15" t="s">
         <v>474</v>
       </c>
@@ -7121,7 +7346,7 @@
       <c r="A37" s="25" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="48"/>
+      <c r="B37" s="50"/>
       <c r="C37" s="15" t="s">
         <v>479</v>
       </c>
@@ -7139,7 +7364,7 @@
       <c r="A38" s="25" t="s">
         <v>482</v>
       </c>
-      <c r="B38" s="48"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="15" t="s">
         <v>365</v>
       </c>
@@ -7157,7 +7382,7 @@
       <c r="A39" s="25" t="s">
         <v>485</v>
       </c>
-      <c r="B39" s="48"/>
+      <c r="B39" s="50"/>
       <c r="C39" s="15" t="s">
         <v>486</v>
       </c>
@@ -7175,7 +7400,7 @@
       <c r="A40" s="25" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="48"/>
+      <c r="B40" s="50"/>
       <c r="C40" s="15" t="s">
         <v>490</v>
       </c>
@@ -7193,7 +7418,7 @@
       <c r="A41" s="25" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="48"/>
+      <c r="B41" s="50"/>
       <c r="C41" s="15" t="s">
         <v>494</v>
       </c>
@@ -7211,7 +7436,7 @@
       <c r="A42" s="25" t="s">
         <v>497</v>
       </c>
-      <c r="B42" s="48"/>
+      <c r="B42" s="50"/>
       <c r="C42" s="15" t="s">
         <v>498</v>
       </c>
@@ -7229,7 +7454,7 @@
       <c r="A43" s="25" t="s">
         <v>502</v>
       </c>
-      <c r="B43" s="48"/>
+      <c r="B43" s="50"/>
       <c r="C43" s="15" t="s">
         <v>503</v>
       </c>
@@ -7247,7 +7472,7 @@
       <c r="A44" s="25" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="48"/>
+      <c r="B44" s="50"/>
       <c r="C44" s="15" t="s">
         <v>421</v>
       </c>
@@ -7282,7 +7507,7 @@
       <c r="A46" s="25" t="s">
         <v>510</v>
       </c>
-      <c r="B46" s="49" t="s">
+      <c r="B46" s="51" t="s">
         <v>509</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -7309,7 +7534,7 @@
       <c r="A47" s="25" t="s">
         <v>515</v>
       </c>
-      <c r="B47" s="49"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="15" t="s">
         <v>433</v>
       </c>
@@ -7336,7 +7561,7 @@
       <c r="A48" s="25" t="s">
         <v>518</v>
       </c>
-      <c r="B48" s="49"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="15" t="s">
         <v>437</v>
       </c>
@@ -7360,7 +7585,7 @@
       <c r="A49" s="25" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="49"/>
+      <c r="B49" s="51"/>
       <c r="C49" s="15" t="s">
         <v>441</v>
       </c>
@@ -7378,7 +7603,7 @@
       <c r="A50" s="25" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="49"/>
+      <c r="B50" s="51"/>
       <c r="C50" s="15" t="s">
         <v>525</v>
       </c>
@@ -7396,7 +7621,7 @@
       <c r="A51" s="25" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="49"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="15" t="s">
         <v>529</v>
       </c>
@@ -7424,14 +7649,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="34" t="s">
         <v>532</v>
       </c>
     </row>
@@ -7439,4 +7664,225 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
+  <dimension ref="A1:M9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="3" max="3" width="49" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
+    <col min="12" max="12" width="27" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" s="52" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>535</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>556</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>539</v>
+      </c>
+      <c r="B3" s="53"/>
+      <c r="C3" s="15" t="s">
+        <v>537</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>538</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>557</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>540</v>
+      </c>
+      <c r="B4" s="53"/>
+      <c r="C4" s="15" t="s">
+        <v>541</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>542</v>
+      </c>
+      <c r="B5" s="53"/>
+      <c r="C5" s="35" t="s">
+        <v>552</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>545</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>543</v>
+      </c>
+      <c r="B6" s="53"/>
+      <c r="C6" s="35" t="s">
+        <v>553</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>551</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>563</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B7" s="53"/>
+      <c r="C7" s="35" t="s">
+        <v>550</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>555</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>565</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="B8" s="53"/>
+      <c r="C8" s="35" t="s">
+        <v>548</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>554</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>567</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>547</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="35" t="s">
+        <v>549</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>569</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>570</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:B9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68A08670-C620-400B-A8C3-D5DC50B5348E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0070EAC5-2766-4D1C-A6C0-22561981804D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="580">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -3200,6 +3200,45 @@
 3. Tìm  thấy mục Date
 4. Tổng hợp được những User được tạo trước 24h và có được số lượng
 5. Số lượng user new ở trang Dasbroad giống với số lượng user vừa tổng hợp.</t>
+  </si>
+  <si>
+    <t>DB-AD-009</t>
+  </si>
+  <si>
+    <t>Kiểm tra Tổng số User mới được reset thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Thời gian kiểm tra là 00:01
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Tìm đến mục New User
+2. Kiểm tra mục New User
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Tìm đến thấy mục New User
+2. Mục New User hiển thị không có user nào mới.(New User : 0)
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra Tổng New Post được reset thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Tìm đến mục NewPosts
+2. Kiểm tra mục NewPosts
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Tìm đến thấy mục NewPosts
+2. Mục NewPosts hiển thị không có Posts nào được tạo mới.(NewPosts : 0)
+</t>
   </si>
 </sst>
 </file>
@@ -7668,10 +7707,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
-  <dimension ref="A1:M9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7878,6 +7917,38 @@
         <v>571</v>
       </c>
     </row>
+    <row r="10" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>575</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="C11" s="35" t="s">
+        <v>577</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>574</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>578</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>579</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B9"/>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0070EAC5-2766-4D1C-A6C0-22561981804D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E554294-0D0C-4E9F-AAB0-500880679405}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
     <sheet name="FORUMS" sheetId="6" r:id="rId6"/>
     <sheet name="Dashboard" sheetId="7" r:id="rId7"/>
+    <sheet name="USERS" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1031" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="773">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -1276,12 +1277,6 @@
     <t xml:space="preserve">
 1. Đăng nhập thành công vào giao diện trang addmin
 2. Có sẵn một bản ghi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
-2. Cho phép nhấn vào ALL POST
-3. Màn hình hiện ra đường dẫn trên header:'Dashboard &gt; Post'.
-</t>
   </si>
   <si>
     <t>Kiểm tra button có tên "Create New" khi được hover</t>
@@ -2984,9 +2979,6 @@
 9. Tại mục  Knowledge thông báo dòng text : 'Knowledge is required.'</t>
   </si>
   <si>
-    <t>FORUMS</t>
-  </si>
-  <si>
     <t>DB-AD-001</t>
   </si>
   <si>
@@ -3240,12 +3232,1139 @@
 2. Mục NewPosts hiển thị không có Posts nào được tạo mới.(NewPosts : 0)
 </t>
   </si>
+  <si>
+    <t>FO-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang All Group</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang AllGroup</t>
+  </si>
+  <si>
+    <t>1. Truy cập thành công vào giao diện trang Addmin
+2. Có bản thiết kế Design trang All Group</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Group'
+3. Giao diện hiển thị các thành phần đúng với Design, không xô lệch, font-size, font chữ hiển thị đúng.</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'Al lGroup'
+3. Kiểm tra giao diện tổng thể trang web  các item đặt đúng vị trí, cỡ chữ, font chữ đúng.</t>
+  </si>
+  <si>
+    <t>FO-AD-002</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Group'
+3. Tìm  đường dẫn trên header-content thể hiện vị trí của bạn trên Website
+4. Kiểm tra đường dẫn</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Group'
+3. Tìm thấy đường dẫn trên header-content thể hiện vị trí của bạn trên Website
+4. Đường dẫn hiển thị chính xác vị trí của bạn: 'Dashboard &gt;  All Group'</t>
+  </si>
+  <si>
+    <t>FO-AD-003</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Group'
+3. Tìm đến mục số thứ tự
+4. Kiểm tra số thứ tự có được tăng lần lượt thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Group'
+3. Tìm thấy mục số thứ tự
+4. Số thứ tự được tăng lần lượt  thêm 1 đơn vị</t>
+  </si>
+  <si>
+    <t>Kiểm tra tạo mới Group thành công khi nhấn vào button
+ 'Create Group'</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Group'
+3. Tìm đến button 'Create Group'
+4. Nhấn chọn button 'Create Group'
+5. Nhập tiêu đề vào trường 'Group Name'
+6. Nhập mô tả vào trường 'Description'
+7. Nhập Tag vào trường Tags
+8. Tải ảnh lên tại trường Cover Photo
+9. Tải ảnh lên tại trường Thumbnail
+9. Nhấn vào button 'Submit'
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Group'
+3. Tìm thấy  button 'Create Group'
+4. Cho phép chọn button 'Create Group'
+5. Cho phép nhập tiêu đề vào trường  'Group Name'
+6. Cho phép nhập mô tả vào trường 'Description'
+7. Cho phép nhập tag vào trường 'Tags'
+8. Tải ảnh thành công tại trường Cover Photo 
+9.  Tải ảnh thành công tại trường Thumbnail
+10. Group được tạo thành công và được thêm vào trang All Group.</t>
+  </si>
+  <si>
+    <t>Kiểm tra trạng thái của trường Date</t>
+  </si>
+  <si>
+    <t>DB-AD-010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi trong mục  All Group
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 5 bản ghi trong mục All Group
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Group'
+3. Tìm đến mục Date
+4. Kiểm tra mục Date hiển thị trạng  thái (Published or Last Modified), ngày, giờ</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Group'
+3. Tìm thấy mục Date
+4. Mục Date hiển thị bao gồm trạng  thái (Published or Last Modified), ngày, giờ</t>
+  </si>
+  <si>
+    <t>Kiểm tra xem chi tiết của 1 Group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 1 bản ghi trong mục All Group
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục 'Actions'
+4. Nhấn vào button 'Action' 
+5. Nhấn vào Detail
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn Detail
+6. Màn hình hiển thị chi tiết về Group đó. Xem được ảnh đại diện, Ảnh bìa, Tên nhóm. Danh sách Members, Posts, Categories. Thời gian tạo, Được tạo bởi ai và có được Update bởi ai trong thời gian nào</t>
+  </si>
+  <si>
+    <t>Kiểm tra chỉnh sửa Group thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục 'Actions'
+4. Nhấn vào button 'Action' 
+5. Nhấn vào Edit
+6. Thực hiển chỉnh sửa những trường bạn muốn
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>Thực hiện xóa Group thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục 'Actions'
+4. Nhấn vào button 'Action' 
+5. Nhấn vào Delete
+6. Nhấn vào Confirm
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn Delete
+6. Cho phép nhấn Confirm
+7. Màn thông báo Xóa thành công.</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục 'Actions'
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn Edit
+6. Cho phép chỉnh sửa Các trường
+7. Màn thông báo cập nhật thành công và Hiển thị trong Danh sách 'All Group'</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm theo Group name thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi trong mục All Group
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục 'Group Name'
+4. Nhập tên group đã tồn tại vào ô input trong  mục All Group
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục 'Group Name'
+4. Cho phép tên group đã tồn tại vào ô input trong  mục All Group
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn trả về kết quả   group bạn đang tìm.</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm theo Group name không thành công khi bỏ trống</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy Apply
+4. Cho phép nhấn Apply
+5. Màn trả về tất cả các trường có trong 'All Group'</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến Apply
+4. Nhấn vào Apply
+5. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm không thành công khi nhập group name không tồn tại trong All group</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục 'Group Name'
+4. Nhập tên group Không tồn tại vào ô input trong  mục All Group
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục 'Group Name'
+4. Cho phép tên group không  tồn tại vào ô input trong  mục All Group
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn không trả kết quả tìm kiếm. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện Xóa dữ liệu đã nhập vào ô input Group Name thành công </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến Clear
+4. Nhấn vào Clear
+5. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy Clear
+4. Cho phép nhấn Clear
+5. Tại trường Group name dữ liệu(text) ô input nhập được xóa</t>
+  </si>
+  <si>
+    <t>FO-AD-004</t>
+  </si>
+  <si>
+    <t>FO-AD-005</t>
+  </si>
+  <si>
+    <t>FO-AD-006</t>
+  </si>
+  <si>
+    <t>FO-AD-007</t>
+  </si>
+  <si>
+    <t>FO-AD-008</t>
+  </si>
+  <si>
+    <t>FO-AD-009</t>
+  </si>
+  <si>
+    <t>FO-AD-010</t>
+  </si>
+  <si>
+    <t>FO-AD-011</t>
+  </si>
+  <si>
+    <t>FO-AD-012</t>
+  </si>
+  <si>
+    <t>Trang New Group</t>
+  </si>
+  <si>
+    <t>NE-GR-001</t>
+  </si>
+  <si>
+    <t>Thực hiện tạo mới Group thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có 2 bức ảnh dung lượng &lt;= 2MB
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Nhấn vào 'New Group'
+4. Nhập tên Group vào ô input trong trường 'Group name'
+5. Nhập mô tả vào ô text area vào  trường 'Description'
+6. Nhấn vào New Tag
+7. Nhập Tag và Enter
+8. Chọn ảnh tại mục Cover
+9. Chọn ảnh tại mục Thumbnail
+10. Nhấn Submit
+11. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Cho phép nhấn vào 'New Group'
+4. Cho phép nhập tên Group vào ô input trong trường 'Group name'
+5. Cho phép nhập mô tả vào ô text area trường 'Description'
+6. Cho phép nhấn New Tag
+7. Cho phép nhập Tag
+8. Tải ảnh thành công tại mục Cover
+9. Tải ảnh thành công tại mục Thumbnail
+10. Cho phép nhấn Submit
+11. Tạo thành công Group</t>
+  </si>
+  <si>
+    <t>Thực hiện tạo mới Group  không thành thành công khi dung lượng ảnh &gt; 2MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có 2 bức ảnh dung lượng  &gt; 2MB
+</t>
+  </si>
+  <si>
+    <t>NE-GR-002</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Cho phép nhấn vào 'New Group'
+4. Cho phép nhập tên Group vào ô input trong trường 'Group name'
+5. Cho phép nhập mô tả vào ô text area trường 'Description'
+6. Cho phép nhấn New Tag
+7. Cho phép nhập Tag
+8. Tải ảnh thành công tại mục Cover
+9. Tải ảnh thành công tại mục Thumbnail
+10. Cho phép nhấn Submit
+11. Tạo group không thành công. Màn hình thông báo dung lượng ảnh &gt; 2MB</t>
+  </si>
+  <si>
+    <t>Thực hiện tạo mới group không thành công khi bỏ trống Group name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có 2 bức ảnh dung lượng  &lt;= 2MB
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Nhấn vào 'New Group'
+4. Nhập mô tả vào ô text area trong  trường 'Description'
+5. Nhấn vào New Tag
+6. Nhập Tag và Enter
+7. Chọn ảnh tại mục Cover
+8. Chọn ảnh tại mục Thumbnail
+9. Nhấn Submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Cho phép nhấn vào 'New Group'
+4. Cho phép nhập mô tả vào ô text area trong trường 'Description'
+5. Cho phép nhấn New Tag
+6. Cho phép nhập Tag
+7. Tải ảnh thành công tại mục Cover
+8. Tải ảnh thành công tại mục Thumbnail
+9. Cho phép nhấn Submit
+10. Tạo group không thành công. Màn hình hiển thị 'Title is  Required'</t>
+  </si>
+  <si>
+    <t>NE-GR-003</t>
+  </si>
+  <si>
+    <t>NE-GR-004</t>
+  </si>
+  <si>
+    <t>Tạo group không thành công khi nhập ký tự khoảng trống vào trường Group Name</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Nhấn vào 'New Group'
+4. Nhập ký tự cách vào ô input Group name
+5. Nhấn submit
+6. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Cho phép nhấn vào 'New Group'
+4. Cho phép nhập ký tự cách vào ô input group name
+5. Cho phép nhấn Submit
+6. Màn hình hiển thị thông báo tại Group name "Title is Required"</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang New Group</t>
+  </si>
+  <si>
+    <t>FO-AD-013</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'FORUMS' trên thanh menu đứng
+2. Nhấn chọn 'All Groups'
+3. Tìm đến mục  phân trang
+4. Nhấn vào 20 trong mục page Size
+5. Nhấn vào 5
+6. Kiểm tra kết quả màn hình
+7. Tìm mục page Size nhấn vào 10
+8. Kiểm tra kết quả màn hình
+9. Tìm mục page SIze nhấn vào 20
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'AllGroup', NewGroup'
+2. Cho phép nhấn vào 'All Groups'
+3. Tìm thấy mục  phân trang
+4. Cho phép nhấn vào 20
+5. Cho phép nhấn vào 5
+6. Màn hình hiển thị từ 1 đến 5 trong tổng số 5 bản ghi
+7. Cho phép nhấn vào 10
+8. Màn hình hiển thị từ 1 đến 10 trong tổng số 10 bản ghi
+9. Cho phép nhấn vào mục page Size
+10. Màn hình hiển thị từ 1 đến 20 trong tổng số 20 bản ghi
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có tên là 'All Post' và 'Create New Post'.
+2. Cho phép nhấn vào ALL POST
+3. Màn hình hiện ra đường dẫn trên header:'Dashboard &gt; All Post'.
+</t>
+  </si>
+  <si>
+    <t>USER-AD-001</t>
+  </si>
+  <si>
+    <t>Kiểm tra trang Users</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Kiểm tra giao diện tổng thể trang web  các item đặt đúng vị trí, cỡ chữ, font chữ đúng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn bản Design</t>
+  </si>
+  <si>
+    <t>Kiểm tra giao diện trang Users</t>
+  </si>
+  <si>
+    <t>USER-AD-002</t>
+  </si>
+  <si>
+    <t>USER-AD-003</t>
+  </si>
+  <si>
+    <t>USER-AD-004</t>
+  </si>
+  <si>
+    <t>USER-AD-005</t>
+  </si>
+  <si>
+    <t>USER-AD-006</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn 10 bản ghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường 'No.'
+4. Kiểm tra số thứ tự có được tăng lần lượt
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Giao diện hiển thị các thành phần đúng với Design, không xô lệch, font-size, font chữ hiển thị đúng.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường 'No.'
+4. Số thứ tự bắt đầu từ 1 và được tăng lần lượt thêm 1 đơn vị.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Kiểm tra  đường dẫn trên màn hình ở vị trí header
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Màn hình hiện ra đường dẫn trên header: 'Dashboard &gt; Users'.
+</t>
+  </si>
+  <si>
+    <t>Kiểm trường name hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Name
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Name
+4. Trường name hiển thị Tên user và Avatar của user
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Birthday hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có sẵn ít nhất 1 bản ghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Birthday
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Birthday
+4. Trường name hiển thị ngày tháng năm sinh của user
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Email hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Email
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Email
+4. Trường Email hiển thị email của người dùng. Email đúng form
+</t>
+  </si>
+  <si>
+    <t>USER-AD-007</t>
+  </si>
+  <si>
+    <t>USER-AD-008</t>
+  </si>
+  <si>
+    <t>USER-AD-009</t>
+  </si>
+  <si>
+    <t>USER-AD-010</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Region hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Region
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Region
+4. Trường Region hiển thị địa chỉ của user
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Date hiển thị</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Date
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Date
+4. Trường Date hiển thị trạng thái đăng (Published or Last Modified), ngày giờ đăng
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra trường Status hiển thị</t>
+  </si>
+  <si>
+    <t>USER-AD-011</t>
+  </si>
+  <si>
+    <t>USER-AD-012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Status
+4. Kiểm tra hiển thị
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Status
+4. Trường Status hiển thị trạng thái Active hoặc Blocked
+</t>
+  </si>
+  <si>
+    <t>Kiểm tra status bao gồm Active or Blocked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến trường Status
+4. Nhấn vào Status
+5. Kiểm tra kết quả
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy trường Status
+4. Cho phép nhấn vào Status
+5. Trường Status hiển thị trạng thái Active hoặc Blocked
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 1 trường bản ghi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Profile
+6. Kiểm tra kết quả
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Profile
+6. Màn hình hiển thị tất cả thông tin của user:
+Tên, ngày sinh, giới tính, Số điện thoại, Email, Vị trí, Verified, Locked, Blocked.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiểm tra chỉnh sửa thành công </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Edit
+6. Chỉnh sửa mục mà bạn muốn sửa
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Edit
+6. Màn hình thông báo cập nhật thành công. </t>
+  </si>
+  <si>
+    <t>USER-AD-013</t>
+  </si>
+  <si>
+    <t>USER-AD-014</t>
+  </si>
+  <si>
+    <t>Kiểm tra thông tin profile khi nhấn vào Action</t>
+  </si>
+  <si>
+    <t>Kiểm tra thay đổi trạng thái từ Active sang block</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 1 trường bản ghi
+3. Status ban đầu là Active</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục Actions
+4. Nhấn vào button Actions
+5. Nhấn vào Block
+6. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục Actions
+4. Cho phép nhấn vào button Actions
+5. Cho phép nhấn vào Block
+6. Trạng thái được đổi từ Active sang Block</t>
+  </si>
+  <si>
+    <t>Kiểm tra reset password thành công</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm theo name thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục 'Name'
+4. Nhập tên user đã tồn tại vào ô input trong  mục Name
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục 'Name'
+4. Cho phép tên user đã tồn tại vào ô input trong  mục Name
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn trả về kết quả bản ghi theo tên bạn tìm</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến Apply
+4. Nhấn vào Apply
+5. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy Apply
+4. Cho phép nhấn Apply
+5. Màn trả về tất cả các trường có trong 'Name'</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm không thành công khi nhập Tên user không tồn tại trong User</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có ít nhất 10 bản ghi trong mục User
+</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục 'Name'
+4. Nhập tên user Không tồn tại vào ô input trong  mục Name
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục 'Name'
+4. Cho phép tên group không  tồn tại vào ô input trong  mục All Group
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn không trả kết quả tìm kiếm. </t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm theo Email thành công</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục 'Email'
+4. Nhập tên Email đã tồn tại vào ô input trong  mục Name
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục 'Email'
+4. Cho phép Email đã tồn tại vào ô input trong  mục Email
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn trả về kết quả bản ghi theo Email bạn tìm</t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm không thành công khi  Email nhập không tồn tại</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục 'Email'
+4. Nhập Email Không tồn tại vào ô input trong  mục Email
+5. Tìm đến Apply
+6. Nhấn vào Apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục 'Email'
+4. Cho phép Email không  tồn tại vào ô input trong  mục Email
+5. Tìm thấy Apply
+6. Cho phép nhấn Apply
+7. Màn không trả kết quả tìm kiếm. </t>
+  </si>
+  <si>
+    <t>Thực hiện tìm kiếm trạng thái thành công theo Blocked</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục 'Status'
+4. Nhấn vào Status
+5. Nhấn vào Blocked
+6. Tìm đến Apply
+7. Nhấn vào Apply
+8. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục 'Status'
+4. Cho phép nhấn vào Status
+5. Cho phép chọn Blocked
+6. Tìm thấy Apply
+7. Cho phép nhấn Apply
+8. Màn trả về kết quả bản ghi trạng thái Blocked</t>
+  </si>
+  <si>
+    <t>USER-AD-015</t>
+  </si>
+  <si>
+    <t>USER-AD-016</t>
+  </si>
+  <si>
+    <t>USER-AD-017</t>
+  </si>
+  <si>
+    <t>USER-AD-018</t>
+  </si>
+  <si>
+    <t>USER-AD-019</t>
+  </si>
+  <si>
+    <t>USER-AD-020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện tìm kiếm theo name, Staus, Email không thành công khi bỏ trống tất cả </t>
+  </si>
+  <si>
+    <t>USER-AD-021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện tìm kiếm theo name, Staus, Email thành công </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Nhập tên đã tồn tại vào ô input tại trường name
+4. Nhập Email đã tồn tại input tại trường Email
+5. Chọn trạng thái tồn tại của user đó
+6. Nhấn apply
+7. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Cho phép nhập tên vào ô input tại trường name
+4. Cho phép nhập Email vào trường Email
+5.Cho phép chọn trạng thái
+6. Nhấn apply
+7. Màn hình trả về kết quả của user có tên, email, trạng thái bạn đã tìm kiếm </t>
+  </si>
+  <si>
+    <t>USER-AD-022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện Xóa dữ liệu đã nhập vào ô input Name, Email, Status thành công </t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Nhập text vào input name
+4. Nhập text vào Email 
+5. CHọn 1 trạng thái trong status
+6. Tìm đến Clear
+7. Nhấn vào Clear
+8. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Cho phép nhập text vào input name
+4. Cho phép nhập text vào input Email
+5. Cho phép chọn 1 trạng thái Status
+6. Tìm thấy Clear
+7. Cho phép nhấn vào Clear
+8. Text vừa nhập các ô input được xóa.</t>
+  </si>
+  <si>
+    <t>USER-AD-023</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'Users'
+3. Tìm đến mục  phân trang
+4. Nhấn vào 20 trong mục page Size
+5. Nhấn vào 5
+6. Kiểm tra kết quả màn hình
+7. Tìm mục page Size nhấn vào 10
+8. Kiểm tra kết quả màn hình
+9. Tìm mục page SIze nhấn vào 20
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép nhấn vào 'Users'
+3. Tìm thấy mục  phân trang
+4. Cho phép nhấn vào 20
+5. Cho phép nhấn vào 5
+6. Màn hình hiển thị từ 1 đến 5 trong tổng số 5 bản ghi
+7. Cho phép nhấn vào 10
+8. Màn hình hiển thị từ 1 đến 10 trong tổng số 10 bản ghi
+9. Cho phép nhấn vào mục page Size
+10. Màn hình hiển thị từ 1 đến 20 trong tổng số 20 bản ghi
+</t>
+  </si>
+  <si>
+    <t>New User</t>
+  </si>
+  <si>
+    <t>NE-US-001</t>
+  </si>
+  <si>
+    <t>NE-US-002</t>
+  </si>
+  <si>
+    <t>NE-US-003</t>
+  </si>
+  <si>
+    <t>NE-US-004</t>
+  </si>
+  <si>
+    <t>NE-US-005</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Kiểm tra trang New User</t>
+  </si>
+  <si>
+    <t>Tạo user mới thành công</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Mật khẩu bao gồm 1 ký tự đặc biệt, 1 ký tự số, 1 ký tự in hoa, độ dài mật khẩu ít nhất là 8 ký tự</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'New User'
+3. Nhập tên đầu tiên vào ô input tại trường First name
+4. Nhập Họ vào vào ô input tại trường Last name
+5. Nhập email vào ô input tại trường Email
+6. Nhập Password vào ô input tại trường Password
+7. Nhập lại mật khẩu vào ô input tại trường Confirm password
+8. Nhấn vào checked box tại Verified
+9. Nhấn Submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép chọn 'New User'
+3. Cho phép tên đầu tiên vào ô input tại trường First name
+4. Cho phép họ vào vào ô input tại trường Last name
+5. Cho phép nhập email vào ô input tại trường Email
+6. Cho phép  Password vào ô input tại trường Password
+7. Cho phép nNhập lại mật khẩu vào ô input tại trường Confirm password
+8. CHo phép nhấn vào checked box tại Verified
+9. CHo phép nhấn Submit
+10. User được tạo thành công và được add vào  trang Users</t>
+  </si>
+  <si>
+    <t>Tạo user mới thất bại khi bỏ trống tất cả các trường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'New User'
+3. Nhấn Submit
+4. Kiểm tra kết quả màn hình
+</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép chọn 'New User'
+3. CHo phép nhấn Submit
+4. Tạo user thất bại. Lỗi ở từng mục thông báo invalid</t>
+  </si>
+  <si>
+    <t>Tạo user thất bại khi nhập ký tự nhập First name &gt; 30 ký tự</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'New User'
+3. Nhập tên đầu tiên &gt; 30 ký tự vào ô input tại trường First name
+4. Nhập Họ vào vào ô input tại trường Last name
+5. Nhập email vào ô input tại trường Email
+6. Nhập Password vào ô input tại trường Password
+7. Nhập lại mật khẩu vào ô input tại trường Confirm password
+8. Nhấn vào checked box tại Verified
+9. Nhấn Submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép chọn 'New User'
+3. Cho phép tên đầu tiên &gt; 30 ký tự vào ô input tại trường First name
+4. Cho phép họ vào vào ô input tại trường Last name
+5. Cho phép nhập email vào ô input tại trường Email
+6. Cho phép  Password vào ô input tại trường Password
+7. Cho phép nNhập lại mật khẩu vào ô input tại trường Confirm password
+8. CHo phép nhấn vào checked box tại Verified
+9. CHo phép nhấn Submit
+10. Tạo user thất bại. Thông báo bạn đã nhập lớn hơn 30 ký tự</t>
+  </si>
+  <si>
+    <t>Tạo user thất bại khi nhập ký tự nhập Last name &gt; 30 ký tự</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'New User'
+3. Nhập tên đầu tiên vào ô input tại trường First name
+4. Nhập Họ &gt; 30 ký tự  vào vào ô input tại trường Last name
+5. Nhập email vào ô input tại trường Email
+6. Nhập Password vào ô input tại trường Password
+7. Nhập lại mật khẩu vào ô input tại trường Confirm password
+8. Nhấn vào checked box tại Verified
+9. Nhấn Submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép chọn 'New User'
+3. Cho phép tên đầu tiên vào ô input tại trường First name
+4. Cho phép họ &gt; 30 ký tự vào vào ô input tại trường Last name
+5. Cho phép nhập email vào ô input tại trường Email
+6. Cho phép  Password vào ô input tại trường Password
+7. Cho phép nhập lại mật khẩu vào ô input tại trường Confirm password
+8. CHo phép nhấn vào checked box tại Verified
+9. CHo phép nhấn Submit
+10. Tạo user thất bại. Hiện thông báo Tên Họ nhập &gt; 30 ký tự </t>
+  </si>
+  <si>
+    <t>Tạo user mới  Thất bại  khi mật khẩu nhập lại không khớp</t>
+  </si>
+  <si>
+    <t>1. Hover vào mục 'USERS' trên thanh menu đứng
+2. Nhấn chọn 'New User'
+3. Nhập tên đầu tiên vào ô input tại trường First name
+4. Nhập Họ   vào vào ô input tại trường Last name
+5. Nhập email vào ô input tại trường Email
+6. Nhập Password vào ô input tại trường Password
+7. Nhập sai mật khẩu vào ô input tại trường Confirm password
+8. Nhấn vào checked box tại Verified
+9. Nhấn Submit
+10. Kiểm tra kết quả màn hình</t>
+  </si>
+  <si>
+    <t>1. Hiển thị Sub-menu có các mục là 'Users', 'New User'
+2. Cho phép chọn 'New User'
+3. Cho phép tên đầu tiên vào ô input tại trường First name
+4. Cho phép họ  vào vào ô input tại trường Last name
+5. Cho phép nhập email vào ô input tại trường Email
+6. Cho phép  Password vào ô input tại trường Password
+7. Cho phép nhập sai mật khẩu vào ô input tại trường Confirm password
+8. CHo phép nhấn vào checked box tại Verified
+9. CHo phép nhấn Submit
+10. Tạo user thất bại. Hiện thông báo mật khẩu không khớp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Mật khẩu bao gồm 1 ký tự đặc biệt, 1 ký tự số, 1 ký tự in hoa, độ dài mật khẩu ít nhất là 8 ký tự
+3. First name, Last name &lt;= 30 ký tự
+4. Email &lt;= 50 ký tự</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3364,13 +4483,19 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3422,6 +4547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3528,7 +4659,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3621,11 +4752,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3675,11 +4810,35 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3991,10 +5150,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -4038,21 +5197,21 @@
       </c>
     </row>
     <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="36"/>
-      <c r="D4" s="36"/>
-      <c r="E4" s="36"/>
-      <c r="F4" s="36"/>
-      <c r="G4" s="36"/>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="36"/>
-      <c r="K4" s="36"/>
-      <c r="L4" s="36"/>
-      <c r="M4" s="36"/>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="38"/>
     </row>
     <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -4168,7 +5327,7 @@
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="39" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -4197,7 +5356,7 @@
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="39"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -4224,7 +5383,7 @@
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="37"/>
+      <c r="B11" s="39"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -4251,7 +5410,7 @@
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="39"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -4333,7 +5492,7 @@
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="40" t="s">
+      <c r="B15" s="42" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -4362,7 +5521,7 @@
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="40"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -4389,7 +5548,7 @@
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="40"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -4416,7 +5575,7 @@
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="40"/>
+      <c r="B18" s="42"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -4443,7 +5602,7 @@
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="40"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -4470,7 +5629,7 @@
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -4497,7 +5656,7 @@
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -4524,7 +5683,7 @@
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="40"/>
+      <c r="B22" s="42"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -4551,7 +5710,7 @@
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="40"/>
+      <c r="B23" s="42"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -4578,7 +5737,7 @@
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="40"/>
+      <c r="B24" s="42"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -4605,7 +5764,7 @@
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="40"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -4632,7 +5791,7 @@
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="40"/>
+      <c r="B26" s="42"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -4659,7 +5818,7 @@
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="40"/>
+      <c r="B27" s="42"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -4686,7 +5845,7 @@
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="40"/>
+      <c r="B28" s="42"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -4713,7 +5872,7 @@
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="40"/>
+      <c r="B29" s="42"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -5046,10 +6205,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="39"/>
+      <c r="I2" s="41"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5235,7 +6394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -5253,10 +6412,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="41"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
@@ -5754,9 +6913,9 @@
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5817,13 +6976,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="46" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -5837,7 +6996,7 @@
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="48" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -5850,7 +7009,7 @@
         <v>236</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>246</v>
+        <v>654</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>237</v>
@@ -5866,18 +7025,18 @@
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="47"/>
+      <c r="B4" s="49"/>
       <c r="C4" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>249</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>250</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>237</v>
@@ -5893,18 +7052,18 @@
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="49"/>
       <c r="C5" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>237</v>
@@ -5920,18 +7079,18 @@
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="47"/>
+      <c r="B6" s="49"/>
       <c r="C6" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>255</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>256</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>237</v>
@@ -5947,18 +7106,18 @@
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="47"/>
+      <c r="B7" s="49"/>
       <c r="C7" s="19" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E7" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>258</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>259</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>237</v>
@@ -5974,18 +7133,18 @@
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="47"/>
+      <c r="B8" s="49"/>
       <c r="C8" s="19" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E8" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>261</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>262</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>237</v>
@@ -5999,20 +7158,20 @@
     </row>
     <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="49"/>
+      <c r="C9" s="19" t="s">
         <v>263</v>
-      </c>
-      <c r="B9" s="47"/>
-      <c r="C9" s="19" t="s">
-        <v>264</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>265</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>266</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>237</v>
@@ -6026,20 +7185,20 @@
     </row>
     <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="B10" s="49"/>
+      <c r="C10" s="19" t="s">
         <v>267</v>
-      </c>
-      <c r="B10" s="47"/>
-      <c r="C10" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E10" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="F10" s="5" t="s">
         <v>269</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>270</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>237</v>
@@ -6053,20 +7212,20 @@
     </row>
     <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="B11" s="49"/>
+      <c r="C11" s="19" t="s">
         <v>271</v>
       </c>
-      <c r="B11" s="47"/>
-      <c r="C11" s="19" t="s">
+      <c r="D11" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>273</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>274</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>237</v>
@@ -6080,20 +7239,20 @@
     </row>
     <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>274</v>
+      </c>
+      <c r="B12" s="49"/>
+      <c r="C12" s="19" t="s">
         <v>275</v>
       </c>
-      <c r="B12" s="47"/>
-      <c r="C12" s="19" t="s">
+      <c r="D12" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>277</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>278</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>237</v>
@@ -6107,20 +7266,20 @@
     </row>
     <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="B13" s="49"/>
+      <c r="C13" s="19" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="47"/>
-      <c r="C13" s="19" t="s">
+      <c r="D13" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E13" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="5" t="s">
         <v>281</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>282</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>237</v>
@@ -6134,20 +7293,20 @@
     </row>
     <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="B14" s="49"/>
+      <c r="C14" s="19" t="s">
         <v>283</v>
-      </c>
-      <c r="B14" s="47"/>
-      <c r="C14" s="19" t="s">
-        <v>284</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E14" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="5" t="s">
         <v>285</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>286</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>237</v>
@@ -6161,20 +7320,20 @@
     </row>
     <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>286</v>
+      </c>
+      <c r="B15" s="49"/>
+      <c r="C15" s="19" t="s">
         <v>287</v>
-      </c>
-      <c r="B15" s="47"/>
-      <c r="C15" s="19" t="s">
-        <v>288</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>245</v>
       </c>
       <c r="E15" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="F15" s="5" t="s">
         <v>289</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>290</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>237</v>
@@ -6188,20 +7347,20 @@
     </row>
     <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>290</v>
+      </c>
+      <c r="B16" s="49"/>
+      <c r="C16" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="B16" s="47"/>
-      <c r="C16" s="19" t="s">
+      <c r="D16" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="D16" s="5" t="s">
+      <c r="E16" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="5" t="s">
         <v>294</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>295</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>237</v>
@@ -6215,20 +7374,20 @@
     </row>
     <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>295</v>
+      </c>
+      <c r="B17" s="49"/>
+      <c r="C17" s="19" t="s">
         <v>296</v>
       </c>
-      <c r="B17" s="47"/>
-      <c r="C17" s="19" t="s">
+      <c r="D17" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="E17" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="5" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>300</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>237</v>
@@ -6242,20 +7401,20 @@
     </row>
     <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" s="49"/>
+      <c r="C18" s="19" t="s">
         <v>301</v>
       </c>
-      <c r="B18" s="47"/>
-      <c r="C18" s="19" t="s">
+      <c r="D18" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="5" t="s">
         <v>303</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>304</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>237</v>
@@ -6269,20 +7428,20 @@
     </row>
     <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="B19" s="49"/>
+      <c r="C19" s="19" t="s">
         <v>305</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>248</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="5" t="s">
         <v>307</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>308</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>237</v>
@@ -6295,13 +7454,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="48" t="s">
-        <v>309</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
+      <c r="A20" s="50" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -6313,22 +7472,22 @@
     </row>
     <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B21" s="44" t="s">
+        <v>329</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>310</v>
       </c>
-      <c r="B21" s="42" t="s">
-        <v>330</v>
-      </c>
-      <c r="C21" s="19" t="s">
+      <c r="D21" s="15" t="s">
         <v>311</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>313</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>314</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>237</v>
@@ -6342,20 +7501,20 @@
     </row>
     <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>314</v>
+      </c>
+      <c r="B22" s="45"/>
+      <c r="C22" s="19" t="s">
         <v>315</v>
       </c>
-      <c r="B22" s="43"/>
-      <c r="C22" s="19" t="s">
+      <c r="D22" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="E22" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="5" t="s">
         <v>318</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>319</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>237</v>
@@ -6369,20 +7528,20 @@
     </row>
     <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="B23" s="45"/>
+      <c r="C23" s="19" t="s">
         <v>320</v>
       </c>
-      <c r="B23" s="43"/>
-      <c r="C23" s="19" t="s">
+      <c r="D23" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>322</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="5" t="s">
         <v>323</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>324</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>237</v>
@@ -6396,20 +7555,20 @@
     </row>
     <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
+        <v>324</v>
+      </c>
+      <c r="B24" s="45"/>
+      <c r="C24" s="19" t="s">
         <v>325</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="19" t="s">
+      <c r="D24" s="5" t="s">
         <v>326</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>328</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>329</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>237</v>
@@ -6436,10 +7595,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6500,7 +7659,7 @@
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D2" s="20"/>
       <c r="E2" s="21"/>
@@ -6515,22 +7674,22 @@
     </row>
     <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="B3" s="51" t="s">
         <v>332</v>
       </c>
-      <c r="B3" s="49" t="s">
+      <c r="C3" s="15" t="s">
         <v>333</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="D3" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="E3" s="29" t="s">
         <v>335</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="F3" s="29" t="s">
         <v>336</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>337</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>237</v>
@@ -6544,20 +7703,20 @@
     </row>
     <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B4" s="51"/>
+      <c r="C4" s="15" t="s">
         <v>338</v>
       </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="15" t="s">
+      <c r="D4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>339</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="F4" s="5" t="s">
         <v>340</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>341</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>237</v>
@@ -6571,20 +7730,20 @@
     </row>
     <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="B5" s="51"/>
+      <c r="C5" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B5" s="49"/>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="29" t="s">
         <v>344</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="F5" s="5" t="s">
         <v>345</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>346</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>237</v>
@@ -6598,20 +7757,20 @@
     </row>
     <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
+        <v>346</v>
+      </c>
+      <c r="B6" s="51"/>
+      <c r="C6" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="15" t="s">
+      <c r="D6" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E6" s="29" t="s">
         <v>348</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="F6" s="29" t="s">
         <v>349</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>350</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>237</v>
@@ -6625,20 +7784,20 @@
     </row>
     <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B7" s="51"/>
+      <c r="C7" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="15" t="s">
+      <c r="D7" s="5" t="s">
         <v>352</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>354</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>355</v>
       </c>
       <c r="G7" s="2" t="s">
         <v>237</v>
@@ -6652,20 +7811,20 @@
     </row>
     <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B8" s="51"/>
+      <c r="C8" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E8" s="29" t="s">
         <v>357</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E8" s="29" t="s">
+      <c r="F8" s="29" t="s">
         <v>358</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>359</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>237</v>
@@ -6679,20 +7838,20 @@
     </row>
     <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>359</v>
+      </c>
+      <c r="B9" s="51"/>
+      <c r="C9" s="15" t="s">
         <v>360</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="15" t="s">
+      <c r="D9" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D9" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>362</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>363</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>237</v>
@@ -6706,20 +7865,20 @@
     </row>
     <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="B10" s="51"/>
+      <c r="C10" s="15" t="s">
         <v>364</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="15" t="s">
+      <c r="D10" s="29" t="s">
+        <v>352</v>
+      </c>
+      <c r="E10" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="D10" s="29" t="s">
-        <v>353</v>
-      </c>
-      <c r="E10" s="29" t="s">
+      <c r="F10" s="29" t="s">
         <v>366</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>367</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>237</v>
@@ -6733,20 +7892,20 @@
     </row>
     <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" s="51"/>
+      <c r="C11" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="15" t="s">
+      <c r="D11" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="F11" s="5" t="s">
         <v>370</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>371</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>237</v>
@@ -6760,20 +7919,20 @@
     </row>
     <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="B12" s="51"/>
+      <c r="C12" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="5" t="s">
         <v>373</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="F12" s="29" t="s">
         <v>375</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>376</v>
       </c>
       <c r="G12" s="2" t="s">
         <v>237</v>
@@ -6787,20 +7946,20 @@
     </row>
     <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
+        <v>376</v>
+      </c>
+      <c r="B13" s="51"/>
+      <c r="C13" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="E13" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="E13" s="29" t="s">
+      <c r="F13" s="29" t="s">
         <v>380</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>381</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>237</v>
@@ -6814,20 +7973,20 @@
     </row>
     <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
+        <v>381</v>
+      </c>
+      <c r="B14" s="51"/>
+      <c r="C14" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="15" t="s">
+      <c r="D14" s="5" t="s">
         <v>383</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="4" t="s">
         <v>385</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>386</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>237</v>
@@ -6841,20 +8000,20 @@
     </row>
     <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B15" s="51"/>
+      <c r="C15" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E15" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="D15" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E15" s="29" t="s">
+      <c r="F15" s="29" t="s">
         <v>389</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>390</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>237</v>
@@ -6868,20 +8027,20 @@
     </row>
     <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="15" t="s">
         <v>391</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E16" s="5" t="s">
         <v>392</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="F16" s="4" t="s">
         <v>393</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>394</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>237</v>
@@ -6895,20 +8054,20 @@
     </row>
     <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="15" t="s">
         <v>395</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E17" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="D17" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="F17" s="4" t="s">
         <v>397</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>398</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>237</v>
@@ -6922,20 +8081,20 @@
     </row>
     <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
+        <v>398</v>
+      </c>
+      <c r="B18" s="51"/>
+      <c r="C18" s="15" t="s">
         <v>399</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="15" t="s">
+      <c r="D18" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>400</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>401</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>402</v>
       </c>
       <c r="G18" s="2" t="s">
         <v>237</v>
@@ -6949,20 +8108,20 @@
     </row>
     <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="B19" s="51"/>
+      <c r="C19" s="15" t="s">
         <v>403</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="15" t="s">
+      <c r="D19" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="5" t="s">
         <v>404</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="F19" s="4" t="s">
         <v>405</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>406</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>237</v>
@@ -6976,20 +8135,20 @@
     </row>
     <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20" s="51"/>
+      <c r="C20" s="15" t="s">
         <v>407</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="E20" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="D20" s="5" t="s">
-        <v>353</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="F20" s="4" t="s">
         <v>409</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>410</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>237</v>
@@ -7003,20 +8162,20 @@
     </row>
     <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21" s="51"/>
+      <c r="C21" s="15" t="s">
         <v>411</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="5" t="s">
         <v>412</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>413</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="F21" s="4" t="s">
         <v>414</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>415</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>237</v>
@@ -7030,20 +8189,20 @@
     </row>
     <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
+        <v>415</v>
+      </c>
+      <c r="B22" s="51"/>
+      <c r="C22" s="15" t="s">
         <v>416</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="15" t="s">
+      <c r="D22" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="E22" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D22" s="5" t="s">
-        <v>413</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="F22" s="4" t="s">
         <v>418</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>419</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>237</v>
@@ -7057,20 +8216,20 @@
     </row>
     <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
+        <v>419</v>
+      </c>
+      <c r="B23" s="51"/>
+      <c r="C23" s="15" t="s">
         <v>420</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="5" t="s">
         <v>421</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>422</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="F23" s="4" t="s">
         <v>423</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>424</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>237</v>
@@ -7086,7 +8245,7 @@
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="24" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="D24" s="20"/>
       <c r="E24" s="20"/>
@@ -7101,20 +8260,20 @@
     </row>
     <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B25" s="26"/>
       <c r="C25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="E25" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="4" t="s">
         <v>429</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>430</v>
       </c>
       <c r="G25" s="2" t="s">
         <v>237</v>
@@ -7128,22 +8287,22 @@
     </row>
     <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>431</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="C26" s="15" t="s">
         <v>432</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="D26" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="F26" s="4" t="s">
         <v>434</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>435</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>237</v>
@@ -7157,20 +8316,20 @@
     </row>
     <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B27" s="28"/>
       <c r="C27" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E27" s="5" t="s">
         <v>437</v>
       </c>
-      <c r="D27" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="F27" s="4" t="s">
         <v>438</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>439</v>
       </c>
       <c r="G27" s="2" t="s">
         <v>237</v>
@@ -7184,20 +8343,20 @@
     </row>
     <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B28" s="28"/>
       <c r="C28" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="D28" s="5" t="s">
-        <v>428</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="F28" s="4" t="s">
         <v>442</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>443</v>
       </c>
       <c r="G28" s="2" t="s">
         <v>237</v>
@@ -7211,20 +8370,20 @@
     </row>
     <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B29" s="28"/>
       <c r="C29" s="15" t="s">
+        <v>444</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="D29" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="F29" s="4" t="s">
         <v>446</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>447</v>
       </c>
       <c r="G29" s="2" t="s">
         <v>237</v>
@@ -7238,20 +8397,20 @@
     </row>
     <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B30" s="28"/>
       <c r="C30" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="D30" s="5" t="s">
         <v>449</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="E30" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="F30" s="29" t="s">
         <v>450</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>429</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>451</v>
       </c>
       <c r="G30" s="2" t="s">
         <v>237</v>
@@ -7265,20 +8424,20 @@
     </row>
     <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B31" s="28"/>
       <c r="C31" s="15" t="s">
+        <v>452</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="E31" s="29" t="s">
         <v>454</v>
       </c>
-      <c r="E31" s="29" t="s">
+      <c r="F31" s="29" t="s">
         <v>455</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>456</v>
       </c>
       <c r="G31" s="2" t="s">
         <v>237</v>
@@ -7294,7 +8453,7 @@
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D32" s="20"/>
       <c r="E32" s="20"/>
@@ -7309,227 +8468,227 @@
     </row>
     <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="B33" s="52" t="s">
         <v>458</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="C33" s="15" t="s">
         <v>459</v>
       </c>
-      <c r="C33" s="15" t="s">
+      <c r="D33" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="E33" s="29" t="s">
         <v>461</v>
       </c>
-      <c r="E33" s="29" t="s">
+      <c r="F33" s="29" t="s">
         <v>462</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>463</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
+        <v>463</v>
+      </c>
+      <c r="B34" s="52"/>
+      <c r="C34" s="5" t="s">
         <v>464</v>
       </c>
-      <c r="B34" s="50"/>
-      <c r="C34" s="5" t="s">
+      <c r="D34" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E34" s="29" t="s">
         <v>465</v>
       </c>
-      <c r="D34" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="E34" s="29" t="s">
+      <c r="F34" s="29" t="s">
         <v>466</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
+        <v>467</v>
+      </c>
+      <c r="B35" s="52"/>
+      <c r="C35" s="5" t="s">
         <v>468</v>
       </c>
-      <c r="B35" s="50"/>
-      <c r="C35" s="5" t="s">
+      <c r="D35" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="E35" s="29" t="s">
         <v>470</v>
       </c>
-      <c r="E35" s="29" t="s">
+      <c r="F35" s="29" t="s">
         <v>471</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>472</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
+        <v>472</v>
+      </c>
+      <c r="B36" s="52"/>
+      <c r="C36" s="15" t="s">
         <v>473</v>
       </c>
-      <c r="B36" s="50"/>
-      <c r="C36" s="15" t="s">
+      <c r="D36" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="29" t="s">
         <v>475</v>
       </c>
-      <c r="E36" s="29" t="s">
+      <c r="F36" s="29" t="s">
         <v>476</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
+        <v>477</v>
+      </c>
+      <c r="B37" s="52"/>
+      <c r="C37" s="15" t="s">
         <v>478</v>
       </c>
-      <c r="B37" s="50"/>
-      <c r="C37" s="15" t="s">
+      <c r="D37" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E37" s="29" t="s">
         <v>479</v>
       </c>
-      <c r="D37" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E37" s="29" t="s">
+      <c r="F37" s="29" t="s">
         <v>480</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>481</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
+        <v>481</v>
+      </c>
+      <c r="B38" s="52"/>
+      <c r="C38" s="15" t="s">
+        <v>364</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E38" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="B38" s="50"/>
-      <c r="C38" s="15" t="s">
-        <v>365</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E38" s="29" t="s">
+      <c r="F38" s="29" t="s">
         <v>483</v>
-      </c>
-      <c r="F38" s="29" t="s">
-        <v>484</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
+        <v>484</v>
+      </c>
+      <c r="B39" s="52"/>
+      <c r="C39" s="15" t="s">
         <v>485</v>
       </c>
-      <c r="B39" s="50"/>
-      <c r="C39" s="15" t="s">
+      <c r="D39" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E39" s="29" t="s">
         <v>486</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E39" s="29" t="s">
+      <c r="F39" s="29" t="s">
         <v>487</v>
-      </c>
-      <c r="F39" s="29" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
+        <v>488</v>
+      </c>
+      <c r="B40" s="52"/>
+      <c r="C40" s="15" t="s">
         <v>489</v>
       </c>
-      <c r="B40" s="50"/>
-      <c r="C40" s="15" t="s">
+      <c r="D40" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E40" s="29" t="s">
         <v>490</v>
       </c>
-      <c r="D40" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E40" s="29" t="s">
+      <c r="F40" s="29" t="s">
         <v>491</v>
-      </c>
-      <c r="F40" s="29" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
+        <v>492</v>
+      </c>
+      <c r="B41" s="52"/>
+      <c r="C41" s="15" t="s">
         <v>493</v>
       </c>
-      <c r="B41" s="50"/>
-      <c r="C41" s="15" t="s">
+      <c r="D41" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="E41" s="29" t="s">
         <v>494</v>
       </c>
-      <c r="D41" s="5" t="s">
-        <v>475</v>
-      </c>
-      <c r="E41" s="29" t="s">
+      <c r="F41" s="29" t="s">
         <v>495</v>
-      </c>
-      <c r="F41" s="29" t="s">
-        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="B42" s="52"/>
+      <c r="C42" s="15" t="s">
         <v>497</v>
       </c>
-      <c r="B42" s="50"/>
-      <c r="C42" s="15" t="s">
+      <c r="D42" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="E42" s="29" t="s">
         <v>499</v>
       </c>
-      <c r="E42" s="29" t="s">
+      <c r="F42" s="29" t="s">
         <v>500</v>
-      </c>
-      <c r="F42" s="29" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
+        <v>501</v>
+      </c>
+      <c r="B43" s="52"/>
+      <c r="C43" s="15" t="s">
         <v>502</v>
       </c>
-      <c r="B43" s="50"/>
-      <c r="C43" s="15" t="s">
+      <c r="D43" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="E43" s="29" t="s">
         <v>503</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>499</v>
-      </c>
-      <c r="E43" s="29" t="s">
+      <c r="F43" s="29" t="s">
         <v>504</v>
-      </c>
-      <c r="F43" s="29" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
+        <v>505</v>
+      </c>
+      <c r="B44" s="52"/>
+      <c r="C44" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E44" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="15" t="s">
-        <v>421</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>422</v>
-      </c>
-      <c r="E44" s="5" t="s">
+      <c r="F44" s="4" t="s">
         <v>507</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>508</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D45" s="30"/>
       <c r="E45" s="30"/>
@@ -7544,22 +8703,22 @@
     </row>
     <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
+        <v>509</v>
+      </c>
+      <c r="B46" s="53" t="s">
+        <v>508</v>
+      </c>
+      <c r="C46" s="32" t="s">
         <v>510</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>509</v>
-      </c>
-      <c r="C46" s="32" t="s">
+      <c r="D46" s="5" t="s">
         <v>511</v>
       </c>
-      <c r="D46" s="5" t="s">
+      <c r="E46" s="5" t="s">
         <v>512</v>
       </c>
-      <c r="E46" s="5" t="s">
+      <c r="F46" s="29" t="s">
         <v>513</v>
-      </c>
-      <c r="F46" s="29" t="s">
-        <v>514</v>
       </c>
       <c r="G46" s="33"/>
       <c r="H46" s="33"/>
@@ -7571,20 +8730,20 @@
     </row>
     <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
+        <v>514</v>
+      </c>
+      <c r="B47" s="53"/>
+      <c r="C47" s="15" t="s">
+        <v>432</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E47" s="5" t="s">
         <v>515</v>
       </c>
-      <c r="B47" s="51"/>
-      <c r="C47" s="15" t="s">
-        <v>433</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E47" s="5" t="s">
+      <c r="F47" s="4" t="s">
         <v>516</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>517</v>
       </c>
       <c r="G47" s="2" t="s">
         <v>237</v>
@@ -7598,20 +8757,20 @@
     </row>
     <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
+        <v>517</v>
+      </c>
+      <c r="B48" s="53"/>
+      <c r="C48" s="15" t="s">
+        <v>436</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E48" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="B48" s="51"/>
-      <c r="C48" s="15" t="s">
-        <v>437</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E48" s="5" t="s">
+      <c r="F48" s="29" t="s">
         <v>519</v>
-      </c>
-      <c r="F48" s="29" t="s">
-        <v>520</v>
       </c>
       <c r="G48" s="2" t="s">
         <v>237</v>
@@ -7622,56 +8781,56 @@
     </row>
     <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
+        <v>520</v>
+      </c>
+      <c r="B49" s="53"/>
+      <c r="C49" s="15" t="s">
+        <v>440</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E49" s="5" t="s">
         <v>521</v>
       </c>
-      <c r="B49" s="51"/>
-      <c r="C49" s="15" t="s">
-        <v>441</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E49" s="5" t="s">
+      <c r="F49" s="29" t="s">
         <v>522</v>
-      </c>
-      <c r="F49" s="29" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
+        <v>523</v>
+      </c>
+      <c r="B50" s="53"/>
+      <c r="C50" s="15" t="s">
         <v>524</v>
       </c>
-      <c r="B50" s="51"/>
-      <c r="C50" s="15" t="s">
+      <c r="D50" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E50" s="5" t="s">
         <v>525</v>
       </c>
-      <c r="D50" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E50" s="5" t="s">
+      <c r="F50" s="29" t="s">
         <v>526</v>
-      </c>
-      <c r="F50" s="29" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
+        <v>527</v>
+      </c>
+      <c r="B51" s="53"/>
+      <c r="C51" s="15" t="s">
         <v>528</v>
       </c>
-      <c r="B51" s="51"/>
-      <c r="C51" s="15" t="s">
+      <c r="D51" s="5" t="s">
+        <v>511</v>
+      </c>
+      <c r="E51" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>512</v>
-      </c>
-      <c r="E51" s="5" t="s">
+      <c r="F51" s="29" t="s">
         <v>530</v>
-      </c>
-      <c r="F51" s="29" t="s">
-        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -7686,20 +8845,430 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="29" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="34" t="s">
-        <v>532</v>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="35" t="s">
+        <v>578</v>
+      </c>
+      <c r="B2" s="54" t="s">
+        <v>579</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>580</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>581</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>583</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>584</v>
+      </c>
+      <c r="B3" s="55"/>
+      <c r="C3" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>585</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="35" t="s">
+        <v>587</v>
+      </c>
+      <c r="B4" s="55"/>
+      <c r="C4" s="5" t="s">
+        <v>590</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>591</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>592</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="35" t="s">
+        <v>622</v>
+      </c>
+      <c r="B5" s="55"/>
+      <c r="C5" s="15" t="s">
+        <v>347</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>595</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>588</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>589</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
+        <v>623</v>
+      </c>
+      <c r="B6" s="55"/>
+      <c r="C6" s="34" t="s">
+        <v>593</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>596</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>597</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="35" t="s">
+        <v>624</v>
+      </c>
+      <c r="B7" s="55"/>
+      <c r="C7" s="34" t="s">
+        <v>599</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>601</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="35" t="s">
+        <v>625</v>
+      </c>
+      <c r="B8" s="55"/>
+      <c r="C8" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>604</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="35" t="s">
+        <v>626</v>
+      </c>
+      <c r="B9" s="55"/>
+      <c r="C9" s="34" t="s">
+        <v>605</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>600</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>606</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="35" t="s">
+        <v>627</v>
+      </c>
+      <c r="B10" s="55"/>
+      <c r="C10" s="34" t="s">
+        <v>609</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>611</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="35" t="s">
+        <v>628</v>
+      </c>
+      <c r="B11" s="55"/>
+      <c r="C11" s="34" t="s">
+        <v>613</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>615</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="35" t="s">
+        <v>629</v>
+      </c>
+      <c r="B12" s="55"/>
+      <c r="C12" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>617</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>630</v>
+      </c>
+      <c r="B13" s="55"/>
+      <c r="C13" s="34" t="s">
+        <v>619</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>620</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>651</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>652</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>653</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
+      <c r="C15" s="37" t="s">
+        <v>631</v>
+      </c>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="36"/>
+      <c r="G15" s="36"/>
+      <c r="H15" s="36"/>
+      <c r="I15" s="36"/>
+      <c r="J15" s="36"/>
+    </row>
+    <row r="16" spans="1:13" ht="210" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
+        <v>632</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>650</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>633</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="35" t="s">
+        <v>639</v>
+      </c>
+      <c r="B17" s="55"/>
+      <c r="C17" s="34" t="s">
+        <v>637</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>638</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>635</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="35" t="s">
+        <v>645</v>
+      </c>
+      <c r="B18" s="55"/>
+      <c r="C18" s="34" t="s">
+        <v>641</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>642</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>643</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>646</v>
+      </c>
+      <c r="B19" s="55"/>
+      <c r="C19" s="34" t="s">
+        <v>647</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>648</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="B16:B19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
@@ -7707,10 +9276,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C10" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7773,182 +9342,187 @@
     </row>
     <row r="2" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>531</v>
+      </c>
+      <c r="B2" s="56" t="s">
+        <v>532</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>533</v>
       </c>
-      <c r="B2" s="52" t="s">
+      <c r="D2" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>554</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>534</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>535</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>556</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
-        <v>539</v>
-      </c>
-      <c r="B3" s="53"/>
+        <v>537</v>
+      </c>
+      <c r="B3" s="57"/>
       <c r="C3" s="15" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="F3" s="29" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
-        <v>540</v>
-      </c>
-      <c r="B4" s="53"/>
+        <v>538</v>
+      </c>
+      <c r="B4" s="57"/>
       <c r="C4" s="15" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="F4" s="29" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
-        <v>542</v>
-      </c>
-      <c r="B5" s="53"/>
-      <c r="C5" s="35" t="s">
-        <v>552</v>
+        <v>540</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="34" t="s">
+        <v>550</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E5" s="29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F5" s="29" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
-        <v>543</v>
-      </c>
-      <c r="B6" s="53"/>
-      <c r="C6" s="35" t="s">
-        <v>553</v>
+        <v>541</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="34" t="s">
+        <v>551</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E6" s="29" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="F6" s="29" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>544</v>
-      </c>
-      <c r="B7" s="53"/>
-      <c r="C7" s="35" t="s">
-        <v>550</v>
+        <v>542</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="34" t="s">
+        <v>548</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E7" s="29" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="F7" s="29" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
+        <v>544</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="34" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="53"/>
-      <c r="C8" s="35" t="s">
-        <v>548</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="F8" s="29" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
+        <v>545</v>
+      </c>
+      <c r="B9" s="57"/>
+      <c r="C9" s="34" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="53"/>
-      <c r="C9" s="35" t="s">
-        <v>549</v>
-      </c>
       <c r="D9" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>568</v>
+      </c>
+      <c r="F9" s="29" t="s">
         <v>569</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>570</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>571</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
+        <v>570</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="34" t="s">
+        <v>571</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="35" t="s">
+      <c r="E10" s="29" t="s">
         <v>573</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="F10" s="29" t="s">
         <v>574</v>
       </c>
-      <c r="E10" s="29" t="s">
+    </row>
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>594</v>
+      </c>
+      <c r="B11" s="26"/>
+      <c r="C11" s="34" t="s">
         <v>575</v>
       </c>
-      <c r="F10" s="29" t="s">
+      <c r="D11" s="5" t="s">
+        <v>572</v>
+      </c>
+      <c r="E11" s="29" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="C11" s="35" t="s">
+      <c r="F11" s="29" t="s">
         <v>577</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>574</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>578</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>579</v>
-      </c>
-    </row>
+    </row>
+    <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B9"/>
@@ -7956,4 +9530,607 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB30AD-5982-453B-BB21-1F6052C6135A}">
+  <dimension ref="A1:M30"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="K1" sqref="K1"/>
+      <selection pane="bottomLeft" activeCell="C31" sqref="C31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="5" max="5" width="44" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="8" max="8" width="17" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="59" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="E1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>655</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>656</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>658</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="C3" s="58" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>666</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>668</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>661</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>669</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>670</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>662</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>671</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>673</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>674</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>676</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>664</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>678</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>681</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>685</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>682</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>688</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>689</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>683</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>691</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>675</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>694</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>684</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>696</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>697</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>707</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>700</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>693</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>702</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>699</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>703</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>705</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>708</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>710</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>706</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="C16" s="60" t="s">
+        <v>713</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>714</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>718</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>720</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="C18" s="60" t="s">
+        <v>722</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>723</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="C19" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>726</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>735</v>
+      </c>
+      <c r="C20" s="60" t="s">
+        <v>728</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>610</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>729</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C21" s="60" t="s">
+        <v>737</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>716</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="C22" s="60" t="s">
+        <v>739</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>567</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>740</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>742</v>
+      </c>
+      <c r="C23" s="34" t="s">
+        <v>743</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>744</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="225" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>746</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>747</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>748</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="61" t="s">
+        <v>749</v>
+      </c>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="36"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="36"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="25" t="s">
+        <v>750</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>772</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>758</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
+      <c r="A27" s="25" t="s">
+        <v>751</v>
+      </c>
+      <c r="B27" s="63"/>
+      <c r="C27" s="2" t="s">
+        <v>760</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>460</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>761</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A28" s="25" t="s">
+        <v>752</v>
+      </c>
+      <c r="B28" s="63"/>
+      <c r="C28" s="13" t="s">
+        <v>763</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>764</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="25" t="s">
+        <v>753</v>
+      </c>
+      <c r="B29" s="63"/>
+      <c r="C29" s="13" t="s">
+        <v>766</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>767</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="255" x14ac:dyDescent="0.25">
+      <c r="A30" s="25" t="s">
+        <v>754</v>
+      </c>
+      <c r="B30" s="63"/>
+      <c r="C30" s="2" t="s">
+        <v>769</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>757</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>770</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>771</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B26:B30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,33 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD61AA3-74CA-4186-AF01-9CCDE39589F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72919AFD-4DFE-42C5-B5D4-447561C4C39C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Web home" sheetId="1" r:id="rId1"/>
     <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
     <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
-    <sheet name="POST" sheetId="4" r:id="rId4"/>
-    <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
-    <sheet name="LEARNING" sheetId="9" r:id="rId6"/>
-    <sheet name="ADMINSTRATOR" sheetId="10" r:id="rId7"/>
-    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId8"/>
-    <sheet name="SETTINGS" sheetId="13" r:id="rId9"/>
-    <sheet name="FORUMS" sheetId="6" r:id="rId10"/>
-    <sheet name="Dashboard" sheetId="7" r:id="rId11"/>
-    <sheet name="USERS" sheetId="8" r:id="rId12"/>
+    <sheet name="Sheet2" sheetId="15" r:id="rId4"/>
+    <sheet name="POST" sheetId="4" r:id="rId5"/>
+    <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId6"/>
+    <sheet name="LEARNING" sheetId="9" r:id="rId7"/>
+    <sheet name="ADMINSTRATOR" sheetId="10" r:id="rId8"/>
+    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId9"/>
+    <sheet name="SETTINGS" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId11"/>
+    <sheet name="FORUMS" sheetId="6" r:id="rId12"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId13"/>
+    <sheet name="USERS" sheetId="8" r:id="rId14"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId15"/>
   </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2415" uniqueCount="1362">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -8081,6 +8083,9 @@
   </si>
   <si>
     <t>NO_42</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -8511,6 +8516,9 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8559,24 +8567,6 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8595,8 +8585,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8640,7 +8645,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD181346-56D2-4A84-B1B1-9691E40244E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8693,7 +8698,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4CC3F0-F98C-463C-844E-8DD0DDC7A7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8733,15 +8738,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>868680</xdr:colOff>
+          <xdr:colOff>866775</xdr:colOff>
           <xdr:row>39</xdr:row>
-          <xdr:rowOff>617220</xdr:rowOff>
+          <xdr:rowOff>619125</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>1783080</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:colOff>1781175</xdr:colOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>1304925</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8751,7 +8756,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDBFC56-2A1C-49A0-B8AF-C17CEB05A3AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9066,30 +9071,30 @@
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="46.28515625" customWidth="1"/>
+    <col min="6" max="6" width="36.5703125" customWidth="1"/>
+    <col min="7" max="7" width="36.7109375" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.7109375" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" customWidth="1"/>
     <col min="12" max="12" width="16" customWidth="1"/>
     <col min="13" max="13" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -9130,24 +9135,24 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
+    <row r="4" spans="1:13" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="92.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>42</v>
       </c>
@@ -9173,7 +9178,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>43</v>
       </c>
@@ -9199,7 +9204,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>44</v>
       </c>
@@ -9228,7 +9233,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>45</v>
       </c>
@@ -9257,11 +9262,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>21</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -9286,11 +9291,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="45.75" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="44"/>
       <c r="C10" s="6" t="s">
         <v>40</v>
       </c>
@@ -9313,11 +9318,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="B11" s="43"/>
+      <c r="B11" s="44"/>
       <c r="C11" s="6" t="s">
         <v>30</v>
       </c>
@@ -9340,11 +9345,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="43"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="6" t="s">
         <v>41</v>
       </c>
@@ -9367,7 +9372,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>58</v>
       </c>
@@ -9393,7 +9398,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>64</v>
       </c>
@@ -9422,11 +9427,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B15" s="46" t="s">
+      <c r="B15" s="47" t="s">
         <v>72</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -9451,11 +9456,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="46"/>
+      <c r="B16" s="47"/>
       <c r="C16" s="6" t="s">
         <v>77</v>
       </c>
@@ -9478,11 +9483,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="95.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="46"/>
+      <c r="B17" s="47"/>
       <c r="C17" s="6" t="s">
         <v>82</v>
       </c>
@@ -9505,11 +9510,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="97.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="B18" s="46"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="6" t="s">
         <v>89</v>
       </c>
@@ -9532,11 +9537,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="88.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="46"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="6" t="s">
         <v>90</v>
       </c>
@@ -9559,11 +9564,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="86.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B20" s="46"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="6" t="s">
         <v>95</v>
       </c>
@@ -9586,11 +9591,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="B21" s="46"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="6" t="s">
         <v>108</v>
       </c>
@@ -9613,11 +9618,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="B22" s="46"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="6" t="s">
         <v>107</v>
       </c>
@@ -9640,11 +9645,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="B23" s="46"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="6" t="s">
         <v>104</v>
       </c>
@@ -9667,11 +9672,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="B24" s="46"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="6" t="s">
         <v>102</v>
       </c>
@@ -9694,11 +9699,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="B25" s="46"/>
+      <c r="B25" s="47"/>
       <c r="C25" s="6" t="s">
         <v>116</v>
       </c>
@@ -9721,11 +9726,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="B26" s="46"/>
+      <c r="B26" s="47"/>
       <c r="C26" s="6" t="s">
         <v>115</v>
       </c>
@@ -9748,11 +9753,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="46"/>
+      <c r="B27" s="47"/>
       <c r="C27" s="6" t="s">
         <v>119</v>
       </c>
@@ -9775,11 +9780,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="46"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="6" t="s">
         <v>120</v>
       </c>
@@ -9802,11 +9807,11 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="94.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="46"/>
+      <c r="B29" s="47"/>
       <c r="C29" s="6" t="s">
         <v>122</v>
       </c>
@@ -9829,7 +9834,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>129</v>
       </c>
@@ -9858,7 +9863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>134</v>
       </c>
@@ -9887,217 +9892,217 @@
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="97" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="98" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="99" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="100" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="101" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+    <row r="102" spans="5:5" x14ac:dyDescent="0.25">
       <c r="E102" s="5"/>
     </row>
   </sheetData>
@@ -10113,6 +10118,1271 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1"/>
+    <col min="4" max="4" width="29.85546875" customWidth="1"/>
+    <col min="5" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>1213</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G6" s="15"/>
+      <c r="H6" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B7" s="60"/>
+      <c r="C7" s="6" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>1220</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B9" s="60"/>
+      <c r="C9" s="6" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>1219</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>1226</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1229</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B11" s="60"/>
+      <c r="C11" s="6" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G11" s="15"/>
+      <c r="H11" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>1233</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>1234</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>1236</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>1237</v>
+      </c>
+      <c r="G12" s="15"/>
+      <c r="H12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B13" s="60"/>
+      <c r="C13" s="6" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G13" s="15"/>
+      <c r="H13" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>1241</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>1243</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G14" s="15"/>
+      <c r="H14" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B15" s="60"/>
+      <c r="C15" s="6" t="s">
+        <v>1245</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>1246</v>
+      </c>
+      <c r="G15" s="15"/>
+      <c r="H15" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>1247</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>1248</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G16" s="15"/>
+      <c r="H16" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B17" s="60"/>
+      <c r="C17" s="6" t="s">
+        <v>1251</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>1252</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>1253</v>
+      </c>
+      <c r="G17" s="15"/>
+      <c r="H17" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>1254</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>1255</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1235</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>1256</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>1257</v>
+      </c>
+      <c r="G18" s="15"/>
+      <c r="H18" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B19" s="60"/>
+      <c r="C19" s="6" t="s">
+        <v>1258</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1259</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>1218</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>1260</v>
+      </c>
+      <c r="G19" s="15"/>
+      <c r="H19" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1261</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>1262</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1265</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>1266</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="63" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1267</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>1268</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>1270</v>
+      </c>
+      <c r="G22" s="5"/>
+      <c r="H22" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B23" s="60"/>
+      <c r="C23" s="6" t="s">
+        <v>1271</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>1274</v>
+      </c>
+      <c r="G23" s="5"/>
+      <c r="H23" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="8" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>1276</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>1277</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G24" s="5"/>
+      <c r="H24" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B25" s="60"/>
+      <c r="C25" s="6" t="s">
+        <v>1281</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>1282</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G25" s="5"/>
+      <c r="H25" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B26" s="60"/>
+      <c r="C26" s="6" t="s">
+        <v>1285</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B27" s="60"/>
+      <c r="C27" s="6" t="s">
+        <v>1288</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B28" s="60"/>
+      <c r="C28" s="6" t="s">
+        <v>1292</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>1293</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B29" s="60"/>
+      <c r="C29" s="6" t="s">
+        <v>1296</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>1297</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>1299</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>1300</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B31" s="60"/>
+      <c r="C31" s="6" t="s">
+        <v>1303</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B35"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C682E69-F08D-4018-9E96-360100FC4439}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -10120,23 +11390,23 @@
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.109375" customWidth="1"/>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="79.44140625" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" customWidth="1"/>
-    <col min="5" max="5" width="44.44140625" customWidth="1"/>
-    <col min="6" max="6" width="55.5546875" customWidth="1"/>
+    <col min="3" max="3" width="79.42578125" customWidth="1"/>
+    <col min="4" max="4" width="43.5703125" customWidth="1"/>
+    <col min="5" max="5" width="44.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.5703125" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" customWidth="1"/>
-    <col min="10" max="10" width="27.6640625" customWidth="1"/>
-    <col min="11" max="11" width="26.6640625" customWidth="1"/>
-    <col min="12" max="12" width="18.5546875" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" customWidth="1"/>
+    <col min="10" max="10" width="27.7109375" customWidth="1"/>
+    <col min="11" max="11" width="26.7109375" customWidth="1"/>
+    <col min="12" max="12" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10177,11 +11447,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="65" t="s">
         <v>579</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -10197,11 +11467,11 @@
         <v>582</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="15" t="s">
         <v>338</v>
       </c>
@@ -10221,11 +11491,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>590</v>
       </c>
@@ -10248,11 +11518,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="15" t="s">
         <v>347</v>
       </c>
@@ -10275,11 +11545,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="34" t="s">
         <v>593</v>
       </c>
@@ -10293,11 +11563,11 @@
         <v>598</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="34" t="s">
         <v>599</v>
       </c>
@@ -10311,11 +11581,11 @@
         <v>602</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="34" t="s">
         <v>603</v>
       </c>
@@ -10329,11 +11599,11 @@
         <v>608</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="34" t="s">
         <v>605</v>
       </c>
@@ -10347,11 +11617,11 @@
         <v>607</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="34" t="s">
         <v>609</v>
       </c>
@@ -10365,11 +11635,11 @@
         <v>612</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="34" t="s">
         <v>613</v>
       </c>
@@ -10383,11 +11653,11 @@
         <v>614</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="34" t="s">
         <v>616</v>
       </c>
@@ -10401,11 +11671,11 @@
         <v>618</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="117" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="34" t="s">
         <v>619</v>
       </c>
@@ -10419,7 +11689,7 @@
         <v>621</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>651</v>
       </c>
@@ -10445,7 +11715,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="36"/>
       <c r="B15" s="36"/>
       <c r="C15" s="37" t="s">
@@ -10459,11 +11729,11 @@
       <c r="I15" s="36"/>
       <c r="J15" s="36"/>
     </row>
-    <row r="16" spans="1:13" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="210" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="66" t="s">
         <v>650</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -10479,11 +11749,11 @@
         <v>636</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="34" t="s">
         <v>637</v>
       </c>
@@ -10497,11 +11767,11 @@
         <v>640</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="34" t="s">
         <v>641</v>
       </c>
@@ -10515,11 +11785,11 @@
         <v>644</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="34" t="s">
         <v>647</v>
       </c>
@@ -10543,7 +11813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -10551,24 +11821,24 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.88671875" customWidth="1"/>
-    <col min="2" max="2" width="41.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="42.44140625" customWidth="1"/>
-    <col min="5" max="5" width="45.109375" customWidth="1"/>
-    <col min="6" max="6" width="44.88671875" customWidth="1"/>
-    <col min="7" max="7" width="31.33203125" customWidth="1"/>
-    <col min="8" max="8" width="21.33203125" customWidth="1"/>
-    <col min="9" max="9" width="22.44140625" customWidth="1"/>
-    <col min="10" max="10" width="30.88671875" customWidth="1"/>
-    <col min="11" max="11" width="22.109375" customWidth="1"/>
+    <col min="4" max="4" width="42.42578125" customWidth="1"/>
+    <col min="5" max="5" width="45.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.85546875" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="21.28515625" customWidth="1"/>
+    <col min="9" max="9" width="22.42578125" customWidth="1"/>
+    <col min="10" max="10" width="30.85546875" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" customWidth="1"/>
     <col min="12" max="12" width="27" customWidth="1"/>
-    <col min="13" max="13" width="30.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10609,11 +11879,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="67" t="s">
         <v>532</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -10629,11 +11899,11 @@
         <v>534</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="15" t="s">
         <v>535</v>
       </c>
@@ -10647,11 +11917,11 @@
         <v>556</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="15" t="s">
         <v>539</v>
       </c>
@@ -10665,11 +11935,11 @@
         <v>558</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="144" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="34" t="s">
         <v>550</v>
       </c>
@@ -10683,11 +11953,11 @@
         <v>560</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="34" t="s">
         <v>551</v>
       </c>
@@ -10701,11 +11971,11 @@
         <v>562</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="34" t="s">
         <v>548</v>
       </c>
@@ -10719,11 +11989,11 @@
         <v>564</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="132" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="34" t="s">
         <v>546</v>
       </c>
@@ -10737,11 +12007,11 @@
         <v>566</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="34" t="s">
         <v>547</v>
       </c>
@@ -10755,7 +12025,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>570</v>
       </c>
@@ -10773,7 +12043,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>594</v>
       </c>
@@ -10791,7 +12061,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B2:B9"/>
@@ -10801,7 +12071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB30AD-5982-453B-BB21-1F6052C6135A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -10811,24 +12081,24 @@
       <selection pane="bottomLeft" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="32.88671875" customWidth="1"/>
-    <col min="3" max="3" width="71.6640625" style="13" customWidth="1"/>
-    <col min="4" max="4" width="36.6640625" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="32.85546875" customWidth="1"/>
+    <col min="3" max="3" width="71.7109375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="46.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" customWidth="1"/>
+    <col min="6" max="6" width="46.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="16.44140625" customWidth="1"/>
-    <col min="10" max="10" width="40.6640625" customWidth="1"/>
-    <col min="11" max="11" width="38.6640625" customWidth="1"/>
-    <col min="12" max="12" width="30.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1"/>
+    <col min="10" max="10" width="40.7109375" customWidth="1"/>
+    <col min="11" max="11" width="38.7109375" customWidth="1"/>
+    <col min="12" max="12" width="30.42578125" customWidth="1"/>
+    <col min="13" max="13" width="15.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -10869,7 +12139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>655</v>
       </c>
@@ -10889,7 +12159,7 @@
         <v>667</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>660</v>
       </c>
@@ -10915,7 +12185,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>661</v>
       </c>
@@ -10941,7 +12211,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>662</v>
       </c>
@@ -10967,7 +12237,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>663</v>
       </c>
@@ -10984,7 +12254,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>664</v>
       </c>
@@ -11001,7 +12271,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>681</v>
       </c>
@@ -11018,7 +12288,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>682</v>
       </c>
@@ -11035,7 +12305,7 @@
         <v>690</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>683</v>
       </c>
@@ -11052,7 +12322,7 @@
         <v>695</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="123" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>684</v>
       </c>
@@ -11069,7 +12339,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>692</v>
       </c>
@@ -11086,7 +12356,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>693</v>
       </c>
@@ -11103,7 +12373,7 @@
         <v>704</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>705</v>
       </c>
@@ -11120,7 +12390,7 @@
         <v>711</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>706</v>
       </c>
@@ -11128,7 +12398,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>731</v>
       </c>
@@ -11145,7 +12415,7 @@
         <v>715</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>732</v>
       </c>
@@ -11162,7 +12432,7 @@
         <v>721</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>733</v>
       </c>
@@ -11179,7 +12449,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>734</v>
       </c>
@@ -11196,7 +12466,7 @@
         <v>727</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>735</v>
       </c>
@@ -11213,7 +12483,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>736</v>
       </c>
@@ -11230,7 +12500,7 @@
         <v>717</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>738</v>
       </c>
@@ -11247,7 +12517,7 @@
         <v>741</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>742</v>
       </c>
@@ -11264,7 +12534,7 @@
         <v>745</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="225" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>746</v>
       </c>
@@ -11290,7 +12560,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:10" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="36"/>
       <c r="B25" s="36"/>
       <c r="C25" s="41" t="s">
@@ -11304,11 +12574,11 @@
       <c r="I25" s="36"/>
       <c r="J25" s="36"/>
     </row>
-    <row r="26" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="69" t="s">
         <v>755</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -11324,11 +12594,11 @@
         <v>759</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="72" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2" t="s">
         <v>760</v>
       </c>
@@ -11342,11 +12612,11 @@
         <v>762</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="13" t="s">
         <v>763</v>
       </c>
@@ -11360,11 +12630,11 @@
         <v>765</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="13" t="s">
         <v>766</v>
       </c>
@@ -11378,11 +12648,11 @@
         <v>768</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="2" t="s">
         <v>769</v>
       </c>
@@ -11413,30 +12683,30 @@
       <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.6640625" customWidth="1"/>
-    <col min="3" max="3" width="32.33203125" customWidth="1"/>
-    <col min="4" max="4" width="30.44140625" customWidth="1"/>
-    <col min="5" max="5" width="33.5546875" customWidth="1"/>
-    <col min="6" max="6" width="31.33203125" customWidth="1"/>
-    <col min="7" max="7" width="31.109375" customWidth="1"/>
-    <col min="8" max="8" width="15.5546875" customWidth="1"/>
-    <col min="9" max="9" width="15.44140625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
-    <col min="11" max="11" width="12.109375" customWidth="1"/>
-    <col min="12" max="12" width="18.109375" customWidth="1"/>
-    <col min="13" max="13" width="26.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1"/>
+    <col min="5" max="5" width="33.5703125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="31.140625" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="19.7109375" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -11477,7 +12747,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11" t="s">
         <v>137</v>
       </c>
@@ -11503,7 +12773,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>142</v>
       </c>
@@ -11529,7 +12799,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>148</v>
       </c>
@@ -11555,7 +12825,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>152</v>
       </c>
@@ -11581,7 +12851,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>156</v>
       </c>
@@ -11621,29 +12891,29 @@
   <dimension ref="A2:M20"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.44140625" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.33203125" customWidth="1"/>
-    <col min="5" max="5" width="36.44140625" customWidth="1"/>
-    <col min="6" max="6" width="26.5546875" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="4" max="4" width="33.28515625" customWidth="1"/>
+    <col min="5" max="5" width="36.42578125" customWidth="1"/>
+    <col min="6" max="6" width="26.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
     <col min="8" max="8" width="16" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -11684,7 +12954,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>162</v>
       </c>
@@ -11710,7 +12980,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
@@ -11736,7 +13006,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>170</v>
       </c>
@@ -11762,7 +13032,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>175</v>
       </c>
@@ -11788,7 +13058,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>179</v>
       </c>
@@ -11814,7 +13084,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>183</v>
       </c>
@@ -11840,7 +13110,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>188</v>
       </c>
@@ -11866,7 +13136,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>192</v>
       </c>
@@ -11892,7 +13162,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>197</v>
       </c>
@@ -11918,7 +13188,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>201</v>
       </c>
@@ -11944,7 +13214,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>204</v>
       </c>
@@ -11970,7 +13240,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>208</v>
       </c>
@@ -11996,7 +13266,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>213</v>
       </c>
@@ -12022,7 +13292,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>217</v>
       </c>
@@ -12048,7 +13318,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>221</v>
       </c>
@@ -12074,7 +13344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>225</v>
       </c>
@@ -12100,7 +13370,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>230</v>
       </c>
@@ -12135,32 +13405,52 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B5B6494-549A-48F0-BFBD-A331305B0371}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
   <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.88671875" customWidth="1"/>
-    <col min="2" max="2" width="51.88671875" customWidth="1"/>
-    <col min="3" max="3" width="53.33203125" customWidth="1"/>
-    <col min="4" max="4" width="43.88671875" customWidth="1"/>
-    <col min="5" max="5" width="40.109375" customWidth="1"/>
-    <col min="6" max="6" width="44.44140625" customWidth="1"/>
-    <col min="7" max="7" width="22.6640625" customWidth="1"/>
-    <col min="8" max="8" width="23.5546875" customWidth="1"/>
-    <col min="9" max="9" width="27.88671875" customWidth="1"/>
-    <col min="10" max="10" width="32.88671875" customWidth="1"/>
-    <col min="11" max="11" width="19.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" customWidth="1"/>
+    <col min="2" max="2" width="51.85546875" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="43.85546875" customWidth="1"/>
+    <col min="5" max="5" width="40.140625" customWidth="1"/>
+    <col min="6" max="6" width="44.42578125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
+    <col min="8" max="8" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="27.85546875" customWidth="1"/>
+    <col min="10" max="10" width="32.85546875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12201,14 +13491,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+    <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -12218,11 +13508,11 @@
       <c r="L2" s="18"/>
       <c r="M2" s="18"/>
     </row>
-    <row r="3" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -12247,11 +13537,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="6" t="s">
         <v>246</v>
       </c>
@@ -12274,11 +13564,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="6" t="s">
         <v>250</v>
       </c>
@@ -12301,11 +13591,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="19" t="s">
         <v>253</v>
       </c>
@@ -12328,11 +13618,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="19" t="s">
         <v>256</v>
       </c>
@@ -12355,11 +13645,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="19" t="s">
         <v>259</v>
       </c>
@@ -12382,11 +13672,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="19" t="s">
         <v>263</v>
       </c>
@@ -12409,11 +13699,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="201.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="225" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="19" t="s">
         <v>267</v>
       </c>
@@ -12436,11 +13726,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="19" t="s">
         <v>271</v>
       </c>
@@ -12463,11 +13753,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="19" t="s">
         <v>275</v>
       </c>
@@ -12490,11 +13780,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="19" t="s">
         <v>279</v>
       </c>
@@ -12517,11 +13807,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="19" t="s">
         <v>283</v>
       </c>
@@ -12544,11 +13834,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19" t="s">
         <v>287</v>
       </c>
@@ -12571,11 +13861,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19" t="s">
         <v>291</v>
       </c>
@@ -12598,11 +13888,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="19" t="s">
         <v>296</v>
       </c>
@@ -12625,11 +13915,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="19" t="s">
         <v>301</v>
       </c>
@@ -12652,11 +13942,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="19" t="s">
         <v>305</v>
       </c>
@@ -12679,14 +13969,14 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+    <row r="20" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -12696,11 +13986,11 @@
       <c r="L20" s="18"/>
       <c r="M20" s="18"/>
     </row>
-    <row r="21" spans="1:13" ht="72" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>329</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -12725,11 +14015,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="19" t="s">
         <v>315</v>
       </c>
@@ -12752,11 +14042,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="19" t="s">
         <v>320</v>
       </c>
@@ -12779,11 +14069,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="144" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="19" t="s">
         <v>325</v>
       </c>
@@ -12817,7 +14107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -12827,20 +14117,20 @@
       <selection pane="bottomLeft" activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.6640625" customWidth="1"/>
+    <col min="1" max="1" width="22.7109375" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
-    <col min="4" max="4" width="32.109375" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="49.88671875" customWidth="1"/>
-    <col min="7" max="7" width="30.33203125" customWidth="1"/>
-    <col min="8" max="8" width="30.88671875" customWidth="1"/>
-    <col min="9" max="9" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="49.85546875" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" customWidth="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -12881,7 +14171,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A2" s="20"/>
       <c r="B2" s="21"/>
       <c r="C2" s="22" t="s">
@@ -12898,11 +14188,11 @@
       <c r="L2" s="23"/>
       <c r="M2" s="23"/>
     </row>
-    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>332</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -12927,11 +14217,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="15" t="s">
         <v>338</v>
       </c>
@@ -12954,11 +14244,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="5" t="s">
         <v>342</v>
       </c>
@@ -12981,11 +14271,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="15" t="s">
         <v>347</v>
       </c>
@@ -13008,11 +14298,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="15" t="s">
         <v>351</v>
       </c>
@@ -13035,11 +14325,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="5" t="s">
         <v>356</v>
       </c>
@@ -13062,11 +14352,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="15" t="s">
         <v>360</v>
       </c>
@@ -13089,11 +14379,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="15" t="s">
         <v>364</v>
       </c>
@@ -13116,11 +14406,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="15" t="s">
         <v>368</v>
       </c>
@@ -13143,11 +14433,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="15" t="s">
         <v>372</v>
       </c>
@@ -13170,11 +14460,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="15" t="s">
         <v>377</v>
       </c>
@@ -13197,11 +14487,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="15" t="s">
         <v>382</v>
       </c>
@@ -13224,11 +14514,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="15" t="s">
         <v>387</v>
       </c>
@@ -13251,11 +14541,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="15" t="s">
         <v>391</v>
       </c>
@@ -13278,11 +14568,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="15" t="s">
         <v>395</v>
       </c>
@@ -13305,11 +14595,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="15" t="s">
         <v>399</v>
       </c>
@@ -13332,11 +14622,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="15" t="s">
         <v>403</v>
       </c>
@@ -13359,11 +14649,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="15" t="s">
         <v>407</v>
       </c>
@@ -13386,11 +14676,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="15" t="s">
         <v>411</v>
       </c>
@@ -13413,11 +14703,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="15" t="s">
         <v>416</v>
       </c>
@@ -13440,11 +14730,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="15" t="s">
         <v>420</v>
       </c>
@@ -13467,7 +14757,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
       <c r="A24" s="20"/>
       <c r="B24" s="20"/>
       <c r="C24" s="24" t="s">
@@ -13484,7 +14774,7 @@
       <c r="L24" s="20"/>
       <c r="M24" s="20"/>
     </row>
-    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25" t="s">
         <v>425</v>
       </c>
@@ -13511,7 +14801,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="25" t="s">
         <v>430</v>
       </c>
@@ -13540,7 +14830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="25" t="s">
         <v>435</v>
       </c>
@@ -13567,7 +14857,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="25" t="s">
         <v>439</v>
       </c>
@@ -13594,7 +14884,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
         <v>443</v>
       </c>
@@ -13621,7 +14911,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
         <v>447</v>
       </c>
@@ -13648,7 +14938,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
         <v>451</v>
       </c>
@@ -13675,7 +14965,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A32" s="20"/>
       <c r="B32" s="20"/>
       <c r="C32" s="22" t="s">
@@ -13692,11 +14982,11 @@
       <c r="L32" s="20"/>
       <c r="M32" s="20"/>
     </row>
-    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>458</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -13712,11 +15002,11 @@
         <v>462</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="5" t="s">
         <v>464</v>
       </c>
@@ -13730,11 +15020,11 @@
         <v>466</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="5" t="s">
         <v>468</v>
       </c>
@@ -13748,11 +15038,11 @@
         <v>471</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="15" t="s">
         <v>473</v>
       </c>
@@ -13766,11 +15056,11 @@
         <v>476</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="15" t="s">
         <v>478</v>
       </c>
@@ -13784,11 +15074,11 @@
         <v>480</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="15" t="s">
         <v>364</v>
       </c>
@@ -13802,11 +15092,11 @@
         <v>483</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="15" t="s">
         <v>485</v>
       </c>
@@ -13820,11 +15110,11 @@
         <v>487</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="15" t="s">
         <v>489</v>
       </c>
@@ -13838,11 +15128,11 @@
         <v>491</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="15" t="s">
         <v>493</v>
       </c>
@@ -13856,11 +15146,11 @@
         <v>495</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="15" t="s">
         <v>497</v>
       </c>
@@ -13874,11 +15164,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="15" t="s">
         <v>502</v>
       </c>
@@ -13892,11 +15182,11 @@
         <v>504</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="15" t="s">
         <v>420</v>
       </c>
@@ -13910,7 +15200,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A45" s="30"/>
       <c r="B45" s="30"/>
       <c r="C45" s="31" t="s">
@@ -13927,11 +15217,11 @@
       <c r="L45" s="30"/>
       <c r="M45" s="30"/>
     </row>
-    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>508</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -13954,11 +15244,11 @@
       <c r="L46" s="33"/>
       <c r="M46" s="33"/>
     </row>
-    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="15" t="s">
         <v>432</v>
       </c>
@@ -13981,11 +15271,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="15" t="s">
         <v>436</v>
       </c>
@@ -14005,11 +15295,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="15" t="s">
         <v>440</v>
       </c>
@@ -14023,11 +15313,11 @@
         <v>522</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="15" t="s">
         <v>524</v>
       </c>
@@ -14041,11 +15331,11 @@
         <v>526</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="240" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="15" t="s">
         <v>528</v>
       </c>
@@ -14069,7 +15359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E2F7-ADE0-4C5E-BA2D-6E501792F5ED}">
   <dimension ref="A2:M41"/>
   <sheetViews>
@@ -14078,26 +15368,26 @@
       <selection pane="bottomLeft" activeCell="B4" sqref="B4:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="35.109375" customWidth="1"/>
-    <col min="6" max="6" width="33.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.5546875" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" customWidth="1"/>
-    <col min="9" max="9" width="18.77734375" customWidth="1"/>
+    <col min="5" max="5" width="35.140625" customWidth="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1"/>
+    <col min="7" max="7" width="29.5703125" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" customWidth="1"/>
+    <col min="9" max="9" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="47"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I2" s="48"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>0</v>
       </c>
@@ -14138,11 +15428,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>774</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -14164,11 +15454,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="2" t="s">
         <v>780</v>
       </c>
@@ -14188,11 +15478,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="2" t="s">
         <v>784</v>
       </c>
@@ -14212,11 +15502,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="2" t="s">
         <v>788</v>
       </c>
@@ -14239,11 +15529,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="2" t="s">
         <v>794</v>
       </c>
@@ -14264,11 +15554,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
         <v>798</v>
       </c>
@@ -14291,11 +15581,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="2" t="s">
         <v>802</v>
       </c>
@@ -14318,11 +15608,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
         <v>806</v>
       </c>
@@ -14343,11 +15633,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2" t="s">
         <v>811</v>
       </c>
@@ -14368,11 +15658,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>816</v>
       </c>
@@ -14393,11 +15683,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>821</v>
       </c>
@@ -14418,11 +15708,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2" t="s">
         <v>825</v>
       </c>
@@ -14443,11 +15733,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="2" t="s">
         <v>829</v>
       </c>
@@ -14470,11 +15760,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>834</v>
       </c>
@@ -14495,11 +15785,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="2" t="s">
         <v>838</v>
       </c>
@@ -14520,11 +15810,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="82.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>842</v>
       </c>
@@ -14545,11 +15835,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>846</v>
       </c>
@@ -14570,11 +15860,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="3" t="s">
         <v>850</v>
       </c>
@@ -14595,11 +15885,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>855</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -14622,11 +15912,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="6" t="s">
         <v>861</v>
       </c>
@@ -14649,11 +15939,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="6" t="s">
         <v>865</v>
       </c>
@@ -14676,11 +15966,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="6" t="s">
         <v>869</v>
       </c>
@@ -14703,11 +15993,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="6" t="s">
         <v>873</v>
       </c>
@@ -14730,11 +16020,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>877</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -14757,11 +16047,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="6" t="s">
         <v>883</v>
       </c>
@@ -14784,11 +16074,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="6" t="s">
         <v>889</v>
       </c>
@@ -14811,11 +16101,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="B30" s="65"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="6" t="s">
         <v>893</v>
       </c>
@@ -14838,11 +16128,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="65"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="6" t="s">
         <v>898</v>
       </c>
@@ -14865,11 +16155,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B32" s="65"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="6" t="s">
         <v>901</v>
       </c>
@@ -14892,11 +16182,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B33" s="65"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="6" t="s">
         <v>907</v>
       </c>
@@ -14917,11 +16207,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="B34" s="65"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="6" t="s">
         <v>825</v>
       </c>
@@ -14942,11 +16232,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="B35" s="65"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="6" t="s">
         <v>915</v>
       </c>
@@ -14967,11 +16257,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="6" t="s">
         <v>919</v>
       </c>
@@ -14992,11 +16282,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="B37" s="65"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6" t="s">
         <v>923</v>
       </c>
@@ -15017,11 +16307,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6" t="s">
         <v>927</v>
       </c>
@@ -15042,7 +16332,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>931</v>
       </c>
@@ -15071,7 +16361,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>931</v>
       </c>
@@ -15100,7 +16390,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="340.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="340.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>931</v>
       </c>
@@ -15140,7 +16430,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCD4E98-0A90-4A2C-9E37-92DC4693684A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -15149,25 +16439,25 @@
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.77734375" customWidth="1"/>
-    <col min="2" max="2" width="20.88671875" customWidth="1"/>
-    <col min="3" max="3" width="25.5546875" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.5703125" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="26.77734375" customWidth="1"/>
-    <col min="7" max="7" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1"/>
+    <col min="6" max="6" width="26.7109375" customWidth="1"/>
+    <col min="7" max="7" width="30.7109375" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -15208,11 +16498,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="76.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>943</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -15234,11 +16524,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="74.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="6" t="s">
         <v>949</v>
       </c>
@@ -15258,24 +16548,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:13" s="63" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="61" t="s">
         <v>952</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-    </row>
-    <row r="6" spans="1:13" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
+    </row>
+    <row r="6" spans="1:13" ht="103.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>953</v>
       </c>
@@ -15301,11 +16591,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>960</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -15330,11 +16620,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3" t="s">
         <v>967</v>
       </c>
@@ -15357,11 +16647,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="3" t="s">
         <v>971</v>
       </c>
@@ -15384,11 +16674,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>976</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -15411,11 +16701,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3" t="s">
         <v>982</v>
       </c>
@@ -15436,11 +16726,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="3" t="s">
         <v>987</v>
       </c>
@@ -15461,11 +16751,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>991</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -15490,11 +16780,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="3" t="s">
         <v>997</v>
       </c>
@@ -15517,7 +16807,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1000</v>
       </c>
@@ -15546,24 +16836,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="61" t="s">
         <v>1005</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
-    </row>
-    <row r="17" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
+    </row>
+    <row r="17" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1006</v>
       </c>
@@ -15590,7 +16880,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1013</v>
       </c>
@@ -15619,7 +16909,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1018</v>
       </c>
@@ -15648,11 +16938,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>1007</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -15677,11 +16967,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="3" t="s">
         <v>1027</v>
       </c>
@@ -15704,11 +16994,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="3" t="s">
         <v>1031</v>
       </c>
@@ -15731,11 +17021,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="3" t="s">
         <v>1031</v>
       </c>
@@ -15758,11 +17048,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="42" t="s">
         <v>1038</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -15785,28 +17075,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:13" s="63" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="61" t="s">
         <v>1042</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-    </row>
-    <row r="26" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+    </row>
+    <row r="26" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="64" t="s">
         <v>1044</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -15829,11 +17119,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="3" t="s">
         <v>1048</v>
       </c>
@@ -15854,11 +17144,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15879,11 +17169,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15904,11 +17194,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="3" t="s">
         <v>1062</v>
       </c>
@@ -15931,11 +17221,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="3" t="s">
         <v>1067</v>
       </c>
@@ -15958,11 +17248,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="3" t="s">
         <v>1071</v>
       </c>
@@ -15983,24 +17273,24 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:13" s="63" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="61" t="s">
         <v>1074</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-    </row>
-    <row r="34" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+    </row>
+    <row r="34" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>1075</v>
       </c>
@@ -16027,7 +17317,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>1081</v>
       </c>
@@ -16054,7 +17344,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>1086</v>
       </c>
@@ -16083,11 +17373,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>1076</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -16112,11 +17402,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="3" t="s">
         <v>1098</v>
       </c>
@@ -16139,7 +17429,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>1101</v>
       </c>
@@ -16162,7 +17452,7 @@
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
     </row>
-    <row r="40" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>1106</v>
       </c>
@@ -16191,7 +17481,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>1112</v>
       </c>
@@ -16222,11 +17512,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B3:B4"/>
@@ -16234,6 +17519,11 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A33:XFD33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16241,34 +17531,34 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10242">
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10242">
           <objectPr defaultSize="0" dde="1" r:id="rId3">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>868680</xdr:colOff>
+                <xdr:colOff>866775</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>617220</xdr:rowOff>
+                <xdr:rowOff>619125</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>1783080</xdr:colOff>
+                <xdr:colOff>1781175</xdr:colOff>
                 <xdr:row>39</xdr:row>
-                <xdr:rowOff>1303020</xdr:rowOff>
+                <xdr:rowOff>1304925</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Excel.Sheet.12" dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10242"/>
+        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10242"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5F79E-749A-4C3C-BD92-6C5CCC9618BA}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -16277,25 +17567,25 @@
       <selection pane="bottomLeft" activeCell="B5" sqref="B5:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.77734375" customWidth="1"/>
+    <col min="1" max="1" width="11.7109375" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
-    <col min="4" max="4" width="31.21875" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.88671875" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.85546875" customWidth="1"/>
+    <col min="7" max="7" width="29.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
+    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
@@ -16336,7 +17626,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>1117</v>
       </c>
@@ -16365,7 +17655,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>1124</v>
       </c>
@@ -16394,11 +17684,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>1048</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -16421,11 +17711,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16446,11 +17736,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>1139</v>
       </c>
@@ -16471,11 +17761,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>1143</v>
       </c>
@@ -16496,11 +17786,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="6" t="s">
         <v>1147</v>
       </c>
@@ -16521,11 +17811,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>1118</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -16550,11 +17840,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
         <v>1155</v>
       </c>
@@ -16575,11 +17865,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16600,11 +17890,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>1163</v>
       </c>
@@ -16625,11 +17915,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>1168</v>
       </c>
@@ -16652,11 +17942,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2" t="s">
         <v>1174</v>
       </c>
@@ -16679,7 +17969,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>1177</v>
       </c>
@@ -16708,7 +17998,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>1182</v>
       </c>
@@ -16737,11 +18027,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>1186</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -16764,11 +18054,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>1192</v>
       </c>
@@ -16791,11 +18081,11 @@
         <v>144</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>1197</v>
       </c>
@@ -16827,1258 +18117,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
-  <dimension ref="A1:M47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="6" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="6" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="6" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
-        <v>952</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-    </row>
-    <row r="22" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="6" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="6" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="6" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="6" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="6" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="6" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD61AA3-74CA-4186-AF01-9CCDE39589F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{029FBEF2-7CA9-4DE4-9793-F4250B4C4879}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="2" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Web home" sheetId="1" r:id="rId1"/>
-    <sheet name=" GD Admin Web" sheetId="2" r:id="rId2"/>
-    <sheet name="Function of AD" sheetId="3" r:id="rId3"/>
-    <sheet name="POST" sheetId="4" r:id="rId4"/>
-    <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId5"/>
-    <sheet name="LEARNING" sheetId="9" r:id="rId6"/>
-    <sheet name="ADMINSTRATOR" sheetId="10" r:id="rId7"/>
-    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId8"/>
-    <sheet name="SETTINGS" sheetId="13" r:id="rId9"/>
-    <sheet name="FORUMS" sheetId="6" r:id="rId10"/>
-    <sheet name="Dashboard" sheetId="7" r:id="rId11"/>
-    <sheet name="USERS" sheetId="8" r:id="rId12"/>
+    <sheet name="Test Repost" sheetId="14" r:id="rId1"/>
+    <sheet name="Web home" sheetId="1" r:id="rId2"/>
+    <sheet name=" GD Admin Web" sheetId="2" r:id="rId3"/>
+    <sheet name="Function of AD" sheetId="3" r:id="rId4"/>
+    <sheet name="POST" sheetId="4" r:id="rId5"/>
+    <sheet name="KNOWLEDGE LIBRARY" sheetId="5" r:id="rId6"/>
+    <sheet name="LEARNING" sheetId="9" r:id="rId7"/>
+    <sheet name="ADMINSTRATOR" sheetId="10" r:id="rId8"/>
+    <sheet name="NOTIFICATIONS" sheetId="11" r:id="rId9"/>
+    <sheet name="SETTINGS" sheetId="13" r:id="rId10"/>
+    <sheet name="FORUMS" sheetId="6" r:id="rId11"/>
+    <sheet name="Dashboard" sheetId="7" r:id="rId12"/>
+    <sheet name="USERS" sheetId="8" r:id="rId13"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId13"/>
+    <externalReference r:id="rId14"/>
   </externalReferences>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="1361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2422" uniqueCount="1369">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -8081,6 +8082,30 @@
   </si>
   <si>
     <t>NO_42</t>
+  </si>
+  <si>
+    <t>ROUND 1</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>Kết Quả</t>
+  </si>
+  <si>
+    <t>Tổng</t>
+  </si>
+  <si>
+    <t>Đạt</t>
+  </si>
+  <si>
+    <t>Không Đạt</t>
+  </si>
+  <si>
+    <t>Chưa test</t>
+  </si>
+  <si>
+    <t>Hoàng Vân Anh, Dương Thị Hương Sen</t>
   </si>
 </sst>
 </file>
@@ -8232,7 +8257,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8293,8 +8318,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -8392,11 +8423,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8511,6 +8555,9 @@
     <xf numFmtId="0" fontId="16" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -8559,6 +8606,24 @@
     <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -8577,26 +8642,26 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8640,7 +8705,7 @@
         <xdr:cNvPr id="5" name="Straight Arrow Connector 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD181346-56D2-4A84-B1B1-9691E40244E6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8693,7 +8758,7 @@
         <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA4CC3F0-F98C-463C-844E-8DD0DDC7A7F4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8740,8 +8805,8 @@
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1783080</xdr:colOff>
-          <xdr:row>43</xdr:row>
-          <xdr:rowOff>137160</xdr:rowOff>
+          <xdr:row>39</xdr:row>
+          <xdr:rowOff>1303020</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8751,7 +8816,7 @@
                   <a14:compatExt spid="_x0000_s10242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCDBFC56-2A1C-49A0-B8AF-C17CEB05A3AD}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0600-000002280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -9058,1061 +9123,1338 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:M102"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AEC9BA-C3E5-436B-BD1A-EC8B2D616CA2}">
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="25.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="77" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B2" s="77"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.8" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B3" s="74"/>
+      <c r="C3" s="76" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B4" s="75"/>
+      <c r="C4" s="73" t="s">
+        <v>1365</v>
+      </c>
+      <c r="D4" s="73" t="s">
+        <v>1366</v>
+      </c>
+      <c r="E4" s="73" t="s">
+        <v>1367</v>
+      </c>
+      <c r="F4" s="73" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5" s="2">
+        <v>265</v>
+      </c>
+      <c r="D5" s="71">
+        <v>8</v>
+      </c>
+      <c r="E5" s="71">
+        <v>13</v>
+      </c>
+      <c r="F5" s="71">
+        <v>286</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
+  <dimension ref="A1:M47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.6640625" customWidth="1"/>
-    <col min="4" max="4" width="27.6640625" customWidth="1"/>
-    <col min="5" max="5" width="46.33203125" customWidth="1"/>
-    <col min="6" max="6" width="36.5546875" customWidth="1"/>
-    <col min="7" max="7" width="36.6640625" customWidth="1"/>
-    <col min="8" max="8" width="14.33203125" customWidth="1"/>
-    <col min="9" max="9" width="11.88671875" customWidth="1"/>
-    <col min="10" max="10" width="24.6640625" customWidth="1"/>
-    <col min="11" max="11" width="13.6640625" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="24" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="5" width="30.77734375" customWidth="1"/>
+    <col min="6" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="45"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="I1" s="48"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="D2" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="42"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-    </row>
-    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>1204</v>
+      </c>
+      <c r="G3" s="15"/>
+      <c r="H3" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1205</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G4" s="15"/>
+      <c r="H4" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>17</v>
-      </c>
+        <v>1129</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>1209</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>1210</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>1211</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>1212</v>
+      </c>
+      <c r="G5" s="15"/>
       <c r="H5" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>13</v>
+        <v>1134</v>
+      </c>
+      <c r="B6" s="60" t="s">
+        <v>1213</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>60</v>
-      </c>
+        <v>1214</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>1215</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>1216</v>
+      </c>
+      <c r="G6" s="15"/>
       <c r="H6" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>1138</v>
+      </c>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>53</v>
+        <v>1217</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>1206</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>62</v>
+        <v>1218</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>63</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="G7" s="15"/>
       <c r="H7" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>27</v>
+        <v>1142</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>1220</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
+        <v>1221</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>1206</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G8" s="15"/>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>21</v>
-      </c>
+        <v>1146</v>
+      </c>
+      <c r="B9" s="60"/>
       <c r="C9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>1224</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1225</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>1218</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>25</v>
-      </c>
+        <v>1219</v>
+      </c>
+      <c r="G9" s="15"/>
       <c r="H9" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B10" s="43"/>
+        <v>1149</v>
+      </c>
+      <c r="B10" s="60" t="s">
+        <v>1226</v>
+      </c>
       <c r="C10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>23</v>
+        <v>1227</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>1229</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>26</v>
-      </c>
+        <v>1230</v>
+      </c>
+      <c r="G10" s="15"/>
       <c r="H10" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B11" s="43"/>
+        <v>1154</v>
+      </c>
+      <c r="B11" s="60"/>
       <c r="C11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
+        <v>1231</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>1228</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>1218</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>33</v>
-      </c>
+        <v>1232</v>
+      </c>
+      <c r="G11" s="15"/>
       <c r="H11" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B12" s="43"/>
+        <v>1149</v>
+      </c>
+      <c r="B12" s="60" t="s">
+        <v>1233</v>
+      </c>
       <c r="C12" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>50</v>
+        <v>1234</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>1235</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>34</v>
+        <v>1236</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>36</v>
-      </c>
+        <v>1237</v>
+      </c>
+      <c r="G12" s="15"/>
       <c r="H12" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>52</v>
-      </c>
+        <v>1154</v>
+      </c>
+      <c r="B13" s="60"/>
       <c r="C13" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>54</v>
+        <v>1238</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>1235</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>55</v>
+        <v>1218</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
-      </c>
+        <v>1239</v>
+      </c>
+      <c r="G13" s="15"/>
       <c r="H13" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>66</v>
+        <v>1158</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>1240</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>53</v>
+        <v>1241</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>1242</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>70</v>
-      </c>
+        <v>1243</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1244</v>
+      </c>
+      <c r="G14" s="15"/>
       <c r="H14" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>72</v>
-      </c>
+        <v>1162</v>
+      </c>
+      <c r="B15" s="60"/>
       <c r="C15" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>53</v>
+        <v>1245</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>1242</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>74</v>
+        <v>1218</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>79</v>
-      </c>
+        <v>1246</v>
+      </c>
+      <c r="G15" s="15"/>
       <c r="H15" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B16" s="46"/>
+        <v>1167</v>
+      </c>
+      <c r="B16" s="60" t="s">
+        <v>1247</v>
+      </c>
       <c r="C16" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>53</v>
+        <v>1248</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1206</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>78</v>
+        <v>1249</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>80</v>
-      </c>
+        <v>1250</v>
+      </c>
+      <c r="G16" s="15"/>
       <c r="H16" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="46"/>
+        <v>1173</v>
+      </c>
+      <c r="B17" s="60"/>
       <c r="C17" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>53</v>
+        <v>1251</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>1206</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>83</v>
+        <v>1252</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>84</v>
-      </c>
+        <v>1253</v>
+      </c>
+      <c r="G17" s="15"/>
       <c r="H17" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="B18" s="46"/>
+        <v>1177</v>
+      </c>
+      <c r="B18" s="60" t="s">
+        <v>1254</v>
+      </c>
       <c r="C18" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>1255</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>1235</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>86</v>
+        <v>1256</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>87</v>
-      </c>
+        <v>1257</v>
+      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="46"/>
+        <v>1182</v>
+      </c>
+      <c r="B19" s="60"/>
       <c r="C19" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>53</v>
+        <v>1258</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>1259</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>91</v>
+        <v>1218</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>92</v>
-      </c>
+        <v>1260</v>
+      </c>
+      <c r="G19" s="15"/>
       <c r="H19" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B20" s="46"/>
+        <v>1185</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>1261</v>
+      </c>
       <c r="C20" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>53</v>
+        <v>1262</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1263</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>94</v>
+        <v>1264</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>75</v>
+        <v>1265</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>96</v>
+        <v>1266</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="46"/>
-      <c r="C21" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="G21" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="61" t="s">
+        <v>952</v>
+      </c>
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+    </row>
+    <row r="22" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="B22" s="46"/>
+        <v>1191</v>
+      </c>
+      <c r="B22" s="60" t="s">
+        <v>1267</v>
+      </c>
       <c r="C22" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>53</v>
+        <v>1268</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>1263</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>68</v>
+        <v>1269</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="G22" s="5" t="s">
-        <v>110</v>
-      </c>
+        <v>1270</v>
+      </c>
+      <c r="G22" s="5"/>
       <c r="H22" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="B23" s="46"/>
+        <v>1196</v>
+      </c>
+      <c r="B23" s="60"/>
       <c r="C23" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>53</v>
+        <v>1271</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>68</v>
+        <v>1273</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>111</v>
-      </c>
+        <v>1274</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="B24" s="46"/>
+        <v>1275</v>
+      </c>
+      <c r="B24" s="60" t="s">
+        <v>1276</v>
+      </c>
       <c r="C24" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>53</v>
+        <v>1277</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>68</v>
+        <v>1278</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="5" t="s">
-        <v>112</v>
-      </c>
+        <v>1279</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B25" s="46"/>
+        <v>1280</v>
+      </c>
+      <c r="B25" s="60"/>
       <c r="C25" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>53</v>
+        <v>1281</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>68</v>
+        <v>1282</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G25" s="5" t="s">
-        <v>113</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="46"/>
+        <v>1284</v>
+      </c>
+      <c r="B26" s="60"/>
       <c r="C26" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>53</v>
+        <v>1285</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>68</v>
+        <v>1286</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>114</v>
-      </c>
+        <v>1283</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="B27" s="46"/>
+        <v>1287</v>
+      </c>
+      <c r="B27" s="60"/>
       <c r="C27" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>53</v>
+        <v>1288</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>68</v>
+        <v>1289</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="G27" s="5" t="s">
-        <v>118</v>
-      </c>
+        <v>1290</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="46"/>
+        <v>1291</v>
+      </c>
+      <c r="B28" s="60"/>
       <c r="C28" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>53</v>
+        <v>1292</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>68</v>
+        <v>1293</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>123</v>
-      </c>
+        <v>1294</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="B29" s="46"/>
+        <v>1295</v>
+      </c>
+      <c r="B29" s="60"/>
       <c r="C29" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>53</v>
+        <v>1296</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>1272</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>68</v>
+        <v>1297</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>128</v>
+        <v>1294</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="B30" s="9" t="s">
-        <v>13</v>
+        <v>1298</v>
+      </c>
+      <c r="B30" s="60" t="s">
+        <v>1299</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E30" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>133</v>
-      </c>
+        <v>1300</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I30" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1302</v>
+      </c>
+      <c r="B31" s="60"/>
       <c r="C31" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="E31" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="5" t="s">
-        <v>133</v>
-      </c>
+        <v>1303</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G31" s="5"/>
       <c r="H31" s="2" t="s">
-        <v>37</v>
+        <v>144</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="E32" s="5"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E33" s="5"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E34" s="5"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E35" s="5"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E36" s="5"/>
-    </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E37" s="5"/>
-    </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E38" s="5"/>
-    </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E39" s="5"/>
-    </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E40" s="5"/>
-    </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E42" s="5"/>
-    </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E44" s="5"/>
-    </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E45" s="5"/>
-    </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E46" s="5"/>
-    </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E48" s="5"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E49" s="5"/>
-    </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E50" s="5"/>
-    </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E51" s="5"/>
-    </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E52" s="5"/>
-    </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E53" s="5"/>
-    </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E54" s="5"/>
-    </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E55" s="5"/>
-    </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E56" s="5"/>
-    </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E57" s="5"/>
-    </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E58" s="5"/>
-    </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E59" s="5"/>
-    </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E60" s="5"/>
-    </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E61" s="5"/>
-    </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E62" s="5"/>
-    </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E63" s="5"/>
-    </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E64" s="5"/>
-    </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E65" s="5"/>
-    </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E68" s="5"/>
-    </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E71" s="5"/>
-    </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E72" s="5"/>
-    </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E73" s="5"/>
-    </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E74" s="5"/>
-    </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E75" s="5"/>
-    </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E76" s="5"/>
-    </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E77" s="5"/>
-    </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E78" s="5"/>
-    </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E79" s="5"/>
-    </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E81" s="5"/>
-    </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E82" s="5"/>
-    </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E83" s="5"/>
-    </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E86" s="5"/>
-    </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E87" s="5"/>
-    </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E88" s="5"/>
-    </row>
-    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E89" s="5"/>
-    </row>
-    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E90" s="5"/>
-    </row>
-    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E91" s="5"/>
-    </row>
-    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E92" s="5"/>
-    </row>
-    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E95" s="5"/>
-    </row>
-    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E96" s="5"/>
-    </row>
-    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E97" s="5"/>
-    </row>
-    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E99" s="5"/>
-    </row>
-    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E100" s="5"/>
-    </row>
-    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E101" s="5"/>
-    </row>
-    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
-      <c r="E102" s="5"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B32" s="60"/>
+      <c r="C32" s="6" t="s">
+        <v>1306</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>1307</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B33" s="60"/>
+      <c r="C33" s="6" t="s">
+        <v>1309</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G33" s="5"/>
+      <c r="H33" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B34" s="60"/>
+      <c r="C34" s="6" t="s">
+        <v>1312</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>1313</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B35" s="60"/>
+      <c r="C35" s="6" t="s">
+        <v>1315</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B36" s="60" t="s">
+        <v>1318</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>1301</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>1279</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B37" s="60"/>
+      <c r="C37" s="6" t="s">
+        <v>1321</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G37" s="5"/>
+      <c r="H37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B38" s="60"/>
+      <c r="C38" s="6" t="s">
+        <v>1324</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>1325</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1283</v>
+      </c>
+      <c r="G38" s="5"/>
+      <c r="H38" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="6" t="s">
+        <v>1327</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="8" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B40" s="60"/>
+      <c r="C40" s="6" t="s">
+        <v>1330</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F40" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="G40" s="5"/>
+      <c r="H40" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="A41" s="8" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B41" s="60"/>
+      <c r="C41" s="6" t="s">
+        <v>1333</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>1334</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="8" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>1336</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>1338</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="8" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>1341</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>1342</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1343</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="8" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F44" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G44" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="8" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>1345</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F45" s="5" t="s">
+        <v>1351</v>
+      </c>
+      <c r="G45" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="8" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>1356</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="8" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>1354</v>
+      </c>
+      <c r="D47" s="5" t="s">
+        <v>1272</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F47" s="5" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A4:M4"/>
-    <mergeCell ref="B9:B12"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B15:B29"/>
+  <mergeCells count="13">
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B36:B41"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B30:B35"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1:M19"/>
   <sheetViews>
@@ -10181,7 +10523,7 @@
       <c r="A2" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="65" t="s">
         <v>579</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -10201,7 +10543,7 @@
       <c r="A3" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="B3" s="59"/>
+      <c r="B3" s="66"/>
       <c r="C3" s="15" t="s">
         <v>338</v>
       </c>
@@ -10225,7 +10567,7 @@
       <c r="A4" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="B4" s="59"/>
+      <c r="B4" s="66"/>
       <c r="C4" s="5" t="s">
         <v>590</v>
       </c>
@@ -10252,7 +10594,7 @@
       <c r="A5" s="35" t="s">
         <v>622</v>
       </c>
-      <c r="B5" s="59"/>
+      <c r="B5" s="66"/>
       <c r="C5" s="15" t="s">
         <v>347</v>
       </c>
@@ -10279,7 +10621,7 @@
       <c r="A6" s="35" t="s">
         <v>623</v>
       </c>
-      <c r="B6" s="59"/>
+      <c r="B6" s="66"/>
       <c r="C6" s="34" t="s">
         <v>593</v>
       </c>
@@ -10297,7 +10639,7 @@
       <c r="A7" s="35" t="s">
         <v>624</v>
       </c>
-      <c r="B7" s="59"/>
+      <c r="B7" s="66"/>
       <c r="C7" s="34" t="s">
         <v>599</v>
       </c>
@@ -10315,7 +10657,7 @@
       <c r="A8" s="35" t="s">
         <v>625</v>
       </c>
-      <c r="B8" s="59"/>
+      <c r="B8" s="66"/>
       <c r="C8" s="34" t="s">
         <v>603</v>
       </c>
@@ -10333,7 +10675,7 @@
       <c r="A9" s="35" t="s">
         <v>626</v>
       </c>
-      <c r="B9" s="59"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="34" t="s">
         <v>605</v>
       </c>
@@ -10351,7 +10693,7 @@
       <c r="A10" s="35" t="s">
         <v>627</v>
       </c>
-      <c r="B10" s="59"/>
+      <c r="B10" s="66"/>
       <c r="C10" s="34" t="s">
         <v>609</v>
       </c>
@@ -10369,7 +10711,7 @@
       <c r="A11" s="35" t="s">
         <v>628</v>
       </c>
-      <c r="B11" s="59"/>
+      <c r="B11" s="66"/>
       <c r="C11" s="34" t="s">
         <v>613</v>
       </c>
@@ -10387,7 +10729,7 @@
       <c r="A12" s="35" t="s">
         <v>629</v>
       </c>
-      <c r="B12" s="59"/>
+      <c r="B12" s="66"/>
       <c r="C12" s="34" t="s">
         <v>616</v>
       </c>
@@ -10405,7 +10747,7 @@
       <c r="A13" s="35" t="s">
         <v>630</v>
       </c>
-      <c r="B13" s="59"/>
+      <c r="B13" s="66"/>
       <c r="C13" s="34" t="s">
         <v>619</v>
       </c>
@@ -10463,7 +10805,7 @@
       <c r="A16" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="66" t="s">
         <v>650</v>
       </c>
       <c r="C16" s="34" t="s">
@@ -10483,7 +10825,7 @@
       <c r="A17" s="35" t="s">
         <v>639</v>
       </c>
-      <c r="B17" s="59"/>
+      <c r="B17" s="66"/>
       <c r="C17" s="34" t="s">
         <v>637</v>
       </c>
@@ -10501,7 +10843,7 @@
       <c r="A18" s="35" t="s">
         <v>645</v>
       </c>
-      <c r="B18" s="59"/>
+      <c r="B18" s="66"/>
       <c r="C18" s="34" t="s">
         <v>641</v>
       </c>
@@ -10519,7 +10861,7 @@
       <c r="A19" s="35" t="s">
         <v>646</v>
       </c>
-      <c r="B19" s="59"/>
+      <c r="B19" s="66"/>
       <c r="C19" s="34" t="s">
         <v>647</v>
       </c>
@@ -10543,7 +10885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
   <dimension ref="A1:M12"/>
   <sheetViews>
@@ -10613,7 +10955,7 @@
       <c r="A2" s="8" t="s">
         <v>531</v>
       </c>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="67" t="s">
         <v>532</v>
       </c>
       <c r="C2" s="15" t="s">
@@ -10633,7 +10975,7 @@
       <c r="A3" s="8" t="s">
         <v>537</v>
       </c>
-      <c r="B3" s="61"/>
+      <c r="B3" s="68"/>
       <c r="C3" s="15" t="s">
         <v>535</v>
       </c>
@@ -10651,7 +10993,7 @@
       <c r="A4" s="8" t="s">
         <v>538</v>
       </c>
-      <c r="B4" s="61"/>
+      <c r="B4" s="68"/>
       <c r="C4" s="15" t="s">
         <v>539</v>
       </c>
@@ -10669,7 +11011,7 @@
       <c r="A5" s="8" t="s">
         <v>540</v>
       </c>
-      <c r="B5" s="61"/>
+      <c r="B5" s="68"/>
       <c r="C5" s="34" t="s">
         <v>550</v>
       </c>
@@ -10687,7 +11029,7 @@
       <c r="A6" s="8" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="61"/>
+      <c r="B6" s="68"/>
       <c r="C6" s="34" t="s">
         <v>551</v>
       </c>
@@ -10705,7 +11047,7 @@
       <c r="A7" s="8" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="61"/>
+      <c r="B7" s="68"/>
       <c r="C7" s="34" t="s">
         <v>548</v>
       </c>
@@ -10723,7 +11065,7 @@
       <c r="A8" s="8" t="s">
         <v>544</v>
       </c>
-      <c r="B8" s="61"/>
+      <c r="B8" s="68"/>
       <c r="C8" s="34" t="s">
         <v>546</v>
       </c>
@@ -10741,7 +11083,7 @@
       <c r="A9" s="8" t="s">
         <v>545</v>
       </c>
-      <c r="B9" s="61"/>
+      <c r="B9" s="68"/>
       <c r="C9" s="34" t="s">
         <v>547</v>
       </c>
@@ -10801,7 +11143,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB30AD-5982-453B-BB21-1F6052C6135A}">
   <dimension ref="A1:M30"/>
   <sheetViews>
@@ -11308,7 +11650,7 @@
       <c r="A26" s="25" t="s">
         <v>750</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="69" t="s">
         <v>755</v>
       </c>
       <c r="C26" s="2" t="s">
@@ -11328,7 +11670,7 @@
       <c r="A27" s="25" t="s">
         <v>751</v>
       </c>
-      <c r="B27" s="63"/>
+      <c r="B27" s="70"/>
       <c r="C27" s="2" t="s">
         <v>760</v>
       </c>
@@ -11346,7 +11688,7 @@
       <c r="A28" s="25" t="s">
         <v>752</v>
       </c>
-      <c r="B28" s="63"/>
+      <c r="B28" s="70"/>
       <c r="C28" s="13" t="s">
         <v>763</v>
       </c>
@@ -11364,7 +11706,7 @@
       <c r="A29" s="25" t="s">
         <v>753</v>
       </c>
-      <c r="B29" s="63"/>
+      <c r="B29" s="70"/>
       <c r="C29" s="13" t="s">
         <v>766</v>
       </c>
@@ -11382,7 +11724,7 @@
       <c r="A30" s="25" t="s">
         <v>754</v>
       </c>
-      <c r="B30" s="63"/>
+      <c r="B30" s="70"/>
       <c r="C30" s="2" t="s">
         <v>769</v>
       </c>
@@ -11405,6 +11747,1061 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:M102"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11.88671875" customWidth="1"/>
+    <col min="10" max="10" width="24.6640625" customWidth="1"/>
+    <col min="11" max="11" width="13.6640625" customWidth="1"/>
+    <col min="12" max="12" width="16" customWidth="1"/>
+    <col min="13" max="13" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
+      <c r="G4" s="43"/>
+      <c r="H4" s="43"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="43"/>
+      <c r="K4" s="43"/>
+      <c r="L4" s="43"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="1:13" ht="92.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="171.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="44.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="44"/>
+      <c r="C12" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B15" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="95.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="97.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B18" s="47"/>
+      <c r="C18" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="88.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="86.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="47"/>
+      <c r="C20" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B21" s="47"/>
+      <c r="C21" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="47"/>
+      <c r="C23" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B24" s="47"/>
+      <c r="C24" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="47"/>
+      <c r="C25" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="D25" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B26" s="47"/>
+      <c r="C26" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="47"/>
+      <c r="C27" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="G27" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="47"/>
+      <c r="C28" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="94.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B29" s="47"/>
+      <c r="C29" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="G29" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G30" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E34" s="5"/>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E35" s="5"/>
+    </row>
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E36" s="5"/>
+    </row>
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E37" s="5"/>
+    </row>
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E38" s="5"/>
+    </row>
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E39" s="5"/>
+    </row>
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E40" s="5"/>
+    </row>
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E41" s="5"/>
+    </row>
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E42" s="5"/>
+    </row>
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E43" s="5"/>
+    </row>
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E44" s="5"/>
+    </row>
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E45" s="5"/>
+    </row>
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E46" s="5"/>
+    </row>
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E47" s="5"/>
+    </row>
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E48" s="5"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E49" s="5"/>
+    </row>
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E50" s="5"/>
+    </row>
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E51" s="5"/>
+    </row>
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E52" s="5"/>
+    </row>
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E53" s="5"/>
+    </row>
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E54" s="5"/>
+    </row>
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E55" s="5"/>
+    </row>
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E56" s="5"/>
+    </row>
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E57" s="5"/>
+    </row>
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E58" s="5"/>
+    </row>
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E59" s="5"/>
+    </row>
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E61" s="5"/>
+    </row>
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E62" s="5"/>
+    </row>
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E63" s="5"/>
+    </row>
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E64" s="5"/>
+    </row>
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E65" s="5"/>
+    </row>
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E69" s="5"/>
+    </row>
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E71" s="5"/>
+    </row>
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E74" s="5"/>
+    </row>
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E75" s="5"/>
+    </row>
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E76" s="5"/>
+    </row>
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E77" s="5"/>
+    </row>
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E78" s="5"/>
+    </row>
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E79" s="5"/>
+    </row>
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="5"/>
+    </row>
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E81" s="5"/>
+    </row>
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E83" s="5"/>
+    </row>
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E84" s="5"/>
+    </row>
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E85" s="5"/>
+    </row>
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E88" s="5"/>
+    </row>
+    <row r="89" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E89" s="5"/>
+    </row>
+    <row r="90" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E90" s="5"/>
+    </row>
+    <row r="91" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E91" s="5"/>
+    </row>
+    <row r="92" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E92" s="5"/>
+    </row>
+    <row r="93" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E93" s="5"/>
+    </row>
+    <row r="94" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E94" s="5"/>
+    </row>
+    <row r="95" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E95" s="5"/>
+    </row>
+    <row r="96" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E96" s="5"/>
+    </row>
+    <row r="97" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E97" s="5"/>
+    </row>
+    <row r="98" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E98" s="5"/>
+    </row>
+    <row r="99" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E99" s="5"/>
+    </row>
+    <row r="100" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E100" s="5"/>
+    </row>
+    <row r="101" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E101" s="5"/>
+    </row>
+    <row r="102" spans="5:5" x14ac:dyDescent="0.3">
+      <c r="E102" s="5"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A4:M4"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B15:B29"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{739B31C9-1D37-4557-BE0E-E2D9FDCC55D6}">
   <dimension ref="A2:M8"/>
   <sheetViews>
@@ -11431,10 +12828,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="45"/>
+      <c r="I2" s="46"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -11616,7 +13013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A20294-E96F-4D8F-94E1-347DAD4212E1}">
   <dimension ref="A2:M20"/>
   <sheetViews>
@@ -11638,10 +13035,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -12134,7 +13531,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
   <dimension ref="A1:M24"/>
   <sheetViews>
@@ -12202,13 +13599,13 @@
       </c>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="51" t="s">
         <v>243</v>
       </c>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
       <c r="F2" s="18"/>
       <c r="G2" s="18"/>
       <c r="H2" s="18"/>
@@ -12222,7 +13619,7 @@
       <c r="A3" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="B3" s="52" t="s">
+      <c r="B3" s="53" t="s">
         <v>235</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -12251,7 +13648,7 @@
       <c r="A4" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="B4" s="53"/>
+      <c r="B4" s="54"/>
       <c r="C4" s="6" t="s">
         <v>246</v>
       </c>
@@ -12278,7 +13675,7 @@
       <c r="A5" s="8" t="s">
         <v>239</v>
       </c>
-      <c r="B5" s="53"/>
+      <c r="B5" s="54"/>
       <c r="C5" s="6" t="s">
         <v>250</v>
       </c>
@@ -12305,7 +13702,7 @@
       <c r="A6" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="53"/>
+      <c r="B6" s="54"/>
       <c r="C6" s="19" t="s">
         <v>253</v>
       </c>
@@ -12332,7 +13729,7 @@
       <c r="A7" s="8" t="s">
         <v>241</v>
       </c>
-      <c r="B7" s="53"/>
+      <c r="B7" s="54"/>
       <c r="C7" s="19" t="s">
         <v>256</v>
       </c>
@@ -12359,7 +13756,7 @@
       <c r="A8" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="B8" s="53"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="19" t="s">
         <v>259</v>
       </c>
@@ -12386,7 +13783,7 @@
       <c r="A9" s="8" t="s">
         <v>262</v>
       </c>
-      <c r="B9" s="53"/>
+      <c r="B9" s="54"/>
       <c r="C9" s="19" t="s">
         <v>263</v>
       </c>
@@ -12413,7 +13810,7 @@
       <c r="A10" s="8" t="s">
         <v>266</v>
       </c>
-      <c r="B10" s="53"/>
+      <c r="B10" s="54"/>
       <c r="C10" s="19" t="s">
         <v>267</v>
       </c>
@@ -12440,7 +13837,7 @@
       <c r="A11" s="8" t="s">
         <v>270</v>
       </c>
-      <c r="B11" s="53"/>
+      <c r="B11" s="54"/>
       <c r="C11" s="19" t="s">
         <v>271</v>
       </c>
@@ -12467,7 +13864,7 @@
       <c r="A12" s="8" t="s">
         <v>274</v>
       </c>
-      <c r="B12" s="53"/>
+      <c r="B12" s="54"/>
       <c r="C12" s="19" t="s">
         <v>275</v>
       </c>
@@ -12494,7 +13891,7 @@
       <c r="A13" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="B13" s="53"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="19" t="s">
         <v>279</v>
       </c>
@@ -12521,7 +13918,7 @@
       <c r="A14" s="8" t="s">
         <v>282</v>
       </c>
-      <c r="B14" s="53"/>
+      <c r="B14" s="54"/>
       <c r="C14" s="19" t="s">
         <v>283</v>
       </c>
@@ -12548,7 +13945,7 @@
       <c r="A15" s="8" t="s">
         <v>286</v>
       </c>
-      <c r="B15" s="53"/>
+      <c r="B15" s="54"/>
       <c r="C15" s="19" t="s">
         <v>287</v>
       </c>
@@ -12575,7 +13972,7 @@
       <c r="A16" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="B16" s="53"/>
+      <c r="B16" s="54"/>
       <c r="C16" s="19" t="s">
         <v>291</v>
       </c>
@@ -12602,7 +13999,7 @@
       <c r="A17" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="B17" s="53"/>
+      <c r="B17" s="54"/>
       <c r="C17" s="19" t="s">
         <v>296</v>
       </c>
@@ -12629,7 +14026,7 @@
       <c r="A18" s="8" t="s">
         <v>300</v>
       </c>
-      <c r="B18" s="53"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="19" t="s">
         <v>301</v>
       </c>
@@ -12656,7 +14053,7 @@
       <c r="A19" s="8" t="s">
         <v>304</v>
       </c>
-      <c r="B19" s="53"/>
+      <c r="B19" s="54"/>
       <c r="C19" s="19" t="s">
         <v>305</v>
       </c>
@@ -12680,13 +14077,13 @@
       </c>
     </row>
     <row r="20" spans="1:13" ht="18" x14ac:dyDescent="0.3">
-      <c r="A20" s="54" t="s">
+      <c r="A20" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="B20" s="51"/>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="52"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
       <c r="F20" s="18"/>
       <c r="G20" s="18"/>
       <c r="H20" s="18"/>
@@ -12700,7 +14097,7 @@
       <c r="A21" s="8" t="s">
         <v>309</v>
       </c>
-      <c r="B21" s="48" t="s">
+      <c r="B21" s="49" t="s">
         <v>329</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -12729,7 +14126,7 @@
       <c r="A22" s="8" t="s">
         <v>314</v>
       </c>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="C22" s="19" t="s">
         <v>315</v>
       </c>
@@ -12756,7 +14153,7 @@
       <c r="A23" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="19" t="s">
         <v>320</v>
       </c>
@@ -12783,7 +14180,7 @@
       <c r="A24" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="50"/>
       <c r="C24" s="19" t="s">
         <v>325</v>
       </c>
@@ -12817,7 +14214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
   <dimension ref="A1:M51"/>
   <sheetViews>
@@ -12902,7 +14299,7 @@
       <c r="A3" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="55" t="s">
+      <c r="B3" s="56" t="s">
         <v>332</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -12931,7 +14328,7 @@
       <c r="A4" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="B4" s="55"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="15" t="s">
         <v>338</v>
       </c>
@@ -12958,7 +14355,7 @@
       <c r="A5" s="8" t="s">
         <v>341</v>
       </c>
-      <c r="B5" s="55"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="5" t="s">
         <v>342</v>
       </c>
@@ -12985,7 +14382,7 @@
       <c r="A6" s="8" t="s">
         <v>346</v>
       </c>
-      <c r="B6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="15" t="s">
         <v>347</v>
       </c>
@@ -13012,7 +14409,7 @@
       <c r="A7" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B7" s="55"/>
+      <c r="B7" s="56"/>
       <c r="C7" s="15" t="s">
         <v>351</v>
       </c>
@@ -13039,7 +14436,7 @@
       <c r="A8" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B8" s="55"/>
+      <c r="B8" s="56"/>
       <c r="C8" s="5" t="s">
         <v>356</v>
       </c>
@@ -13066,7 +14463,7 @@
       <c r="A9" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="B9" s="55"/>
+      <c r="B9" s="56"/>
       <c r="C9" s="15" t="s">
         <v>360</v>
       </c>
@@ -13093,7 +14490,7 @@
       <c r="A10" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="B10" s="55"/>
+      <c r="B10" s="56"/>
       <c r="C10" s="15" t="s">
         <v>364</v>
       </c>
@@ -13120,7 +14517,7 @@
       <c r="A11" s="8" t="s">
         <v>367</v>
       </c>
-      <c r="B11" s="55"/>
+      <c r="B11" s="56"/>
       <c r="C11" s="15" t="s">
         <v>368</v>
       </c>
@@ -13147,7 +14544,7 @@
       <c r="A12" s="8" t="s">
         <v>371</v>
       </c>
-      <c r="B12" s="55"/>
+      <c r="B12" s="56"/>
       <c r="C12" s="15" t="s">
         <v>372</v>
       </c>
@@ -13174,7 +14571,7 @@
       <c r="A13" s="8" t="s">
         <v>376</v>
       </c>
-      <c r="B13" s="55"/>
+      <c r="B13" s="56"/>
       <c r="C13" s="15" t="s">
         <v>377</v>
       </c>
@@ -13201,7 +14598,7 @@
       <c r="A14" s="8" t="s">
         <v>381</v>
       </c>
-      <c r="B14" s="55"/>
+      <c r="B14" s="56"/>
       <c r="C14" s="15" t="s">
         <v>382</v>
       </c>
@@ -13228,7 +14625,7 @@
       <c r="A15" s="8" t="s">
         <v>386</v>
       </c>
-      <c r="B15" s="55"/>
+      <c r="B15" s="56"/>
       <c r="C15" s="15" t="s">
         <v>387</v>
       </c>
@@ -13255,7 +14652,7 @@
       <c r="A16" s="8" t="s">
         <v>390</v>
       </c>
-      <c r="B16" s="55"/>
+      <c r="B16" s="56"/>
       <c r="C16" s="15" t="s">
         <v>391</v>
       </c>
@@ -13282,7 +14679,7 @@
       <c r="A17" s="8" t="s">
         <v>394</v>
       </c>
-      <c r="B17" s="55"/>
+      <c r="B17" s="56"/>
       <c r="C17" s="15" t="s">
         <v>395</v>
       </c>
@@ -13309,7 +14706,7 @@
       <c r="A18" s="8" t="s">
         <v>398</v>
       </c>
-      <c r="B18" s="55"/>
+      <c r="B18" s="56"/>
       <c r="C18" s="15" t="s">
         <v>399</v>
       </c>
@@ -13336,7 +14733,7 @@
       <c r="A19" s="8" t="s">
         <v>402</v>
       </c>
-      <c r="B19" s="55"/>
+      <c r="B19" s="56"/>
       <c r="C19" s="15" t="s">
         <v>403</v>
       </c>
@@ -13363,7 +14760,7 @@
       <c r="A20" s="8" t="s">
         <v>406</v>
       </c>
-      <c r="B20" s="55"/>
+      <c r="B20" s="56"/>
       <c r="C20" s="15" t="s">
         <v>407</v>
       </c>
@@ -13390,7 +14787,7 @@
       <c r="A21" s="8" t="s">
         <v>410</v>
       </c>
-      <c r="B21" s="55"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="15" t="s">
         <v>411</v>
       </c>
@@ -13417,7 +14814,7 @@
       <c r="A22" s="8" t="s">
         <v>415</v>
       </c>
-      <c r="B22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="15" t="s">
         <v>416</v>
       </c>
@@ -13444,7 +14841,7 @@
       <c r="A23" s="8" t="s">
         <v>419</v>
       </c>
-      <c r="B23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="15" t="s">
         <v>420</v>
       </c>
@@ -13696,7 +15093,7 @@
       <c r="A33" s="25" t="s">
         <v>457</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="57" t="s">
         <v>458</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -13716,7 +15113,7 @@
       <c r="A34" s="25" t="s">
         <v>463</v>
       </c>
-      <c r="B34" s="56"/>
+      <c r="B34" s="57"/>
       <c r="C34" s="5" t="s">
         <v>464</v>
       </c>
@@ -13734,7 +15131,7 @@
       <c r="A35" s="25" t="s">
         <v>467</v>
       </c>
-      <c r="B35" s="56"/>
+      <c r="B35" s="57"/>
       <c r="C35" s="5" t="s">
         <v>468</v>
       </c>
@@ -13752,7 +15149,7 @@
       <c r="A36" s="25" t="s">
         <v>472</v>
       </c>
-      <c r="B36" s="56"/>
+      <c r="B36" s="57"/>
       <c r="C36" s="15" t="s">
         <v>473</v>
       </c>
@@ -13770,7 +15167,7 @@
       <c r="A37" s="25" t="s">
         <v>477</v>
       </c>
-      <c r="B37" s="56"/>
+      <c r="B37" s="57"/>
       <c r="C37" s="15" t="s">
         <v>478</v>
       </c>
@@ -13788,7 +15185,7 @@
       <c r="A38" s="25" t="s">
         <v>481</v>
       </c>
-      <c r="B38" s="56"/>
+      <c r="B38" s="57"/>
       <c r="C38" s="15" t="s">
         <v>364</v>
       </c>
@@ -13806,7 +15203,7 @@
       <c r="A39" s="25" t="s">
         <v>484</v>
       </c>
-      <c r="B39" s="56"/>
+      <c r="B39" s="57"/>
       <c r="C39" s="15" t="s">
         <v>485</v>
       </c>
@@ -13824,7 +15221,7 @@
       <c r="A40" s="25" t="s">
         <v>488</v>
       </c>
-      <c r="B40" s="56"/>
+      <c r="B40" s="57"/>
       <c r="C40" s="15" t="s">
         <v>489</v>
       </c>
@@ -13842,7 +15239,7 @@
       <c r="A41" s="25" t="s">
         <v>492</v>
       </c>
-      <c r="B41" s="56"/>
+      <c r="B41" s="57"/>
       <c r="C41" s="15" t="s">
         <v>493</v>
       </c>
@@ -13860,7 +15257,7 @@
       <c r="A42" s="25" t="s">
         <v>496</v>
       </c>
-      <c r="B42" s="56"/>
+      <c r="B42" s="57"/>
       <c r="C42" s="15" t="s">
         <v>497</v>
       </c>
@@ -13878,7 +15275,7 @@
       <c r="A43" s="25" t="s">
         <v>501</v>
       </c>
-      <c r="B43" s="56"/>
+      <c r="B43" s="57"/>
       <c r="C43" s="15" t="s">
         <v>502</v>
       </c>
@@ -13896,7 +15293,7 @@
       <c r="A44" s="25" t="s">
         <v>505</v>
       </c>
-      <c r="B44" s="56"/>
+      <c r="B44" s="57"/>
       <c r="C44" s="15" t="s">
         <v>420</v>
       </c>
@@ -13931,7 +15328,7 @@
       <c r="A46" s="25" t="s">
         <v>509</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="58" t="s">
         <v>508</v>
       </c>
       <c r="C46" s="32" t="s">
@@ -13958,7 +15355,7 @@
       <c r="A47" s="25" t="s">
         <v>514</v>
       </c>
-      <c r="B47" s="57"/>
+      <c r="B47" s="58"/>
       <c r="C47" s="15" t="s">
         <v>432</v>
       </c>
@@ -13985,7 +15382,7 @@
       <c r="A48" s="25" t="s">
         <v>517</v>
       </c>
-      <c r="B48" s="57"/>
+      <c r="B48" s="58"/>
       <c r="C48" s="15" t="s">
         <v>436</v>
       </c>
@@ -14009,7 +15406,7 @@
       <c r="A49" s="25" t="s">
         <v>520</v>
       </c>
-      <c r="B49" s="57"/>
+      <c r="B49" s="58"/>
       <c r="C49" s="15" t="s">
         <v>440</v>
       </c>
@@ -14027,7 +15424,7 @@
       <c r="A50" s="25" t="s">
         <v>523</v>
       </c>
-      <c r="B50" s="57"/>
+      <c r="B50" s="58"/>
       <c r="C50" s="15" t="s">
         <v>524</v>
       </c>
@@ -14045,7 +15442,7 @@
       <c r="A51" s="25" t="s">
         <v>527</v>
       </c>
-      <c r="B51" s="57"/>
+      <c r="B51" s="58"/>
       <c r="C51" s="15" t="s">
         <v>528</v>
       </c>
@@ -14069,7 +15466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E2F7-ADE0-4C5E-BA2D-6E501792F5ED}">
   <dimension ref="A2:M41"/>
   <sheetViews>
@@ -14092,10 +15489,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="44" t="s">
+      <c r="H2" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="47"/>
+      <c r="I2" s="48"/>
     </row>
     <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="10" t="s">
@@ -14142,7 +15539,7 @@
       <c r="A4" s="8" t="s">
         <v>773</v>
       </c>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="59" t="s">
         <v>774</v>
       </c>
       <c r="C4" s="2" t="s">
@@ -14168,7 +15565,7 @@
       <c r="A5" s="8" t="s">
         <v>779</v>
       </c>
-      <c r="B5" s="65"/>
+      <c r="B5" s="60"/>
       <c r="C5" s="2" t="s">
         <v>780</v>
       </c>
@@ -14192,7 +15589,7 @@
       <c r="A6" s="8" t="s">
         <v>783</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="2" t="s">
         <v>784</v>
       </c>
@@ -14216,7 +15613,7 @@
       <c r="A7" s="8" t="s">
         <v>787</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="2" t="s">
         <v>788</v>
       </c>
@@ -14243,7 +15640,7 @@
       <c r="A8" s="8" t="s">
         <v>793</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="2" t="s">
         <v>794</v>
       </c>
@@ -14268,7 +15665,7 @@
       <c r="A9" s="8" t="s">
         <v>797</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="2" t="s">
         <v>798</v>
       </c>
@@ -14295,7 +15692,7 @@
       <c r="A10" s="8" t="s">
         <v>801</v>
       </c>
-      <c r="B10" s="65"/>
+      <c r="B10" s="60"/>
       <c r="C10" s="2" t="s">
         <v>802</v>
       </c>
@@ -14322,7 +15719,7 @@
       <c r="A11" s="8" t="s">
         <v>805</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
         <v>806</v>
       </c>
@@ -14347,7 +15744,7 @@
       <c r="A12" s="8" t="s">
         <v>810</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2" t="s">
         <v>811</v>
       </c>
@@ -14372,7 +15769,7 @@
       <c r="A13" s="8" t="s">
         <v>815</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>816</v>
       </c>
@@ -14397,7 +15794,7 @@
       <c r="A14" s="8" t="s">
         <v>820</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>821</v>
       </c>
@@ -14422,7 +15819,7 @@
       <c r="A15" s="8" t="s">
         <v>824</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2" t="s">
         <v>825</v>
       </c>
@@ -14447,7 +15844,7 @@
       <c r="A16" s="8" t="s">
         <v>828</v>
       </c>
-      <c r="B16" s="65"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="2" t="s">
         <v>829</v>
       </c>
@@ -14474,7 +15871,7 @@
       <c r="A17" s="8" t="s">
         <v>833</v>
       </c>
-      <c r="B17" s="65"/>
+      <c r="B17" s="60"/>
       <c r="C17" s="2" t="s">
         <v>834</v>
       </c>
@@ -14499,7 +15896,7 @@
       <c r="A18" s="8" t="s">
         <v>837</v>
       </c>
-      <c r="B18" s="65"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="2" t="s">
         <v>838</v>
       </c>
@@ -14524,7 +15921,7 @@
       <c r="A19" s="8" t="s">
         <v>841</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>842</v>
       </c>
@@ -14549,7 +15946,7 @@
       <c r="A20" s="8" t="s">
         <v>845</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>846</v>
       </c>
@@ -14574,7 +15971,7 @@
       <c r="A21" s="8" t="s">
         <v>849</v>
       </c>
-      <c r="B21" s="65"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="3" t="s">
         <v>850</v>
       </c>
@@ -14599,7 +15996,7 @@
       <c r="A22" s="8" t="s">
         <v>854</v>
       </c>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="60" t="s">
         <v>855</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -14626,7 +16023,7 @@
       <c r="A23" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B23" s="65"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="6" t="s">
         <v>861</v>
       </c>
@@ -14653,7 +16050,7 @@
       <c r="A24" s="8" t="s">
         <v>860</v>
       </c>
-      <c r="B24" s="65"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="6" t="s">
         <v>865</v>
       </c>
@@ -14680,7 +16077,7 @@
       <c r="A25" s="8" t="s">
         <v>868</v>
       </c>
-      <c r="B25" s="65"/>
+      <c r="B25" s="60"/>
       <c r="C25" s="6" t="s">
         <v>869</v>
       </c>
@@ -14707,7 +16104,7 @@
       <c r="A26" s="8" t="s">
         <v>872</v>
       </c>
-      <c r="B26" s="65"/>
+      <c r="B26" s="60"/>
       <c r="C26" s="6" t="s">
         <v>873</v>
       </c>
@@ -14734,7 +16131,7 @@
       <c r="A27" s="8" t="s">
         <v>876</v>
       </c>
-      <c r="B27" s="65" t="s">
+      <c r="B27" s="60" t="s">
         <v>877</v>
       </c>
       <c r="C27" s="6" t="s">
@@ -14761,7 +16158,7 @@
       <c r="A28" s="8" t="s">
         <v>882</v>
       </c>
-      <c r="B28" s="65"/>
+      <c r="B28" s="60"/>
       <c r="C28" s="6" t="s">
         <v>883</v>
       </c>
@@ -14788,7 +16185,7 @@
       <c r="A29" s="8" t="s">
         <v>888</v>
       </c>
-      <c r="B29" s="65"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="6" t="s">
         <v>889</v>
       </c>
@@ -14815,7 +16212,7 @@
       <c r="A30" s="8" t="s">
         <v>892</v>
       </c>
-      <c r="B30" s="65"/>
+      <c r="B30" s="60"/>
       <c r="C30" s="6" t="s">
         <v>893</v>
       </c>
@@ -14842,7 +16239,7 @@
       <c r="A31" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B31" s="65"/>
+      <c r="B31" s="60"/>
       <c r="C31" s="6" t="s">
         <v>898</v>
       </c>
@@ -14869,7 +16266,7 @@
       <c r="A32" s="8" t="s">
         <v>897</v>
       </c>
-      <c r="B32" s="65"/>
+      <c r="B32" s="60"/>
       <c r="C32" s="6" t="s">
         <v>901</v>
       </c>
@@ -14896,7 +16293,7 @@
       <c r="A33" s="8" t="s">
         <v>906</v>
       </c>
-      <c r="B33" s="65"/>
+      <c r="B33" s="60"/>
       <c r="C33" s="6" t="s">
         <v>907</v>
       </c>
@@ -14921,7 +16318,7 @@
       <c r="A34" s="8" t="s">
         <v>911</v>
       </c>
-      <c r="B34" s="65"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="6" t="s">
         <v>825</v>
       </c>
@@ -14946,7 +16343,7 @@
       <c r="A35" s="8" t="s">
         <v>914</v>
       </c>
-      <c r="B35" s="65"/>
+      <c r="B35" s="60"/>
       <c r="C35" s="6" t="s">
         <v>915</v>
       </c>
@@ -14971,7 +16368,7 @@
       <c r="A36" s="8" t="s">
         <v>918</v>
       </c>
-      <c r="B36" s="65"/>
+      <c r="B36" s="60"/>
       <c r="C36" s="6" t="s">
         <v>919</v>
       </c>
@@ -14996,7 +16393,7 @@
       <c r="A37" s="8" t="s">
         <v>922</v>
       </c>
-      <c r="B37" s="65"/>
+      <c r="B37" s="60"/>
       <c r="C37" s="6" t="s">
         <v>923</v>
       </c>
@@ -15021,7 +16418,7 @@
       <c r="A38" s="8" t="s">
         <v>926</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="6" t="s">
         <v>927</v>
       </c>
@@ -15140,7 +16537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCD4E98-0A90-4A2C-9E37-92DC4693684A}">
   <dimension ref="A1:M41"/>
   <sheetViews>
@@ -15162,10 +16559,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -15212,7 +16609,7 @@
       <c r="A3" s="8" t="s">
         <v>1116</v>
       </c>
-      <c r="B3" s="64" t="s">
+      <c r="B3" s="59" t="s">
         <v>943</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -15238,7 +16635,7 @@
       <c r="A4" s="8" t="s">
         <v>948</v>
       </c>
-      <c r="B4" s="65"/>
+      <c r="B4" s="60"/>
       <c r="C4" s="6" t="s">
         <v>949</v>
       </c>
@@ -15258,22 +16655,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="66" t="s">
+    <row r="5" spans="1:13" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="61" t="s">
         <v>952</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
+      <c r="I5" s="62"/>
+      <c r="J5" s="62"/>
+      <c r="K5" s="62"/>
+      <c r="L5" s="62"/>
+      <c r="M5" s="62"/>
     </row>
     <row r="6" spans="1:13" ht="103.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
@@ -15305,7 +16702,7 @@
       <c r="A7" s="8" t="s">
         <v>959</v>
       </c>
-      <c r="B7" s="65" t="s">
+      <c r="B7" s="60" t="s">
         <v>960</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -15334,7 +16731,7 @@
       <c r="A8" s="8" t="s">
         <v>966</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="3" t="s">
         <v>967</v>
       </c>
@@ -15361,7 +16758,7 @@
       <c r="A9" s="8" t="s">
         <v>970</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="3" t="s">
         <v>971</v>
       </c>
@@ -15388,7 +16785,7 @@
       <c r="A10" s="8" t="s">
         <v>975</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>976</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -15415,7 +16812,7 @@
       <c r="A11" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="3" t="s">
         <v>982</v>
       </c>
@@ -15440,7 +16837,7 @@
       <c r="A12" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="3" t="s">
         <v>987</v>
       </c>
@@ -15465,7 +16862,7 @@
       <c r="A13" s="8" t="s">
         <v>990</v>
       </c>
-      <c r="B13" s="69" t="s">
+      <c r="B13" s="64" t="s">
         <v>991</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -15494,7 +16891,7 @@
       <c r="A14" s="8" t="s">
         <v>996</v>
       </c>
-      <c r="B14" s="69"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="3" t="s">
         <v>997</v>
       </c>
@@ -15546,22 +16943,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="66" t="s">
+    <row r="16" spans="1:13" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="61" t="s">
         <v>1005</v>
       </c>
-      <c r="B16" s="67"/>
-      <c r="C16" s="67"/>
-      <c r="D16" s="67"/>
-      <c r="E16" s="67"/>
-      <c r="F16" s="67"/>
-      <c r="G16" s="67"/>
-      <c r="H16" s="67"/>
-      <c r="I16" s="67"/>
-      <c r="J16" s="67"/>
-      <c r="K16" s="67"/>
-      <c r="L16" s="67"/>
-      <c r="M16" s="67"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="62"/>
+      <c r="E16" s="62"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="62"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="62"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="62"/>
     </row>
     <row r="17" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
@@ -15652,7 +17049,7 @@
       <c r="A20" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="B20" s="69" t="s">
+      <c r="B20" s="64" t="s">
         <v>1007</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -15681,7 +17078,7 @@
       <c r="A21" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="B21" s="69"/>
+      <c r="B21" s="64"/>
       <c r="C21" s="3" t="s">
         <v>1027</v>
       </c>
@@ -15708,7 +17105,7 @@
       <c r="A22" s="8" t="s">
         <v>1030</v>
       </c>
-      <c r="B22" s="69"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="3" t="s">
         <v>1031</v>
       </c>
@@ -15735,7 +17132,7 @@
       <c r="A23" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="B23" s="69"/>
+      <c r="B23" s="64"/>
       <c r="C23" s="3" t="s">
         <v>1031</v>
       </c>
@@ -15762,7 +17159,7 @@
       <c r="A24" s="8" t="s">
         <v>1037</v>
       </c>
-      <c r="B24" s="70" t="s">
+      <c r="B24" s="42" t="s">
         <v>1038</v>
       </c>
       <c r="C24" s="3" t="s">
@@ -15785,28 +17182,28 @@
         <v>144</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="66" t="s">
+    <row r="25" spans="1:13" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="61" t="s">
         <v>1042</v>
       </c>
-      <c r="B25" s="67"/>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
     </row>
     <row r="26" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>1043</v>
       </c>
-      <c r="B26" s="69" t="s">
+      <c r="B26" s="64" t="s">
         <v>1044</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -15833,7 +17230,7 @@
       <c r="A27" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="B27" s="69"/>
+      <c r="B27" s="64"/>
       <c r="C27" s="3" t="s">
         <v>1048</v>
       </c>
@@ -15858,7 +17255,7 @@
       <c r="A28" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="B28" s="69"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="3" t="s">
         <v>1052</v>
       </c>
@@ -15883,7 +17280,7 @@
       <c r="A29" s="8" t="s">
         <v>1056</v>
       </c>
-      <c r="B29" s="69"/>
+      <c r="B29" s="64"/>
       <c r="C29" s="3" t="s">
         <v>1057</v>
       </c>
@@ -15908,7 +17305,7 @@
       <c r="A30" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="B30" s="69"/>
+      <c r="B30" s="64"/>
       <c r="C30" s="3" t="s">
         <v>1062</v>
       </c>
@@ -15935,7 +17332,7 @@
       <c r="A31" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="B31" s="69"/>
+      <c r="B31" s="64"/>
       <c r="C31" s="3" t="s">
         <v>1067</v>
       </c>
@@ -15962,7 +17359,7 @@
       <c r="A32" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="B32" s="69"/>
+      <c r="B32" s="64"/>
       <c r="C32" s="3" t="s">
         <v>1071</v>
       </c>
@@ -15983,22 +17380,22 @@
         <v>144</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="66" t="s">
+    <row r="33" spans="1:13" s="63" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="61" t="s">
         <v>1074</v>
       </c>
-      <c r="B33" s="67"/>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
     </row>
     <row r="34" spans="1:13" ht="160.80000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
@@ -16087,7 +17484,7 @@
       <c r="A37" s="8" t="s">
         <v>1091</v>
       </c>
-      <c r="B37" s="65" t="s">
+      <c r="B37" s="60" t="s">
         <v>1076</v>
       </c>
       <c r="C37" s="3" t="s">
@@ -16116,7 +17513,7 @@
       <c r="A38" s="8" t="s">
         <v>1097</v>
       </c>
-      <c r="B38" s="65"/>
+      <c r="B38" s="60"/>
       <c r="C38" s="3" t="s">
         <v>1098</v>
       </c>
@@ -16222,11 +17619,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="B26:B32"/>
-    <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="H1:I1"/>
     <mergeCell ref="B3:B4"/>
@@ -16234,6 +17626,11 @@
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="B10:B12"/>
     <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A16:XFD16"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A25:XFD25"/>
+    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="A33:XFD33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -16268,7 +17665,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5F79E-749A-4C3C-BD92-6C5CCC9618BA}">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -16290,10 +17687,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
+      <c r="H1" s="45" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="47"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="10" t="s">
@@ -16398,7 +17795,7 @@
       <c r="A5" s="8" t="s">
         <v>1129</v>
       </c>
-      <c r="B5" s="65" t="s">
+      <c r="B5" s="60" t="s">
         <v>1048</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -16425,7 +17822,7 @@
       <c r="A6" s="8" t="s">
         <v>1134</v>
       </c>
-      <c r="B6" s="65"/>
+      <c r="B6" s="60"/>
       <c r="C6" s="6" t="s">
         <v>1135</v>
       </c>
@@ -16450,7 +17847,7 @@
       <c r="A7" s="8" t="s">
         <v>1138</v>
       </c>
-      <c r="B7" s="65"/>
+      <c r="B7" s="60"/>
       <c r="C7" s="6" t="s">
         <v>1139</v>
       </c>
@@ -16475,7 +17872,7 @@
       <c r="A8" s="8" t="s">
         <v>1142</v>
       </c>
-      <c r="B8" s="65"/>
+      <c r="B8" s="60"/>
       <c r="C8" s="6" t="s">
         <v>1143</v>
       </c>
@@ -16500,7 +17897,7 @@
       <c r="A9" s="8" t="s">
         <v>1146</v>
       </c>
-      <c r="B9" s="65"/>
+      <c r="B9" s="60"/>
       <c r="C9" s="6" t="s">
         <v>1147</v>
       </c>
@@ -16525,7 +17922,7 @@
       <c r="A10" s="8" t="s">
         <v>1149</v>
       </c>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="60" t="s">
         <v>1118</v>
       </c>
       <c r="C10" s="2" t="s">
@@ -16554,7 +17951,7 @@
       <c r="A11" s="8" t="s">
         <v>1154</v>
       </c>
-      <c r="B11" s="65"/>
+      <c r="B11" s="60"/>
       <c r="C11" s="2" t="s">
         <v>1155</v>
       </c>
@@ -16579,7 +17976,7 @@
       <c r="A12" s="8" t="s">
         <v>1158</v>
       </c>
-      <c r="B12" s="65"/>
+      <c r="B12" s="60"/>
       <c r="C12" s="2" t="s">
         <v>1159</v>
       </c>
@@ -16604,7 +18001,7 @@
       <c r="A13" s="8" t="s">
         <v>1162</v>
       </c>
-      <c r="B13" s="65"/>
+      <c r="B13" s="60"/>
       <c r="C13" s="2" t="s">
         <v>1163</v>
       </c>
@@ -16629,7 +18026,7 @@
       <c r="A14" s="8" t="s">
         <v>1167</v>
       </c>
-      <c r="B14" s="65"/>
+      <c r="B14" s="60"/>
       <c r="C14" s="2" t="s">
         <v>1168</v>
       </c>
@@ -16656,7 +18053,7 @@
       <c r="A15" s="8" t="s">
         <v>1173</v>
       </c>
-      <c r="B15" s="65"/>
+      <c r="B15" s="60"/>
       <c r="C15" s="2" t="s">
         <v>1174</v>
       </c>
@@ -16741,7 +18138,7 @@
       <c r="A18" s="8" t="s">
         <v>1185</v>
       </c>
-      <c r="B18" s="65" t="s">
+      <c r="B18" s="60" t="s">
         <v>1186</v>
       </c>
       <c r="C18" s="2" t="s">
@@ -16768,7 +18165,7 @@
       <c r="A19" s="8" t="s">
         <v>1191</v>
       </c>
-      <c r="B19" s="65"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="2" t="s">
         <v>1192</v>
       </c>
@@ -16795,7 +18192,7 @@
       <c r="A20" s="8" t="s">
         <v>1196</v>
       </c>
-      <c r="B20" s="65"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="2" t="s">
         <v>1197</v>
       </c>
@@ -16827,1258 +18224,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
-  <dimension ref="A1:M47"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.88671875" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="21.5546875" customWidth="1"/>
-    <col min="4" max="4" width="29.88671875" customWidth="1"/>
-    <col min="5" max="5" width="30.77734375" customWidth="1"/>
-    <col min="6" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="44" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="47"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>1117</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1201</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>1202</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1203</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1204</v>
-      </c>
-      <c r="G3" s="15"/>
-      <c r="H3" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
-        <v>1124</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>1200</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>1205</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1207</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1208</v>
-      </c>
-      <c r="G4" s="15"/>
-      <c r="H4" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
-        <v>1129</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>1209</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1210</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>1211</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>1212</v>
-      </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8" t="s">
-        <v>1134</v>
-      </c>
-      <c r="B6" s="65" t="s">
-        <v>1213</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>1214</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>1215</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>1216</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>1138</v>
-      </c>
-      <c r="B7" s="65"/>
-      <c r="C7" s="6" t="s">
-        <v>1217</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8" t="s">
-        <v>1142</v>
-      </c>
-      <c r="B8" s="65" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>1221</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>1223</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8" t="s">
-        <v>1146</v>
-      </c>
-      <c r="B9" s="65"/>
-      <c r="C9" s="6" t="s">
-        <v>1224</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>1225</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1219</v>
-      </c>
-      <c r="G9" s="15"/>
-      <c r="H9" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B10" s="65" t="s">
-        <v>1226</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>1229</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G10" s="15"/>
-      <c r="H10" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B11" s="65"/>
-      <c r="C11" s="6" t="s">
-        <v>1231</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>1228</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>1232</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8" t="s">
-        <v>1149</v>
-      </c>
-      <c r="B12" s="65" t="s">
-        <v>1233</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>1234</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>1236</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>1237</v>
-      </c>
-      <c r="G12" s="15"/>
-      <c r="H12" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
-        <v>1154</v>
-      </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="6" t="s">
-        <v>1238</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1239</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
-        <v>1158</v>
-      </c>
-      <c r="B14" s="65" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>1241</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>1243</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>1244</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
-        <v>1162</v>
-      </c>
-      <c r="B15" s="65"/>
-      <c r="C15" s="6" t="s">
-        <v>1245</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>1242</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>1246</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
-        <v>1167</v>
-      </c>
-      <c r="B16" s="65" t="s">
-        <v>1247</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1249</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>1250</v>
-      </c>
-      <c r="G16" s="15"/>
-      <c r="H16" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
-        <v>1173</v>
-      </c>
-      <c r="B17" s="65"/>
-      <c r="C17" s="6" t="s">
-        <v>1251</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>1206</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>1252</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>1253</v>
-      </c>
-      <c r="G17" s="15"/>
-      <c r="H17" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
-        <v>1177</v>
-      </c>
-      <c r="B18" s="65" t="s">
-        <v>1254</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>1255</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>1235</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>1256</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>1257</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
-        <v>1182</v>
-      </c>
-      <c r="B19" s="65"/>
-      <c r="C19" s="6" t="s">
-        <v>1258</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>1259</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>1218</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>1260</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
-        <v>1185</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>1264</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>1265</v>
-      </c>
-      <c r="G20" s="5" t="s">
-        <v>1266</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="68" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="66" t="s">
-        <v>952</v>
-      </c>
-      <c r="B21" s="67"/>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-    </row>
-    <row r="22" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
-        <v>1191</v>
-      </c>
-      <c r="B22" s="65" t="s">
-        <v>1267</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>1268</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>1263</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>1269</v>
-      </c>
-      <c r="F22" s="5" t="s">
-        <v>1270</v>
-      </c>
-      <c r="G22" s="5"/>
-      <c r="H22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
-        <v>1196</v>
-      </c>
-      <c r="B23" s="65"/>
-      <c r="C23" s="6" t="s">
-        <v>1271</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>1273</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>1274</v>
-      </c>
-      <c r="G23" s="5"/>
-      <c r="H23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
-        <v>1275</v>
-      </c>
-      <c r="B24" s="65" t="s">
-        <v>1276</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>1278</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
-        <v>1280</v>
-      </c>
-      <c r="B25" s="65"/>
-      <c r="C25" s="6" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>1282</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G25" s="5"/>
-      <c r="H25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8" t="s">
-        <v>1284</v>
-      </c>
-      <c r="B26" s="65"/>
-      <c r="C26" s="6" t="s">
-        <v>1285</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>1286</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8" t="s">
-        <v>1287</v>
-      </c>
-      <c r="B27" s="65"/>
-      <c r="C27" s="6" t="s">
-        <v>1288</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>1289</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8" t="s">
-        <v>1291</v>
-      </c>
-      <c r="B28" s="65"/>
-      <c r="C28" s="6" t="s">
-        <v>1292</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
-      <c r="A29" s="8" t="s">
-        <v>1295</v>
-      </c>
-      <c r="B29" s="65"/>
-      <c r="C29" s="6" t="s">
-        <v>1296</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>1297</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8" t="s">
-        <v>1298</v>
-      </c>
-      <c r="B30" s="65" t="s">
-        <v>1299</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>1300</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G30" s="5"/>
-      <c r="H30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="8" t="s">
-        <v>1302</v>
-      </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="6" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E31" s="5" t="s">
-        <v>1304</v>
-      </c>
-      <c r="F31" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G31" s="5"/>
-      <c r="H31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="8" t="s">
-        <v>1305</v>
-      </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="6" t="s">
-        <v>1306</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>1307</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="8" t="s">
-        <v>1308</v>
-      </c>
-      <c r="B33" s="65"/>
-      <c r="C33" s="6" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="8" t="s">
-        <v>1311</v>
-      </c>
-      <c r="B34" s="65"/>
-      <c r="C34" s="6" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A35" s="8" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B35" s="65"/>
-      <c r="C35" s="6" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>1316</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="8" t="s">
-        <v>1317</v>
-      </c>
-      <c r="B36" s="65" t="s">
-        <v>1318</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>1319</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>1279</v>
-      </c>
-      <c r="G36" s="5"/>
-      <c r="H36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="8" t="s">
-        <v>1320</v>
-      </c>
-      <c r="B37" s="65"/>
-      <c r="C37" s="6" t="s">
-        <v>1321</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>1322</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G37" s="5"/>
-      <c r="H37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="8" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B38" s="65"/>
-      <c r="C38" s="6" t="s">
-        <v>1324</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>1325</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>1283</v>
-      </c>
-      <c r="G38" s="5"/>
-      <c r="H38" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I38" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="8" t="s">
-        <v>1326</v>
-      </c>
-      <c r="B39" s="65"/>
-      <c r="C39" s="6" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>1290</v>
-      </c>
-      <c r="G39" s="5"/>
-      <c r="H39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="8" t="s">
-        <v>1329</v>
-      </c>
-      <c r="B40" s="65"/>
-      <c r="C40" s="6" t="s">
-        <v>1330</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
-      <c r="A41" s="8" t="s">
-        <v>1332</v>
-      </c>
-      <c r="B41" s="65"/>
-      <c r="C41" s="6" t="s">
-        <v>1333</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>1334</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>1294</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I41" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A42" s="8" t="s">
-        <v>1335</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>1048</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>1336</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>1337</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>1338</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="8" t="s">
-        <v>1339</v>
-      </c>
-      <c r="B43" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>1341</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>1343</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="8" t="s">
-        <v>1344</v>
-      </c>
-      <c r="B44" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>1346</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>1347</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I44" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="8" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B45" s="15" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>1345</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E45" s="5" t="s">
-        <v>1350</v>
-      </c>
-      <c r="F45" s="5" t="s">
-        <v>1351</v>
-      </c>
-      <c r="G45" s="5" t="s">
-        <v>1348</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="8" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B46" s="15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>1355</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G46" s="5" t="s">
-        <v>1356</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I46" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="8" t="s">
-        <v>1360</v>
-      </c>
-      <c r="B47" s="15" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>1354</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>1272</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>1357</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>1358</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>1359</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:XFD21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B29"/>
-    <mergeCell ref="B30:B35"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-  </mergeCells>
-  <phoneticPr fontId="19" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BBABD4A-C42E-4A9E-A1F2-CCE987F62E5D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F504E-6BB0-4D9A-A57E-58CE81C7479D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Repost" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2696" uniqueCount="1353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1360">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -7446,10 +7446,6 @@
     <t>failed</t>
   </si>
   <si>
-    <t>Hover on Detail have border
-On diferent button don't have.</t>
-  </si>
-  <si>
     <t>pass</t>
   </si>
   <si>
@@ -7670,6 +7666,44 @@
   <si>
     <t>03/09/2020
 08/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Khi người dùng thay đổi page size từ 5 về 20 thì số bản ghi hiển thị không đúng với mô tả.</t>
+  </si>
+  <si>
+    <t>Tạo mới danh mục thất bại khi upload file &gt; 2MB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1. Đăng nhập thành công vào giao diện trang addmin
+2. Có 1 ảnh &gt; 2MB
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hiển thị Sub-menu có các mục là 'All Categories', 'New Category', 'All Documents' và 'New Document'.
+2. Cho phép chọn 'New Document'
+3. Cho phép  nhập tiêu đề vào trường Title
+4. Cho phép nhập mô tả vào Description
+5. Cho phép nhập nội dung vào Content
+6. Cho phép nhấn vào button Click to Upload
+7. Tải ảnh thành công
+8. Cho phép nhấn button Submit
+9. Tại mục  'Attachments' thông báo file upload lớn </t>
+  </si>
+  <si>
+    <t>ROUND 2</t>
+  </si>
+  <si>
+    <t>03/09/2020
+09/09/2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Khi người dùng thay đổi page size từ 5 về 20 thì số bản ghi hiển thị không đúng với mô tả.
+ - Số trang là số chia hết cho 20</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Không thông báo cập nhật thành công. 
+ - Màn hình hiển thị 'Page not found'</t>
   </si>
 </sst>
 </file>
@@ -8045,7 +8079,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8192,6 +8226,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8222,6 +8280,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8244,6 +8308,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8291,38 +8361,20 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -8750,28 +8802,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="62" t="s">
         <v>1269</v>
       </c>
-      <c r="B2" s="54"/>
+      <c r="B2" s="62"/>
     </row>
     <row r="3" spans="1:6" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="63" t="s">
         <v>1270</v>
       </c>
-      <c r="B3" s="55"/>
-      <c r="C3" s="57" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="65" t="s">
         <v>1276</v>
       </c>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55" t="s">
+      <c r="A4" s="63" t="s">
         <v>1271</v>
       </c>
-      <c r="B4" s="56"/>
+      <c r="B4" s="64"/>
       <c r="C4" s="43" t="s">
         <v>1273</v>
       </c>
@@ -8832,10 +8884,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -8899,7 +8951,7 @@
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>71</v>
@@ -8926,7 +8978,7 @@
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>71</v>
@@ -8953,7 +9005,7 @@
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>71</v>
@@ -8963,7 +9015,7 @@
       <c r="A6" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="88" t="s">
         <v>1124</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -8980,7 +9032,7 @@
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I6" s="42" t="s">
         <v>71</v>
@@ -8990,7 +9042,7 @@
       <c r="A7" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="6" t="s">
         <v>1128</v>
       </c>
@@ -9005,7 +9057,7 @@
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>71</v>
@@ -9015,7 +9067,7 @@
       <c r="A8" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="B8" s="76" t="s">
+      <c r="B8" s="88" t="s">
         <v>1131</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -9032,7 +9084,7 @@
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>71</v>
@@ -9042,7 +9094,7 @@
       <c r="A9" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="6" t="s">
         <v>1135</v>
       </c>
@@ -9057,7 +9109,7 @@
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I9" s="42" t="s">
         <v>71</v>
@@ -9067,7 +9119,7 @@
       <c r="A10" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="88" t="s">
         <v>1137</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -9084,7 +9136,7 @@
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I10" s="42" t="s">
         <v>71</v>
@@ -9094,7 +9146,7 @@
       <c r="A11" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="6" t="s">
         <v>1142</v>
       </c>
@@ -9109,7 +9161,7 @@
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>71</v>
@@ -9119,7 +9171,7 @@
       <c r="A12" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B12" s="76" t="s">
+      <c r="B12" s="88" t="s">
         <v>1144</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9136,7 +9188,7 @@
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>71</v>
@@ -9146,7 +9198,7 @@
       <c r="A13" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="6" t="s">
         <v>1149</v>
       </c>
@@ -9161,7 +9213,7 @@
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I13" s="42" t="s">
         <v>71</v>
@@ -9171,7 +9223,7 @@
       <c r="A14" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B14" s="76" t="s">
+      <c r="B14" s="88" t="s">
         <v>1151</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -9188,7 +9240,7 @@
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>71</v>
@@ -9198,7 +9250,7 @@
       <c r="A15" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="6" t="s">
         <v>1156</v>
       </c>
@@ -9213,7 +9265,7 @@
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -9223,7 +9275,7 @@
       <c r="A16" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="B16" s="76" t="s">
+      <c r="B16" s="88" t="s">
         <v>1158</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -9240,7 +9292,7 @@
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>71</v>
@@ -9250,7 +9302,7 @@
       <c r="A17" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="B17" s="76"/>
+      <c r="B17" s="88"/>
       <c r="C17" s="6" t="s">
         <v>1162</v>
       </c>
@@ -9265,7 +9317,7 @@
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>71</v>
@@ -9275,7 +9327,7 @@
       <c r="A18" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="88" t="s">
         <v>1165</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -9292,7 +9344,7 @@
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>71</v>
@@ -9302,7 +9354,7 @@
       <c r="A19" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="B19" s="76"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="6" t="s">
         <v>1169</v>
       </c>
@@ -9317,7 +9369,7 @@
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>71</v>
@@ -9346,34 +9398,34 @@
         <v>1177</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="79" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77" t="s">
+    <row r="21" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="89" t="s">
         <v>867</v>
       </c>
-      <c r="B21" s="78"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="78"/>
-      <c r="E21" s="78"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="78"/>
-      <c r="H21" s="78"/>
-      <c r="I21" s="78"/>
-      <c r="J21" s="78"/>
-      <c r="K21" s="78"/>
-      <c r="L21" s="78"/>
-      <c r="M21" s="78"/>
+      <c r="B21" s="90"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="90"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="90"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="90"/>
+      <c r="K21" s="90"/>
+      <c r="L21" s="90"/>
+      <c r="M21" s="90"/>
     </row>
     <row r="22" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="B22" s="76" t="s">
+      <c r="B22" s="88" t="s">
         <v>1178</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -9390,7 +9442,7 @@
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>71</v>
@@ -9400,7 +9452,7 @@
       <c r="A23" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B23" s="76"/>
+      <c r="B23" s="88"/>
       <c r="C23" s="6" t="s">
         <v>1182</v>
       </c>
@@ -9425,7 +9477,7 @@
       <c r="A24" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="88" t="s">
         <v>1187</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9442,7 +9494,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>71</v>
@@ -9452,7 +9504,7 @@
       <c r="A25" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="6" t="s">
         <v>1192</v>
       </c>
@@ -9467,7 +9519,7 @@
       </c>
       <c r="G25" s="5"/>
       <c r="H25" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I25" s="42" t="s">
         <v>71</v>
@@ -9477,7 +9529,7 @@
       <c r="A26" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="6" t="s">
         <v>1196</v>
       </c>
@@ -9492,7 +9544,7 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I26" s="42" t="s">
         <v>71</v>
@@ -9502,7 +9554,7 @@
       <c r="A27" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="B27" s="76"/>
+      <c r="B27" s="88"/>
       <c r="C27" s="6" t="s">
         <v>1199</v>
       </c>
@@ -9517,7 +9569,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>71</v>
@@ -9527,7 +9579,7 @@
       <c r="A28" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="B28" s="76"/>
+      <c r="B28" s="88"/>
       <c r="C28" s="6" t="s">
         <v>1203</v>
       </c>
@@ -9542,7 +9594,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I28" s="42" t="s">
         <v>71</v>
@@ -9552,7 +9604,7 @@
       <c r="A29" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="B29" s="76"/>
+      <c r="B29" s="88"/>
       <c r="C29" s="6" t="s">
         <v>1207</v>
       </c>
@@ -9566,7 +9618,7 @@
         <v>1205</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I29" s="42" t="s">
         <v>71</v>
@@ -9576,7 +9628,7 @@
       <c r="A30" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="B30" s="76" t="s">
+      <c r="B30" s="88" t="s">
         <v>1210</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -9593,7 +9645,7 @@
       </c>
       <c r="G30" s="5"/>
       <c r="H30" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I30" s="42" t="s">
         <v>71</v>
@@ -9603,7 +9655,7 @@
       <c r="A31" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B31" s="76"/>
+      <c r="B31" s="88"/>
       <c r="C31" s="6" t="s">
         <v>1214</v>
       </c>
@@ -9618,7 +9670,7 @@
       </c>
       <c r="G31" s="5"/>
       <c r="H31" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I31" s="42" t="s">
         <v>71</v>
@@ -9628,7 +9680,7 @@
       <c r="A32" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="6" t="s">
         <v>1217</v>
       </c>
@@ -9643,7 +9695,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I32" s="42" t="s">
         <v>71</v>
@@ -9653,7 +9705,7 @@
       <c r="A33" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="B33" s="76"/>
+      <c r="B33" s="88"/>
       <c r="C33" s="6" t="s">
         <v>1220</v>
       </c>
@@ -9668,7 +9720,7 @@
       </c>
       <c r="G33" s="5"/>
       <c r="H33" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I33" s="42" t="s">
         <v>71</v>
@@ -9678,7 +9730,7 @@
       <c r="A34" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="B34" s="76"/>
+      <c r="B34" s="88"/>
       <c r="C34" s="6" t="s">
         <v>1223</v>
       </c>
@@ -9693,7 +9745,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I34" s="42" t="s">
         <v>71</v>
@@ -9703,7 +9755,7 @@
       <c r="A35" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B35" s="76"/>
+      <c r="B35" s="88"/>
       <c r="C35" s="6" t="s">
         <v>1226</v>
       </c>
@@ -9717,7 +9769,7 @@
         <v>1205</v>
       </c>
       <c r="H35" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I35" s="42" t="s">
         <v>71</v>
@@ -9727,7 +9779,7 @@
       <c r="A36" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="B36" s="76" t="s">
+      <c r="B36" s="88" t="s">
         <v>1229</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9744,7 +9796,7 @@
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I36" s="42" t="s">
         <v>71</v>
@@ -9754,7 +9806,7 @@
       <c r="A37" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="B37" s="76"/>
+      <c r="B37" s="88"/>
       <c r="C37" s="6" t="s">
         <v>1232</v>
       </c>
@@ -9769,7 +9821,7 @@
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I37" s="42" t="s">
         <v>71</v>
@@ -9779,7 +9831,7 @@
       <c r="A38" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="B38" s="76"/>
+      <c r="B38" s="88"/>
       <c r="C38" s="6" t="s">
         <v>1235</v>
       </c>
@@ -9794,7 +9846,7 @@
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I38" s="42" t="s">
         <v>71</v>
@@ -9804,7 +9856,7 @@
       <c r="A39" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="B39" s="76"/>
+      <c r="B39" s="88"/>
       <c r="C39" s="6" t="s">
         <v>1238</v>
       </c>
@@ -9819,7 +9871,7 @@
       </c>
       <c r="G39" s="5"/>
       <c r="H39" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I39" s="42" t="s">
         <v>71</v>
@@ -9829,7 +9881,7 @@
       <c r="A40" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="B40" s="76"/>
+      <c r="B40" s="88"/>
       <c r="C40" s="6" t="s">
         <v>1241</v>
       </c>
@@ -9844,7 +9896,7 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I40" s="42" t="s">
         <v>71</v>
@@ -9854,7 +9906,7 @@
       <c r="A41" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="B41" s="76"/>
+      <c r="B41" s="88"/>
       <c r="C41" s="6" t="s">
         <v>1244</v>
       </c>
@@ -9868,7 +9920,7 @@
         <v>1205</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I41" s="42" t="s">
         <v>71</v>
@@ -9894,7 +9946,7 @@
         <v>1249</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I42" s="42" t="s">
         <v>71</v>
@@ -9920,7 +9972,7 @@
         <v>1254</v>
       </c>
       <c r="H43" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I43" s="42" t="s">
         <v>71</v>
@@ -9949,7 +10001,7 @@
         <v>1259</v>
       </c>
       <c r="H44" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I44" s="42" t="s">
         <v>71</v>
@@ -9992,7 +10044,7 @@
         <v>1262</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>1183</v>
@@ -10015,11 +10067,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="B36:B41"/>
@@ -10028,6 +10075,11 @@
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B29"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10103,7 +10155,7 @@
       <c r="A2" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="93" t="s">
         <v>500</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -10126,7 +10178,7 @@
       <c r="A3" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="82"/>
+      <c r="B3" s="94"/>
       <c r="C3" s="12" t="s">
         <v>260</v>
       </c>
@@ -10150,7 +10202,7 @@
       <c r="A4" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="82"/>
+      <c r="B4" s="94"/>
       <c r="C4" s="5" t="s">
         <v>511</v>
       </c>
@@ -10177,7 +10229,7 @@
       <c r="A5" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="82"/>
+      <c r="B5" s="94"/>
       <c r="C5" s="12" t="s">
         <v>269</v>
       </c>
@@ -10204,7 +10256,7 @@
       <c r="A6" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="82"/>
+      <c r="B6" s="94"/>
       <c r="C6" s="31" t="s">
         <v>514</v>
       </c>
@@ -10225,7 +10277,7 @@
       <c r="A7" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="82"/>
+      <c r="B7" s="94"/>
       <c r="C7" s="31" t="s">
         <v>520</v>
       </c>
@@ -10239,14 +10291,14 @@
         <v>523</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="82"/>
+      <c r="B8" s="94"/>
       <c r="C8" s="31" t="s">
         <v>524</v>
       </c>
@@ -10267,7 +10319,7 @@
       <c r="A9" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="94"/>
       <c r="C9" s="31" t="s">
         <v>526</v>
       </c>
@@ -10288,7 +10340,7 @@
       <c r="A10" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="94"/>
       <c r="C10" s="31" t="s">
         <v>530</v>
       </c>
@@ -10309,7 +10361,7 @@
       <c r="A11" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="94"/>
       <c r="C11" s="31" t="s">
         <v>534</v>
       </c>
@@ -10330,7 +10382,7 @@
       <c r="A12" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="82"/>
+      <c r="B12" s="94"/>
       <c r="C12" s="31" t="s">
         <v>537</v>
       </c>
@@ -10351,7 +10403,7 @@
       <c r="A13" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="82"/>
+      <c r="B13" s="94"/>
       <c r="C13" s="31" t="s">
         <v>540</v>
       </c>
@@ -10412,7 +10464,7 @@
       <c r="A16" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="B16" s="82" t="s">
+      <c r="B16" s="94" t="s">
         <v>571</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -10435,7 +10487,7 @@
       <c r="A17" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="B17" s="82"/>
+      <c r="B17" s="94"/>
       <c r="C17" s="31" t="s">
         <v>558</v>
       </c>
@@ -10456,7 +10508,7 @@
       <c r="A18" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B18" s="82"/>
+      <c r="B18" s="94"/>
       <c r="C18" s="31" t="s">
         <v>562</v>
       </c>
@@ -10477,7 +10529,7 @@
       <c r="A19" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="82"/>
+      <c r="B19" s="94"/>
       <c r="C19" s="31" t="s">
         <v>568</v>
       </c>
@@ -10574,7 +10626,7 @@
       <c r="A2" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="95" t="s">
         <v>453</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -10597,7 +10649,7 @@
       <c r="A3" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="84"/>
+      <c r="B3" s="96"/>
       <c r="C3" s="12" t="s">
         <v>456</v>
       </c>
@@ -10618,7 +10670,7 @@
       <c r="A4" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="84"/>
+      <c r="B4" s="96"/>
       <c r="C4" s="12" t="s">
         <v>460</v>
       </c>
@@ -10639,7 +10691,7 @@
       <c r="A5" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="31" t="s">
         <v>471</v>
       </c>
@@ -10660,7 +10712,7 @@
       <c r="A6" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="31" t="s">
         <v>472</v>
       </c>
@@ -10681,7 +10733,7 @@
       <c r="A7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="31" t="s">
         <v>469</v>
       </c>
@@ -10702,7 +10754,7 @@
       <c r="A8" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="31" t="s">
         <v>467</v>
       </c>
@@ -10716,14 +10768,14 @@
         <v>487</v>
       </c>
       <c r="H8" s="53" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="31" t="s">
         <v>468</v>
       </c>
@@ -10758,7 +10810,7 @@
         <v>495</v>
       </c>
       <c r="H10" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -10779,7 +10831,7 @@
         <v>498</v>
       </c>
       <c r="H11" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11289,7 +11341,7 @@
         <v>662</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11356,7 +11408,7 @@
       <c r="A26" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="B26" s="85" t="s">
+      <c r="B26" s="97" t="s">
         <v>676</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -11372,14 +11424,14 @@
         <v>680</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B27" s="86"/>
+      <c r="B27" s="98"/>
       <c r="C27" s="44" t="s">
         <v>681</v>
       </c>
@@ -11397,7 +11449,7 @@
       <c r="A28" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="B28" s="86"/>
+      <c r="B28" s="98"/>
       <c r="C28" s="10" t="s">
         <v>684</v>
       </c>
@@ -11411,14 +11463,14 @@
         <v>686</v>
       </c>
       <c r="H28" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="B29" s="86"/>
+      <c r="B29" s="98"/>
       <c r="C29" s="10" t="s">
         <v>687</v>
       </c>
@@ -11432,14 +11484,14 @@
         <v>689</v>
       </c>
       <c r="H29" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="B30" s="86"/>
+      <c r="B30" s="98"/>
       <c r="C30" s="44" t="s">
         <v>690</v>
       </c>
@@ -11453,7 +11505,7 @@
         <v>692</v>
       </c>
       <c r="H30" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
     </row>
   </sheetData>
@@ -11468,7 +11520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:N88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
@@ -11491,11 +11543,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -11519,10 +11571,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11540,42 +11592,42 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="91"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="91"/>
-      <c r="F4" s="91"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="91" t="s">
+      <c r="A4" s="57"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I4" s="57" t="s">
         <v>1337</v>
       </c>
-      <c r="I4" s="91" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J4" s="91"/>
-      <c r="K4" s="91"/>
-      <c r="L4" s="91"/>
-      <c r="M4" s="91"/>
-      <c r="N4" s="91"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="57"/>
+      <c r="L4" s="57"/>
+      <c r="M4" s="57"/>
+      <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="67" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
-      <c r="J5" s="59"/>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="59"/>
-      <c r="N5" s="59"/>
+      <c r="B5" s="67"/>
+      <c r="C5" s="67"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="67"/>
+      <c r="H5" s="67"/>
+      <c r="I5" s="67"/>
+      <c r="J5" s="67"/>
+      <c r="K5" s="67"/>
+      <c r="L5" s="67"/>
+      <c r="M5" s="67"/>
+      <c r="N5" s="67"/>
     </row>
     <row r="6" spans="1:14" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -11660,7 +11712,7 @@
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="71" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -11701,7 +11753,7 @@
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="63"/>
+      <c r="B9" s="71"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -11740,7 +11792,7 @@
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="63"/>
+      <c r="B10" s="71"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -11779,7 +11831,7 @@
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="63"/>
+      <c r="B11" s="71"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -11889,8 +11941,8 @@
       <c r="L13" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M13" s="97" t="s">
-        <v>1352</v>
+      <c r="M13" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11930,8 +11982,8 @@
       <c r="L14" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M14" s="97" t="s">
-        <v>1352</v>
+      <c r="M14" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11971,15 +12023,15 @@
       <c r="L15" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M15" s="97" t="s">
-        <v>1352</v>
+      <c r="M15" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="62" t="s">
+      <c r="B16" s="70" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -11992,14 +12044,14 @@
         <v>1292</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="42" t="s">
         <v>1277</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="J16" s="42" t="s">
         <v>32</v>
@@ -12010,15 +12062,15 @@
       <c r="L16" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M16" s="97" t="s">
-        <v>1352</v>
+      <c r="M16" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="62"/>
+      <c r="B17" s="70"/>
       <c r="C17" s="6" t="s">
         <v>1294</v>
       </c>
@@ -12049,8 +12101,8 @@
       <c r="L17" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M17" s="97" t="s">
-        <v>1352</v>
+      <c r="M17" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -12306,11 +12358,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="61"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="69"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -12334,10 +12386,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12355,24 +12407,24 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I4" s="59" t="s">
         <v>1337</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -12393,7 +12445,7 @@
       <c r="F5" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="94"/>
+      <c r="G5" s="58"/>
       <c r="H5" s="42" t="s">
         <v>1277</v>
       </c>
@@ -12407,8 +12459,8 @@
       <c r="L5" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M5" s="97" t="s">
-        <v>1352</v>
+      <c r="M5" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -12445,8 +12497,8 @@
       <c r="L6" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M6" s="97" t="s">
-        <v>1352</v>
+      <c r="M6" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12457,7 +12509,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>67</v>
@@ -12483,8 +12535,8 @@
       <c r="L7" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M7" s="97" t="s">
-        <v>1352</v>
+      <c r="M7" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12521,8 +12573,8 @@
       <c r="L8" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M8" s="97" t="s">
-        <v>1352</v>
+      <c r="M8" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -12559,8 +12611,8 @@
       <c r="L9" s="10" t="s">
         <v>1279</v>
       </c>
-      <c r="M9" s="97" t="s">
-        <v>1352</v>
+      <c r="M9" s="61" t="s">
+        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -12595,11 +12647,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="60" t="s">
+      <c r="H2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="60"/>
-      <c r="J2" s="64"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -12623,10 +12675,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="92" t="s">
+      <c r="H3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="93"/>
+      <c r="I3" s="73"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12644,24 +12696,24 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="95"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="95"/>
-      <c r="F4" s="95"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="95" t="s">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="59"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="59"/>
+      <c r="H4" s="59" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I4" s="59" t="s">
         <v>1337</v>
       </c>
-      <c r="I4" s="95" t="s">
-        <v>1338</v>
-      </c>
-      <c r="J4" s="95"/>
-      <c r="K4" s="95"/>
-      <c r="L4" s="95"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="95"/>
+      <c r="J4" s="59"/>
+      <c r="K4" s="59"/>
+      <c r="L4" s="59"/>
+      <c r="M4" s="59"/>
+      <c r="N4" s="59"/>
     </row>
     <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -13325,7 +13377,7 @@
     <sheetView topLeftCell="G1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="K27" sqref="K27"/>
+      <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13366,10 +13418,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="87" t="s">
+      <c r="H1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="88"/>
+      <c r="I1" s="83"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13386,22 +13438,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="89" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H2" s="90" t="s">
+    <row r="2" spans="1:14" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H2" s="56" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I2" s="56" t="s">
         <v>1337</v>
       </c>
-      <c r="I2" s="90" t="s">
-        <v>1338</v>
-      </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="77" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="78"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -13416,7 +13468,7 @@
       <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="79" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13448,7 +13500,7 @@
       <c r="A5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="70"/>
+      <c r="B5" s="80"/>
       <c r="C5" s="6" t="s">
         <v>169</v>
       </c>
@@ -13478,7 +13530,7 @@
       <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="70"/>
+      <c r="B6" s="80"/>
       <c r="C6" s="6" t="s">
         <v>173</v>
       </c>
@@ -13508,7 +13560,7 @@
       <c r="A7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="70"/>
+      <c r="B7" s="80"/>
       <c r="C7" s="16" t="s">
         <v>176</v>
       </c>
@@ -13538,7 +13590,7 @@
       <c r="A8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="70"/>
+      <c r="B8" s="80"/>
       <c r="C8" s="16" t="s">
         <v>179</v>
       </c>
@@ -13566,36 +13618,36 @@
     </row>
     <row r="9" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="70"/>
+      <c r="B9" s="80"/>
       <c r="C9" s="16" t="s">
+        <v>1340</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>1341</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="E9" s="5" t="s">
         <v>1342</v>
       </c>
-      <c r="E9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>1343</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1344</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>1277</v>
       </c>
-      <c r="I9" s="96" t="s">
-        <v>1333</v>
+      <c r="I9" s="60" t="s">
+        <v>1332</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="70"/>
+      <c r="B10" s="80"/>
       <c r="C10" s="16" t="s">
         <v>182</v>
       </c>
@@ -13625,7 +13677,7 @@
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="70"/>
+      <c r="B11" s="80"/>
       <c r="C11" s="16" t="s">
         <v>186</v>
       </c>
@@ -13655,7 +13707,7 @@
       <c r="A12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="70"/>
+      <c r="B12" s="80"/>
       <c r="C12" s="16" t="s">
         <v>190</v>
       </c>
@@ -13675,7 +13727,7 @@
         <v>1277</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>71</v>
@@ -13685,7 +13737,7 @@
       <c r="A13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="70"/>
+      <c r="B13" s="80"/>
       <c r="C13" s="16" t="s">
         <v>194</v>
       </c>
@@ -13715,7 +13767,7 @@
       <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="70"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="16" t="s">
         <v>198</v>
       </c>
@@ -13745,7 +13797,7 @@
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="70"/>
+      <c r="B15" s="80"/>
       <c r="C15" s="16" t="s">
         <v>202</v>
       </c>
@@ -13775,7 +13827,7 @@
       <c r="A16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="70"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="16" t="s">
         <v>206</v>
       </c>
@@ -13805,7 +13857,7 @@
       <c r="A17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="80"/>
       <c r="C17" s="16" t="s">
         <v>210</v>
       </c>
@@ -13835,7 +13887,7 @@
       <c r="A18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="70"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="16" t="s">
         <v>214</v>
       </c>
@@ -13865,7 +13917,7 @@
       <c r="A19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="70"/>
+      <c r="B19" s="80"/>
       <c r="C19" s="16" t="s">
         <v>219</v>
       </c>
@@ -13895,7 +13947,7 @@
       <c r="A20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="70"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="16" t="s">
         <v>224</v>
       </c>
@@ -13925,7 +13977,7 @@
       <c r="A21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="70"/>
+      <c r="B21" s="80"/>
       <c r="C21" s="16" t="s">
         <v>228</v>
       </c>
@@ -13936,7 +13988,7 @@
         <v>229</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>160</v>
@@ -13952,13 +14004,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="71" t="s">
+      <c r="A22" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="68"/>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
+      <c r="B22" s="78"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -13973,7 +14025,7 @@
       <c r="A23" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="65" t="s">
+      <c r="B23" s="75" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -14005,7 +14057,7 @@
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="66"/>
+      <c r="B24" s="76"/>
       <c r="C24" s="16" t="s">
         <v>237</v>
       </c>
@@ -14035,7 +14087,7 @@
       <c r="A25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="66"/>
+      <c r="B25" s="76"/>
       <c r="C25" s="16" t="s">
         <v>242</v>
       </c>
@@ -14065,7 +14117,7 @@
       <c r="A26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="66"/>
+      <c r="B26" s="76"/>
       <c r="C26" s="16" t="s">
         <v>247</v>
       </c>
@@ -14093,28 +14145,28 @@
     </row>
     <row r="27" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C27" s="16" t="s">
         <v>1347</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>1348</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>1348</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>1349</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="H27" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>1332</v>
+      </c>
+      <c r="K27" t="s">
         <v>1350</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I27" s="96" t="s">
-        <v>1333</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1351</v>
       </c>
     </row>
   </sheetData>
@@ -14132,12 +14184,12 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="F1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H51" sqref="H51"/>
+      <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14149,8 +14201,8 @@
     <col min="5" max="5" width="50" customWidth="1"/>
     <col min="6" max="6" width="49.85546875" customWidth="1"/>
     <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.140625" customWidth="1"/>
+    <col min="8" max="9" width="30.85546875" customWidth="1"/>
+    <col min="10" max="10" width="54.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -14175,12 +14227,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="14" t="s">
-        <v>7</v>
-      </c>
+      <c r="I1" s="83"/>
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
@@ -14194,68 +14244,60 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="19" t="s">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="99"/>
+      <c r="B2" s="99"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99" t="s">
+        <v>1336</v>
+      </c>
+      <c r="I2" s="99" t="s">
+        <v>1337</v>
+      </c>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="99"/>
+      <c r="M2" s="99"/>
+    </row>
+    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="17"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="D2" s="17"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-    </row>
-    <row r="3" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+      <c r="D3" s="17"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+    </row>
+    <row r="4" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B3" s="72" t="s">
+      <c r="B4" s="84" t="s">
         <v>254</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C4" s="12" t="s">
         <v>255</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E3" s="26" t="s">
-        <v>257</v>
-      </c>
-      <c r="F3" s="26" t="s">
-        <v>258</v>
-      </c>
-      <c r="G3" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="12" t="s">
-        <v>260</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>262</v>
+      <c r="E4" s="26" t="s">
+        <v>257</v>
+      </c>
+      <c r="F4" s="26" t="s">
+        <v>258</v>
       </c>
       <c r="G4" s="44" t="s">
         <v>160</v>
@@ -14267,22 +14309,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="B5" s="72"/>
-      <c r="C5" s="5" t="s">
-        <v>264</v>
+        <v>259</v>
+      </c>
+      <c r="B5" s="84"/>
+      <c r="C5" s="12" t="s">
+        <v>260</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="E5" s="26" t="s">
-        <v>266</v>
+        <v>256</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G5" s="44" t="s">
         <v>160</v>
@@ -14291,25 +14333,25 @@
         <v>1277</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="B6" s="72"/>
-      <c r="C6" s="12" t="s">
-        <v>269</v>
+        <v>263</v>
+      </c>
+      <c r="B6" s="84"/>
+      <c r="C6" s="5" t="s">
+        <v>264</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
       <c r="E6" s="26" t="s">
-        <v>270</v>
-      </c>
-      <c r="F6" s="26" t="s">
-        <v>271</v>
+        <v>266</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>267</v>
       </c>
       <c r="G6" s="44" t="s">
         <v>160</v>
@@ -14321,22 +14363,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="B7" s="72"/>
+        <v>268</v>
+      </c>
+      <c r="B7" s="84"/>
       <c r="C7" s="12" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>275</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>276</v>
+        <v>256</v>
+      </c>
+      <c r="E7" s="26" t="s">
+        <v>270</v>
+      </c>
+      <c r="F7" s="26" t="s">
+        <v>271</v>
       </c>
       <c r="G7" s="44" t="s">
         <v>160</v>
@@ -14348,22 +14390,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="B8" s="72"/>
-      <c r="C8" s="5" t="s">
-        <v>278</v>
+        <v>272</v>
+      </c>
+      <c r="B8" s="84"/>
+      <c r="C8" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E8" s="26" t="s">
-        <v>279</v>
-      </c>
-      <c r="F8" s="26" t="s">
-        <v>280</v>
+      <c r="E8" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>276</v>
       </c>
       <c r="G8" s="44" t="s">
         <v>160</v>
@@ -14375,22 +14417,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="B9" s="72"/>
-      <c r="C9" s="12" t="s">
-        <v>282</v>
+        <v>277</v>
+      </c>
+      <c r="B9" s="84"/>
+      <c r="C9" s="5" t="s">
+        <v>278</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E9" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>284</v>
+      <c r="E9" s="26" t="s">
+        <v>279</v>
+      </c>
+      <c r="F9" s="26" t="s">
+        <v>280</v>
       </c>
       <c r="G9" s="44" t="s">
         <v>160</v>
@@ -14402,22 +14444,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="B10" s="72"/>
+        <v>281</v>
+      </c>
+      <c r="B10" s="84"/>
       <c r="C10" s="12" t="s">
-        <v>286</v>
-      </c>
-      <c r="D10" s="26" t="s">
+        <v>282</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E10" s="26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>288</v>
+      <c r="E10" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>284</v>
       </c>
       <c r="G10" s="44" t="s">
         <v>160</v>
@@ -14429,22 +14471,22 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="B11" s="72"/>
+        <v>285</v>
+      </c>
+      <c r="B11" s="84"/>
       <c r="C11" s="12" t="s">
-        <v>290</v>
-      </c>
-      <c r="D11" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>291</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>292</v>
+      <c r="E11" s="26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="26" t="s">
+        <v>288</v>
       </c>
       <c r="G11" s="44" t="s">
         <v>160</v>
@@ -14453,25 +14495,25 @@
         <v>1277</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="B12" s="72"/>
+        <v>289</v>
+      </c>
+      <c r="B12" s="84"/>
       <c r="C12" s="12" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="26" t="s">
-        <v>296</v>
-      </c>
-      <c r="F12" s="26" t="s">
-        <v>297</v>
+        <v>274</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>292</v>
       </c>
       <c r="G12" s="44" t="s">
         <v>160</v>
@@ -14480,25 +14522,25 @@
         <v>1277</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="B13" s="72"/>
+        <v>293</v>
+      </c>
+      <c r="B13" s="84"/>
       <c r="C13" s="12" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E13" s="26" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F13" s="26" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G13" s="44" t="s">
         <v>160</v>
@@ -14507,25 +14549,25 @@
         <v>1277</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="B14" s="72"/>
+        <v>298</v>
+      </c>
+      <c r="B14" s="84"/>
       <c r="C14" s="12" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>305</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>306</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>307</v>
+        <v>300</v>
+      </c>
+      <c r="E14" s="26" t="s">
+        <v>301</v>
+      </c>
+      <c r="F14" s="26" t="s">
+        <v>302</v>
       </c>
       <c r="G14" s="44" t="s">
         <v>160</v>
@@ -14534,25 +14576,25 @@
         <v>1277</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="B15" s="72"/>
+        <v>303</v>
+      </c>
+      <c r="B15" s="84"/>
       <c r="C15" s="12" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="E15" s="26" t="s">
-        <v>310</v>
-      </c>
-      <c r="F15" s="26" t="s">
-        <v>311</v>
+        <v>305</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>307</v>
       </c>
       <c r="G15" s="44" t="s">
         <v>160</v>
@@ -14561,25 +14603,25 @@
         <v>1277</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="B16" s="72"/>
+        <v>308</v>
+      </c>
+      <c r="B16" s="84"/>
       <c r="C16" s="12" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="E16" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>315</v>
+      <c r="E16" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="F16" s="26" t="s">
+        <v>311</v>
       </c>
       <c r="G16" s="44" t="s">
         <v>160</v>
@@ -14588,25 +14630,25 @@
         <v>1277</v>
       </c>
       <c r="I16" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="B17" s="72"/>
+        <v>312</v>
+      </c>
+      <c r="B17" s="84"/>
       <c r="C17" s="12" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="G17" s="44" t="s">
         <v>160</v>
@@ -14615,25 +14657,25 @@
         <v>1277</v>
       </c>
       <c r="I17" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="B18" s="72"/>
+        <v>316</v>
+      </c>
+      <c r="B18" s="84"/>
       <c r="C18" s="12" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G18" s="44" t="s">
         <v>160</v>
@@ -14642,25 +14684,25 @@
         <v>1277</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="B19" s="72"/>
+        <v>320</v>
+      </c>
+      <c r="B19" s="84"/>
       <c r="C19" s="12" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="G19" s="44" t="s">
         <v>160</v>
@@ -14669,25 +14711,25 @@
         <v>1277</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="B20" s="72"/>
+        <v>324</v>
+      </c>
+      <c r="B20" s="84"/>
       <c r="C20" s="12" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>274</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="G20" s="44" t="s">
         <v>160</v>
@@ -14696,25 +14738,25 @@
         <v>1277</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B21" s="72"/>
+        <v>328</v>
+      </c>
+      <c r="B21" s="84"/>
       <c r="C21" s="12" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>334</v>
+        <v>274</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>160</v>
@@ -14723,25 +14765,25 @@
         <v>1277</v>
       </c>
       <c r="I21" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>337</v>
-      </c>
-      <c r="B22" s="72"/>
+        <v>332</v>
+      </c>
+      <c r="B22" s="84"/>
       <c r="C22" s="12" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>334</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G22" s="44" t="s">
         <v>160</v>
@@ -14750,25 +14792,25 @@
         <v>1277</v>
       </c>
       <c r="I22" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>341</v>
-      </c>
-      <c r="B23" s="72"/>
+        <v>337</v>
+      </c>
+      <c r="B23" s="84"/>
       <c r="C23" s="12" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G23" s="44" t="s">
         <v>160</v>
@@ -14777,71 +14819,72 @@
         <v>1277</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A24" s="17"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="21" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="B24" s="84"/>
+      <c r="C24" s="12" t="s">
+        <v>342</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G24" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I24" s="60" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="21" t="s">
         <v>346</v>
       </c>
-      <c r="D24" s="17"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="17"/>
-    </row>
-    <row r="25" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="17"/>
+      <c r="K25" s="17"/>
+      <c r="L25" s="17"/>
+      <c r="M25" s="17"/>
+    </row>
+    <row r="26" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B25" s="23"/>
-      <c r="C25" s="44" t="s">
+      <c r="B26" s="23"/>
+      <c r="C26" s="44" t="s">
         <v>348</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D26" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E26" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="F25" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>160</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="120" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>353</v>
-      </c>
-      <c r="C26" s="12" t="s">
-        <v>354</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>356</v>
       </c>
       <c r="G26" s="44" t="s">
         <v>160</v>
@@ -14850,25 +14893,27 @@
         <v>1277</v>
       </c>
       <c r="I26" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="120" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>357</v>
-      </c>
-      <c r="B27" s="25"/>
+        <v>352</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>353</v>
+      </c>
       <c r="C27" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G27" s="44" t="s">
         <v>160</v>
@@ -14877,25 +14922,25 @@
         <v>1277</v>
       </c>
       <c r="I27" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="B28" s="25"/>
       <c r="C28" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>349</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G28" s="44" t="s">
         <v>160</v>
@@ -14904,25 +14949,25 @@
         <v>1277</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B29" s="25"/>
       <c r="C29" s="12" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>256</v>
+        <v>349</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G29" s="44" t="s">
         <v>160</v>
@@ -14931,25 +14976,25 @@
         <v>1277</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="B30" s="25"/>
       <c r="C30" s="12" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>371</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>350</v>
-      </c>
-      <c r="F30" s="26" t="s">
-        <v>372</v>
+        <v>256</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>368</v>
       </c>
       <c r="G30" s="44" t="s">
         <v>160</v>
@@ -14958,25 +15003,25 @@
         <v>1277</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="22" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="B31" s="25"/>
       <c r="C31" s="12" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="E31" s="26" t="s">
-        <v>376</v>
+        <v>350</v>
       </c>
       <c r="F31" s="26" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="G31" s="44" t="s">
         <v>160</v>
@@ -14985,369 +15030,413 @@
         <v>1277</v>
       </c>
       <c r="I31" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="17"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="19" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="B32" s="25"/>
+      <c r="C32" s="12" t="s">
+        <v>374</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E32" s="26" t="s">
+        <v>376</v>
+      </c>
+      <c r="F32" s="26" t="s">
+        <v>377</v>
+      </c>
+      <c r="G32" s="44" t="s">
+        <v>160</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="17"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="19" t="s">
         <v>378</v>
       </c>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-    </row>
-    <row r="33" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="22" t="s">
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="17"/>
+      <c r="M33" s="17"/>
+    </row>
+    <row r="34" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B33" s="73" t="s">
+      <c r="B34" s="85" t="s">
         <v>380</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>381</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>383</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>384</v>
-      </c>
-      <c r="H33" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="22" t="s">
-        <v>385</v>
-      </c>
-      <c r="B34" s="73"/>
-      <c r="C34" s="5" t="s">
-        <v>386</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>382</v>
       </c>
       <c r="E34" s="26" t="s">
+        <v>383</v>
+      </c>
+      <c r="F34" s="26" t="s">
+        <v>384</v>
+      </c>
+      <c r="H34" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I34" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="22" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" s="85"/>
+      <c r="C35" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="E35" s="26" t="s">
         <v>387</v>
       </c>
-      <c r="F34" s="26" t="s">
+      <c r="F35" s="26" t="s">
         <v>388</v>
       </c>
-      <c r="H34" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="22" t="s">
+      <c r="H35" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B35" s="73"/>
-      <c r="C35" s="5" t="s">
+      <c r="B36" s="85"/>
+      <c r="C36" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="D35" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>391</v>
       </c>
-      <c r="E35" s="26" t="s">
+      <c r="E36" s="26" t="s">
         <v>392</v>
       </c>
-      <c r="F35" s="26" t="s">
+      <c r="F36" s="26" t="s">
         <v>393</v>
       </c>
-      <c r="H35" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="22" t="s">
+      <c r="H36" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I36" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B36" s="73"/>
-      <c r="C36" s="12" t="s">
+      <c r="B37" s="85"/>
+      <c r="C37" s="12" t="s">
         <v>395</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>396</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="F36" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="22" t="s">
-        <v>399</v>
-      </c>
-      <c r="B37" s="73"/>
-      <c r="C37" s="12" t="s">
-        <v>400</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>396</v>
       </c>
       <c r="E37" s="26" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="F37" s="26" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="H37" s="5" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="38" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="22" t="s">
-        <v>403</v>
-      </c>
-      <c r="B38" s="73"/>
+        <v>399</v>
+      </c>
+      <c r="B38" s="85"/>
       <c r="C38" s="12" t="s">
-        <v>286</v>
+        <v>400</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>396</v>
       </c>
       <c r="E38" s="26" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F38" s="26" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="H38" s="5" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="39" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="B39" s="73"/>
+        <v>403</v>
+      </c>
+      <c r="B39" s="85"/>
       <c r="C39" s="12" t="s">
-        <v>407</v>
+        <v>286</v>
       </c>
       <c r="D39" s="5" t="s">
         <v>396</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="F39" s="26" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="H39" s="5" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="40" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="22" t="s">
-        <v>410</v>
-      </c>
-      <c r="B40" s="73"/>
+        <v>406</v>
+      </c>
+      <c r="B40" s="85"/>
       <c r="C40" s="12" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>396</v>
       </c>
       <c r="E40" s="26" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="F40" s="26" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H40" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I40" s="5" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="22" t="s">
-        <v>414</v>
-      </c>
-      <c r="B41" s="73"/>
+        <v>410</v>
+      </c>
+      <c r="B41" s="85"/>
       <c r="C41" s="12" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="D41" s="5" t="s">
         <v>396</v>
       </c>
       <c r="E41" s="26" t="s">
+        <v>412</v>
+      </c>
+      <c r="F41" s="26" t="s">
+        <v>413</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I41" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="B42" s="85"/>
+      <c r="C42" s="12" t="s">
+        <v>415</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>396</v>
+      </c>
+      <c r="E42" s="26" t="s">
         <v>416</v>
       </c>
-      <c r="F41" s="26" t="s">
+      <c r="F42" s="26" t="s">
         <v>417</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
-        <v>418</v>
-      </c>
-      <c r="B42" s="73"/>
-      <c r="C42" s="12" t="s">
-        <v>419</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>420</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>421</v>
-      </c>
-      <c r="F42" s="26" t="s">
-        <v>422</v>
-      </c>
       <c r="H42" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I42" s="5" t="s">
         <v>1277</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="22" t="s">
-        <v>423</v>
-      </c>
-      <c r="B43" s="73"/>
+        <v>418</v>
+      </c>
+      <c r="B43" s="85"/>
       <c r="C43" s="12" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D43" s="5" t="s">
         <v>420</v>
       </c>
       <c r="E43" s="26" t="s">
+        <v>421</v>
+      </c>
+      <c r="F43" s="26" t="s">
+        <v>422</v>
+      </c>
+      <c r="H43" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>423</v>
+      </c>
+      <c r="B44" s="85"/>
+      <c r="C44" s="12" t="s">
+        <v>424</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="E44" s="26" t="s">
         <v>425</v>
       </c>
-      <c r="F43" s="26" t="s">
+      <c r="F44" s="26" t="s">
         <v>426</v>
       </c>
-      <c r="H43" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="H44" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I44" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B44" s="73"/>
-      <c r="C44" s="12" t="s">
+      <c r="B45" s="85"/>
+      <c r="C45" s="12" t="s">
         <v>342</v>
       </c>
-      <c r="D44" s="5" t="s">
+      <c r="D45" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E45" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="F44" s="4" t="s">
+      <c r="F45" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="H44" s="5" t="s">
-        <v>1277</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" ht="21" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="27"/>
-      <c r="C45" s="28" t="s">
+      <c r="H45" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I45" s="60" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J45" s="10" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+      <c r="A46" s="27"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="28" t="s">
         <v>430</v>
       </c>
-      <c r="D45" s="27"/>
-      <c r="E45" s="27"/>
-      <c r="F45" s="27"/>
-      <c r="G45" s="27"/>
-      <c r="H45" s="27"/>
-      <c r="I45" s="27"/>
-      <c r="J45" s="27"/>
-      <c r="K45" s="27"/>
-      <c r="L45" s="27"/>
-      <c r="M45" s="27"/>
-    </row>
-    <row r="46" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="22" t="s">
+      <c r="D46" s="27"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="27"/>
+      <c r="G46" s="27"/>
+      <c r="H46" s="27"/>
+      <c r="I46" s="27"/>
+      <c r="J46" s="27"/>
+      <c r="K46" s="27"/>
+      <c r="L46" s="27"/>
+      <c r="M46" s="27"/>
+    </row>
+    <row r="47" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B46" s="74" t="s">
+      <c r="B47" s="86" t="s">
         <v>430</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C47" s="29" t="s">
         <v>432</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>434</v>
-      </c>
-      <c r="F46" s="26" t="s">
-        <v>435</v>
-      </c>
-      <c r="G46" s="30"/>
-      <c r="H46" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="30"/>
-      <c r="M46" s="30"/>
-    </row>
-    <row r="47" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="22" t="s">
-        <v>436</v>
-      </c>
-      <c r="B47" s="74"/>
-      <c r="C47" s="12" t="s">
-        <v>354</v>
       </c>
       <c r="D47" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="G47" s="44" t="s">
-        <v>160</v>
-      </c>
+        <v>434</v>
+      </c>
+      <c r="F47" s="26" t="s">
+        <v>435</v>
+      </c>
+      <c r="G47" s="30"/>
       <c r="H47" s="5" t="s">
         <v>1277</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1277</v>
+      </c>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
+      <c r="L47" s="30"/>
+      <c r="M47" s="30"/>
+    </row>
+    <row r="48" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="22" t="s">
-        <v>439</v>
-      </c>
-      <c r="B48" s="74"/>
+        <v>436</v>
+      </c>
+      <c r="B48" s="86"/>
       <c r="C48" s="12" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="D48" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="F48" s="26" t="s">
-        <v>441</v>
+        <v>437</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>438</v>
       </c>
       <c r="G48" s="44" t="s">
         <v>160</v>
@@ -15355,75 +15444,135 @@
       <c r="H48" s="5" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I48" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="22" t="s">
-        <v>442</v>
-      </c>
-      <c r="B49" s="74"/>
+        <v>439</v>
+      </c>
+      <c r="B49" s="86"/>
       <c r="C49" s="12" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="D49" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>444</v>
+        <v>441</v>
+      </c>
+      <c r="G49" s="44" t="s">
+        <v>160</v>
       </c>
       <c r="H49" s="5" t="s">
         <v>1277</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I49" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="22" t="s">
-        <v>445</v>
-      </c>
-      <c r="B50" s="74"/>
+        <v>442</v>
+      </c>
+      <c r="B50" s="86"/>
       <c r="C50" s="12" t="s">
-        <v>446</v>
+        <v>362</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="F50" s="26" t="s">
-        <v>1334</v>
-      </c>
-      <c r="H50" s="51" t="s">
-        <v>1333</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+        <v>444</v>
+      </c>
+      <c r="H50" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I50" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="22" t="s">
-        <v>448</v>
-      </c>
-      <c r="B51" s="74"/>
+        <v>445</v>
+      </c>
+      <c r="B51" s="86"/>
       <c r="C51" s="12" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="D51" s="5" t="s">
         <v>433</v>
       </c>
       <c r="E51" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F51" s="26" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H51" s="51" t="s">
+        <v>1332</v>
+      </c>
+      <c r="I51" s="100" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="22" t="s">
+        <v>448</v>
+      </c>
+      <c r="B52" s="86"/>
+      <c r="C52" s="12" t="s">
+        <v>449</v>
+      </c>
+      <c r="D52" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="E52" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="F51" s="26" t="s">
+      <c r="F52" s="26" t="s">
         <v>451</v>
       </c>
-      <c r="H51" s="5" t="s">
-        <v>1277</v>
+      <c r="H52" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+      <c r="C53" s="12" t="s">
+        <v>1353</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="F53" s="26" t="s">
+        <v>1355</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>1308</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B3:B23"/>
-    <mergeCell ref="B33:B44"/>
-    <mergeCell ref="B46:B51"/>
+  <mergeCells count="4">
+    <mergeCell ref="B4:B24"/>
+    <mergeCell ref="B34:B45"/>
+    <mergeCell ref="B47:B52"/>
+    <mergeCell ref="H1:I1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15431,11 +15580,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AF4E2F7-ADE0-4C5E-BA2D-6E501792F5ED}">
-  <dimension ref="A2:M41"/>
+  <dimension ref="A2:N42"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView topLeftCell="F1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15447,17 +15596,20 @@
     <col min="5" max="5" width="35.140625" customWidth="1"/>
     <col min="6" max="6" width="33.28515625" customWidth="1"/>
     <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" customWidth="1"/>
-    <col min="9" max="9" width="18.7109375" customWidth="1"/>
+    <col min="8" max="9" width="12.7109375" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
+    <col min="11" max="11" width="54.42578125" customWidth="1"/>
+    <col min="13" max="13" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="60" t="s">
+    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H2" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="64"/>
-    </row>
-    <row r="3" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="68"/>
+      <c r="J2" s="74"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -15479,723 +15631,761 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="72" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="I3" s="73"/>
+      <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="N3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
+    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="101"/>
+      <c r="B4" s="102"/>
+      <c r="C4" s="101"/>
+      <c r="D4" s="101"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="101"/>
+      <c r="H4" s="101" t="s">
+        <v>1269</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>1356</v>
+      </c>
+      <c r="J4" s="101"/>
+      <c r="K4" s="101"/>
+      <c r="L4" s="101"/>
+      <c r="M4" s="101"/>
+      <c r="N4" s="101"/>
+    </row>
+    <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="B4" s="75" t="s">
+      <c r="B5" s="87" t="s">
         <v>695</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C5" s="42" t="s">
         <v>696</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>697</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>698</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1301</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K4" s="42" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L4" s="46">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="7" t="s">
-        <v>699</v>
-      </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="42" t="s">
-        <v>700</v>
       </c>
       <c r="D5" s="12" t="s">
         <v>697</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>702</v>
+        <v>1301</v>
       </c>
       <c r="H5" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="K5" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K5" s="42" t="s">
+      <c r="L5" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L5" s="46">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M5" s="103" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>703</v>
-      </c>
-      <c r="B6" s="76"/>
+        <v>699</v>
+      </c>
+      <c r="B6" s="88"/>
       <c r="C6" s="42" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D6" s="12" t="s">
         <v>697</v>
       </c>
       <c r="E6" s="5" t="s">
+        <v>701</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>702</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J6" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K6" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L6" s="42" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M6" s="103" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="B7" s="88"/>
+      <c r="C7" s="42" t="s">
+        <v>704</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>697</v>
+      </c>
+      <c r="E7" s="5" t="s">
         <v>705</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>706</v>
       </c>
-      <c r="H6" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I6" s="42" t="s">
+      <c r="H7" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="K7" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K6" s="42" t="s">
+      <c r="L7" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L6" s="46">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+      <c r="M7" s="103" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="B7" s="76"/>
-      <c r="C7" s="42" t="s">
+      <c r="B8" s="88"/>
+      <c r="C8" s="42" t="s">
         <v>708</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>709</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>710</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>1303</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K7" s="42" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L7" s="46">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>712</v>
-      </c>
-      <c r="B8" s="76"/>
-      <c r="C8" s="42" t="s">
-        <v>713</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>709</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>715</v>
-      </c>
-      <c r="G8" s="5"/>
+        <v>711</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>1303</v>
+      </c>
       <c r="H8" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J8" s="12" t="s">
+      <c r="K8" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K8" s="42" t="s">
+      <c r="L8" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L8" s="46">
+      <c r="M8" s="46">
         <v>44077</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="B9" s="76"/>
+        <v>712</v>
+      </c>
+      <c r="B9" s="88"/>
       <c r="C9" s="42" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>709</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>711</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>719</v>
-      </c>
+        <v>715</v>
+      </c>
+      <c r="G9" s="5"/>
       <c r="H9" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J9" s="12" t="s">
+      <c r="K9" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K9" s="42" t="s">
+      <c r="L9" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L9" s="46">
+      <c r="M9" s="46">
         <v>44077</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>720</v>
-      </c>
-      <c r="B10" s="76"/>
+        <v>716</v>
+      </c>
+      <c r="B10" s="88"/>
       <c r="C10" s="42" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>709</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>711</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>719</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J10" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L10" s="42" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M10" s="46">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="B11" s="88"/>
+      <c r="C11" s="42" t="s">
+        <v>721</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>709</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>722</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>711</v>
+      </c>
+      <c r="G11" s="5" t="s">
         <v>1304</v>
       </c>
-      <c r="H10" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I10" s="42" t="s">
+      <c r="H11" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J10" s="12" t="s">
+      <c r="K11" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K10" s="42" t="s">
+      <c r="L11" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L10" s="46">
+      <c r="M11" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B11" s="76"/>
-      <c r="C11" s="42" t="s">
+      <c r="B12" s="88"/>
+      <c r="C12" s="42" t="s">
         <v>724</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="D12" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E12" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="F11" s="5" t="s">
+      <c r="F12" s="5" t="s">
         <v>727</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K11" s="42" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L11" s="46">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>728</v>
-      </c>
-      <c r="B12" s="76"/>
-      <c r="C12" s="42" t="s">
-        <v>729</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>730</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>731</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>732</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="K12" s="12" t="s">
         <v>1300</v>
       </c>
-      <c r="K12" s="42" t="s">
+      <c r="L12" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="L12" s="46">
+      <c r="M12" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="B13" s="88"/>
+      <c r="C13" s="42" t="s">
+        <v>729</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>730</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>731</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>732</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I13" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J13" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L13" s="42" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M13" s="46">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B13" s="76"/>
-      <c r="C13" s="42" t="s">
+      <c r="B14" s="88"/>
+      <c r="C14" s="42" t="s">
         <v>734</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>735</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>1305</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>1306</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="47" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>1308</v>
-      </c>
-      <c r="K13" s="42" t="s">
-        <v>1302</v>
-      </c>
-      <c r="L13" s="46">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
-        <v>736</v>
-      </c>
-      <c r="B14" s="76"/>
-      <c r="C14" s="42" t="s">
-        <v>737</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>738</v>
+        <v>1305</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>739</v>
+        <v>1306</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I14" s="42" t="s">
+      <c r="H14" s="47" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I14" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J14" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K14" s="42" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L14" s="46">
-        <v>44077</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K14" s="5"/>
+      <c r="L14" s="42" t="s">
+        <v>1302</v>
+      </c>
+      <c r="M14" s="46">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>740</v>
-      </c>
-      <c r="B15" s="76"/>
+        <v>736</v>
+      </c>
+      <c r="B15" s="88"/>
       <c r="C15" s="42" t="s">
-        <v>741</v>
+        <v>737</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>742</v>
+        <v>738</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>743</v>
+        <v>739</v>
       </c>
       <c r="G15" s="5"/>
       <c r="H15" s="42" t="s">
         <v>1277</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J15" s="5" t="s">
+      <c r="K15" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K15" s="42" t="s">
+      <c r="L15" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L15" s="46">
+      <c r="M15" s="46">
         <v>44077</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>744</v>
-      </c>
-      <c r="B16" s="76"/>
+        <v>740</v>
+      </c>
+      <c r="B16" s="88"/>
       <c r="C16" s="42" t="s">
-        <v>745</v>
+        <v>741</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>746</v>
+        <v>742</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>747</v>
-      </c>
-      <c r="G16" s="5" t="s">
-        <v>748</v>
-      </c>
+        <v>743</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I16" s="42" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I16" s="54" t="s">
+        <v>1277</v>
+      </c>
+      <c r="J16" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J16" s="5" t="s">
+      <c r="K16" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="L16" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L16" s="46">
+      <c r="M16" s="46">
         <v>44077</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>749</v>
-      </c>
-      <c r="B17" s="76"/>
+        <v>744</v>
+      </c>
+      <c r="B17" s="88"/>
       <c r="C17" s="42" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>752</v>
-      </c>
-      <c r="G17" s="5"/>
+        <v>747</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>748</v>
+      </c>
       <c r="H17" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I17" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I17" s="58" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K17" s="42" t="s">
+      <c r="K17" s="5" t="s">
+        <v>1359</v>
+      </c>
+      <c r="L17" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L17" s="46">
+      <c r="M17" s="46">
         <v>44077</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>753</v>
-      </c>
-      <c r="B18" s="76"/>
+        <v>749</v>
+      </c>
+      <c r="B18" s="88"/>
       <c r="C18" s="42" t="s">
-        <v>754</v>
+        <v>750</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>755</v>
+        <v>751</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>756</v>
+        <v>752</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I18" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I18" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="5" t="s">
+      <c r="K18" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K18" s="42" t="s">
+      <c r="L18" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L18" s="46">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M18" s="46">
+        <v>44077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>757</v>
-      </c>
-      <c r="B19" s="76"/>
+        <v>753</v>
+      </c>
+      <c r="B19" s="88"/>
       <c r="C19" s="42" t="s">
-        <v>758</v>
+        <v>754</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>759</v>
+        <v>755</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>760</v>
+        <v>756</v>
       </c>
       <c r="G19" s="5"/>
       <c r="H19" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I19" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I19" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J19" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="K19" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K19" s="42" t="s">
+      <c r="L19" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L19" s="46">
+      <c r="M19" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>761</v>
-      </c>
-      <c r="B20" s="76"/>
+        <v>757</v>
+      </c>
+      <c r="B20" s="88"/>
       <c r="C20" s="42" t="s">
-        <v>762</v>
+        <v>758</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>735</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>763</v>
+        <v>759</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>764</v>
+        <v>760</v>
       </c>
       <c r="G20" s="5"/>
       <c r="H20" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I20" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I20" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J20" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="K20" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K20" s="42" t="s">
+      <c r="L20" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L20" s="46">
+      <c r="M20" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>765</v>
-      </c>
-      <c r="B21" s="76"/>
-      <c r="C21" s="3" t="s">
-        <v>766</v>
+        <v>761</v>
+      </c>
+      <c r="B21" s="88"/>
+      <c r="C21" s="42" t="s">
+        <v>762</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>767</v>
+        <v>735</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
       <c r="G21" s="5"/>
       <c r="H21" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I21" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I21" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="5" t="s">
+      <c r="K21" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K21" s="42" t="s">
+      <c r="L21" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L21" s="46">
+      <c r="M21" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>770</v>
-      </c>
-      <c r="B22" s="76" t="s">
-        <v>771</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="B22" s="88"/>
       <c r="C22" s="3" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
       <c r="G22" s="5"/>
       <c r="H22" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I22" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I22" s="58" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K22" s="42" t="s">
+      <c r="K22" s="3" t="s">
+        <v>1358</v>
+      </c>
+      <c r="L22" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L22" s="46">
+      <c r="M22" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>776</v>
-      </c>
-      <c r="B23" s="76"/>
-      <c r="C23" s="6" t="s">
-        <v>777</v>
+        <v>770</v>
+      </c>
+      <c r="B23" s="88" t="s">
+        <v>771</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>772</v>
       </c>
       <c r="D23" s="5" t="s">
         <v>773</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>778</v>
+        <v>774</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>779</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>780</v>
-      </c>
+        <v>775</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I23" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I23" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K23" s="42" t="s">
+      <c r="K23" s="10"/>
+      <c r="L23" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L23" s="46">
+      <c r="M23" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="6" t="s">
-        <v>781</v>
+        <v>777</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>773</v>
@@ -16204,34 +16394,37 @@
         <v>778</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="H24" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I24" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I24" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J24" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="5" t="s">
+      <c r="K24" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K24" s="42" t="s">
+      <c r="L24" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L24" s="46">
+      <c r="M24" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>784</v>
-      </c>
-      <c r="B25" s="76"/>
+        <v>776</v>
+      </c>
+      <c r="B25" s="88"/>
       <c r="C25" s="6" t="s">
-        <v>785</v>
+        <v>781</v>
       </c>
       <c r="D25" s="5" t="s">
         <v>773</v>
@@ -16240,34 +16433,37 @@
         <v>778</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>786</v>
+        <v>782</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>787</v>
+        <v>783</v>
       </c>
       <c r="H25" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I25" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I25" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J25" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J25" s="5" t="s">
+      <c r="K25" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K25" s="42" t="s">
+      <c r="L25" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L25" s="46">
+      <c r="M25" s="46">
         <v>44078</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>788</v>
-      </c>
-      <c r="B26" s="76"/>
+        <v>784</v>
+      </c>
+      <c r="B26" s="88"/>
       <c r="C26" s="6" t="s">
-        <v>789</v>
+        <v>785</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>773</v>
@@ -16276,106 +16472,115 @@
         <v>778</v>
       </c>
       <c r="F26" s="5" t="s">
+        <v>786</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>787</v>
+      </c>
+      <c r="H26" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I26" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J26" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L26" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M26" s="46">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
+        <v>788</v>
+      </c>
+      <c r="B27" s="88"/>
+      <c r="C27" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>773</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>778</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>790</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G27" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H27" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I27" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J27" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>1309</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="L27" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M27" s="46">
+        <v>44078</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>792</v>
+      </c>
+      <c r="B28" s="88" t="s">
+        <v>793</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>795</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>796</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>797</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I28" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J28" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J26" s="5" t="s">
-        <v>1310</v>
-      </c>
-      <c r="K26" s="42" t="s">
+      <c r="K28" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L28" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L26" s="46">
-        <v>44078</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>792</v>
-      </c>
-      <c r="B27" s="76" t="s">
-        <v>793</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>795</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>796</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>797</v>
-      </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I27" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K27" s="42" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L27" s="46">
+      <c r="M28" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="6" t="s">
+      <c r="B29" s="88"/>
+      <c r="C29" s="6" t="s">
         <v>799</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>800</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>801</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>802</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>803</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I28" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K28" s="42" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L28" s="46">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
-        <v>804</v>
-      </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="6" t="s">
-        <v>805</v>
       </c>
       <c r="D29" s="5" t="s">
         <v>800</v>
@@ -16384,386 +16589,417 @@
         <v>801</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>806</v>
+        <v>802</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>807</v>
+        <v>803</v>
       </c>
       <c r="H29" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I29" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I29" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="K29" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K29" s="42" t="s">
+      <c r="L29" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L29" s="46">
+      <c r="M29" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>808</v>
-      </c>
-      <c r="B30" s="76"/>
+        <v>804</v>
+      </c>
+      <c r="B30" s="88"/>
       <c r="C30" s="6" t="s">
-        <v>809</v>
+        <v>805</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>800</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>810</v>
+        <v>801</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I30" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I30" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J30" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="5" t="s">
+      <c r="K30" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K30" s="42" t="s">
+      <c r="L30" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L30" s="46">
+      <c r="M30" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>813</v>
-      </c>
-      <c r="B31" s="76"/>
+        <v>808</v>
+      </c>
+      <c r="B31" s="88"/>
       <c r="C31" s="6" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>800</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>801</v>
+        <v>810</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>815</v>
+        <v>811</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>816</v>
+        <v>812</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I31" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I31" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J31" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="5" t="s">
+      <c r="K31" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K31" s="42" t="s">
+      <c r="L31" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L31" s="46">
+      <c r="M31" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="B32" s="76"/>
+      <c r="B32" s="88"/>
       <c r="C32" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>800</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>801</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>815</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>816</v>
+      </c>
+      <c r="H32" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I32" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J32" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L32" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M32" s="46">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B33" s="88"/>
+      <c r="C33" s="6" t="s">
         <v>817</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D33" s="5" t="s">
         <v>818</v>
       </c>
-      <c r="E32" s="5" t="s">
+      <c r="E33" s="5" t="s">
         <v>819</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>820</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="G33" s="5" t="s">
         <v>821</v>
       </c>
-      <c r="H32" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I32" s="42" t="s">
+      <c r="H33" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I33" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J33" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="5" t="s">
+      <c r="K33" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="L33" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L32" s="46">
+      <c r="M33" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="7" t="s">
+    <row r="34" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="6" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="6" t="s">
         <v>823</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>824</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>825</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>826</v>
-      </c>
-      <c r="G33" s="5"/>
-      <c r="H33" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I33" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K33" s="42" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L33" s="46">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
-        <v>827</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="6" t="s">
-        <v>741</v>
       </c>
       <c r="D34" s="5" t="s">
         <v>824</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I34" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I34" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J34" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J34" s="5" t="s">
+      <c r="K34" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K34" s="42" t="s">
+      <c r="L34" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L34" s="46">
+      <c r="M34" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
-        <v>830</v>
-      </c>
-      <c r="B35" s="76"/>
+        <v>827</v>
+      </c>
+      <c r="B35" s="88"/>
       <c r="C35" s="6" t="s">
-        <v>831</v>
+        <v>741</v>
       </c>
       <c r="D35" s="5" t="s">
         <v>824</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I35" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I35" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J35" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="K35" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K35" s="42" t="s">
+      <c r="L35" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L35" s="46">
+      <c r="M35" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>834</v>
-      </c>
-      <c r="B36" s="76"/>
+        <v>830</v>
+      </c>
+      <c r="B36" s="88"/>
       <c r="C36" s="6" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>824</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I36" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I36" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J36" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="K36" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K36" s="42" t="s">
+      <c r="L36" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L36" s="46">
+      <c r="M36" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
-        <v>838</v>
-      </c>
-      <c r="B37" s="76"/>
+        <v>834</v>
+      </c>
+      <c r="B37" s="88"/>
       <c r="C37" s="6" t="s">
-        <v>839</v>
+        <v>835</v>
       </c>
       <c r="D37" s="5" t="s">
         <v>824</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>840</v>
+        <v>836</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>841</v>
+        <v>837</v>
       </c>
       <c r="G37" s="5"/>
       <c r="H37" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I37" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I37" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J37" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J37" s="5" t="s">
+      <c r="K37" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K37" s="42" t="s">
+      <c r="L37" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L37" s="46">
+      <c r="M37" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
-        <v>842</v>
-      </c>
-      <c r="B38" s="76"/>
+        <v>838</v>
+      </c>
+      <c r="B38" s="88"/>
       <c r="C38" s="6" t="s">
-        <v>843</v>
+        <v>839</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>844</v>
+        <v>824</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="G38" s="5"/>
       <c r="H38" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I38" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I38" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J38" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J38" s="5" t="s">
+      <c r="K38" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K38" s="42" t="s">
+      <c r="L38" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L38" s="46">
+      <c r="M38" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="B39" s="88"/>
+      <c r="C39" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>845</v>
+      </c>
+      <c r="F39" s="5" t="s">
+        <v>846</v>
+      </c>
+      <c r="G39" s="5"/>
+      <c r="H39" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I39" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J39" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K39" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L39" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M39" s="46">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="7" t="s">
         <v>847</v>
-      </c>
-      <c r="B39" s="42" t="s">
-        <v>848</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>850</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>851</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>852</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>853</v>
-      </c>
-      <c r="H39" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I39" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="5" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K39" s="42" t="s">
-        <v>1279</v>
-      </c>
-      <c r="L39" s="46">
-        <v>44079</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="7" t="s">
-        <v>1311</v>
       </c>
       <c r="B40" s="42" t="s">
         <v>848</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D40" s="5" t="s">
         <v>850</v>
@@ -16772,30 +17008,33 @@
         <v>851</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="H40" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I40" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I40" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J40" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J40" s="5" t="s">
+      <c r="K40" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K40" s="42" t="s">
+      <c r="L40" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L40" s="46">
+      <c r="M40" s="46">
         <v>44079</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="340.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B41" s="42" t="s">
         <v>848</v>
@@ -16810,33 +17049,78 @@
         <v>851</v>
       </c>
       <c r="F41" s="5" t="s">
+        <v>855</v>
+      </c>
+      <c r="G41" s="5" t="s">
+        <v>856</v>
+      </c>
+      <c r="H41" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I41" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J41" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="K41" s="5" t="s">
+        <v>1300</v>
+      </c>
+      <c r="L41" s="42" t="s">
+        <v>1279</v>
+      </c>
+      <c r="M41" s="46">
+        <v>44079</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="340.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>848</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>850</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>851</v>
+      </c>
+      <c r="F42" s="5" t="s">
         <v>857</v>
       </c>
-      <c r="G41" s="5" t="s">
-        <v>1313</v>
-      </c>
-      <c r="H41" s="42" t="s">
-        <v>1309</v>
-      </c>
-      <c r="I41" s="42" t="s">
+      <c r="G42" s="5" t="s">
+        <v>1312</v>
+      </c>
+      <c r="H42" s="42" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I42" s="54" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J42" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J41" s="5" t="s">
+      <c r="K42" s="5" t="s">
         <v>1300</v>
       </c>
-      <c r="K41" s="42" t="s">
+      <c r="L42" s="42" t="s">
         <v>1279</v>
       </c>
-      <c r="L41" s="46">
+      <c r="M42" s="46">
         <v>44079</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B4:B21"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="B27:B38"/>
+  <mergeCells count="5">
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -16847,8 +17131,8 @@
   <dimension ref="A1:M43"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C40" sqref="C40"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16866,10 +17150,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -16914,9 +17198,9 @@
     </row>
     <row r="3" spans="1:13" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>1314</v>
-      </c>
-      <c r="B3" s="75" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B3" s="87" t="s">
         <v>858</v>
       </c>
       <c r="C3" s="42" t="s">
@@ -16932,7 +17216,7 @@
         <v>862</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>71</v>
@@ -16948,7 +17232,7 @@
       <c r="A4" s="7" t="s">
         <v>863</v>
       </c>
-      <c r="B4" s="76"/>
+      <c r="B4" s="88"/>
       <c r="C4" s="6" t="s">
         <v>864</v>
       </c>
@@ -16962,7 +17246,7 @@
         <v>866</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>71</v>
@@ -16974,22 +17258,22 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="79" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="77" t="s">
+    <row r="5" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="89" t="s">
         <v>867</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="90"/>
+      <c r="L5" s="90"/>
+      <c r="M5" s="90"/>
     </row>
     <row r="6" spans="1:13" ht="193.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -17008,10 +17292,10 @@
         <v>872</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I6" s="42" t="s">
         <v>71</v>
@@ -17027,7 +17311,7 @@
       <c r="A7" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B7" s="76" t="s">
+      <c r="B7" s="88" t="s">
         <v>874</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -17046,7 +17330,7 @@
         <v>879</v>
       </c>
       <c r="H7" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>71</v>
@@ -17062,7 +17346,7 @@
       <c r="A8" s="7" t="s">
         <v>880</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="3" t="s">
         <v>881</v>
       </c>
@@ -17079,7 +17363,7 @@
         <v>883</v>
       </c>
       <c r="H8" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>71</v>
@@ -17095,7 +17379,7 @@
       <c r="A9" s="7" t="s">
         <v>884</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="3" t="s">
         <v>885</v>
       </c>
@@ -17112,7 +17396,7 @@
         <v>888</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I9" s="42" t="s">
         <v>71</v>
@@ -17128,7 +17412,7 @@
       <c r="A10" s="7" t="s">
         <v>889</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="88" t="s">
         <v>890</v>
       </c>
       <c r="C10" s="3" t="s">
@@ -17145,7 +17429,7 @@
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I10" s="42" t="s">
         <v>71</v>
@@ -17161,7 +17445,7 @@
       <c r="A11" s="7" t="s">
         <v>895</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="3" t="s">
         <v>896</v>
       </c>
@@ -17176,7 +17460,7 @@
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I11" s="42" t="s">
         <v>71</v>
@@ -17192,7 +17476,7 @@
       <c r="A12" s="7" t="s">
         <v>900</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="3" t="s">
         <v>901</v>
       </c>
@@ -17207,7 +17491,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>71</v>
@@ -17223,7 +17507,7 @@
       <c r="A13" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="B13" s="80" t="s">
+      <c r="B13" s="92" t="s">
         <v>905</v>
       </c>
       <c r="C13" s="3" t="s">
@@ -17242,7 +17526,7 @@
         <v>909</v>
       </c>
       <c r="H13" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I13" s="42" t="s">
         <v>71</v>
@@ -17258,7 +17542,7 @@
       <c r="A14" s="7" t="s">
         <v>910</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="3" t="s">
         <v>911</v>
       </c>
@@ -17275,7 +17559,7 @@
         <v>913</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>71</v>
@@ -17310,7 +17594,7 @@
         <v>913</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>71</v>
@@ -17322,22 +17606,22 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="79" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77" t="s">
+    <row r="16" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="89" t="s">
         <v>919</v>
       </c>
-      <c r="B16" s="78"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="78"/>
-      <c r="H16" s="78"/>
-      <c r="I16" s="78"/>
-      <c r="J16" s="78"/>
-      <c r="K16" s="78"/>
-      <c r="L16" s="78"/>
-      <c r="M16" s="78"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="90"/>
+      <c r="L16" s="90"/>
+      <c r="M16" s="90"/>
     </row>
     <row r="17" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -17360,7 +17644,7 @@
       </c>
       <c r="G17" s="5"/>
       <c r="H17" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>71</v>
@@ -17395,7 +17679,7 @@
         <v>930</v>
       </c>
       <c r="H18" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>71</v>
@@ -17430,7 +17714,7 @@
         <v>934</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>71</v>
@@ -17446,7 +17730,7 @@
       <c r="A20" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="B20" s="80" t="s">
+      <c r="B20" s="92" t="s">
         <v>921</v>
       </c>
       <c r="C20" s="3" t="s">
@@ -17465,7 +17749,7 @@
         <v>938</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>71</v>
@@ -17481,7 +17765,7 @@
       <c r="A21" s="7" t="s">
         <v>939</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="3" t="s">
         <v>940</v>
       </c>
@@ -17498,7 +17782,7 @@
         <v>942</v>
       </c>
       <c r="H21" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I21" s="42" t="s">
         <v>71</v>
@@ -17514,7 +17798,7 @@
       <c r="A22" s="7" t="s">
         <v>943</v>
       </c>
-      <c r="B22" s="80"/>
+      <c r="B22" s="92"/>
       <c r="C22" s="3" t="s">
         <v>944</v>
       </c>
@@ -17531,7 +17815,7 @@
         <v>946</v>
       </c>
       <c r="H22" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I22" s="42" t="s">
         <v>71</v>
@@ -17547,7 +17831,7 @@
       <c r="A23" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B23" s="80"/>
+      <c r="B23" s="92"/>
       <c r="C23" s="3" t="s">
         <v>944</v>
       </c>
@@ -17564,7 +17848,7 @@
         <v>949</v>
       </c>
       <c r="H23" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I23" s="42" t="s">
         <v>71</v>
@@ -17597,7 +17881,7 @@
       </c>
       <c r="G24" s="5"/>
       <c r="H24" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I24" s="42" t="s">
         <v>71</v>
@@ -17609,28 +17893,28 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="79" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77" t="s">
+    <row r="25" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89" t="s">
         <v>955</v>
       </c>
-      <c r="B25" s="78"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="78"/>
-      <c r="E25" s="78"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="78"/>
-      <c r="H25" s="78"/>
-      <c r="I25" s="78"/>
-      <c r="J25" s="78"/>
-      <c r="K25" s="78"/>
-      <c r="L25" s="78"/>
-      <c r="M25" s="78"/>
+      <c r="B25" s="90"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="90"/>
+      <c r="E25" s="90"/>
+      <c r="F25" s="90"/>
+      <c r="G25" s="90"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="90"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="90"/>
+      <c r="L25" s="90"/>
+      <c r="M25" s="90"/>
     </row>
     <row r="26" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="92" t="s">
         <v>957</v>
       </c>
       <c r="C26" s="3" t="s">
@@ -17647,7 +17931,7 @@
       </c>
       <c r="G26" s="5"/>
       <c r="H26" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I26" s="42" t="s">
         <v>71</v>
@@ -17663,7 +17947,7 @@
       <c r="A27" s="7" t="s">
         <v>960</v>
       </c>
-      <c r="B27" s="80"/>
+      <c r="B27" s="92"/>
       <c r="C27" s="3" t="s">
         <v>961</v>
       </c>
@@ -17678,7 +17962,7 @@
       </c>
       <c r="G27" s="5"/>
       <c r="H27" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I27" s="42" t="s">
         <v>71</v>
@@ -17694,7 +17978,7 @@
       <c r="A28" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="B28" s="80"/>
+      <c r="B28" s="92"/>
       <c r="C28" s="3" t="s">
         <v>965</v>
       </c>
@@ -17709,7 +17993,7 @@
       </c>
       <c r="G28" s="5"/>
       <c r="H28" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I28" s="42" t="s">
         <v>71</v>
@@ -17725,7 +18009,7 @@
       <c r="A29" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="B29" s="80"/>
+      <c r="B29" s="92"/>
       <c r="C29" s="3" t="s">
         <v>970</v>
       </c>
@@ -17740,7 +18024,7 @@
       </c>
       <c r="G29" s="5"/>
       <c r="H29" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I29" s="42" t="s">
         <v>71</v>
@@ -17756,7 +18040,7 @@
       <c r="A30" s="7" t="s">
         <v>974</v>
       </c>
-      <c r="B30" s="80"/>
+      <c r="B30" s="92"/>
       <c r="C30" s="3" t="s">
         <v>975</v>
       </c>
@@ -17773,7 +18057,7 @@
         <v>978</v>
       </c>
       <c r="H30" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I30" s="42" t="s">
         <v>71</v>
@@ -17789,7 +18073,7 @@
       <c r="A31" s="7" t="s">
         <v>979</v>
       </c>
-      <c r="B31" s="80"/>
+      <c r="B31" s="92"/>
       <c r="C31" s="3" t="s">
         <v>980</v>
       </c>
@@ -17806,7 +18090,7 @@
         <v>978</v>
       </c>
       <c r="H31" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I31" s="42" t="s">
         <v>71</v>
@@ -17822,7 +18106,7 @@
       <c r="A32" s="7" t="s">
         <v>983</v>
       </c>
-      <c r="B32" s="80"/>
+      <c r="B32" s="92"/>
       <c r="C32" s="3" t="s">
         <v>984</v>
       </c>
@@ -17837,7 +18121,7 @@
       </c>
       <c r="G32" s="5"/>
       <c r="H32" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I32" s="42" t="s">
         <v>71</v>
@@ -17849,22 +18133,22 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="79" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77" t="s">
+    <row r="33" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="89" t="s">
         <v>987</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="78"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="78"/>
-      <c r="J33" s="78"/>
-      <c r="K33" s="78"/>
-      <c r="L33" s="78"/>
-      <c r="M33" s="78"/>
+      <c r="B33" s="90"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="90"/>
+      <c r="E33" s="90"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
+      <c r="I33" s="90"/>
+      <c r="J33" s="90"/>
+      <c r="K33" s="90"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="90"/>
     </row>
     <row r="34" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -17887,7 +18171,7 @@
       </c>
       <c r="G34" s="5"/>
       <c r="H34" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I34" s="42" t="s">
         <v>71</v>
@@ -17920,7 +18204,7 @@
       </c>
       <c r="G35" s="5"/>
       <c r="H35" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I35" s="42" t="s">
         <v>71</v>
@@ -17955,7 +18239,7 @@
         <v>1003</v>
       </c>
       <c r="H36" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I36" s="42" t="s">
         <v>71</v>
@@ -17990,7 +18274,7 @@
         <v>1009</v>
       </c>
       <c r="H37" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I37" s="42" t="s">
         <v>71</v>
@@ -18031,7 +18315,7 @@
         <v>71</v>
       </c>
       <c r="J38" s="5" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="K38" s="42" t="s">
         <v>1302</v>
@@ -18042,22 +18326,22 @@
         <v>1014</v>
       </c>
       <c r="B39" s="49" t="s">
+        <v>1325</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1328</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>1326</v>
       </c>
-      <c r="C39" s="3" t="s">
+      <c r="E39" s="5" t="s">
+        <v>1327</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>1329</v>
       </c>
-      <c r="D39" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1328</v>
-      </c>
-      <c r="F39" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>1330</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>1331</v>
       </c>
       <c r="H39" s="47" t="s">
         <v>1307</v>
@@ -18066,7 +18350,7 @@
         <v>71</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="K39" s="42" t="s">
         <v>1302</v>
@@ -18093,7 +18377,7 @@
       </c>
       <c r="G40" s="5"/>
       <c r="H40" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I40" s="42"/>
       <c r="J40" s="12" t="s">
@@ -18126,7 +18410,7 @@
         <v>1024</v>
       </c>
       <c r="H41" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I41" s="42" t="s">
         <v>71</v>
@@ -18161,7 +18445,7 @@
         <v>1028</v>
       </c>
       <c r="H42" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I42" s="42" t="s">
         <v>71</v>
@@ -18175,22 +18459,22 @@
     </row>
     <row r="43" spans="1:13" ht="188.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>1319</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>1320</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>1321</v>
-      </c>
       <c r="E43" s="5" t="s">
+        <v>1322</v>
+      </c>
+      <c r="F43" s="5" t="s">
         <v>1323</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>1324</v>
       </c>
       <c r="G43" s="5"/>
       <c r="H43" s="42" t="s">
@@ -18208,17 +18492,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A5:XFD5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B12"/>
     <mergeCell ref="A33:XFD33"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="A16:XFD16"/>
     <mergeCell ref="B20:B23"/>
     <mergeCell ref="A25:XFD25"/>
     <mergeCell ref="B26:B32"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18283,8 +18567,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5F79E-749A-4C3C-BD92-6C5CCC9618BA}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
@@ -18301,10 +18585,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="64"/>
+      <c r="I1" s="74"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -18370,13 +18654,13 @@
         <v>1035</v>
       </c>
       <c r="H3" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I3" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L3" s="48">
         <v>43991</v>
@@ -18405,13 +18689,13 @@
         <v>1040</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I4" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L4" s="48">
         <v>43991</v>
@@ -18421,7 +18705,7 @@
       <c r="A5" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="B5" s="76" t="s">
+      <c r="B5" s="88" t="s">
         <v>961</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -18438,13 +18722,13 @@
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I5" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K5" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L5" s="48">
         <v>43991</v>
@@ -18454,7 +18738,7 @@
       <c r="A6" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="B6" s="76"/>
+      <c r="B6" s="88"/>
       <c r="C6" s="6" t="s">
         <v>1047</v>
       </c>
@@ -18469,13 +18753,13 @@
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I6" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K6" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L6" s="48">
         <v>43991</v>
@@ -18485,7 +18769,7 @@
       <c r="A7" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B7" s="76"/>
+      <c r="B7" s="88"/>
       <c r="C7" s="6" t="s">
         <v>1051</v>
       </c>
@@ -18500,13 +18784,13 @@
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I7" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L7" s="48">
         <v>43991</v>
@@ -18516,7 +18800,7 @@
       <c r="A8" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="B8" s="76"/>
+      <c r="B8" s="88"/>
       <c r="C8" s="6" t="s">
         <v>1055</v>
       </c>
@@ -18531,13 +18815,13 @@
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I8" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K8" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L8" s="48">
         <v>43991</v>
@@ -18547,7 +18831,7 @@
       <c r="A9" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B9" s="76"/>
+      <c r="B9" s="88"/>
       <c r="C9" s="6" t="s">
         <v>1059</v>
       </c>
@@ -18562,13 +18846,13 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I9" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K9" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L9" s="48">
         <v>43991</v>
@@ -18578,7 +18862,7 @@
       <c r="A10" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B10" s="76" t="s">
+      <c r="B10" s="88" t="s">
         <v>1030</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -18597,13 +18881,13 @@
         <v>1065</v>
       </c>
       <c r="H10" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I10" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K10" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L10" s="48">
         <v>43991</v>
@@ -18613,7 +18897,7 @@
       <c r="A11" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B11" s="76"/>
+      <c r="B11" s="88"/>
       <c r="C11" s="42" t="s">
         <v>1067</v>
       </c>
@@ -18634,10 +18918,10 @@
         <v>71</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="K11" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L11" s="48">
         <v>43991</v>
@@ -18647,7 +18931,7 @@
       <c r="A12" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B12" s="76"/>
+      <c r="B12" s="88"/>
       <c r="C12" s="42" t="s">
         <v>1071</v>
       </c>
@@ -18662,13 +18946,13 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I12" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K12" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L12" s="48">
         <v>43991</v>
@@ -18678,7 +18962,7 @@
       <c r="A13" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="B13" s="76"/>
+      <c r="B13" s="88"/>
       <c r="C13" s="42" t="s">
         <v>1075</v>
       </c>
@@ -18693,13 +18977,13 @@
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I13" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K13" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L13" s="48">
         <v>43991</v>
@@ -18709,7 +18993,7 @@
       <c r="A14" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="B14" s="76"/>
+      <c r="B14" s="88"/>
       <c r="C14" s="42" t="s">
         <v>1080</v>
       </c>
@@ -18726,13 +19010,13 @@
         <v>1084</v>
       </c>
       <c r="H14" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I14" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K14" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L14" s="48">
         <v>43991</v>
@@ -18742,7 +19026,7 @@
       <c r="A15" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="B15" s="76"/>
+      <c r="B15" s="88"/>
       <c r="C15" s="42" t="s">
         <v>1086</v>
       </c>
@@ -18759,13 +19043,13 @@
         <v>1088</v>
       </c>
       <c r="H15" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I15" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K15" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L15" s="48">
         <v>43991</v>
@@ -18794,13 +19078,13 @@
         <v>1093</v>
       </c>
       <c r="H16" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I16" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K16" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L16" s="48">
         <v>43991</v>
@@ -18829,13 +19113,13 @@
         <v>1093</v>
       </c>
       <c r="H17" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I17" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K17" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L17" s="48">
         <v>43991</v>
@@ -18845,7 +19129,7 @@
       <c r="A18" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="B18" s="76" t="s">
+      <c r="B18" s="88" t="s">
         <v>1098</v>
       </c>
       <c r="C18" s="42" t="s">
@@ -18858,17 +19142,17 @@
         <v>1101</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I18" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K18" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L18" s="48">
         <v>43991</v>
@@ -18878,7 +19162,7 @@
       <c r="A19" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="B19" s="76"/>
+      <c r="B19" s="88"/>
       <c r="C19" s="42" t="s">
         <v>1103</v>
       </c>
@@ -18895,13 +19179,13 @@
         <v>1106</v>
       </c>
       <c r="H19" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I19" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K19" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L19" s="48">
         <v>43991</v>
@@ -18911,7 +19195,7 @@
       <c r="A20" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B20" s="76"/>
+      <c r="B20" s="88"/>
       <c r="C20" s="42" t="s">
         <v>1108</v>
       </c>
@@ -18928,13 +19212,13 @@
         <v>1110</v>
       </c>
       <c r="H20" s="42" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="I20" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K20" s="12" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="L20" s="48">
         <v>43991</v>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA7F504E-6BB0-4D9A-A57E-58CE81C7479D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F15BEA5-8DA2-400F-922E-D3AA0C64378C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Repost" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2764" uniqueCount="1360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2728" uniqueCount="1360">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -7491,10 +7491,6 @@
 3.if page size = 5 -&gt; Number of records in the table &lt;=5.</t>
   </si>
   <si>
-    <t>1. Không báo lỗi để rỗng.
-2. Bỏ trống trường mô tả vẫn tạo thành công.</t>
-  </si>
-  <si>
     <t>SEN</t>
   </si>
   <si>
@@ -7564,9 +7560,6 @@
   </si>
   <si>
     <t>Các quyền đã tồn tại trong list roles.</t>
-  </si>
-  <si>
-    <t>Nếu không chọn quyền cha mà chỉ chọn con thì sẽ bị lỗi khi hiển thị giao diện của account.</t>
   </si>
   <si>
     <t>Fail</t>
@@ -7704,6 +7697,12 @@
   <si>
     <t xml:space="preserve"> - Không thông báo cập nhật thành công. 
  - Màn hình hiển thị 'Page not found'</t>
+  </si>
+  <si>
+    <t>round 1</t>
+  </si>
+  <si>
+    <t>round 2</t>
   </si>
 </sst>
 </file>
@@ -8079,7 +8078,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8250,6 +8249,27 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8361,21 +8381,6 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8406,14 +8411,14 @@
         <xdr:from>
           <xdr:col>6</xdr:col>
           <xdr:colOff>866775</xdr:colOff>
-          <xdr:row>2</xdr:row>
+          <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>6</xdr:col>
           <xdr:colOff>1781175</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>685800</xdr:rowOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>971550</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8424,61 +8429,6 @@
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
                   <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000002280000}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr bwMode="auto">
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a:ln>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>933450</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>619125</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1847850</xdr:colOff>
-          <xdr:row>40</xdr:row>
-          <xdr:rowOff>1524000</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="10243" name="Object 3" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s10243"/>
-                </a:ext>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0700-000003280000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8802,28 +8752,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="69" t="s">
         <v>1269</v>
       </c>
-      <c r="B2" s="62"/>
+      <c r="B2" s="69"/>
     </row>
     <row r="3" spans="1:6" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="63" t="s">
+      <c r="A3" s="70" t="s">
         <v>1270</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="65" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="72" t="s">
         <v>1276</v>
       </c>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="70" t="s">
         <v>1271</v>
       </c>
-      <c r="B4" s="64"/>
+      <c r="B4" s="71"/>
       <c r="C4" s="43" t="s">
         <v>1273</v>
       </c>
@@ -8884,10 +8834,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="74"/>
+      <c r="I1" s="81"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -9015,7 +8965,7 @@
       <c r="A6" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="95" t="s">
         <v>1124</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -9042,7 +8992,7 @@
       <c r="A7" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="6" t="s">
         <v>1128</v>
       </c>
@@ -9067,7 +9017,7 @@
       <c r="A8" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="B8" s="88" t="s">
+      <c r="B8" s="95" t="s">
         <v>1131</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -9094,7 +9044,7 @@
       <c r="A9" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="6" t="s">
         <v>1135</v>
       </c>
@@ -9119,7 +9069,7 @@
       <c r="A10" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="95" t="s">
         <v>1137</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -9146,7 +9096,7 @@
       <c r="A11" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="6" t="s">
         <v>1142</v>
       </c>
@@ -9171,7 +9121,7 @@
       <c r="A12" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B12" s="88" t="s">
+      <c r="B12" s="95" t="s">
         <v>1144</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9198,7 +9148,7 @@
       <c r="A13" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="6" t="s">
         <v>1149</v>
       </c>
@@ -9223,7 +9173,7 @@
       <c r="A14" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B14" s="88" t="s">
+      <c r="B14" s="95" t="s">
         <v>1151</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -9250,7 +9200,7 @@
       <c r="A15" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="6" t="s">
         <v>1156</v>
       </c>
@@ -9275,7 +9225,7 @@
       <c r="A16" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="B16" s="88" t="s">
+      <c r="B16" s="95" t="s">
         <v>1158</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -9302,7 +9252,7 @@
       <c r="A17" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="B17" s="88"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="6" t="s">
         <v>1162</v>
       </c>
@@ -9327,7 +9277,7 @@
       <c r="A18" s="7" t="s">
         <v>1089</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="95" t="s">
         <v>1165</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -9354,7 +9304,7 @@
       <c r="A19" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="6" t="s">
         <v>1169</v>
       </c>
@@ -9404,28 +9354,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="89" t="s">
+    <row r="21" spans="1:13" s="98" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="96" t="s">
         <v>867</v>
       </c>
-      <c r="B21" s="90"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="90"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="90"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="90"/>
-      <c r="J21" s="90"/>
-      <c r="K21" s="90"/>
-      <c r="L21" s="90"/>
-      <c r="M21" s="90"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="97"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="97"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="97"/>
     </row>
     <row r="22" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="B22" s="88" t="s">
+      <c r="B22" s="95" t="s">
         <v>1178</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -9452,7 +9402,7 @@
       <c r="A23" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B23" s="88"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="6" t="s">
         <v>1182</v>
       </c>
@@ -9477,7 +9427,7 @@
       <c r="A24" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="B24" s="88" t="s">
+      <c r="B24" s="95" t="s">
         <v>1187</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9504,7 +9454,7 @@
       <c r="A25" s="7" t="s">
         <v>1191</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="6" t="s">
         <v>1192</v>
       </c>
@@ -9529,7 +9479,7 @@
       <c r="A26" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="6" t="s">
         <v>1196</v>
       </c>
@@ -9554,7 +9504,7 @@
       <c r="A27" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="B27" s="88"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="6" t="s">
         <v>1199</v>
       </c>
@@ -9579,7 +9529,7 @@
       <c r="A28" s="7" t="s">
         <v>1202</v>
       </c>
-      <c r="B28" s="88"/>
+      <c r="B28" s="95"/>
       <c r="C28" s="6" t="s">
         <v>1203</v>
       </c>
@@ -9604,7 +9554,7 @@
       <c r="A29" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="6" t="s">
         <v>1207</v>
       </c>
@@ -9628,7 +9578,7 @@
       <c r="A30" s="7" t="s">
         <v>1209</v>
       </c>
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="95" t="s">
         <v>1210</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -9655,7 +9605,7 @@
       <c r="A31" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="6" t="s">
         <v>1214</v>
       </c>
@@ -9680,7 +9630,7 @@
       <c r="A32" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="6" t="s">
         <v>1217</v>
       </c>
@@ -9705,7 +9655,7 @@
       <c r="A33" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="6" t="s">
         <v>1220</v>
       </c>
@@ -9730,7 +9680,7 @@
       <c r="A34" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="6" t="s">
         <v>1223</v>
       </c>
@@ -9755,7 +9705,7 @@
       <c r="A35" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="6" t="s">
         <v>1226</v>
       </c>
@@ -9779,7 +9729,7 @@
       <c r="A36" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="B36" s="88" t="s">
+      <c r="B36" s="95" t="s">
         <v>1229</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9806,7 +9756,7 @@
       <c r="A37" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="6" t="s">
         <v>1232</v>
       </c>
@@ -9831,7 +9781,7 @@
       <c r="A38" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="6" t="s">
         <v>1235</v>
       </c>
@@ -9856,7 +9806,7 @@
       <c r="A39" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="6" t="s">
         <v>1238</v>
       </c>
@@ -9881,7 +9831,7 @@
       <c r="A40" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="B40" s="88"/>
+      <c r="B40" s="95"/>
       <c r="C40" s="6" t="s">
         <v>1241</v>
       </c>
@@ -9906,7 +9856,7 @@
       <c r="A41" s="7" t="s">
         <v>1243</v>
       </c>
-      <c r="B41" s="88"/>
+      <c r="B41" s="95"/>
       <c r="C41" s="6" t="s">
         <v>1244</v>
       </c>
@@ -10044,7 +9994,7 @@
         <v>1262</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="D46" s="5" t="s">
         <v>1183</v>
@@ -10155,7 +10105,7 @@
       <c r="A2" s="32" t="s">
         <v>499</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="100" t="s">
         <v>500</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -10178,7 +10128,7 @@
       <c r="A3" s="32" t="s">
         <v>505</v>
       </c>
-      <c r="B3" s="94"/>
+      <c r="B3" s="101"/>
       <c r="C3" s="12" t="s">
         <v>260</v>
       </c>
@@ -10202,7 +10152,7 @@
       <c r="A4" s="32" t="s">
         <v>508</v>
       </c>
-      <c r="B4" s="94"/>
+      <c r="B4" s="101"/>
       <c r="C4" s="5" t="s">
         <v>511</v>
       </c>
@@ -10229,7 +10179,7 @@
       <c r="A5" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="B5" s="94"/>
+      <c r="B5" s="101"/>
       <c r="C5" s="12" t="s">
         <v>269</v>
       </c>
@@ -10256,7 +10206,7 @@
       <c r="A6" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B6" s="94"/>
+      <c r="B6" s="101"/>
       <c r="C6" s="31" t="s">
         <v>514</v>
       </c>
@@ -10277,7 +10227,7 @@
       <c r="A7" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B7" s="94"/>
+      <c r="B7" s="101"/>
       <c r="C7" s="31" t="s">
         <v>520</v>
       </c>
@@ -10291,14 +10241,14 @@
         <v>523</v>
       </c>
       <c r="H7" s="50" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B8" s="94"/>
+      <c r="B8" s="101"/>
       <c r="C8" s="31" t="s">
         <v>524</v>
       </c>
@@ -10319,7 +10269,7 @@
       <c r="A9" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="B9" s="94"/>
+      <c r="B9" s="101"/>
       <c r="C9" s="31" t="s">
         <v>526</v>
       </c>
@@ -10340,7 +10290,7 @@
       <c r="A10" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B10" s="94"/>
+      <c r="B10" s="101"/>
       <c r="C10" s="31" t="s">
         <v>530</v>
       </c>
@@ -10361,7 +10311,7 @@
       <c r="A11" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B11" s="94"/>
+      <c r="B11" s="101"/>
       <c r="C11" s="31" t="s">
         <v>534</v>
       </c>
@@ -10382,7 +10332,7 @@
       <c r="A12" s="32" t="s">
         <v>550</v>
       </c>
-      <c r="B12" s="94"/>
+      <c r="B12" s="101"/>
       <c r="C12" s="31" t="s">
         <v>537</v>
       </c>
@@ -10403,7 +10353,7 @@
       <c r="A13" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="B13" s="94"/>
+      <c r="B13" s="101"/>
       <c r="C13" s="31" t="s">
         <v>540</v>
       </c>
@@ -10464,7 +10414,7 @@
       <c r="A16" s="32" t="s">
         <v>553</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="101" t="s">
         <v>571</v>
       </c>
       <c r="C16" s="31" t="s">
@@ -10487,7 +10437,7 @@
       <c r="A17" s="32" t="s">
         <v>560</v>
       </c>
-      <c r="B17" s="94"/>
+      <c r="B17" s="101"/>
       <c r="C17" s="31" t="s">
         <v>558</v>
       </c>
@@ -10508,7 +10458,7 @@
       <c r="A18" s="32" t="s">
         <v>566</v>
       </c>
-      <c r="B18" s="94"/>
+      <c r="B18" s="101"/>
       <c r="C18" s="31" t="s">
         <v>562</v>
       </c>
@@ -10529,7 +10479,7 @@
       <c r="A19" s="32" t="s">
         <v>567</v>
       </c>
-      <c r="B19" s="94"/>
+      <c r="B19" s="101"/>
       <c r="C19" s="31" t="s">
         <v>568</v>
       </c>
@@ -10626,7 +10576,7 @@
       <c r="A2" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B2" s="95" t="s">
+      <c r="B2" s="102" t="s">
         <v>453</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -10649,7 +10599,7 @@
       <c r="A3" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B3" s="96"/>
+      <c r="B3" s="103"/>
       <c r="C3" s="12" t="s">
         <v>456</v>
       </c>
@@ -10670,7 +10620,7 @@
       <c r="A4" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B4" s="96"/>
+      <c r="B4" s="103"/>
       <c r="C4" s="12" t="s">
         <v>460</v>
       </c>
@@ -10691,7 +10641,7 @@
       <c r="A5" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B5" s="96"/>
+      <c r="B5" s="103"/>
       <c r="C5" s="31" t="s">
         <v>471</v>
       </c>
@@ -10712,7 +10662,7 @@
       <c r="A6" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B6" s="96"/>
+      <c r="B6" s="103"/>
       <c r="C6" s="31" t="s">
         <v>472</v>
       </c>
@@ -10733,7 +10683,7 @@
       <c r="A7" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B7" s="96"/>
+      <c r="B7" s="103"/>
       <c r="C7" s="31" t="s">
         <v>469</v>
       </c>
@@ -10754,7 +10704,7 @@
       <c r="A8" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B8" s="96"/>
+      <c r="B8" s="103"/>
       <c r="C8" s="31" t="s">
         <v>467</v>
       </c>
@@ -10775,7 +10725,7 @@
       <c r="A9" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B9" s="96"/>
+      <c r="B9" s="103"/>
       <c r="C9" s="31" t="s">
         <v>468</v>
       </c>
@@ -10810,7 +10760,7 @@
         <v>495</v>
       </c>
       <c r="H10" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="105" x14ac:dyDescent="0.25">
@@ -10831,7 +10781,7 @@
         <v>498</v>
       </c>
       <c r="H11" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -11341,7 +11291,7 @@
         <v>662</v>
       </c>
       <c r="H22" s="50" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -11408,7 +11358,7 @@
       <c r="A26" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="104" t="s">
         <v>676</v>
       </c>
       <c r="C26" s="44" t="s">
@@ -11424,14 +11374,14 @@
         <v>680</v>
       </c>
       <c r="H26" s="50" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="90" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B27" s="98"/>
+      <c r="B27" s="105"/>
       <c r="C27" s="44" t="s">
         <v>681</v>
       </c>
@@ -11449,7 +11399,7 @@
       <c r="A28" s="22" t="s">
         <v>673</v>
       </c>
-      <c r="B28" s="98"/>
+      <c r="B28" s="105"/>
       <c r="C28" s="10" t="s">
         <v>684</v>
       </c>
@@ -11463,14 +11413,14 @@
         <v>686</v>
       </c>
       <c r="H28" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="227.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="22" t="s">
         <v>674</v>
       </c>
-      <c r="B29" s="98"/>
+      <c r="B29" s="105"/>
       <c r="C29" s="10" t="s">
         <v>687</v>
       </c>
@@ -11484,14 +11434,14 @@
         <v>689</v>
       </c>
       <c r="H29" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="255" x14ac:dyDescent="0.25">
       <c r="A30" s="22" t="s">
         <v>675</v>
       </c>
-      <c r="B30" s="98"/>
+      <c r="B30" s="105"/>
       <c r="C30" s="44" t="s">
         <v>690</v>
       </c>
@@ -11505,7 +11455,7 @@
         <v>692</v>
       </c>
       <c r="H30" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
   </sheetData>
@@ -11543,11 +11493,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
@@ -11571,10 +11521,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11600,10 +11550,10 @@
       <c r="F4" s="57"/>
       <c r="G4" s="57"/>
       <c r="H4" s="57" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I4" s="57" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="57"/>
       <c r="K4" s="57"/>
@@ -11612,22 +11562,22 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="67" t="s">
+      <c r="A5" s="74" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="67"/>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
+      <c r="I5" s="74"/>
+      <c r="J5" s="74"/>
+      <c r="K5" s="74"/>
+      <c r="L5" s="74"/>
+      <c r="M5" s="74"/>
+      <c r="N5" s="74"/>
     </row>
     <row r="6" spans="1:14" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -11712,7 +11662,7 @@
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="78" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -11753,7 +11703,7 @@
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="71"/>
+      <c r="B9" s="78"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -11792,7 +11742,7 @@
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="71"/>
+      <c r="B10" s="78"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -11831,7 +11781,7 @@
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="71"/>
+      <c r="B11" s="78"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -11942,7 +11892,7 @@
         <v>1279</v>
       </c>
       <c r="M13" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11983,7 +11933,7 @@
         <v>1279</v>
       </c>
       <c r="M14" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -12024,14 +11974,14 @@
         <v>1279</v>
       </c>
       <c r="M15" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="70" t="s">
+      <c r="B16" s="77" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -12044,14 +11994,14 @@
         <v>1292</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="G16" s="3"/>
       <c r="H16" s="42" t="s">
         <v>1277</v>
       </c>
       <c r="I16" s="47" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J16" s="42" t="s">
         <v>32</v>
@@ -12063,14 +12013,14 @@
         <v>1279</v>
       </c>
       <c r="M16" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="70"/>
+      <c r="B17" s="77"/>
       <c r="C17" s="6" t="s">
         <v>1294</v>
       </c>
@@ -12102,7 +12052,7 @@
         <v>1279</v>
       </c>
       <c r="M17" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
@@ -12358,11 +12308,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="69"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -12386,10 +12336,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12415,10 +12365,10 @@
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -12460,7 +12410,7 @@
         <v>1279</v>
       </c>
       <c r="M5" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
@@ -12498,7 +12448,7 @@
         <v>1279</v>
       </c>
       <c r="M6" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12509,7 +12459,7 @@
         <v>66</v>
       </c>
       <c r="C7" s="42" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="D7" s="10" t="s">
         <v>67</v>
@@ -12536,7 +12486,7 @@
         <v>1279</v>
       </c>
       <c r="M7" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -12574,7 +12524,7 @@
         <v>1279</v>
       </c>
       <c r="M8" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
@@ -12612,7 +12562,7 @@
         <v>1279</v>
       </c>
       <c r="M9" s="61" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
     </row>
   </sheetData>
@@ -12647,11 +12597,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -12675,10 +12625,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12704,10 +12654,10 @@
       <c r="F4" s="59"/>
       <c r="G4" s="59"/>
       <c r="H4" s="59" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I4" s="59" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="J4" s="59"/>
       <c r="K4" s="59"/>
@@ -13418,10 +13368,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="83"/>
+      <c r="I1" s="90"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13440,20 +13390,20 @@
     </row>
     <row r="2" spans="1:14" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H2" s="56" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="84" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="85"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -13468,7 +13418,7 @@
       <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="79" t="s">
+      <c r="B4" s="86" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13500,7 +13450,7 @@
       <c r="A5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="80"/>
+      <c r="B5" s="87"/>
       <c r="C5" s="6" t="s">
         <v>169</v>
       </c>
@@ -13530,7 +13480,7 @@
       <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="80"/>
+      <c r="B6" s="87"/>
       <c r="C6" s="6" t="s">
         <v>173</v>
       </c>
@@ -13560,7 +13510,7 @@
       <c r="A7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="80"/>
+      <c r="B7" s="87"/>
       <c r="C7" s="16" t="s">
         <v>176</v>
       </c>
@@ -13590,7 +13540,7 @@
       <c r="A8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="80"/>
+      <c r="B8" s="87"/>
       <c r="C8" s="16" t="s">
         <v>179</v>
       </c>
@@ -13618,36 +13568,36 @@
     </row>
     <row r="9" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
-      <c r="B9" s="80"/>
+      <c r="B9" s="87"/>
       <c r="C9" s="16" t="s">
+        <v>1338</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>1339</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>1340</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="F9" s="5" t="s">
         <v>1341</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>1342</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>1343</v>
       </c>
       <c r="G9" s="52"/>
       <c r="H9" s="5" t="s">
         <v>1277</v>
       </c>
       <c r="I9" s="60" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J9" s="5"/>
       <c r="K9" s="5" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="80"/>
+      <c r="B10" s="87"/>
       <c r="C10" s="16" t="s">
         <v>182</v>
       </c>
@@ -13677,7 +13627,7 @@
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="80"/>
+      <c r="B11" s="87"/>
       <c r="C11" s="16" t="s">
         <v>186</v>
       </c>
@@ -13707,7 +13657,7 @@
       <c r="A12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="80"/>
+      <c r="B12" s="87"/>
       <c r="C12" s="16" t="s">
         <v>190</v>
       </c>
@@ -13727,7 +13677,7 @@
         <v>1277</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>71</v>
@@ -13737,7 +13687,7 @@
       <c r="A13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="80"/>
+      <c r="B13" s="87"/>
       <c r="C13" s="16" t="s">
         <v>194</v>
       </c>
@@ -13767,7 +13717,7 @@
       <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="80"/>
+      <c r="B14" s="87"/>
       <c r="C14" s="16" t="s">
         <v>198</v>
       </c>
@@ -13797,7 +13747,7 @@
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="80"/>
+      <c r="B15" s="87"/>
       <c r="C15" s="16" t="s">
         <v>202</v>
       </c>
@@ -13827,7 +13777,7 @@
       <c r="A16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="80"/>
+      <c r="B16" s="87"/>
       <c r="C16" s="16" t="s">
         <v>206</v>
       </c>
@@ -13857,7 +13807,7 @@
       <c r="A17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="80"/>
+      <c r="B17" s="87"/>
       <c r="C17" s="16" t="s">
         <v>210</v>
       </c>
@@ -13887,7 +13837,7 @@
       <c r="A18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="80"/>
+      <c r="B18" s="87"/>
       <c r="C18" s="16" t="s">
         <v>214</v>
       </c>
@@ -13917,7 +13867,7 @@
       <c r="A19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="80"/>
+      <c r="B19" s="87"/>
       <c r="C19" s="16" t="s">
         <v>219</v>
       </c>
@@ -13947,7 +13897,7 @@
       <c r="A20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="80"/>
+      <c r="B20" s="87"/>
       <c r="C20" s="16" t="s">
         <v>224</v>
       </c>
@@ -13977,7 +13927,7 @@
       <c r="A21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="80"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="16" t="s">
         <v>228</v>
       </c>
@@ -13988,7 +13938,7 @@
         <v>229</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="G21" s="44" t="s">
         <v>160</v>
@@ -14004,13 +13954,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="81" t="s">
+      <c r="A22" s="88" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="78"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
+      <c r="B22" s="85"/>
+      <c r="C22" s="85"/>
+      <c r="D22" s="85"/>
+      <c r="E22" s="85"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -14025,7 +13975,7 @@
       <c r="A23" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="75" t="s">
+      <c r="B23" s="82" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -14057,7 +14007,7 @@
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="76"/>
+      <c r="B24" s="83"/>
       <c r="C24" s="16" t="s">
         <v>237</v>
       </c>
@@ -14087,7 +14037,7 @@
       <c r="A25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="76"/>
+      <c r="B25" s="83"/>
       <c r="C25" s="16" t="s">
         <v>242</v>
       </c>
@@ -14117,7 +14067,7 @@
       <c r="A26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="76"/>
+      <c r="B26" s="83"/>
       <c r="C26" s="16" t="s">
         <v>247</v>
       </c>
@@ -14145,28 +14095,28 @@
     </row>
     <row r="27" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>243</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>1277</v>
+      </c>
+      <c r="I27" s="60" t="s">
+        <v>1330</v>
+      </c>
+      <c r="K27" t="s">
         <v>1348</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>1349</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>1277</v>
-      </c>
-      <c r="I27" s="60" t="s">
-        <v>1332</v>
-      </c>
-      <c r="K27" t="s">
-        <v>1350</v>
       </c>
     </row>
   </sheetData>
@@ -14227,10 +14177,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="82" t="s">
+      <c r="H1" s="89" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="83"/>
+      <c r="I1" s="90"/>
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
@@ -14245,23 +14195,23 @@
       </c>
     </row>
     <row r="2" spans="1:13" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99" t="s">
-        <v>1336</v>
-      </c>
-      <c r="I2" s="99" t="s">
-        <v>1337</v>
-      </c>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I2" s="63" t="s">
+        <v>1335</v>
+      </c>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
     </row>
     <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
       <c r="A3" s="17"/>
@@ -14284,7 +14234,7 @@
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="91" t="s">
         <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -14313,7 +14263,7 @@
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="84"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="12" t="s">
         <v>260</v>
       </c>
@@ -14333,14 +14283,14 @@
         <v>1277</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="84"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="5" t="s">
         <v>264</v>
       </c>
@@ -14367,7 +14317,7 @@
       <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="84"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="12" t="s">
         <v>269</v>
       </c>
@@ -14394,7 +14344,7 @@
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="84"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="12" t="s">
         <v>273</v>
       </c>
@@ -14421,7 +14371,7 @@
       <c r="A9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="84"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="5" t="s">
         <v>278</v>
       </c>
@@ -14448,7 +14398,7 @@
       <c r="A10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="84"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="12" t="s">
         <v>282</v>
       </c>
@@ -14475,7 +14425,7 @@
       <c r="A11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="12" t="s">
         <v>286</v>
       </c>
@@ -14502,7 +14452,7 @@
       <c r="A12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="84"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="12" t="s">
         <v>290</v>
       </c>
@@ -14529,7 +14479,7 @@
       <c r="A13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="84"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="12" t="s">
         <v>294</v>
       </c>
@@ -14556,7 +14506,7 @@
       <c r="A14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="84"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="12" t="s">
         <v>299</v>
       </c>
@@ -14583,7 +14533,7 @@
       <c r="A15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="84"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="12" t="s">
         <v>304</v>
       </c>
@@ -14610,7 +14560,7 @@
       <c r="A16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="84"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="12" t="s">
         <v>309</v>
       </c>
@@ -14637,7 +14587,7 @@
       <c r="A17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="84"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="12" t="s">
         <v>313</v>
       </c>
@@ -14664,7 +14614,7 @@
       <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="12" t="s">
         <v>317</v>
       </c>
@@ -14691,7 +14641,7 @@
       <c r="A19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="84"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="12" t="s">
         <v>321</v>
       </c>
@@ -14718,7 +14668,7 @@
       <c r="A20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="84"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="12" t="s">
         <v>325</v>
       </c>
@@ -14745,7 +14695,7 @@
       <c r="A21" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="84"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="12" t="s">
         <v>329</v>
       </c>
@@ -14772,7 +14722,7 @@
       <c r="A22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="84"/>
+      <c r="B22" s="91"/>
       <c r="C22" s="12" t="s">
         <v>333</v>
       </c>
@@ -14799,7 +14749,7 @@
       <c r="A23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="84"/>
+      <c r="B23" s="91"/>
       <c r="C23" s="12" t="s">
         <v>338</v>
       </c>
@@ -14826,7 +14776,7 @@
       <c r="A24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="84"/>
+      <c r="B24" s="91"/>
       <c r="C24" s="12" t="s">
         <v>342</v>
       </c>
@@ -14846,10 +14796,10 @@
         <v>1277</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
@@ -15081,7 +15031,7 @@
       <c r="A34" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="85" t="s">
+      <c r="B34" s="92" t="s">
         <v>380</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -15107,7 +15057,7 @@
       <c r="A35" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="85"/>
+      <c r="B35" s="92"/>
       <c r="C35" s="5" t="s">
         <v>386</v>
       </c>
@@ -15131,7 +15081,7 @@
       <c r="A36" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B36" s="85"/>
+      <c r="B36" s="92"/>
       <c r="C36" s="5" t="s">
         <v>390</v>
       </c>
@@ -15155,7 +15105,7 @@
       <c r="A37" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B37" s="85"/>
+      <c r="B37" s="92"/>
       <c r="C37" s="12" t="s">
         <v>395</v>
       </c>
@@ -15179,7 +15129,7 @@
       <c r="A38" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="85"/>
+      <c r="B38" s="92"/>
       <c r="C38" s="12" t="s">
         <v>400</v>
       </c>
@@ -15206,7 +15156,7 @@
       <c r="A39" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B39" s="85"/>
+      <c r="B39" s="92"/>
       <c r="C39" s="12" t="s">
         <v>286</v>
       </c>
@@ -15230,7 +15180,7 @@
       <c r="A40" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B40" s="85"/>
+      <c r="B40" s="92"/>
       <c r="C40" s="12" t="s">
         <v>407</v>
       </c>
@@ -15254,7 +15204,7 @@
       <c r="A41" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="85"/>
+      <c r="B41" s="92"/>
       <c r="C41" s="12" t="s">
         <v>411</v>
       </c>
@@ -15278,7 +15228,7 @@
       <c r="A42" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="85"/>
+      <c r="B42" s="92"/>
       <c r="C42" s="12" t="s">
         <v>415</v>
       </c>
@@ -15302,7 +15252,7 @@
       <c r="A43" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B43" s="85"/>
+      <c r="B43" s="92"/>
       <c r="C43" s="12" t="s">
         <v>419</v>
       </c>
@@ -15326,7 +15276,7 @@
       <c r="A44" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B44" s="85"/>
+      <c r="B44" s="92"/>
       <c r="C44" s="12" t="s">
         <v>424</v>
       </c>
@@ -15350,7 +15300,7 @@
       <c r="A45" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B45" s="85"/>
+      <c r="B45" s="92"/>
       <c r="C45" s="12" t="s">
         <v>342</v>
       </c>
@@ -15367,10 +15317,10 @@
         <v>1277</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.25">
@@ -15394,7 +15344,7 @@
       <c r="A47" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B47" s="86" t="s">
+      <c r="B47" s="93" t="s">
         <v>430</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -15425,7 +15375,7 @@
       <c r="A48" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="B48" s="86"/>
+      <c r="B48" s="93"/>
       <c r="C48" s="12" t="s">
         <v>354</v>
       </c>
@@ -15452,7 +15402,7 @@
       <c r="A49" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B49" s="86"/>
+      <c r="B49" s="93"/>
       <c r="C49" s="12" t="s">
         <v>358</v>
       </c>
@@ -15479,7 +15429,7 @@
       <c r="A50" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="86"/>
+      <c r="B50" s="93"/>
       <c r="C50" s="12" t="s">
         <v>362</v>
       </c>
@@ -15503,7 +15453,7 @@
       <c r="A51" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B51" s="86"/>
+      <c r="B51" s="93"/>
       <c r="C51" s="12" t="s">
         <v>446</v>
       </c>
@@ -15514,12 +15464,12 @@
         <v>447</v>
       </c>
       <c r="F51" s="26" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="H51" s="51" t="s">
-        <v>1332</v>
-      </c>
-      <c r="I51" s="100" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I51" s="64" t="s">
         <v>1277</v>
       </c>
     </row>
@@ -15527,7 +15477,7 @@
       <c r="A52" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="86"/>
+      <c r="B52" s="93"/>
       <c r="C52" s="12" t="s">
         <v>449</v>
       </c>
@@ -15549,16 +15499,16 @@
     </row>
     <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
       <c r="C53" s="12" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>450</v>
       </c>
       <c r="F53" s="26" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H53" s="5" t="s">
         <v>1308</v>
@@ -15603,11 +15553,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="68" t="s">
+      <c r="H2" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="74"/>
+      <c r="I2" s="75"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
@@ -15631,10 +15581,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="72" t="s">
+      <c r="H3" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="73"/>
+      <c r="I3" s="80"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15652,30 +15602,30 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101"/>
-      <c r="B4" s="102"/>
-      <c r="C4" s="101"/>
-      <c r="D4" s="101"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="101"/>
-      <c r="H4" s="101" t="s">
+      <c r="A4" s="65"/>
+      <c r="B4" s="66"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="65"/>
+      <c r="H4" s="65" t="s">
         <v>1269</v>
       </c>
-      <c r="I4" s="101" t="s">
-        <v>1356</v>
-      </c>
-      <c r="J4" s="101"/>
-      <c r="K4" s="101"/>
-      <c r="L4" s="101"/>
-      <c r="M4" s="101"/>
-      <c r="N4" s="101"/>
+      <c r="I4" s="65" t="s">
+        <v>1354</v>
+      </c>
+      <c r="J4" s="65"/>
+      <c r="K4" s="65"/>
+      <c r="L4" s="65"/>
+      <c r="M4" s="65"/>
+      <c r="N4" s="65"/>
     </row>
     <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>694</v>
       </c>
-      <c r="B5" s="87" t="s">
+      <c r="B5" s="94" t="s">
         <v>695</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -15705,15 +15655,15 @@
       <c r="L5" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="M5" s="103" t="s">
-        <v>1357</v>
+      <c r="M5" s="67" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>699</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="42" t="s">
         <v>700</v>
       </c>
@@ -15741,15 +15691,15 @@
       <c r="L6" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="M6" s="103" t="s">
-        <v>1357</v>
+      <c r="M6" s="67" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>703</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="42" t="s">
         <v>704</v>
       </c>
@@ -15777,15 +15727,15 @@
       <c r="L7" s="42" t="s">
         <v>1302</v>
       </c>
-      <c r="M7" s="103" t="s">
-        <v>1357</v>
+      <c r="M7" s="67" t="s">
+        <v>1355</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>707</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="42" t="s">
         <v>708</v>
       </c>
@@ -15824,7 +15774,7 @@
       <c r="A9" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="42" t="s">
         <v>713</v>
       </c>
@@ -15861,7 +15811,7 @@
       <c r="A10" s="7" t="s">
         <v>716</v>
       </c>
-      <c r="B10" s="88"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="42" t="s">
         <v>717</v>
       </c>
@@ -15900,7 +15850,7 @@
       <c r="A11" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="42" t="s">
         <v>721</v>
       </c>
@@ -15939,7 +15889,7 @@
       <c r="A12" s="7" t="s">
         <v>723</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="42" t="s">
         <v>724</v>
       </c>
@@ -15976,7 +15926,7 @@
       <c r="A13" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="42" t="s">
         <v>729</v>
       </c>
@@ -16013,7 +15963,7 @@
       <c r="A14" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="42" t="s">
         <v>734</v>
       </c>
@@ -16048,7 +15998,7 @@
       <c r="A15" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="42" t="s">
         <v>737</v>
       </c>
@@ -16085,7 +16035,7 @@
       <c r="A16" s="7" t="s">
         <v>740</v>
       </c>
-      <c r="B16" s="88"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="42" t="s">
         <v>741</v>
       </c>
@@ -16122,7 +16072,7 @@
       <c r="A17" s="7" t="s">
         <v>744</v>
       </c>
-      <c r="B17" s="88"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="42" t="s">
         <v>745</v>
       </c>
@@ -16142,13 +16092,13 @@
         <v>1308</v>
       </c>
       <c r="I17" s="58" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="J17" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K17" s="5" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="L17" s="42" t="s">
         <v>1279</v>
@@ -16161,7 +16111,7 @@
       <c r="A18" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="B18" s="88"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="42" t="s">
         <v>750</v>
       </c>
@@ -16198,7 +16148,7 @@
       <c r="A19" s="7" t="s">
         <v>753</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="42" t="s">
         <v>754</v>
       </c>
@@ -16235,7 +16185,7 @@
       <c r="A20" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="B20" s="88"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="42" t="s">
         <v>758</v>
       </c>
@@ -16272,7 +16222,7 @@
       <c r="A21" s="7" t="s">
         <v>761</v>
       </c>
-      <c r="B21" s="88"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="42" t="s">
         <v>762</v>
       </c>
@@ -16309,7 +16259,7 @@
       <c r="A22" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="B22" s="88"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="3" t="s">
         <v>766</v>
       </c>
@@ -16327,13 +16277,13 @@
         <v>1308</v>
       </c>
       <c r="I22" s="58" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="J22" s="42" t="s">
         <v>71</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="L22" s="42" t="s">
         <v>1279</v>
@@ -16346,7 +16296,7 @@
       <c r="A23" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="95" t="s">
         <v>771</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -16383,7 +16333,7 @@
       <c r="A24" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B24" s="88"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="6" t="s">
         <v>777</v>
       </c>
@@ -16422,7 +16372,7 @@
       <c r="A25" s="7" t="s">
         <v>776</v>
       </c>
-      <c r="B25" s="88"/>
+      <c r="B25" s="95"/>
       <c r="C25" s="6" t="s">
         <v>781</v>
       </c>
@@ -16461,7 +16411,7 @@
       <c r="A26" s="7" t="s">
         <v>784</v>
       </c>
-      <c r="B26" s="88"/>
+      <c r="B26" s="95"/>
       <c r="C26" s="6" t="s">
         <v>785</v>
       </c>
@@ -16500,7 +16450,7 @@
       <c r="A27" s="7" t="s">
         <v>788</v>
       </c>
-      <c r="B27" s="88"/>
+      <c r="B27" s="95"/>
       <c r="C27" s="6" t="s">
         <v>789</v>
       </c>
@@ -16539,7 +16489,7 @@
       <c r="A28" s="7" t="s">
         <v>792</v>
       </c>
-      <c r="B28" s="88" t="s">
+      <c r="B28" s="95" t="s">
         <v>793</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -16578,7 +16528,7 @@
       <c r="A29" s="7" t="s">
         <v>798</v>
       </c>
-      <c r="B29" s="88"/>
+      <c r="B29" s="95"/>
       <c r="C29" s="6" t="s">
         <v>799</v>
       </c>
@@ -16617,7 +16567,7 @@
       <c r="A30" s="7" t="s">
         <v>804</v>
       </c>
-      <c r="B30" s="88"/>
+      <c r="B30" s="95"/>
       <c r="C30" s="6" t="s">
         <v>805</v>
       </c>
@@ -16656,7 +16606,7 @@
       <c r="A31" s="7" t="s">
         <v>808</v>
       </c>
-      <c r="B31" s="88"/>
+      <c r="B31" s="95"/>
       <c r="C31" s="6" t="s">
         <v>809</v>
       </c>
@@ -16695,7 +16645,7 @@
       <c r="A32" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="B32" s="88"/>
+      <c r="B32" s="95"/>
       <c r="C32" s="6" t="s">
         <v>814</v>
       </c>
@@ -16734,7 +16684,7 @@
       <c r="A33" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="B33" s="88"/>
+      <c r="B33" s="95"/>
       <c r="C33" s="6" t="s">
         <v>817</v>
       </c>
@@ -16773,7 +16723,7 @@
       <c r="A34" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="B34" s="88"/>
+      <c r="B34" s="95"/>
       <c r="C34" s="6" t="s">
         <v>823</v>
       </c>
@@ -16810,7 +16760,7 @@
       <c r="A35" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="B35" s="88"/>
+      <c r="B35" s="95"/>
       <c r="C35" s="6" t="s">
         <v>741</v>
       </c>
@@ -16847,7 +16797,7 @@
       <c r="A36" s="7" t="s">
         <v>830</v>
       </c>
-      <c r="B36" s="88"/>
+      <c r="B36" s="95"/>
       <c r="C36" s="6" t="s">
         <v>831</v>
       </c>
@@ -16884,7 +16834,7 @@
       <c r="A37" s="7" t="s">
         <v>834</v>
       </c>
-      <c r="B37" s="88"/>
+      <c r="B37" s="95"/>
       <c r="C37" s="6" t="s">
         <v>835</v>
       </c>
@@ -16921,7 +16871,7 @@
       <c r="A38" s="7" t="s">
         <v>838</v>
       </c>
-      <c r="B38" s="88"/>
+      <c r="B38" s="95"/>
       <c r="C38" s="6" t="s">
         <v>839</v>
       </c>
@@ -16958,7 +16908,7 @@
       <c r="A39" s="7" t="s">
         <v>842</v>
       </c>
-      <c r="B39" s="88"/>
+      <c r="B39" s="95"/>
       <c r="C39" s="6" t="s">
         <v>843</v>
       </c>
@@ -17128,18 +17078,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DCD4E98-0A90-4A2C-9E37-92DC4693684A}">
-  <dimension ref="A1:M43"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.7109375" customWidth="1"/>
     <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" customWidth="1"/>
+    <col min="3" max="3" width="34.140625" customWidth="1"/>
     <col min="4" max="4" width="27" customWidth="1"/>
     <col min="5" max="5" width="29.28515625" customWidth="1"/>
     <col min="6" max="6" width="26.7109375" customWidth="1"/>
@@ -17150,10 +17100,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="68" t="s">
+      <c r="H1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="74"/>
+      <c r="I1" s="75"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
@@ -17177,12 +17127,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>7</v>
-      </c>
+      <c r="I2" s="80"/>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
@@ -17196,159 +17144,135 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="76.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:13" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="59"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
+        <v>1358</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>1359</v>
+      </c>
+      <c r="J3" s="59"/>
+      <c r="K3" s="59"/>
+      <c r="L3" s="59"/>
+      <c r="M3" s="59"/>
+    </row>
+    <row r="4" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
         <v>1313</v>
       </c>
-      <c r="B3" s="87" t="s">
+      <c r="B4" s="94" t="s">
         <v>858</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C4" s="68" t="s">
         <v>859</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>860</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>861</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>862</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K3" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>863</v>
-      </c>
-      <c r="B4" s="88"/>
-      <c r="C4" s="6" t="s">
-        <v>864</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>860</v>
       </c>
       <c r="E4" s="5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>862</v>
+      </c>
+      <c r="H4" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I4" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J4" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B5" s="95"/>
+      <c r="C5" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>860</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>865</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F5" s="5" t="s">
         <v>866</v>
       </c>
-      <c r="H4" s="42" t="s">
+      <c r="H5" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I4" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K4" s="42" t="s">
+      <c r="I5" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J5" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="89" t="s">
+    <row r="6" spans="1:13" s="98" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="96" t="s">
         <v>867</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
-      <c r="H5" s="90"/>
-      <c r="I5" s="90"/>
-      <c r="J5" s="90"/>
-      <c r="K5" s="90"/>
-      <c r="L5" s="90"/>
-      <c r="M5" s="90"/>
-    </row>
-    <row r="6" spans="1:13" ht="193.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="97"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="97"/>
+      <c r="H6" s="97"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="97"/>
+      <c r="K6" s="97"/>
+      <c r="L6" s="97"/>
+    </row>
+    <row r="7" spans="1:13" ht="193.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B7" s="3" t="s">
         <v>869</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>870</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>871</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E7" s="5" t="s">
         <v>872</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>1314</v>
       </c>
-      <c r="H6" s="42" t="s">
+      <c r="H7" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I6" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K6" t="s">
+      <c r="I7" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J7" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
+    <row r="8" spans="1:13" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B7" s="88" t="s">
+      <c r="B8" s="95" t="s">
         <v>874</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>875</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>876</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>877</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>878</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>879</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I7" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J7" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K7" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>880</v>
-      </c>
-      <c r="B8" s="88"/>
-      <c r="C8" s="3" t="s">
-        <v>881</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>876</v>
@@ -17357,194 +17281,176 @@
         <v>877</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>882</v>
+        <v>878</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>883</v>
-      </c>
-      <c r="H8" s="42" t="s">
+        <v>879</v>
+      </c>
+      <c r="H8" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I8" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J8" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K8" t="s">
+      <c r="I8" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J8" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>884</v>
-      </c>
-      <c r="B9" s="88"/>
+        <v>880</v>
+      </c>
+      <c r="B9" s="95"/>
       <c r="C9" s="3" t="s">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>876</v>
       </c>
       <c r="E9" s="5" t="s">
+        <v>877</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>882</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>883</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J9" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>884</v>
+      </c>
+      <c r="B10" s="95"/>
+      <c r="C10" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>876</v>
+      </c>
+      <c r="E10" s="5" t="s">
         <v>886</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>887</v>
       </c>
-      <c r="G9" s="5" t="s">
+      <c r="G10" s="5" t="s">
         <v>888</v>
       </c>
-      <c r="H9" s="42" t="s">
+      <c r="H10" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I9" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J9" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K9" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>889</v>
-      </c>
-      <c r="B10" s="88" t="s">
-        <v>890</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>891</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>892</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>893</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>894</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="42" t="s">
+      <c r="I10" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I10" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>895</v>
-      </c>
-      <c r="B11" s="88"/>
+        <v>889</v>
+      </c>
+      <c r="B11" s="95" t="s">
+        <v>890</v>
+      </c>
       <c r="C11" s="3" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="42" t="s">
+      <c r="H11" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I11" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J11" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K11" t="s">
+      <c r="I11" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J11" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>900</v>
-      </c>
-      <c r="B12" s="88"/>
+        <v>895</v>
+      </c>
+      <c r="B12" s="95"/>
       <c r="C12" s="3" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>897</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>902</v>
+        <v>898</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>903</v>
+        <v>899</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="42" t="s">
+      <c r="H12" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="I12" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J12" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>904</v>
-      </c>
-      <c r="B13" s="92" t="s">
-        <v>905</v>
-      </c>
+        <v>900</v>
+      </c>
+      <c r="B13" s="95"/>
       <c r="C13" s="3" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>897</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>908</v>
-      </c>
-      <c r="G13" s="5" t="s">
-        <v>909</v>
-      </c>
-      <c r="H13" s="42" t="s">
+        <v>903</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I13" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J13" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K13" t="s">
+      <c r="I13" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J13" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>910</v>
-      </c>
-      <c r="B14" s="92"/>
+        <v>904</v>
+      </c>
+      <c r="B14" s="99" t="s">
+        <v>905</v>
+      </c>
       <c r="C14" s="3" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>897</v>
@@ -17553,153 +17459,138 @@
         <v>907</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>913</v>
-      </c>
-      <c r="H14" s="42" t="s">
+        <v>909</v>
+      </c>
+      <c r="H14" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I14" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J14" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K14" t="s">
+      <c r="I14" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J14" t="s">
         <v>1302</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>914</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>915</v>
-      </c>
+        <v>910</v>
+      </c>
+      <c r="B15" s="99"/>
       <c r="C15" s="3" t="s">
-        <v>916</v>
+        <v>911</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>897</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>917</v>
+        <v>907</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>913</v>
       </c>
-      <c r="H15" s="42" t="s">
+      <c r="H15" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I15" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J15" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K15" t="s">
+      <c r="I15" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J15" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="89" t="s">
+    <row r="16" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="7" t="s">
+        <v>914</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>915</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>916</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>897</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>917</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>918</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>913</v>
+      </c>
+      <c r="H16" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I16" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="J16" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" s="98" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="96" t="s">
         <v>919</v>
       </c>
-      <c r="B16" s="90"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="90"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="90"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="90"/>
-      <c r="J16" s="90"/>
-      <c r="K16" s="90"/>
-      <c r="L16" s="90"/>
-      <c r="M16" s="90"/>
-    </row>
-    <row r="17" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="7" t="s">
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="97"/>
+      <c r="H17" s="97"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="97"/>
+      <c r="L17" s="97"/>
+    </row>
+    <row r="18" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
         <v>920</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>921</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>922</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>924</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>925</v>
-      </c>
-      <c r="G17" s="5"/>
-      <c r="H17" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I17" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K17" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
-        <v>926</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>921</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>927</v>
+        <v>922</v>
       </c>
       <c r="D18" s="5" t="s">
         <v>923</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>928</v>
+        <v>924</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>929</v>
-      </c>
-      <c r="G18" s="5" t="s">
-        <v>930</v>
-      </c>
-      <c r="H18" s="42" t="s">
+        <v>925</v>
+      </c>
+      <c r="G18" s="5"/>
+      <c r="H18" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K18" s="42" t="s">
+      <c r="J18" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>931</v>
+        <v>926</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>921</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>923</v>
@@ -17708,33 +17599,30 @@
         <v>928</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>933</v>
+        <v>929</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>934</v>
-      </c>
-      <c r="H19" s="42" t="s">
+        <v>930</v>
+      </c>
+      <c r="H19" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J19" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K19" s="42" t="s">
+      <c r="J19" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>935</v>
-      </c>
-      <c r="B20" s="92" t="s">
+        <v>931</v>
+      </c>
+      <c r="B20" s="3" t="s">
         <v>921</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>923</v>
@@ -17743,31 +17631,30 @@
         <v>928</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>938</v>
-      </c>
-      <c r="H20" s="42" t="s">
+        <v>934</v>
+      </c>
+      <c r="H20" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J20" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K20" s="42" t="s">
+      <c r="J20" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>939</v>
-      </c>
-      <c r="B21" s="92"/>
+        <v>935</v>
+      </c>
+      <c r="B21" s="99" t="s">
+        <v>921</v>
+      </c>
       <c r="C21" s="3" t="s">
-        <v>940</v>
+        <v>936</v>
       </c>
       <c r="D21" s="5" t="s">
         <v>923</v>
@@ -17776,31 +17663,28 @@
         <v>928</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>941</v>
+        <v>937</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>942</v>
-      </c>
-      <c r="H21" s="42" t="s">
+        <v>938</v>
+      </c>
+      <c r="H21" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I21" s="42" t="s">
+      <c r="I21" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J21" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K21" s="42" t="s">
+      <c r="J21" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>943</v>
-      </c>
-      <c r="B22" s="92"/>
+        <v>939</v>
+      </c>
+      <c r="B22" s="99"/>
       <c r="C22" s="3" t="s">
-        <v>944</v>
+        <v>940</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>923</v>
@@ -17809,29 +17693,26 @@
         <v>928</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>945</v>
+        <v>941</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>946</v>
-      </c>
-      <c r="H22" s="42" t="s">
+        <v>942</v>
+      </c>
+      <c r="H22" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J22" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K22" s="42" t="s">
+      <c r="J22" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>947</v>
-      </c>
-      <c r="B23" s="92"/>
+        <v>943</v>
+      </c>
+      <c r="B23" s="99"/>
       <c r="C23" s="3" t="s">
         <v>944</v>
       </c>
@@ -17842,459 +17723,416 @@
         <v>928</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>949</v>
-      </c>
-      <c r="H23" s="42" t="s">
+        <v>946</v>
+      </c>
+      <c r="H23" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J23" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K23" s="42" t="s">
+      <c r="J23" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>950</v>
-      </c>
-      <c r="B24" s="39" t="s">
-        <v>951</v>
-      </c>
+        <v>947</v>
+      </c>
+      <c r="B24" s="99"/>
       <c r="C24" s="3" t="s">
-        <v>952</v>
+        <v>944</v>
       </c>
       <c r="D24" s="5" t="s">
         <v>923</v>
       </c>
       <c r="E24" s="5" t="s">
+        <v>928</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>948</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>949</v>
+      </c>
+      <c r="H24" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I24" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J24" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="B25" s="39" t="s">
+        <v>951</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>952</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E25" s="5" t="s">
         <v>953</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="G24" s="5"/>
-      <c r="H24" s="42" t="s">
+      <c r="G25" s="5"/>
+      <c r="H25" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I25" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J24" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K24" s="42" t="s">
+      <c r="J25" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="25" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89" t="s">
+    <row r="26" spans="1:12" s="98" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="96" t="s">
         <v>955</v>
       </c>
-      <c r="B25" s="90"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="90"/>
-      <c r="E25" s="90"/>
-      <c r="F25" s="90"/>
-      <c r="G25" s="90"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="90"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="90"/>
-      <c r="L25" s="90"/>
-      <c r="M25" s="90"/>
-    </row>
-    <row r="26" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="97"/>
+      <c r="H26" s="97"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="97"/>
+      <c r="L26" s="97"/>
+    </row>
+    <row r="27" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B26" s="92" t="s">
+      <c r="B27" s="99" t="s">
         <v>957</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C27" s="3" t="s">
         <v>922</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>923</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>958</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>959</v>
-      </c>
-      <c r="G26" s="5"/>
-      <c r="H26" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I26" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J26" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K26" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="7" t="s">
-        <v>960</v>
-      </c>
-      <c r="B27" s="92"/>
-      <c r="C27" s="3" t="s">
-        <v>961</v>
       </c>
       <c r="D27" s="5" t="s">
         <v>923</v>
       </c>
       <c r="E27" s="5" t="s">
+        <v>958</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I27" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J27" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="B28" s="99"/>
+      <c r="C28" s="3" t="s">
+        <v>961</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E28" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F28" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="G27" s="5"/>
-      <c r="H27" s="42" t="s">
+      <c r="G28" s="5"/>
+      <c r="H28" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I28" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J27" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K27" s="42" t="s">
+      <c r="J28" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+    <row r="29" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>964</v>
       </c>
-      <c r="B28" s="92"/>
-      <c r="C28" s="3" t="s">
+      <c r="B29" s="99"/>
+      <c r="C29" s="3" t="s">
         <v>965</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D29" s="5" t="s">
         <v>966</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E29" s="5" t="s">
         <v>967</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F29" s="5" t="s">
         <v>968</v>
       </c>
-      <c r="G28" s="5"/>
-      <c r="H28" s="42" t="s">
+      <c r="G29" s="5"/>
+      <c r="H29" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I29" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J28" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K28" s="42" t="s">
+      <c r="J29" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="7" t="s">
+    <row r="30" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>969</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="3" t="s">
+      <c r="B30" s="99"/>
+      <c r="C30" s="3" t="s">
         <v>970</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>971</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>972</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>973</v>
-      </c>
-      <c r="G29" s="5"/>
-      <c r="H29" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I29" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J29" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K29" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="7" t="s">
-        <v>974</v>
-      </c>
-      <c r="B30" s="92"/>
-      <c r="C30" s="3" t="s">
-        <v>975</v>
       </c>
       <c r="D30" s="5" t="s">
         <v>971</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>976</v>
+        <v>972</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>977</v>
-      </c>
-      <c r="G30" s="5" t="s">
-        <v>978</v>
-      </c>
-      <c r="H30" s="42" t="s">
+        <v>973</v>
+      </c>
+      <c r="G30" s="5"/>
+      <c r="H30" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J30" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K30" s="42" t="s">
+      <c r="J30" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>979</v>
-      </c>
-      <c r="B31" s="92"/>
+        <v>974</v>
+      </c>
+      <c r="B31" s="99"/>
       <c r="C31" s="3" t="s">
-        <v>980</v>
+        <v>975</v>
       </c>
       <c r="D31" s="5" t="s">
         <v>971</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>981</v>
+        <v>976</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>982</v>
+        <v>977</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>978</v>
       </c>
-      <c r="H31" s="42" t="s">
+      <c r="H31" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J31" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K31" s="42" t="s">
+      <c r="J31" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
-        <v>983</v>
-      </c>
-      <c r="B32" s="92"/>
+        <v>979</v>
+      </c>
+      <c r="B32" s="99"/>
       <c r="C32" s="3" t="s">
-        <v>984</v>
+        <v>980</v>
       </c>
       <c r="D32" s="5" t="s">
         <v>971</v>
       </c>
       <c r="E32" s="5" t="s">
+        <v>981</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>982</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>978</v>
+      </c>
+      <c r="H32" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I32" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J32" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B33" s="99"/>
+      <c r="C33" s="3" t="s">
+        <v>984</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>971</v>
+      </c>
+      <c r="E33" s="5" t="s">
         <v>985</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F33" s="5" t="s">
         <v>986</v>
       </c>
-      <c r="G32" s="5"/>
-      <c r="H32" s="42" t="s">
+      <c r="G33" s="5"/>
+      <c r="H33" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I33" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J32" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K32" s="42" t="s">
+      <c r="J33" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="33" spans="1:13" s="91" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="89" t="s">
+    <row r="34" spans="1:12" s="98" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="96" t="s">
         <v>987</v>
       </c>
-      <c r="B33" s="90"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="90"/>
-      <c r="E33" s="90"/>
-      <c r="F33" s="90"/>
-      <c r="G33" s="90"/>
-      <c r="H33" s="90"/>
-      <c r="I33" s="90"/>
-      <c r="J33" s="90"/>
-      <c r="K33" s="90"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="90"/>
-    </row>
-    <row r="34" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="7" t="s">
+      <c r="B34" s="97"/>
+      <c r="C34" s="97"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="97"/>
+      <c r="F34" s="97"/>
+      <c r="G34" s="97"/>
+      <c r="H34" s="97"/>
+      <c r="I34" s="97"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="97"/>
+      <c r="L34" s="97"/>
+    </row>
+    <row r="35" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>988</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>989</v>
-      </c>
-      <c r="C34" s="3" t="s">
-        <v>990</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>991</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>992</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>993</v>
-      </c>
-      <c r="G34" s="5"/>
-      <c r="H34" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I34" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J34" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K34" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>994</v>
       </c>
       <c r="B35" s="12" t="s">
         <v>989</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>995</v>
+        <v>990</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>996</v>
+        <v>991</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>997</v>
+        <v>992</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>998</v>
+        <v>993</v>
       </c>
       <c r="G35" s="5"/>
-      <c r="H35" s="42" t="s">
+      <c r="H35" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J35" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K35" s="42" t="s">
+      <c r="J35" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
-        <v>999</v>
+        <v>994</v>
       </c>
       <c r="B36" s="12" t="s">
         <v>989</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>1000</v>
+        <v>995</v>
       </c>
       <c r="D36" s="5" t="s">
         <v>996</v>
       </c>
       <c r="E36" s="5" t="s">
+        <v>997</v>
+      </c>
+      <c r="F36" s="5" t="s">
+        <v>998</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I36" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J36" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B37" s="12" t="s">
+        <v>989</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>1000</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>996</v>
+      </c>
+      <c r="E37" s="5" t="s">
         <v>1001</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F37" s="5" t="s">
         <v>1002</v>
       </c>
-      <c r="G36" s="5" t="s">
+      <c r="G37" s="5" t="s">
         <v>1003</v>
       </c>
-      <c r="H36" s="42" t="s">
+      <c r="H37" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I37" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J36" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K36" s="42" t="s">
+      <c r="J37" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+    <row r="38" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>1004</v>
-      </c>
-      <c r="B37" s="49" t="s">
-        <v>989</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>1005</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>1006</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>1007</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G37" s="5" t="s">
-        <v>1009</v>
-      </c>
-      <c r="H37" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I37" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K37" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="7" t="s">
-        <v>1010</v>
       </c>
       <c r="B38" s="49" t="s">
         <v>989</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="D38" s="5" t="s">
         <v>1006</v>
@@ -18303,206 +18141,221 @@
         <v>1007</v>
       </c>
       <c r="F38" s="5" t="s">
+        <v>1008</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>1009</v>
+      </c>
+      <c r="H38" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I38" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J38" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B39" s="49" t="s">
+        <v>989</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>1011</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>1007</v>
+      </c>
+      <c r="F39" s="5" t="s">
         <v>1012</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G39" s="5" t="s">
         <v>1013</v>
-      </c>
-      <c r="H38" s="47" t="s">
-        <v>1307</v>
-      </c>
-      <c r="I38" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>1315</v>
-      </c>
-      <c r="K38" s="42" t="s">
-        <v>1302</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="7" t="s">
-        <v>1014</v>
-      </c>
-      <c r="B39" s="49" t="s">
-        <v>1325</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>1328</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>1326</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>1327</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>1329</v>
-      </c>
-      <c r="G39" s="5" t="s">
-        <v>1330</v>
       </c>
       <c r="H39" s="47" t="s">
         <v>1307</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>1331</v>
-      </c>
-      <c r="K39" s="42" t="s">
+      <c r="J39" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="B40" s="12" t="s">
-        <v>1015</v>
+      <c r="B40" s="49" t="s">
+        <v>1324</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>1016</v>
+        <v>1327</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>923</v>
+        <v>1325</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>1017</v>
+        <v>1326</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>1018</v>
-      </c>
-      <c r="G40" s="5"/>
-      <c r="H40" s="42" t="s">
-        <v>1308</v>
-      </c>
-      <c r="I40" s="42"/>
-      <c r="J40" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K40" s="42" t="s">
+        <v>1328</v>
+      </c>
+      <c r="G40" s="5" t="s">
+        <v>1329</v>
+      </c>
+      <c r="H40" s="47" t="s">
+        <v>1307</v>
+      </c>
+      <c r="I40" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J40" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="B41" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>1021</v>
+        <v>923</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>1022</v>
+        <v>1017</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H41" s="42" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G41" s="5"/>
+      <c r="H41" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I41" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="J41" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K41" s="42" t="s">
+      <c r="I41" s="68"/>
+      <c r="J41" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
-        <v>1025</v>
+        <v>1019</v>
       </c>
       <c r="B42" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>1026</v>
+        <v>1020</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>923</v>
+        <v>1021</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>1022</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>1027</v>
+        <v>1023</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>1028</v>
-      </c>
-      <c r="H42" s="42" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H42" s="68" t="s">
         <v>1308</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J42" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K42" s="42" t="s">
+      <c r="J42" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="188.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
-        <v>1321</v>
+        <v>1025</v>
       </c>
       <c r="B43" s="12" t="s">
         <v>1015</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>1026</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>923</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F43" s="5" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G43" s="5" t="s">
+        <v>1028</v>
+      </c>
+      <c r="H43" s="68" t="s">
+        <v>1308</v>
+      </c>
+      <c r="I43" s="68" t="s">
+        <v>71</v>
+      </c>
+      <c r="J43" s="68" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="188.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>1318</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>1319</v>
       </c>
-      <c r="D43" s="5" t="s">
-        <v>1320</v>
-      </c>
-      <c r="E43" s="5" t="s">
+      <c r="E44" s="5" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F44" s="5" t="s">
         <v>1322</v>
       </c>
-      <c r="F43" s="5" t="s">
-        <v>1323</v>
-      </c>
-      <c r="G43" s="5"/>
-      <c r="H43" s="42" t="s">
+      <c r="G44" s="5"/>
+      <c r="H44" s="68" t="s">
         <v>1307</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I44" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="J43" s="12" t="s">
-        <v>1300</v>
-      </c>
-      <c r="K43" s="42" t="s">
+      <c r="J44" s="68" t="s">
         <v>1302</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
+    <mergeCell ref="A34:XFD34"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A6:XFD6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B13"/>
     <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A5:XFD5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A33:XFD33"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A16:XFD16"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="A25:XFD25"/>
-    <mergeCell ref="B26:B32"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A26:XFD26"/>
+    <mergeCell ref="B27:B33"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18517,14 +18370,14 @@
               <from>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>866775</xdr:colOff>
-                <xdr:row>2</xdr:row>
+                <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>6</xdr:col>
                 <xdr:colOff>1781175</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>685800</xdr:rowOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>971550</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18534,42 +18387,17 @@
         <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10242"/>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10243">
-          <objectPr defaultSize="0" autoPict="0" dde="1" r:id="rId3">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>933450</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>619125</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1847850</xdr:colOff>
-                <xdr:row>40</xdr:row>
-                <xdr:rowOff>1524000</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject dvAspect="DVASPECT_ICON" link="[1]!''''" oleUpdate="OLEUPDATE_ONCALL" shapeId="10243"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5F79E-749A-4C3C-BD92-6C5CCC9618BA}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H22" sqref="H22"/>
+      <selection pane="bottomLeft" activeCell="I2" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18581,16 +18409,17 @@
     <col min="5" max="5" width="28.42578125" customWidth="1"/>
     <col min="6" max="6" width="34.85546875" customWidth="1"/>
     <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="8" width="13.7109375" customWidth="1"/>
+    <col min="8" max="9" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="68" t="s">
+    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="H1" s="75" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="74"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="75"/>
+      <c r="J1" s="81"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -18615,23 +18444,24 @@
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>1029</v>
       </c>
@@ -18656,17 +18486,18 @@
       <c r="H3" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="62"/>
+      <c r="J3" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K3" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L3" s="48">
+      <c r="L3" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M3" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>1036</v>
       </c>
@@ -18691,21 +18522,22 @@
       <c r="H4" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K4" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L4" s="48">
+      <c r="L4" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M4" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1041</v>
       </c>
-      <c r="B5" s="88" t="s">
+      <c r="B5" s="95" t="s">
         <v>961</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -18724,21 +18556,22 @@
       <c r="H5" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="62"/>
+      <c r="J5" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K5" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L5" s="48">
+      <c r="L5" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M5" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>1046</v>
       </c>
-      <c r="B6" s="88"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="6" t="s">
         <v>1047</v>
       </c>
@@ -18755,21 +18588,22 @@
       <c r="H6" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="62"/>
+      <c r="J6" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K6" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L6" s="48">
+      <c r="L6" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M6" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>1050</v>
       </c>
-      <c r="B7" s="88"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="6" t="s">
         <v>1051</v>
       </c>
@@ -18786,21 +18620,22 @@
       <c r="H7" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="62"/>
+      <c r="J7" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K7" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L7" s="48">
+      <c r="L7" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M7" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>1054</v>
       </c>
-      <c r="B8" s="88"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="6" t="s">
         <v>1055</v>
       </c>
@@ -18817,21 +18652,22 @@
       <c r="H8" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="62"/>
+      <c r="J8" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K8" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L8" s="48">
+      <c r="L8" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M8" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B9" s="88"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="6" t="s">
         <v>1059</v>
       </c>
@@ -18848,21 +18684,22 @@
       <c r="H9" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="62"/>
+      <c r="J9" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K9" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L9" s="48">
+      <c r="L9" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M9" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>1061</v>
       </c>
-      <c r="B10" s="88" t="s">
+      <c r="B10" s="95" t="s">
         <v>1030</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -18883,21 +18720,22 @@
       <c r="H10" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="62"/>
+      <c r="J10" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K10" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L10" s="48">
+      <c r="L10" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M10" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>1066</v>
       </c>
-      <c r="B11" s="88"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="42" t="s">
         <v>1067</v>
       </c>
@@ -18914,24 +18752,25 @@
       <c r="H11" s="42" t="s">
         <v>1307</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="62"/>
+      <c r="J11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="J11" s="5" t="s">
-        <v>1317</v>
-      </c>
-      <c r="K11" s="12" t="s">
+      <c r="K11" s="5" t="s">
         <v>1316</v>
       </c>
-      <c r="L11" s="48">
+      <c r="L11" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M11" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B12" s="88"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="42" t="s">
         <v>1071</v>
       </c>
@@ -18948,21 +18787,22 @@
       <c r="H12" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="62"/>
+      <c r="J12" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K12" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L12" s="48">
+      <c r="L12" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M12" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>1074</v>
       </c>
-      <c r="B13" s="88"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="42" t="s">
         <v>1075</v>
       </c>
@@ -18979,21 +18819,22 @@
       <c r="H13" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="62"/>
+      <c r="J13" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K13" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L13" s="48">
+      <c r="L13" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M13" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>1079</v>
       </c>
-      <c r="B14" s="88"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="42" t="s">
         <v>1080</v>
       </c>
@@ -19012,21 +18853,22 @@
       <c r="H14" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="62"/>
+      <c r="J14" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K14" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L14" s="48">
+      <c r="L14" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M14" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>1085</v>
       </c>
-      <c r="B15" s="88"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="42" t="s">
         <v>1086</v>
       </c>
@@ -19045,17 +18887,18 @@
       <c r="H15" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="62"/>
+      <c r="J15" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K15" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L15" s="48">
+      <c r="L15" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M15" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>1089</v>
       </c>
@@ -19080,17 +18923,18 @@
       <c r="H16" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="62"/>
+      <c r="J16" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K16" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L16" s="48">
+      <c r="L16" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M16" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="17" spans="1:12" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>1094</v>
       </c>
@@ -19115,21 +18959,22 @@
       <c r="H17" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="62"/>
+      <c r="J17" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K17" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L17" s="48">
+      <c r="L17" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M17" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>1097</v>
       </c>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="95" t="s">
         <v>1098</v>
       </c>
       <c r="C18" s="42" t="s">
@@ -19142,27 +18987,28 @@
         <v>1101</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="G18" s="5"/>
       <c r="H18" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="62"/>
+      <c r="J18" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K18" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L18" s="48">
+      <c r="L18" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M18" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="B19" s="88"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="42" t="s">
         <v>1103</v>
       </c>
@@ -19181,21 +19027,22 @@
       <c r="H19" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="62"/>
+      <c r="J19" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L19" s="48">
+      <c r="L19" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M19" s="48">
         <v>43991</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>1107</v>
       </c>
-      <c r="B20" s="88"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="42" t="s">
         <v>1108</v>
       </c>
@@ -19214,13 +19061,14 @@
       <c r="H20" s="42" t="s">
         <v>1308</v>
       </c>
-      <c r="I20" s="42" t="s">
+      <c r="I20" s="62"/>
+      <c r="J20" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="12" t="s">
-        <v>1316</v>
-      </c>
-      <c r="L20" s="48">
+      <c r="L20" s="12" t="s">
+        <v>1315</v>
+      </c>
+      <c r="M20" s="48">
         <v>43991</v>
       </c>
     </row>
@@ -19228,7 +19076,7 @@
   <mergeCells count="4">
     <mergeCell ref="B10:B15"/>
     <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="H1:J1"/>
     <mergeCell ref="B5:B9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\ga-mcovid\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F72C50B-F18E-4D5E-9B87-AD33245D0D33}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1921B1-B0CE-4A49-9B43-6184EC4BE18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="7" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Repost" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2786" uniqueCount="1362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1366">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -7720,6 +7720,23 @@
 2. Cho phép nhấn vào 'All Group'
 3. Tìm thấy đường dẫn trên header-content thể hiện vị trí của bạn trên Website
 4. Đường dẫn hiển thị chính xác vị trí của bạn: 'Dashboard &gt;  Group'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khi xóa 1 bản ghi
+ màn hình không hiển thị đúng 
+với mô tả </t>
+  </si>
+  <si>
+    <t>khi xét quyền Dashboard 
+thì dữ liệu trang Dashboard k hiển thị</t>
+  </si>
+  <si>
+    <t>Không thông báo lỗi.</t>
+  </si>
+  <si>
+    <t>Khi xét quyền cho ACC 
+thì không hiển thị đầy đủ 
+các quyển đã có.</t>
   </si>
 </sst>
 </file>
@@ -8106,7 +8123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8298,6 +8315,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8379,9 +8406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8390,6 +8414,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8409,16 +8436,9 @@
     <xf numFmtId="0" fontId="17" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -8448,15 +8468,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>6</xdr:col>
-          <xdr:colOff>866775</xdr:colOff>
+          <xdr:colOff>868680</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
-          <xdr:col>6</xdr:col>
-          <xdr:colOff>1781175</xdr:colOff>
+          <xdr:col>8</xdr:col>
+          <xdr:colOff>7620</xdr:colOff>
           <xdr:row>3</xdr:row>
-          <xdr:rowOff>971550</xdr:rowOff>
+          <xdr:rowOff>975360</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8780,38 +8800,38 @@
       <selection activeCell="A3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1"/>
-    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="10.6640625" customWidth="1"/>
+    <col min="5" max="5" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:6" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+    <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="73" t="s">
         <v>1266</v>
       </c>
-      <c r="B2" s="69"/>
-    </row>
-    <row r="3" spans="1:6" ht="31.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
+      <c r="B2" s="73"/>
+    </row>
+    <row r="3" spans="1:6" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="74" t="s">
         <v>1267</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="72" t="s">
+      <c r="B3" s="74"/>
+      <c r="C3" s="76" t="s">
         <v>1273</v>
       </c>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-    </row>
-    <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+    </row>
+    <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="74" t="s">
         <v>1268</v>
       </c>
-      <c r="B4" s="71"/>
+      <c r="B4" s="75"/>
       <c r="C4" s="43" t="s">
         <v>1270</v>
       </c>
@@ -8825,7 +8845,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C5" s="2">
         <v>265</v>
       </c>
@@ -8859,25 +8879,25 @@
       <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="4" max="4" width="29.85546875" customWidth="1"/>
-    <col min="5" max="6" width="30.7109375" customWidth="1"/>
-    <col min="7" max="7" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.88671875" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" customWidth="1"/>
+    <col min="3" max="3" width="21.5546875" customWidth="1"/>
+    <col min="4" max="4" width="29.88671875" customWidth="1"/>
+    <col min="5" max="6" width="30.6640625" customWidth="1"/>
+    <col min="7" max="7" width="31.88671875" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+    <col min="9" max="9" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="75" t="s">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="81"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="85"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -8918,7 +8938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1026</v>
       </c>
@@ -8945,7 +8965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1033</v>
       </c>
@@ -8972,7 +8992,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1038</v>
       </c>
@@ -8999,11 +9019,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="B6" s="95" t="s">
+      <c r="B6" s="99" t="s">
         <v>1121</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -9026,11 +9046,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="6" t="s">
         <v>1125</v>
       </c>
@@ -9051,11 +9071,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="99" t="s">
         <v>1128</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -9078,11 +9098,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6" t="s">
         <v>1132</v>
       </c>
@@ -9103,11 +9123,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="99" t="s">
         <v>1134</v>
       </c>
       <c r="C10" s="6" t="s">
@@ -9130,11 +9150,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="6" t="s">
         <v>1139</v>
       </c>
@@ -9155,11 +9175,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B12" s="95" t="s">
+      <c r="B12" s="99" t="s">
         <v>1141</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -9182,11 +9202,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="6" t="s">
         <v>1146</v>
       </c>
@@ -9207,11 +9227,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="B14" s="95" t="s">
+      <c r="B14" s="99" t="s">
         <v>1148</v>
       </c>
       <c r="C14" s="6" t="s">
@@ -9234,11 +9254,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="6" t="s">
         <v>1153</v>
       </c>
@@ -9259,11 +9279,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="B16" s="95" t="s">
+      <c r="B16" s="99" t="s">
         <v>1155</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -9286,11 +9306,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="6" t="s">
         <v>1159</v>
       </c>
@@ -9311,11 +9331,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1086</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="99" t="s">
         <v>1162</v>
       </c>
       <c r="C18" s="6" t="s">
@@ -9338,11 +9358,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1091</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="6" t="s">
         <v>1166</v>
       </c>
@@ -9363,7 +9383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1094</v>
       </c>
@@ -9392,28 +9412,28 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:13" s="99" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="97" t="s">
+    <row r="21" spans="1:13" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="100" t="s">
         <v>864</v>
       </c>
-      <c r="B21" s="98"/>
-      <c r="C21" s="98"/>
-      <c r="D21" s="98"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="98"/>
-      <c r="G21" s="98"/>
-      <c r="H21" s="98"/>
-      <c r="I21" s="98"/>
-      <c r="J21" s="98"/>
-      <c r="K21" s="98"/>
-      <c r="L21" s="98"/>
-      <c r="M21" s="98"/>
-    </row>
-    <row r="22" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="101"/>
+      <c r="K21" s="101"/>
+      <c r="L21" s="101"/>
+      <c r="M21" s="101"/>
+    </row>
+    <row r="22" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="B22" s="95" t="s">
+      <c r="B22" s="99" t="s">
         <v>1175</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -9436,11 +9456,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="99"/>
       <c r="C23" s="6" t="s">
         <v>1179</v>
       </c>
@@ -9461,11 +9481,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="B24" s="95" t="s">
+      <c r="B24" s="99" t="s">
         <v>1184</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9488,11 +9508,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="6" t="s">
         <v>1189</v>
       </c>
@@ -9513,11 +9533,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="6" t="s">
         <v>1193</v>
       </c>
@@ -9538,11 +9558,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="6" t="s">
         <v>1196</v>
       </c>
@@ -9563,11 +9583,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="B28" s="95"/>
+      <c r="B28" s="99"/>
       <c r="C28" s="6" t="s">
         <v>1200</v>
       </c>
@@ -9588,11 +9608,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="6" t="s">
         <v>1204</v>
       </c>
@@ -9612,11 +9632,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="B30" s="95" t="s">
+      <c r="B30" s="99" t="s">
         <v>1207</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -9639,11 +9659,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B31" s="95"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="6" t="s">
         <v>1211</v>
       </c>
@@ -9664,11 +9684,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="6" t="s">
         <v>1214</v>
       </c>
@@ -9689,11 +9709,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="6" t="s">
         <v>1217</v>
       </c>
@@ -9714,11 +9734,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="6" t="s">
         <v>1220</v>
       </c>
@@ -9739,11 +9759,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="6" t="s">
         <v>1223</v>
       </c>
@@ -9763,11 +9783,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B36" s="95" t="s">
+      <c r="B36" s="99" t="s">
         <v>1226</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9790,11 +9810,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="6" t="s">
         <v>1229</v>
       </c>
@@ -9815,11 +9835,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="6" t="s">
         <v>1232</v>
       </c>
@@ -9840,11 +9860,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="6" t="s">
         <v>1235</v>
       </c>
@@ -9865,11 +9885,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="125.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="B40" s="95"/>
+      <c r="B40" s="99"/>
       <c r="C40" s="6" t="s">
         <v>1238</v>
       </c>
@@ -9890,11 +9910,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="B41" s="95"/>
+      <c r="B41" s="99"/>
       <c r="C41" s="6" t="s">
         <v>1241</v>
       </c>
@@ -9914,7 +9934,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1243</v>
       </c>
@@ -9940,7 +9960,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1247</v>
       </c>
@@ -9966,7 +9986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>1252</v>
       </c>
@@ -9995,7 +10015,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>1257</v>
       </c>
@@ -10024,7 +10044,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="115.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>1258</v>
       </c>
@@ -10055,6 +10075,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="B36:B41"/>
@@ -10063,11 +10088,6 @@
     <mergeCell ref="A21:XFD21"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B29"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10078,27 +10098,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView topLeftCell="E16" workbookViewId="0">
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="14.109375" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="79.42578125" customWidth="1"/>
-    <col min="4" max="4" width="43.5703125" customWidth="1"/>
-    <col min="5" max="5" width="44.42578125" customWidth="1"/>
-    <col min="6" max="6" width="55.5703125" customWidth="1"/>
+    <col min="3" max="3" width="79.44140625" customWidth="1"/>
+    <col min="4" max="4" width="43.5546875" customWidth="1"/>
+    <col min="5" max="5" width="44.44140625" customWidth="1"/>
+    <col min="6" max="6" width="55.5546875" customWidth="1"/>
     <col min="7" max="7" width="26" customWidth="1"/>
-    <col min="8" max="9" width="16.7109375" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="27.7109375" customWidth="1"/>
-    <col min="12" max="12" width="26.7109375" customWidth="1"/>
-    <col min="13" max="13" width="18.5703125" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="27.6640625" customWidth="1"/>
+    <col min="12" max="12" width="26.6640625" customWidth="1"/>
+    <col min="13" max="13" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10120,10 +10140,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -10140,9 +10160,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
-      <c r="B2" s="106"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
@@ -10160,11 +10180,11 @@
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="100" t="s">
+      <c r="B3" s="104" t="s">
         <v>499</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -10186,11 +10206,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="89.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="101"/>
+      <c r="B4" s="105"/>
       <c r="C4" s="12" t="s">
         <v>260</v>
       </c>
@@ -10213,11 +10233,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="192.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="101"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="5" t="s">
         <v>509</v>
       </c>
@@ -10243,11 +10263,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="101"/>
+      <c r="B6" s="105"/>
       <c r="C6" s="12" t="s">
         <v>269</v>
       </c>
@@ -10273,11 +10293,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="101"/>
+      <c r="B7" s="105"/>
       <c r="C7" s="31" t="s">
         <v>512</v>
       </c>
@@ -10297,11 +10317,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="B8" s="101"/>
+      <c r="B8" s="105"/>
       <c r="C8" s="31" t="s">
         <v>518</v>
       </c>
@@ -10321,11 +10341,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="183.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B9" s="101"/>
+      <c r="B9" s="105"/>
       <c r="C9" s="31" t="s">
         <v>522</v>
       </c>
@@ -10345,11 +10365,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="132.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="101"/>
+      <c r="B10" s="105"/>
       <c r="C10" s="31" t="s">
         <v>524</v>
       </c>
@@ -10369,11 +10389,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B11" s="101"/>
+      <c r="B11" s="105"/>
       <c r="C11" s="31" t="s">
         <v>528</v>
       </c>
@@ -10393,11 +10413,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="B12" s="101"/>
+      <c r="B12" s="105"/>
       <c r="C12" s="31" t="s">
         <v>532</v>
       </c>
@@ -10417,11 +10437,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="133.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="133.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B13" s="101"/>
+      <c r="B13" s="105"/>
       <c r="C13" s="31" t="s">
         <v>535</v>
       </c>
@@ -10441,11 +10461,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B14" s="101"/>
+      <c r="B14" s="105"/>
       <c r="C14" s="31" t="s">
         <v>538</v>
       </c>
@@ -10465,7 +10485,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="32" t="s">
         <v>570</v>
       </c>
@@ -10494,7 +10514,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33"/>
       <c r="B16" s="33"/>
       <c r="C16" s="34" t="s">
@@ -10509,11 +10529,11 @@
       <c r="J16" s="33"/>
       <c r="K16" s="33"/>
     </row>
-    <row r="17" spans="1:9" ht="210" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="B17" s="101" t="s">
+      <c r="B17" s="105" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -10535,11 +10555,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="101"/>
+      <c r="B18" s="105"/>
       <c r="C18" s="31" t="s">
         <v>556</v>
       </c>
@@ -10556,11 +10576,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B19" s="101"/>
+      <c r="B19" s="105"/>
       <c r="C19" s="31" t="s">
         <v>560</v>
       </c>
@@ -10577,11 +10597,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B20" s="101"/>
+      <c r="B20" s="105"/>
       <c r="C20" s="31" t="s">
         <v>566</v>
       </c>
@@ -10617,24 +10637,24 @@
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" customWidth="1"/>
     <col min="3" max="3" width="49" customWidth="1"/>
-    <col min="4" max="4" width="42.42578125" customWidth="1"/>
-    <col min="5" max="5" width="45.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.85546875" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="9" width="21.28515625" customWidth="1"/>
-    <col min="10" max="10" width="22.42578125" customWidth="1"/>
-    <col min="11" max="11" width="30.85546875" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" customWidth="1"/>
+    <col min="4" max="4" width="42.44140625" customWidth="1"/>
+    <col min="5" max="5" width="45.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.88671875" customWidth="1"/>
+    <col min="7" max="7" width="31.33203125" customWidth="1"/>
+    <col min="8" max="9" width="21.33203125" customWidth="1"/>
+    <col min="10" max="10" width="22.44140625" customWidth="1"/>
+    <col min="11" max="11" width="30.88671875" customWidth="1"/>
+    <col min="12" max="12" width="22.109375" customWidth="1"/>
     <col min="13" max="13" width="27" customWidth="1"/>
-    <col min="14" max="14" width="30.7109375" customWidth="1"/>
+    <col min="14" max="14" width="30.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10656,10 +10676,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -10676,9 +10696,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="63"/>
-      <c r="B2" s="106"/>
+      <c r="B2" s="70"/>
       <c r="C2" s="63"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
@@ -10696,11 +10716,11 @@
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="106" t="s">
         <v>453</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -10722,11 +10742,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="103"/>
+      <c r="B4" s="107"/>
       <c r="C4" s="12" t="s">
         <v>456</v>
       </c>
@@ -10746,11 +10766,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="118.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="103"/>
+      <c r="B5" s="107"/>
       <c r="C5" s="12" t="s">
         <v>460</v>
       </c>
@@ -10770,11 +10790,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="144" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="103"/>
+      <c r="B6" s="107"/>
       <c r="C6" s="31" t="s">
         <v>471</v>
       </c>
@@ -10794,11 +10814,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="103"/>
+      <c r="B7" s="107"/>
       <c r="C7" s="31" t="s">
         <v>472</v>
       </c>
@@ -10818,11 +10838,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="103"/>
+      <c r="B8" s="107"/>
       <c r="C8" s="31" t="s">
         <v>469</v>
       </c>
@@ -10842,11 +10862,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="132" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="103"/>
+      <c r="B9" s="107"/>
       <c r="C9" s="31" t="s">
         <v>467</v>
       </c>
@@ -10866,11 +10886,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="103"/>
+      <c r="B10" s="107"/>
       <c r="C10" s="31" t="s">
         <v>468</v>
       </c>
@@ -10890,7 +10910,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>491</v>
       </c>
@@ -10914,7 +10934,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>513</v>
       </c>
@@ -10938,7 +10958,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B3:B10"/>
@@ -10953,30 +10973,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB30AD-5982-453B-BB21-1F6052C6135A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="32.85546875" customWidth="1"/>
-    <col min="3" max="3" width="71.7109375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="36.7109375" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="32.88671875" customWidth="1"/>
+    <col min="3" max="3" width="71.6640625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="36.6640625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="44" customWidth="1"/>
-    <col min="6" max="6" width="46.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1"/>
+    <col min="6" max="6" width="46.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" customWidth="1"/>
     <col min="8" max="9" width="17" customWidth="1"/>
-    <col min="10" max="10" width="16.42578125" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" customWidth="1"/>
-    <col min="12" max="12" width="38.7109375" customWidth="1"/>
-    <col min="13" max="13" width="30.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.28515625" customWidth="1"/>
+    <col min="10" max="10" width="16.44140625" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" customWidth="1"/>
+    <col min="12" max="12" width="38.6640625" customWidth="1"/>
+    <col min="13" max="13" width="30.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -10998,10 +11018,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="107"/>
+      <c r="I1" s="110"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -11018,10 +11038,10 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="30" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
-      <c r="C2" s="108"/>
+      <c r="C2" s="71"/>
       <c r="D2" s="63"/>
       <c r="E2" s="63"/>
       <c r="F2" s="63"/>
@@ -11038,7 +11058,7 @@
       <c r="M2" s="63"/>
       <c r="N2" s="63"/>
     </row>
-    <row r="3" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>574</v>
       </c>
@@ -11064,7 +11084,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>579</v>
       </c>
@@ -11093,7 +11113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>580</v>
       </c>
@@ -11122,7 +11142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="99.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>581</v>
       </c>
@@ -11151,7 +11171,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="105.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>582</v>
       </c>
@@ -11174,7 +11194,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>583</v>
       </c>
@@ -11197,7 +11217,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="101.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>599</v>
       </c>
@@ -11220,7 +11240,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>600</v>
       </c>
@@ -11243,7 +11263,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>601</v>
       </c>
@@ -11266,7 +11286,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="123" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>602</v>
       </c>
@@ -11289,7 +11309,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="146.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>610</v>
       </c>
@@ -11312,7 +11332,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="134.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>611</v>
       </c>
@@ -11335,7 +11355,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>623</v>
       </c>
@@ -11358,7 +11378,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="176.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="176.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>624</v>
       </c>
@@ -11372,7 +11392,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>649</v>
       </c>
@@ -11395,7 +11415,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>650</v>
       </c>
@@ -11418,7 +11438,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>651</v>
       </c>
@@ -11441,7 +11461,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>652</v>
       </c>
@@ -11464,7 +11484,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>653</v>
       </c>
@@ -11487,7 +11507,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>654</v>
       </c>
@@ -11510,7 +11530,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" ht="138.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>656</v>
       </c>
@@ -11533,7 +11553,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>660</v>
       </c>
@@ -11556,7 +11576,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="225" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>664</v>
       </c>
@@ -11585,7 +11605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="33"/>
       <c r="B26" s="33"/>
       <c r="C26" s="38" t="s">
@@ -11600,11 +11620,11 @@
       <c r="J26" s="33"/>
       <c r="K26" s="33"/>
     </row>
-    <row r="27" spans="1:11" ht="198.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="198.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="108" t="s">
         <v>673</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -11622,15 +11642,15 @@
       <c r="H27" s="50" t="s">
         <v>1327</v>
       </c>
-      <c r="I27" s="109" t="s">
+      <c r="I27" s="72" t="s">
         <v>1305</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="90" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" ht="72" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="B28" s="105"/>
+      <c r="B28" s="109"/>
       <c r="C28" s="44" t="s">
         <v>678</v>
       </c>
@@ -11644,11 +11664,11 @@
         <v>680</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="B29" s="105"/>
+      <c r="B29" s="109"/>
       <c r="C29" s="10" t="s">
         <v>681</v>
       </c>
@@ -11668,11 +11688,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" ht="254.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="B30" s="105"/>
+      <c r="B30" s="109"/>
       <c r="C30" s="10" t="s">
         <v>684</v>
       </c>
@@ -11692,11 +11712,11 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="255" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B31" s="105"/>
+      <c r="B31" s="109"/>
       <c r="C31" s="44" t="s">
         <v>687</v>
       </c>
@@ -11738,31 +11758,31 @@
       <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" customWidth="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1"/>
-    <col min="3" max="3" width="24.7109375" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="46.28515625" customWidth="1"/>
-    <col min="6" max="6" width="36.5703125" customWidth="1"/>
-    <col min="7" max="7" width="36.7109375" customWidth="1"/>
-    <col min="8" max="9" width="25.7109375" customWidth="1"/>
-    <col min="10" max="10" width="25.42578125" customWidth="1"/>
-    <col min="11" max="11" width="37.28515625" customWidth="1"/>
-    <col min="12" max="12" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="2" max="2" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="24.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="46.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.5546875" customWidth="1"/>
+    <col min="7" max="7" width="36.6640625" customWidth="1"/>
+    <col min="8" max="9" width="25.6640625" customWidth="1"/>
+    <col min="10" max="10" width="25.44140625" customWidth="1"/>
+    <col min="11" max="11" width="37.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.6640625" customWidth="1"/>
     <col min="13" max="13" width="16" customWidth="1"/>
     <col min="14" max="14" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="75" t="s">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -11784,10 +11804,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11804,7 +11824,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="57"/>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -11824,25 +11844,25 @@
       <c r="M4" s="57"/>
       <c r="N4" s="57"/>
     </row>
-    <row r="5" spans="1:14" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="74" t="s">
+    <row r="5" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74"/>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="74"/>
-      <c r="I5" s="74"/>
-      <c r="J5" s="74"/>
-      <c r="K5" s="74"/>
-      <c r="L5" s="74"/>
-      <c r="M5" s="74"/>
-      <c r="N5" s="74"/>
-    </row>
-    <row r="6" spans="1:14" ht="119.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="78"/>
+      <c r="C5" s="78"/>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="78"/>
+      <c r="G5" s="78"/>
+      <c r="H5" s="78"/>
+      <c r="I5" s="78"/>
+      <c r="J5" s="78"/>
+      <c r="K5" s="78"/>
+      <c r="L5" s="78"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="78"/>
+    </row>
+    <row r="6" spans="1:14" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>37</v>
       </c>
@@ -11880,7 +11900,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>38</v>
       </c>
@@ -11921,11 +11941,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="82" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -11962,11 +11982,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="78"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -12001,11 +12021,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="78"/>
+      <c r="B10" s="82"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -12040,11 +12060,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="45.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="44.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="78"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -12079,7 +12099,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>43</v>
       </c>
@@ -12117,7 +12137,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>44</v>
       </c>
@@ -12158,7 +12178,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>51</v>
       </c>
@@ -12199,7 +12219,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>52</v>
       </c>
@@ -12240,11 +12260,11 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="77" t="s">
+      <c r="B16" s="81" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -12279,11 +12299,11 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="91.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="91.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="77"/>
+      <c r="B17" s="81"/>
       <c r="C17" s="6" t="s">
         <v>1291</v>
       </c>
@@ -12318,217 +12338,217 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="5:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="5:5" x14ac:dyDescent="0.3">
       <c r="E88" s="5"/>
     </row>
   </sheetData>
@@ -12553,31 +12573,31 @@
       <selection pane="bottomLeft" activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.5703125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="31.140625" customWidth="1"/>
-    <col min="8" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" customWidth="1"/>
-    <col min="11" max="11" width="39.140625" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="13" max="13" width="18.140625" customWidth="1"/>
-    <col min="14" max="14" width="26.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="35.109375" customWidth="1"/>
+    <col min="4" max="4" width="40.33203125" customWidth="1"/>
+    <col min="5" max="5" width="33.5546875" customWidth="1"/>
+    <col min="6" max="6" width="31.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.109375" customWidth="1"/>
+    <col min="8" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="15.44140625" customWidth="1"/>
+    <col min="11" max="11" width="39.109375" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="13" max="13" width="18.109375" customWidth="1"/>
+    <col min="14" max="14" width="26.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="75" t="s">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="76"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="79"/>
+      <c r="J2" s="80"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -12599,10 +12619,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12619,7 +12639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -12639,7 +12659,7 @@
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
     </row>
-    <row r="5" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>56</v>
       </c>
@@ -12676,7 +12696,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="67.900000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="67.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>57</v>
       </c>
@@ -12714,7 +12734,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>58</v>
       </c>
@@ -12752,7 +12772,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>59</v>
       </c>
@@ -12790,7 +12810,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="81.599999999999994" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>60</v>
       </c>
@@ -12846,27 +12866,27 @@
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="17.44140625" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" customWidth="1"/>
     <col min="3" max="3" width="31" customWidth="1"/>
-    <col min="4" max="4" width="33.28515625" customWidth="1"/>
-    <col min="5" max="5" width="36.42578125" customWidth="1"/>
-    <col min="6" max="6" width="26.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="4" max="4" width="33.33203125" customWidth="1"/>
+    <col min="5" max="5" width="36.44140625" customWidth="1"/>
+    <col min="6" max="6" width="26.5546875" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
     <col min="8" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="17.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="75" t="s">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="79"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -12888,10 +12908,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12908,7 +12928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" s="30" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
@@ -12928,7 +12948,7 @@
       <c r="M4" s="59"/>
       <c r="N4" s="59"/>
     </row>
-    <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>85</v>
       </c>
@@ -12966,7 +12986,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>89</v>
       </c>
@@ -13004,7 +13024,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>93</v>
       </c>
@@ -13042,7 +13062,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>98</v>
       </c>
@@ -13080,7 +13100,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>102</v>
       </c>
@@ -13118,7 +13138,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>106</v>
       </c>
@@ -13156,7 +13176,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>111</v>
       </c>
@@ -13194,7 +13214,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>115</v>
       </c>
@@ -13232,7 +13252,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="88.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="88.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>120</v>
       </c>
@@ -13270,7 +13290,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>124</v>
       </c>
@@ -13308,7 +13328,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>127</v>
       </c>
@@ -13346,7 +13366,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>131</v>
       </c>
@@ -13384,7 +13404,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>136</v>
       </c>
@@ -13422,7 +13442,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>140</v>
       </c>
@@ -13460,7 +13480,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>144</v>
       </c>
@@ -13498,7 +13518,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>148</v>
       </c>
@@ -13536,7 +13556,7 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>153</v>
       </c>
@@ -13593,23 +13613,23 @@
       <selection pane="bottomLeft" activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" customWidth="1"/>
-    <col min="2" max="2" width="51.85546875" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="43.85546875" customWidth="1"/>
-    <col min="5" max="5" width="40.140625" customWidth="1"/>
-    <col min="6" max="6" width="44.42578125" customWidth="1"/>
-    <col min="7" max="7" width="22.7109375" customWidth="1"/>
-    <col min="8" max="9" width="23.5703125" customWidth="1"/>
-    <col min="10" max="10" width="27.85546875" customWidth="1"/>
-    <col min="11" max="11" width="64.140625" customWidth="1"/>
-    <col min="12" max="12" width="19.140625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
+    <col min="2" max="2" width="51.88671875" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="43.88671875" customWidth="1"/>
+    <col min="5" max="5" width="40.109375" customWidth="1"/>
+    <col min="6" max="6" width="44.44140625" customWidth="1"/>
+    <col min="7" max="7" width="22.6640625" customWidth="1"/>
+    <col min="8" max="9" width="23.5546875" customWidth="1"/>
+    <col min="10" max="10" width="27.88671875" customWidth="1"/>
+    <col min="11" max="11" width="64.109375" customWidth="1"/>
+    <col min="12" max="12" width="19.109375" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="32.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -13631,10 +13651,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13651,7 +13671,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="55" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H2" s="56" t="s">
         <v>1331</v>
       </c>
@@ -13659,14 +13679,14 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+    <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="88" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -13677,11 +13697,11 @@
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="86" t="s">
+      <c r="B4" s="90" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13709,11 +13729,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="87"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="6" t="s">
         <v>169</v>
       </c>
@@ -13739,11 +13759,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="87"/>
+      <c r="B6" s="91"/>
       <c r="C6" s="6" t="s">
         <v>173</v>
       </c>
@@ -13769,11 +13789,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="87"/>
+      <c r="B7" s="91"/>
       <c r="C7" s="16" t="s">
         <v>176</v>
       </c>
@@ -13799,11 +13819,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="87"/>
+      <c r="B8" s="91"/>
       <c r="C8" s="16" t="s">
         <v>179</v>
       </c>
@@ -13829,9 +13849,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="87"/>
+      <c r="B9" s="91"/>
       <c r="C9" s="16" t="s">
         <v>1335</v>
       </c>
@@ -13856,11 +13876,11 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="87"/>
+      <c r="B10" s="91"/>
       <c r="C10" s="16" t="s">
         <v>182</v>
       </c>
@@ -13886,11 +13906,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="91"/>
       <c r="C11" s="16" t="s">
         <v>186</v>
       </c>
@@ -13916,11 +13936,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="225" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="201.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="87"/>
+      <c r="B12" s="91"/>
       <c r="C12" s="16" t="s">
         <v>190</v>
       </c>
@@ -13946,11 +13966,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="87"/>
+      <c r="B13" s="91"/>
       <c r="C13" s="16" t="s">
         <v>194</v>
       </c>
@@ -13976,11 +13996,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="87"/>
+      <c r="B14" s="91"/>
       <c r="C14" s="16" t="s">
         <v>198</v>
       </c>
@@ -14006,11 +14026,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="87"/>
+      <c r="B15" s="91"/>
       <c r="C15" s="16" t="s">
         <v>202</v>
       </c>
@@ -14036,11 +14056,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="87"/>
+      <c r="B16" s="91"/>
       <c r="C16" s="16" t="s">
         <v>206</v>
       </c>
@@ -14066,11 +14086,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="87"/>
+      <c r="B17" s="91"/>
       <c r="C17" s="16" t="s">
         <v>210</v>
       </c>
@@ -14096,11 +14116,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="87"/>
+      <c r="B18" s="91"/>
       <c r="C18" s="16" t="s">
         <v>214</v>
       </c>
@@ -14126,11 +14146,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19" spans="1:14" ht="120" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="87"/>
+      <c r="B19" s="91"/>
       <c r="C19" s="16" t="s">
         <v>219</v>
       </c>
@@ -14156,11 +14176,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="87"/>
+      <c r="B20" s="91"/>
       <c r="C20" s="16" t="s">
         <v>224</v>
       </c>
@@ -14186,11 +14206,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="87"/>
+      <c r="B21" s="91"/>
       <c r="C21" s="16" t="s">
         <v>228</v>
       </c>
@@ -14216,14 +14236,14 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:14" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="88" t="s">
+    <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="92" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="85"/>
-      <c r="C22" s="85"/>
-      <c r="D22" s="85"/>
-      <c r="E22" s="85"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -14234,11 +14254,11 @@
       <c r="M22" s="15"/>
       <c r="N22" s="15"/>
     </row>
-    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="82" t="s">
+      <c r="B23" s="86" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -14266,11 +14286,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="150" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="83"/>
+      <c r="B24" s="87"/>
       <c r="C24" s="16" t="s">
         <v>237</v>
       </c>
@@ -14296,11 +14316,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="105" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="83"/>
+      <c r="B25" s="87"/>
       <c r="C25" s="16" t="s">
         <v>242</v>
       </c>
@@ -14326,11 +14346,11 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="165" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" ht="144" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="83"/>
+      <c r="B26" s="87"/>
       <c r="C26" s="16" t="s">
         <v>247</v>
       </c>
@@ -14356,7 +14376,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="129" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>1341</v>
       </c>
@@ -14405,20 +14425,20 @@
       <selection pane="bottomLeft" activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.6640625" customWidth="1"/>
     <col min="2" max="2" width="47" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.109375" customWidth="1"/>
     <col min="5" max="5" width="50" customWidth="1"/>
-    <col min="6" max="6" width="49.85546875" customWidth="1"/>
-    <col min="7" max="7" width="30.28515625" customWidth="1"/>
-    <col min="8" max="9" width="30.85546875" customWidth="1"/>
-    <col min="10" max="10" width="54.42578125" customWidth="1"/>
+    <col min="6" max="6" width="49.88671875" customWidth="1"/>
+    <col min="7" max="7" width="30.33203125" customWidth="1"/>
+    <col min="8" max="9" width="30.88671875" customWidth="1"/>
+    <col min="10" max="10" width="54.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -14440,10 +14460,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="89" t="s">
+      <c r="H1" s="93" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="90"/>
+      <c r="I1" s="94"/>
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
@@ -14457,7 +14477,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="30" customFormat="1" ht="18.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" s="30" customFormat="1" ht="18" x14ac:dyDescent="0.3">
       <c r="A2" s="63"/>
       <c r="B2" s="63"/>
       <c r="C2" s="63"/>
@@ -14476,7 +14496,7 @@
       <c r="L2" s="63"/>
       <c r="M2" s="63"/>
     </row>
-    <row r="3" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A3" s="17"/>
       <c r="B3" s="18"/>
       <c r="C3" s="19" t="s">
@@ -14493,11 +14513,11 @@
       <c r="L3" s="20"/>
       <c r="M3" s="20"/>
     </row>
-    <row r="4" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="159.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="91" t="s">
+      <c r="B4" s="95" t="s">
         <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -14522,11 +14542,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="105" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="12" t="s">
         <v>260</v>
       </c>
@@ -14549,11 +14569,11 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="223.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="95"/>
       <c r="C6" s="5" t="s">
         <v>264</v>
       </c>
@@ -14576,11 +14596,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="95"/>
       <c r="C7" s="12" t="s">
         <v>269</v>
       </c>
@@ -14603,11 +14623,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="95"/>
       <c r="C8" s="12" t="s">
         <v>273</v>
       </c>
@@ -14630,11 +14650,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="228" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="91"/>
+      <c r="B9" s="95"/>
       <c r="C9" s="5" t="s">
         <v>278</v>
       </c>
@@ -14657,11 +14677,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="145.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="95"/>
       <c r="C10" s="12" t="s">
         <v>282</v>
       </c>
@@ -14684,11 +14704,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="95"/>
       <c r="C11" s="12" t="s">
         <v>286</v>
       </c>
@@ -14711,11 +14731,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="95"/>
       <c r="C12" s="12" t="s">
         <v>290</v>
       </c>
@@ -14738,11 +14758,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="162" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="95"/>
       <c r="C13" s="12" t="s">
         <v>294</v>
       </c>
@@ -14765,11 +14785,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="198" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="95"/>
       <c r="C14" s="12" t="s">
         <v>299</v>
       </c>
@@ -14792,11 +14812,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="138" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="95"/>
       <c r="C15" s="12" t="s">
         <v>304</v>
       </c>
@@ -14819,11 +14839,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="231" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="95"/>
       <c r="C16" s="12" t="s">
         <v>309</v>
       </c>
@@ -14846,11 +14866,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="95"/>
       <c r="C17" s="12" t="s">
         <v>313</v>
       </c>
@@ -14873,11 +14893,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="187.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="95"/>
       <c r="C18" s="12" t="s">
         <v>317</v>
       </c>
@@ -14900,11 +14920,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="171" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="95"/>
       <c r="C19" s="12" t="s">
         <v>321</v>
       </c>
@@ -14927,11 +14947,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="207" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="95"/>
       <c r="C20" s="12" t="s">
         <v>325</v>
       </c>
@@ -14954,11 +14974,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="135" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="95"/>
       <c r="C21" s="12" t="s">
         <v>329</v>
       </c>
@@ -14981,11 +15001,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="91"/>
+      <c r="B22" s="95"/>
       <c r="C22" s="12" t="s">
         <v>333</v>
       </c>
@@ -15008,11 +15028,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="211.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="91"/>
+      <c r="B23" s="95"/>
       <c r="C23" s="12" t="s">
         <v>338</v>
       </c>
@@ -15035,11 +15055,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="252" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="91"/>
+      <c r="B24" s="95"/>
       <c r="C24" s="12" t="s">
         <v>342</v>
       </c>
@@ -15065,7 +15085,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="26.25" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
       <c r="A25" s="17"/>
       <c r="B25" s="17"/>
       <c r="C25" s="21" t="s">
@@ -15082,7 +15102,7 @@
       <c r="L25" s="17"/>
       <c r="M25" s="17"/>
     </row>
-    <row r="26" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="210" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="22" t="s">
         <v>347</v>
       </c>
@@ -15109,7 +15129,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="120" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="115.2" x14ac:dyDescent="0.3">
       <c r="A27" s="22" t="s">
         <v>352</v>
       </c>
@@ -15138,7 +15158,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="250.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="22" t="s">
         <v>357</v>
       </c>
@@ -15165,7 +15185,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="259.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="22" t="s">
         <v>361</v>
       </c>
@@ -15192,7 +15212,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
         <v>365</v>
       </c>
@@ -15219,7 +15239,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="216" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="22" t="s">
         <v>369</v>
       </c>
@@ -15246,7 +15266,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="214.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="22" t="s">
         <v>373</v>
       </c>
@@ -15273,7 +15293,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="23.4" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="17"/>
       <c r="C33" s="19" t="s">
@@ -15290,11 +15310,11 @@
       <c r="L33" s="17"/>
       <c r="M33" s="17"/>
     </row>
-    <row r="34" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="166.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="96" t="s">
         <v>380</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -15316,11 +15336,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="92"/>
+      <c r="B35" s="96"/>
       <c r="C35" s="5" t="s">
         <v>386</v>
       </c>
@@ -15340,11 +15360,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="120" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B36" s="92"/>
+      <c r="B36" s="96"/>
       <c r="C36" s="5" t="s">
         <v>390</v>
       </c>
@@ -15364,11 +15384,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B37" s="92"/>
+      <c r="B37" s="96"/>
       <c r="C37" s="12" t="s">
         <v>395</v>
       </c>
@@ -15388,11 +15408,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="195" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="92"/>
+      <c r="B38" s="96"/>
       <c r="C38" s="12" t="s">
         <v>400</v>
       </c>
@@ -15415,11 +15435,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="219" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B39" s="92"/>
+      <c r="B39" s="96"/>
       <c r="C39" s="12" t="s">
         <v>286</v>
       </c>
@@ -15439,11 +15459,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="181.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B40" s="92"/>
+      <c r="B40" s="96"/>
       <c r="C40" s="12" t="s">
         <v>407</v>
       </c>
@@ -15463,11 +15483,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="92"/>
+      <c r="B41" s="96"/>
       <c r="C41" s="12" t="s">
         <v>411</v>
       </c>
@@ -15487,11 +15507,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="184.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="92"/>
+      <c r="B42" s="96"/>
       <c r="C42" s="12" t="s">
         <v>415</v>
       </c>
@@ -15511,11 +15531,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B43" s="92"/>
+      <c r="B43" s="96"/>
       <c r="C43" s="12" t="s">
         <v>419</v>
       </c>
@@ -15535,11 +15555,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B44" s="92"/>
+      <c r="B44" s="96"/>
       <c r="C44" s="12" t="s">
         <v>424</v>
       </c>
@@ -15559,11 +15579,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="160.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B45" s="92"/>
+      <c r="B45" s="96"/>
       <c r="C45" s="12" t="s">
         <v>342</v>
       </c>
@@ -15586,7 +15606,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="21" x14ac:dyDescent="0.3">
       <c r="A46" s="27"/>
       <c r="B46" s="27"/>
       <c r="C46" s="28" t="s">
@@ -15603,11 +15623,11 @@
       <c r="L46" s="27"/>
       <c r="M46" s="27"/>
     </row>
-    <row r="47" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="183" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B47" s="93" t="s">
+      <c r="B47" s="97" t="s">
         <v>430</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -15634,11 +15654,11 @@
       <c r="L47" s="30"/>
       <c r="M47" s="30"/>
     </row>
-    <row r="48" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="213" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="B48" s="93"/>
+      <c r="B48" s="97"/>
       <c r="C48" s="12" t="s">
         <v>354</v>
       </c>
@@ -15661,11 +15681,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" ht="234" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B49" s="93"/>
+      <c r="B49" s="97"/>
       <c r="C49" s="12" t="s">
         <v>358</v>
       </c>
@@ -15688,11 +15708,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" ht="190.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="93"/>
+      <c r="B50" s="97"/>
       <c r="C50" s="12" t="s">
         <v>362</v>
       </c>
@@ -15712,11 +15732,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="196.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B51" s="93"/>
+      <c r="B51" s="97"/>
       <c r="C51" s="12" t="s">
         <v>446</v>
       </c>
@@ -15736,11 +15756,11 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="240" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="93"/>
+      <c r="B52" s="97"/>
       <c r="C52" s="12" t="s">
         <v>449</v>
       </c>
@@ -15760,7 +15780,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="150" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="144" x14ac:dyDescent="0.3">
       <c r="C53" s="12" t="s">
         <v>1348</v>
       </c>
@@ -15800,29 +15820,29 @@
       <selection pane="bottomLeft" activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
     <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1"/>
+    <col min="3" max="3" width="35.33203125" customWidth="1"/>
     <col min="4" max="4" width="38" customWidth="1"/>
-    <col min="5" max="5" width="35.140625" customWidth="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1"/>
-    <col min="7" max="7" width="29.5703125" customWidth="1"/>
-    <col min="8" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="18.7109375" customWidth="1"/>
-    <col min="11" max="11" width="54.42578125" customWidth="1"/>
-    <col min="13" max="13" width="22.85546875" customWidth="1"/>
+    <col min="5" max="5" width="35.109375" customWidth="1"/>
+    <col min="6" max="6" width="33.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.5546875" customWidth="1"/>
+    <col min="8" max="9" width="12.6640625" customWidth="1"/>
+    <col min="10" max="10" width="18.6640625" customWidth="1"/>
+    <col min="11" max="11" width="54.44140625" customWidth="1"/>
+    <col min="13" max="13" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H2" s="75" t="s">
+    <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H2" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="75"/>
-      <c r="J2" s="81"/>
-    </row>
-    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I2" s="79"/>
+      <c r="J2" s="85"/>
+    </row>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>0</v>
       </c>
@@ -15844,10 +15864,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="79" t="s">
+      <c r="H3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="80"/>
+      <c r="I3" s="84"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15864,7 +15884,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="65"/>
       <c r="B4" s="66"/>
       <c r="C4" s="65"/>
@@ -15884,11 +15904,11 @@
       <c r="M4" s="65"/>
       <c r="N4" s="65"/>
     </row>
-    <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="98" t="s">
         <v>692</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -15922,11 +15942,11 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="42" t="s">
         <v>697</v>
       </c>
@@ -15958,11 +15978,11 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="42" t="s">
         <v>701</v>
       </c>
@@ -15994,11 +16014,11 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="42" t="s">
         <v>705</v>
       </c>
@@ -16033,11 +16053,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="42" t="s">
         <v>710</v>
       </c>
@@ -16070,11 +16090,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="42" t="s">
         <v>714</v>
       </c>
@@ -16109,11 +16129,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="42" t="s">
         <v>718</v>
       </c>
@@ -16148,11 +16168,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="111.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="42" t="s">
         <v>721</v>
       </c>
@@ -16185,11 +16205,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="220.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="42" t="s">
         <v>726</v>
       </c>
@@ -16222,11 +16242,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="42" t="s">
         <v>731</v>
       </c>
@@ -16257,11 +16277,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="42" t="s">
         <v>734</v>
       </c>
@@ -16294,11 +16314,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="154.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="154.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="99"/>
       <c r="C16" s="42" t="s">
         <v>738</v>
       </c>
@@ -16331,11 +16351,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="195.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="99"/>
       <c r="C17" s="42" t="s">
         <v>742</v>
       </c>
@@ -16370,11 +16390,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="103.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="103.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="99"/>
       <c r="C18" s="42" t="s">
         <v>747</v>
       </c>
@@ -16407,11 +16427,11 @@
         <v>44077</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="64.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="42" t="s">
         <v>751</v>
       </c>
@@ -16444,11 +16464,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="82.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="82.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="42" t="s">
         <v>755</v>
       </c>
@@ -16481,11 +16501,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="80.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="80.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="99"/>
       <c r="C21" s="42" t="s">
         <v>759</v>
       </c>
@@ -16518,11 +16538,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="22" spans="1:13" ht="121.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="121.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="99"/>
       <c r="C22" s="3" t="s">
         <v>763</v>
       </c>
@@ -16555,11 +16575,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="87.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="B23" s="95" t="s">
+      <c r="B23" s="99" t="s">
         <v>768</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -16592,11 +16612,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="24" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" ht="150" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="99"/>
       <c r="C24" s="6" t="s">
         <v>774</v>
       </c>
@@ -16631,11 +16651,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="85.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" ht="85.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B25" s="95"/>
+      <c r="B25" s="99"/>
       <c r="C25" s="6" t="s">
         <v>778</v>
       </c>
@@ -16670,11 +16690,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="26" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="B26" s="95"/>
+      <c r="B26" s="99"/>
       <c r="C26" s="6" t="s">
         <v>782</v>
       </c>
@@ -16709,11 +16729,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="27" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="B27" s="95"/>
+      <c r="B27" s="99"/>
       <c r="C27" s="6" t="s">
         <v>786</v>
       </c>
@@ -16748,11 +16768,11 @@
         <v>44078</v>
       </c>
     </row>
-    <row r="28" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="99" t="s">
         <v>790</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -16787,11 +16807,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B29" s="95"/>
+      <c r="B29" s="99"/>
       <c r="C29" s="6" t="s">
         <v>796</v>
       </c>
@@ -16826,11 +16846,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B30" s="95"/>
+      <c r="B30" s="99"/>
       <c r="C30" s="6" t="s">
         <v>802</v>
       </c>
@@ -16865,11 +16885,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="31" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B31" s="95"/>
+      <c r="B31" s="99"/>
       <c r="C31" s="6" t="s">
         <v>806</v>
       </c>
@@ -16904,11 +16924,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="32" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B32" s="95"/>
+      <c r="B32" s="99"/>
       <c r="C32" s="6" t="s">
         <v>811</v>
       </c>
@@ -16943,11 +16963,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B33" s="95"/>
+      <c r="B33" s="99"/>
       <c r="C33" s="6" t="s">
         <v>814</v>
       </c>
@@ -16982,11 +17002,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="156" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="B34" s="95"/>
+      <c r="B34" s="99"/>
       <c r="C34" s="6" t="s">
         <v>820</v>
       </c>
@@ -17019,11 +17039,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="B35" s="95"/>
+      <c r="B35" s="99"/>
       <c r="C35" s="6" t="s">
         <v>738</v>
       </c>
@@ -17056,11 +17076,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="129.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="B36" s="95"/>
+      <c r="B36" s="99"/>
       <c r="C36" s="6" t="s">
         <v>828</v>
       </c>
@@ -17093,11 +17113,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="B37" s="95"/>
+      <c r="B37" s="99"/>
       <c r="C37" s="6" t="s">
         <v>832</v>
       </c>
@@ -17130,11 +17150,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="B38" s="95"/>
+      <c r="B38" s="99"/>
       <c r="C38" s="6" t="s">
         <v>836</v>
       </c>
@@ -17167,11 +17187,11 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="91.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="91.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="B39" s="95"/>
+      <c r="B39" s="99"/>
       <c r="C39" s="6" t="s">
         <v>840</v>
       </c>
@@ -17204,7 +17224,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="105" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>844</v>
       </c>
@@ -17245,7 +17265,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="135.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="135.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>1307</v>
       </c>
@@ -17286,7 +17306,7 @@
         <v>44079</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="340.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="340.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1308</v>
       </c>
@@ -17344,31 +17364,32 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I4" sqref="I4"/>
+      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="1"/>
-    <col min="2" max="2" width="29.5703125" customWidth="1"/>
-    <col min="3" max="3" width="34.140625" customWidth="1"/>
-    <col min="4" max="4" width="27" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" customWidth="1"/>
-    <col min="6" max="6" width="26.7109375" customWidth="1"/>
-    <col min="7" max="7" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.6640625" customWidth="1"/>
+    <col min="2" max="2" width="19.77734375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.77734375" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" customWidth="1"/>
+    <col min="6" max="6" width="26.6640625" customWidth="1"/>
+    <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="9" width="13" customWidth="1"/>
     <col min="10" max="10" width="19" customWidth="1"/>
-    <col min="11" max="11" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="13.33203125" customWidth="1"/>
+    <col min="12" max="12" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="75" t="s">
+    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="75"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="79"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -17390,10 +17411,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="80"/>
+      <c r="I2" s="84"/>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
@@ -17407,7 +17428,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:13" s="30" customFormat="1" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="59"/>
       <c r="B3" s="59"/>
       <c r="C3" s="59"/>
@@ -17426,11 +17447,11 @@
       <c r="L3" s="59"/>
       <c r="M3" s="59"/>
     </row>
-    <row r="4" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="116.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="98" t="s">
         <v>855</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -17455,11 +17476,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="99"/>
       <c r="C5" s="6" t="s">
         <v>861</v>
       </c>
@@ -17482,23 +17503,23 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="99" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+    <row r="6" spans="1:13" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="100" t="s">
         <v>864</v>
       </c>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="98"/>
-      <c r="H6" s="98"/>
-      <c r="I6" s="98"/>
-      <c r="J6" s="98"/>
-      <c r="K6" s="98"/>
-      <c r="L6" s="98"/>
-    </row>
-    <row r="7" spans="1:13" ht="193.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="101"/>
+      <c r="C6" s="101"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="101"/>
+      <c r="F6" s="101"/>
+      <c r="G6" s="101"/>
+      <c r="H6" s="101"/>
+      <c r="I6" s="101"/>
+      <c r="J6" s="101"/>
+      <c r="K6" s="101"/>
+      <c r="L6" s="101"/>
+    </row>
+    <row r="7" spans="1:13" ht="193.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>865</v>
       </c>
@@ -17527,11 +17548,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="89.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="89.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="99" t="s">
         <v>871</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -17559,11 +17580,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="3" t="s">
         <v>878</v>
       </c>
@@ -17589,11 +17610,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="90" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="99"/>
       <c r="C10" s="3" t="s">
         <v>882</v>
       </c>
@@ -17619,11 +17640,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="B11" s="95" t="s">
+      <c r="B11" s="99" t="s">
         <v>887</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -17649,11 +17670,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="3" t="s">
         <v>893</v>
       </c>
@@ -17677,11 +17698,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="3" t="s">
         <v>898</v>
       </c>
@@ -17705,11 +17726,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="117.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B14" s="96" t="s">
+      <c r="B14" s="103" t="s">
         <v>902</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -17737,11 +17758,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B15" s="96"/>
+      <c r="B15" s="103"/>
       <c r="C15" s="3" t="s">
         <v>908</v>
       </c>
@@ -17767,7 +17788,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>911</v>
       </c>
@@ -17799,23 +17820,23 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="99" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="97" t="s">
+    <row r="17" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="100" t="s">
         <v>916</v>
       </c>
-      <c r="B17" s="98"/>
-      <c r="C17" s="98"/>
-      <c r="D17" s="98"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="98"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-    </row>
-    <row r="18" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="101"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="101"/>
+      <c r="F17" s="101"/>
+      <c r="G17" s="101"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="101"/>
+      <c r="K17" s="101"/>
+      <c r="L17" s="101"/>
+    </row>
+    <row r="18" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>917</v>
       </c>
@@ -17838,14 +17859,14 @@
       <c r="H18" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I18" s="68" t="s">
-        <v>71</v>
+      <c r="I18" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J18" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>923</v>
       </c>
@@ -17870,14 +17891,14 @@
       <c r="H19" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I19" s="68" t="s">
-        <v>71</v>
+      <c r="I19" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J19" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>928</v>
       </c>
@@ -17902,18 +17923,18 @@
       <c r="H20" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I20" s="68" t="s">
-        <v>71</v>
+      <c r="I20" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J20" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="103" t="s">
         <v>918</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -17934,18 +17955,18 @@
       <c r="H21" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I21" s="68" t="s">
-        <v>71</v>
+      <c r="I21" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J21" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="B22" s="96"/>
+      <c r="B22" s="103"/>
       <c r="C22" s="3" t="s">
         <v>937</v>
       </c>
@@ -17964,18 +17985,18 @@
       <c r="H22" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I22" s="68" t="s">
-        <v>71</v>
+      <c r="I22" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J22" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="B23" s="96"/>
+      <c r="B23" s="103"/>
       <c r="C23" s="3" t="s">
         <v>941</v>
       </c>
@@ -17994,18 +18015,18 @@
       <c r="H23" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I23" s="68" t="s">
-        <v>71</v>
+      <c r="I23" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J23" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B24" s="96"/>
+      <c r="B24" s="103"/>
       <c r="C24" s="3" t="s">
         <v>941</v>
       </c>
@@ -18024,14 +18045,14 @@
       <c r="H24" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I24" s="68" t="s">
-        <v>71</v>
+      <c r="I24" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J24" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="215.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" ht="215.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>947</v>
       </c>
@@ -18061,27 +18082,27 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="99" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="97" t="s">
+    <row r="26" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="100" t="s">
         <v>952</v>
       </c>
-      <c r="B26" s="98"/>
-      <c r="C26" s="98"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="98"/>
-      <c r="G26" s="98"/>
-      <c r="H26" s="98"/>
-      <c r="I26" s="98"/>
-      <c r="J26" s="98"/>
-      <c r="K26" s="98"/>
-      <c r="L26" s="98"/>
-    </row>
-    <row r="27" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="101"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+    </row>
+    <row r="27" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="B27" s="96" t="s">
+      <c r="B27" s="103" t="s">
         <v>954</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -18107,11 +18128,11 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="B28" s="96"/>
+      <c r="B28" s="103"/>
       <c r="C28" s="3" t="s">
         <v>958</v>
       </c>
@@ -18129,17 +18150,17 @@
         <v>1305</v>
       </c>
       <c r="I28" s="68" t="s">
-        <v>71</v>
+        <v>1305</v>
       </c>
       <c r="J28" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="B29" s="96"/>
+      <c r="B29" s="103"/>
       <c r="C29" s="3" t="s">
         <v>962</v>
       </c>
@@ -18156,18 +18177,18 @@
       <c r="H29" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I29" s="68" t="s">
-        <v>71</v>
+      <c r="I29" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J29" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="B30" s="96"/>
+      <c r="B30" s="103"/>
       <c r="C30" s="3" t="s">
         <v>967</v>
       </c>
@@ -18184,18 +18205,18 @@
       <c r="H30" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I30" s="68" t="s">
-        <v>71</v>
+      <c r="I30" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J30" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="B31" s="96"/>
+      <c r="B31" s="103"/>
       <c r="C31" s="3" t="s">
         <v>972</v>
       </c>
@@ -18214,18 +18235,16 @@
       <c r="H31" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I31" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J31" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I31" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J31" s="68"/>
+    </row>
+    <row r="32" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B32" s="96"/>
+      <c r="B32" s="103"/>
       <c r="C32" s="3" t="s">
         <v>977</v>
       </c>
@@ -18244,18 +18263,16 @@
       <c r="H32" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I32" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J32" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I32" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J32" s="68"/>
+    </row>
+    <row r="33" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B33" s="96"/>
+      <c r="B33" s="103"/>
       <c r="C33" s="3" t="s">
         <v>981</v>
       </c>
@@ -18272,30 +18289,30 @@
       <c r="H33" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I33" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J33" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" s="99" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="97" t="s">
+      <c r="I33" s="47" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J33" s="6" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="100" t="s">
         <v>984</v>
       </c>
-      <c r="B34" s="98"/>
-      <c r="C34" s="98"/>
-      <c r="D34" s="98"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="98"/>
-      <c r="G34" s="98"/>
-      <c r="H34" s="98"/>
-      <c r="I34" s="98"/>
-      <c r="J34" s="98"/>
-      <c r="K34" s="98"/>
-      <c r="L34" s="98"/>
-    </row>
-    <row r="35" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="101"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
+    </row>
+    <row r="35" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>985</v>
       </c>
@@ -18318,14 +18335,14 @@
       <c r="H35" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I35" s="68" t="s">
-        <v>71</v>
+      <c r="I35" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J35" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>991</v>
       </c>
@@ -18348,14 +18365,14 @@
       <c r="H36" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I36" s="68" t="s">
-        <v>71</v>
+      <c r="I36" s="69" t="s">
+        <v>1305</v>
       </c>
       <c r="J36" s="68" t="s">
         <v>1299</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>996</v>
       </c>
@@ -18380,14 +18397,12 @@
       <c r="H37" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I37" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J37" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J37" s="68"/>
+    </row>
+    <row r="38" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>1001</v>
       </c>
@@ -18412,14 +18427,17 @@
       <c r="H38" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I38" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J38" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I38" s="47" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J38" s="6" t="s">
+        <v>1365</v>
+      </c>
+      <c r="L38" s="45">
+        <v>44144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1007</v>
       </c>
@@ -18444,14 +18462,15 @@
       <c r="H39" s="47" t="s">
         <v>1304</v>
       </c>
-      <c r="I39" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J39" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I39" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J39" s="68"/>
+      <c r="L39" s="45">
+        <v>44145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1011</v>
       </c>
@@ -18476,14 +18495,17 @@
       <c r="H40" s="47" t="s">
         <v>1304</v>
       </c>
-      <c r="I40" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J40" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I40" s="47" t="s">
+        <v>1304</v>
+      </c>
+      <c r="J40" s="6" t="s">
+        <v>1363</v>
+      </c>
+      <c r="L40" s="45">
+        <v>44146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>1011</v>
       </c>
@@ -18506,12 +18528,15 @@
       <c r="H41" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="160.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I41" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J41" s="68"/>
+      <c r="L41" s="45">
+        <v>44147</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1016</v>
       </c>
@@ -18536,14 +18561,15 @@
       <c r="H42" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I42" s="68" t="s">
-        <v>71</v>
-      </c>
-      <c r="J42" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I42" s="69" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J42" s="68"/>
+      <c r="L42" s="45">
+        <v>44148</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="201.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1022</v>
       </c>
@@ -18568,14 +18594,17 @@
       <c r="H43" s="68" t="s">
         <v>1305</v>
       </c>
-      <c r="I43" s="68" t="s">
-        <v>71</v>
+      <c r="I43" s="47" t="s">
+        <v>1304</v>
       </c>
       <c r="J43" s="68" t="s">
-        <v>1299</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="188.45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+      <c r="L43" s="45">
+        <v>44149</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="188.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>1317</v>
       </c>
@@ -18599,14 +18628,22 @@
         <v>1304</v>
       </c>
       <c r="I44" s="68" t="s">
-        <v>71</v>
+        <v>1305</v>
       </c>
       <c r="J44" s="68" t="s">
         <v>1299</v>
       </c>
+      <c r="L44" s="45">
+        <v>44150</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:B5"/>
@@ -18614,11 +18651,6 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B27:B33"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A26:XFD26"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18632,15 +18664,15 @@
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>6</xdr:col>
-                <xdr:colOff>866775</xdr:colOff>
+                <xdr:colOff>868680</xdr:colOff>
                 <xdr:row>3</xdr:row>
                 <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
-                <xdr:col>6</xdr:col>
-                <xdr:colOff>1781175</xdr:colOff>
+                <xdr:col>8</xdr:col>
+                <xdr:colOff>7620</xdr:colOff>
                 <xdr:row>3</xdr:row>
-                <xdr:rowOff>971550</xdr:rowOff>
+                <xdr:rowOff>975360</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
@@ -18660,29 +18692,30 @@
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I1:I1048576"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.7109375" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="28.42578125" customWidth="1"/>
-    <col min="6" max="6" width="34.85546875" customWidth="1"/>
-    <col min="7" max="7" width="29.85546875" customWidth="1"/>
-    <col min="8" max="9" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="5" max="5" width="28.44140625" customWidth="1"/>
+    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.88671875" customWidth="1"/>
+    <col min="8" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="H1" s="75" t="s">
+    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="79" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="75"/>
-      <c r="J1" s="81"/>
-    </row>
-    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I1" s="79"/>
+      <c r="J1" s="85"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -18724,7 +18757,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>1026</v>
       </c>
@@ -18760,7 +18793,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
         <v>1033</v>
       </c>
@@ -18796,11 +18829,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>1038</v>
       </c>
-      <c r="B5" s="95" t="s">
+      <c r="B5" s="99" t="s">
         <v>958</v>
       </c>
       <c r="C5" s="6" t="s">
@@ -18830,11 +18863,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="99"/>
       <c r="C6" s="6" t="s">
         <v>1044</v>
       </c>
@@ -18862,11 +18895,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="99"/>
       <c r="C7" s="6" t="s">
         <v>1048</v>
       </c>
@@ -18894,11 +18927,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>1051</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="99"/>
       <c r="C8" s="6" t="s">
         <v>1052</v>
       </c>
@@ -18926,11 +18959,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
         <v>1055</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="99"/>
       <c r="C9" s="6" t="s">
         <v>1056</v>
       </c>
@@ -18958,11 +18991,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="104.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B10" s="95" t="s">
+      <c r="B10" s="99" t="s">
         <v>1027</v>
       </c>
       <c r="C10" s="42" t="s">
@@ -18994,11 +19027,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
         <v>1063</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="99"/>
       <c r="C11" s="42" t="s">
         <v>1064</v>
       </c>
@@ -19029,11 +19062,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="99"/>
       <c r="C12" s="42" t="s">
         <v>1068</v>
       </c>
@@ -19061,11 +19094,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
         <v>1071</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="99"/>
       <c r="C13" s="42" t="s">
         <v>1072</v>
       </c>
@@ -19093,11 +19126,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="14" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
         <v>1076</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="99"/>
       <c r="C14" s="42" t="s">
         <v>1077</v>
       </c>
@@ -19127,11 +19160,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="15" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
         <v>1082</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="99"/>
       <c r="C15" s="42" t="s">
         <v>1083</v>
       </c>
@@ -19161,7 +19194,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="16" spans="1:14" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
         <v>1086</v>
       </c>
@@ -19197,7 +19230,7 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="124.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
         <v>1091</v>
       </c>
@@ -19233,11 +19266,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="99" t="s">
         <v>1095</v>
       </c>
       <c r="C18" s="42" t="s">
@@ -19267,11 +19300,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="19" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="99"/>
       <c r="C19" s="42" t="s">
         <v>1100</v>
       </c>
@@ -19301,11 +19334,11 @@
         <v>43991</v>
       </c>
     </row>
-    <row r="20" spans="1:13" ht="164.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="99"/>
       <c r="C20" s="42" t="s">
         <v>1105</v>
       </c>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F1921B1-B0CE-4A49-9B43-6184EC4BE18F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A271DB0-2D56-4450-ADF4-A8E1BDE5CD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="7" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Repost" sheetId="14" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2781" uniqueCount="1366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2844" uniqueCount="1366">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -8123,7 +8123,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8325,6 +8325,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8406,6 +8409,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -8414,9 +8420,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -8810,28 +8813,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:6" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="73" t="s">
+      <c r="A2" s="74" t="s">
         <v>1266</v>
       </c>
-      <c r="B2" s="73"/>
+      <c r="B2" s="74"/>
     </row>
     <row r="3" spans="1:6" ht="31.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="75" t="s">
         <v>1267</v>
       </c>
-      <c r="B3" s="74"/>
-      <c r="C3" s="76" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="77" t="s">
         <v>1273</v>
       </c>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="78"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="75" t="s">
         <v>1268</v>
       </c>
-      <c r="B4" s="75"/>
+      <c r="B4" s="76"/>
       <c r="C4" s="43" t="s">
         <v>1270</v>
       </c>
@@ -8872,11 +8875,11 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G46" sqref="G46"/>
+      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8886,18 +8889,24 @@
     <col min="3" max="3" width="21.5546875" customWidth="1"/>
     <col min="4" max="4" width="29.88671875" customWidth="1"/>
     <col min="5" max="6" width="30.6640625" customWidth="1"/>
-    <col min="7" max="7" width="31.88671875" customWidth="1"/>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="9" max="9" width="10.6640625" customWidth="1"/>
+    <col min="7" max="7" width="26" customWidth="1"/>
+    <col min="8" max="8" width="12.33203125" customWidth="1"/>
+    <col min="9" max="9" width="14" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="14" customWidth="1"/>
+    <col min="13" max="13" width="15" customWidth="1"/>
+    <col min="14" max="14" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="79" t="s">
+    <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="H1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="85"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="I1" s="80"/>
+      <c r="J1" s="80"/>
+    </row>
+    <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -8919,521 +8928,631 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="85"/>
+      <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="65"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
+    </row>
+    <row r="4" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
         <v>1026</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B4" s="99" t="s">
         <v>1108</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C4" s="42" t="s">
         <v>1109</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D4" s="12" t="s">
         <v>1110</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>1111</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>1112</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="42" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I3" s="42" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
-        <v>1033</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>1108</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>1113</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>1114</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>1115</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>1116</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I4" s="42" t="s">
+      <c r="I4" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J4" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M4" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>1117</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1118</v>
+        <v>1033</v>
+      </c>
+      <c r="B5" s="100"/>
+      <c r="C5" s="42" t="s">
+        <v>1113</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1119</v>
+        <v>1115</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1120</v>
+        <v>1116</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I5" s="42" t="s">
+      <c r="I5" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J5" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="6" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M5" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>1121</v>
+        <v>1038</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>1117</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>1122</v>
+        <v>1118</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1123</v>
+        <v>1119</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1124</v>
+        <v>1120</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I6" s="42" t="s">
+      <c r="I6" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J6" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="7" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M6" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B7" s="99"/>
+        <v>1043</v>
+      </c>
+      <c r="B7" s="100" t="s">
+        <v>1121</v>
+      </c>
       <c r="C7" s="6" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I7" s="42" t="s">
+      <c r="I7" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J7" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M7" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>1128</v>
-      </c>
+        <v>1047</v>
+      </c>
+      <c r="B8" s="100"/>
       <c r="C8" s="6" t="s">
-        <v>1129</v>
+        <v>1125</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1130</v>
+        <v>1126</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1131</v>
+        <v>1127</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I8" s="42" t="s">
+      <c r="I8" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J8" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M8" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B9" s="99"/>
+        <v>1051</v>
+      </c>
+      <c r="B9" s="100" t="s">
+        <v>1128</v>
+      </c>
       <c r="C9" s="6" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1133</v>
+        <v>1114</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1126</v>
+        <v>1130</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>1127</v>
+        <v>1131</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I9" s="42" t="s">
+      <c r="I9" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J9" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M9" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>1134</v>
-      </c>
+        <v>1055</v>
+      </c>
+      <c r="B10" s="100"/>
       <c r="C10" s="6" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1137</v>
+        <v>1126</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1138</v>
+        <v>1127</v>
       </c>
       <c r="G10" s="12"/>
       <c r="H10" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I10" s="42" t="s">
+      <c r="I10" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J10" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M10" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B11" s="99"/>
+        <v>1058</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>1134</v>
+      </c>
       <c r="C11" s="6" t="s">
-        <v>1139</v>
+        <v>1135</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1136</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1126</v>
+        <v>1137</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I11" s="42" t="s">
+      <c r="I11" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J11" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M11" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B12" s="99" t="s">
-        <v>1141</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B12" s="100"/>
       <c r="C12" s="6" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>1143</v>
+        <v>1136</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1144</v>
+        <v>1126</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1145</v>
+        <v>1140</v>
       </c>
       <c r="G12" s="12"/>
       <c r="H12" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I12" s="42" t="s">
+      <c r="I12" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J12" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M12" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B13" s="99"/>
+        <v>1058</v>
+      </c>
+      <c r="B13" s="100" t="s">
+        <v>1141</v>
+      </c>
       <c r="C13" s="6" t="s">
-        <v>1146</v>
+        <v>1142</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>1143</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1126</v>
+        <v>1144</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="G13" s="12"/>
       <c r="H13" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I13" s="42" t="s">
+      <c r="I13" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J13" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M13" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B14" s="99" t="s">
-        <v>1148</v>
-      </c>
+        <v>1063</v>
+      </c>
+      <c r="B14" s="100"/>
       <c r="C14" s="6" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1150</v>
+        <v>1143</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1151</v>
+        <v>1126</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1152</v>
+        <v>1147</v>
       </c>
       <c r="G14" s="12"/>
       <c r="H14" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I14" s="42" t="s">
+      <c r="I14" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J14" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M14" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B15" s="99"/>
+        <v>1067</v>
+      </c>
+      <c r="B15" s="100" t="s">
+        <v>1148</v>
+      </c>
       <c r="C15" s="6" t="s">
-        <v>1153</v>
+        <v>1149</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1150</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I15" s="42" t="s">
+      <c r="I15" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J15" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M15" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>1155</v>
-      </c>
+        <v>1071</v>
+      </c>
+      <c r="B16" s="100"/>
       <c r="C16" s="6" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1114</v>
+        <v>1150</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1157</v>
+        <v>1126</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1158</v>
+        <v>1154</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I16" s="42" t="s">
+      <c r="I16" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J16" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M16" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B17" s="99"/>
+        <v>1076</v>
+      </c>
+      <c r="B17" s="100" t="s">
+        <v>1155</v>
+      </c>
       <c r="C17" s="6" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1114</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="G17" s="12"/>
       <c r="H17" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I17" s="42" t="s">
+      <c r="I17" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J17" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M17" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>1162</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="B18" s="100"/>
       <c r="C18" s="6" t="s">
-        <v>1163</v>
+        <v>1159</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1143</v>
+        <v>1114</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1164</v>
+        <v>1160</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1165</v>
+        <v>1161</v>
       </c>
       <c r="G18" s="12"/>
       <c r="H18" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I18" s="42" t="s">
+      <c r="I18" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J18" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M18" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="B19" s="99"/>
+        <v>1086</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>1162</v>
+      </c>
       <c r="C19" s="6" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>1167</v>
+        <v>1143</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1126</v>
+        <v>1164</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1168</v>
+        <v>1165</v>
       </c>
       <c r="G19" s="12"/>
       <c r="H19" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I19" s="42" t="s">
+      <c r="I19" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J19" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M19" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B20" s="100"/>
+      <c r="C20" s="6" t="s">
+        <v>1166</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>1167</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>1168</v>
+      </c>
+      <c r="G20" s="12"/>
+      <c r="H20" s="42" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I20" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J20" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="M20" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
         <v>1094</v>
       </c>
-      <c r="B20" s="42" t="s">
+      <c r="B21" s="42" t="s">
         <v>1169</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C21" s="6" t="s">
         <v>1170</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D21" s="5" t="s">
         <v>1171</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E21" s="5" t="s">
         <v>1172</v>
       </c>
-      <c r="F20" s="5" t="s">
+      <c r="F21" s="5" t="s">
         <v>1173</v>
       </c>
-      <c r="G20" s="5" t="s">
+      <c r="G21" s="5" t="s">
         <v>1174</v>
       </c>
-      <c r="H20" s="42" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I20" s="42" t="s">
+      <c r="H21" s="42" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J21" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:13" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="100" t="s">
-        <v>864</v>
-      </c>
-      <c r="B21" s="101"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="101"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="101"/>
-      <c r="L21" s="101"/>
-      <c r="M21" s="101"/>
+      <c r="M21" s="45">
+        <v>44174</v>
+      </c>
     </row>
     <row r="22" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="B22" s="99" t="s">
+      <c r="B22" s="100" t="s">
         <v>1175</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -9452,15 +9571,21 @@
       <c r="H22" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I22" s="42" t="s">
+      <c r="I22" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J22" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M22" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
         <v>1104</v>
       </c>
-      <c r="B23" s="99"/>
+      <c r="B23" s="100"/>
       <c r="C23" s="6" t="s">
         <v>1179</v>
       </c>
@@ -9477,15 +9602,21 @@
       <c r="H23" s="42" t="s">
         <v>1304</v>
       </c>
-      <c r="I23" s="42" t="s">
+      <c r="I23" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J23" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M23" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="7" t="s">
         <v>1183</v>
       </c>
-      <c r="B24" s="99" t="s">
+      <c r="B24" s="100" t="s">
         <v>1184</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -9504,15 +9635,21 @@
       <c r="H24" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I24" s="42" t="s">
+      <c r="I24" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J24" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M24" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
         <v>1188</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="6" t="s">
         <v>1189</v>
       </c>
@@ -9529,15 +9666,21 @@
       <c r="H25" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I25" s="42" t="s">
+      <c r="I25" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J25" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M25" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="B26" s="99"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>1193</v>
       </c>
@@ -9554,15 +9697,21 @@
       <c r="H26" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I26" s="42" t="s">
+      <c r="I26" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J26" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M26" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="6" t="s">
         <v>1196</v>
       </c>
@@ -9579,15 +9728,21 @@
       <c r="H27" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I27" s="42" t="s">
+      <c r="I27" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J27" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M27" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="7" t="s">
         <v>1199</v>
       </c>
-      <c r="B28" s="99"/>
+      <c r="B28" s="100"/>
       <c r="C28" s="6" t="s">
         <v>1200</v>
       </c>
@@ -9604,15 +9759,21 @@
       <c r="H28" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I28" s="42" t="s">
+      <c r="I28" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J28" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M28" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="7" t="s">
         <v>1203</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="6" t="s">
         <v>1204</v>
       </c>
@@ -9628,15 +9789,21 @@
       <c r="H29" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I29" s="42" t="s">
+      <c r="I29" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J29" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M29" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7" t="s">
         <v>1206</v>
       </c>
-      <c r="B30" s="99" t="s">
+      <c r="B30" s="100" t="s">
         <v>1207</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -9655,15 +9822,21 @@
       <c r="H30" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I30" s="42" t="s">
+      <c r="I30" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J30" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M30" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B31" s="99"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="6" t="s">
         <v>1211</v>
       </c>
@@ -9680,15 +9853,21 @@
       <c r="H31" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I31" s="42" t="s">
+      <c r="I31" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J31" s="42" t="s">
         <v>71</v>
+      </c>
+      <c r="M31" s="45">
+        <v>44174</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="6" t="s">
         <v>1214</v>
       </c>
@@ -9705,15 +9884,21 @@
       <c r="H32" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I32" s="42" t="s">
+      <c r="I32" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J32" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M32" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="6" t="s">
         <v>1217</v>
       </c>
@@ -9730,15 +9915,21 @@
       <c r="H33" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I33" s="42" t="s">
+      <c r="I33" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J33" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M33" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="7" t="s">
         <v>1219</v>
       </c>
-      <c r="B34" s="99"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="6" t="s">
         <v>1220</v>
       </c>
@@ -9755,15 +9946,21 @@
       <c r="H34" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I34" s="42" t="s">
+      <c r="I34" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J34" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="M34" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
         <v>1222</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>1223</v>
       </c>
@@ -9779,15 +9976,21 @@
       <c r="H35" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I35" s="42" t="s">
+      <c r="I35" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J35" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M35" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="7" t="s">
         <v>1225</v>
       </c>
-      <c r="B36" s="99" t="s">
+      <c r="B36" s="100" t="s">
         <v>1226</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9806,15 +10009,21 @@
       <c r="H36" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I36" s="42" t="s">
+      <c r="I36" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J36" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M36" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="7" t="s">
         <v>1228</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="6" t="s">
         <v>1229</v>
       </c>
@@ -9831,15 +10040,21 @@
       <c r="H37" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I37" s="42" t="s">
+      <c r="I37" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J37" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M37" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="7" t="s">
         <v>1231</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="6" t="s">
         <v>1232</v>
       </c>
@@ -9856,15 +10071,21 @@
       <c r="H38" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I38" s="42" t="s">
+      <c r="I38" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J38" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M38" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="7" t="s">
         <v>1234</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="6" t="s">
         <v>1235</v>
       </c>
@@ -9881,15 +10102,21 @@
       <c r="H39" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I39" s="42" t="s">
+      <c r="I39" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J39" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M39" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" ht="125.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
         <v>1237</v>
       </c>
-      <c r="B40" s="99"/>
+      <c r="B40" s="100"/>
       <c r="C40" s="6" t="s">
         <v>1238</v>
       </c>
@@ -9906,15 +10133,21 @@
       <c r="H40" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I40" s="42" t="s">
+      <c r="I40" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J40" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" ht="72" x14ac:dyDescent="0.3">
+      <c r="M40" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" ht="72" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="s">
         <v>1240</v>
       </c>
-      <c r="B41" s="99"/>
+      <c r="B41" s="100"/>
       <c r="C41" s="6" t="s">
         <v>1241</v>
       </c>
@@ -9930,11 +10163,17 @@
       <c r="H41" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I41" s="42" t="s">
+      <c r="I41" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J41" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="M41" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
         <v>1243</v>
       </c>
@@ -9956,11 +10195,17 @@
       <c r="H42" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I42" s="42" t="s">
+      <c r="I42" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J42" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" ht="87" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M42" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" ht="87" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="s">
         <v>1247</v>
       </c>
@@ -9982,11 +10227,17 @@
       <c r="H43" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I43" s="42" t="s">
+      <c r="I43" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J43" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M43" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="s">
         <v>1252</v>
       </c>
@@ -10011,11 +10262,17 @@
       <c r="H44" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I44" s="42" t="s">
+      <c r="I44" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J44" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M44" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="s">
         <v>1257</v>
       </c>
@@ -10040,11 +10297,17 @@
       <c r="H45" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="I45" s="42" t="s">
+      <c r="I45" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J45" s="42" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="M45" s="45">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" ht="115.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="s">
         <v>1258</v>
       </c>
@@ -10069,25 +10332,32 @@
       <c r="H46" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="I46" s="42" t="s">
+      <c r="I46" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J46" s="42" t="s">
         <v>71</v>
       </c>
+      <c r="M46" s="45">
+        <v>44174</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
+  <mergeCells count="14">
+    <mergeCell ref="B15:B16"/>
     <mergeCell ref="B30:B35"/>
     <mergeCell ref="B36:B41"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A21:XFD21"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B29"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10098,7 +10368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="E16" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -10140,10 +10410,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -10184,7 +10454,7 @@
       <c r="A3" s="32" t="s">
         <v>498</v>
       </c>
-      <c r="B3" s="104" t="s">
+      <c r="B3" s="105" t="s">
         <v>499</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -10210,7 +10480,7 @@
       <c r="A4" s="32" t="s">
         <v>504</v>
       </c>
-      <c r="B4" s="105"/>
+      <c r="B4" s="106"/>
       <c r="C4" s="12" t="s">
         <v>260</v>
       </c>
@@ -10237,7 +10507,7 @@
       <c r="A5" s="32" t="s">
         <v>506</v>
       </c>
-      <c r="B5" s="105"/>
+      <c r="B5" s="106"/>
       <c r="C5" s="5" t="s">
         <v>509</v>
       </c>
@@ -10267,7 +10537,7 @@
       <c r="A6" s="32" t="s">
         <v>541</v>
       </c>
-      <c r="B6" s="105"/>
+      <c r="B6" s="106"/>
       <c r="C6" s="12" t="s">
         <v>269</v>
       </c>
@@ -10297,7 +10567,7 @@
       <c r="A7" s="32" t="s">
         <v>542</v>
       </c>
-      <c r="B7" s="105"/>
+      <c r="B7" s="106"/>
       <c r="C7" s="31" t="s">
         <v>512</v>
       </c>
@@ -10321,7 +10591,7 @@
       <c r="A8" s="32" t="s">
         <v>543</v>
       </c>
-      <c r="B8" s="105"/>
+      <c r="B8" s="106"/>
       <c r="C8" s="31" t="s">
         <v>518</v>
       </c>
@@ -10345,7 +10615,7 @@
       <c r="A9" s="32" t="s">
         <v>544</v>
       </c>
-      <c r="B9" s="105"/>
+      <c r="B9" s="106"/>
       <c r="C9" s="31" t="s">
         <v>522</v>
       </c>
@@ -10369,7 +10639,7 @@
       <c r="A10" s="32" t="s">
         <v>545</v>
       </c>
-      <c r="B10" s="105"/>
+      <c r="B10" s="106"/>
       <c r="C10" s="31" t="s">
         <v>524</v>
       </c>
@@ -10393,7 +10663,7 @@
       <c r="A11" s="32" t="s">
         <v>546</v>
       </c>
-      <c r="B11" s="105"/>
+      <c r="B11" s="106"/>
       <c r="C11" s="31" t="s">
         <v>528</v>
       </c>
@@ -10417,7 +10687,7 @@
       <c r="A12" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="B12" s="105"/>
+      <c r="B12" s="106"/>
       <c r="C12" s="31" t="s">
         <v>532</v>
       </c>
@@ -10441,7 +10711,7 @@
       <c r="A13" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="B13" s="105"/>
+      <c r="B13" s="106"/>
       <c r="C13" s="31" t="s">
         <v>535</v>
       </c>
@@ -10465,7 +10735,7 @@
       <c r="A14" s="32" t="s">
         <v>549</v>
       </c>
-      <c r="B14" s="105"/>
+      <c r="B14" s="106"/>
       <c r="C14" s="31" t="s">
         <v>538</v>
       </c>
@@ -10533,7 +10803,7 @@
       <c r="A17" s="32" t="s">
         <v>551</v>
       </c>
-      <c r="B17" s="105" t="s">
+      <c r="B17" s="106" t="s">
         <v>569</v>
       </c>
       <c r="C17" s="31" t="s">
@@ -10559,7 +10829,7 @@
       <c r="A18" s="32" t="s">
         <v>558</v>
       </c>
-      <c r="B18" s="105"/>
+      <c r="B18" s="106"/>
       <c r="C18" s="31" t="s">
         <v>556</v>
       </c>
@@ -10580,7 +10850,7 @@
       <c r="A19" s="32" t="s">
         <v>564</v>
       </c>
-      <c r="B19" s="105"/>
+      <c r="B19" s="106"/>
       <c r="C19" s="31" t="s">
         <v>560</v>
       </c>
@@ -10601,7 +10871,7 @@
       <c r="A20" s="32" t="s">
         <v>565</v>
       </c>
-      <c r="B20" s="105"/>
+      <c r="B20" s="106"/>
       <c r="C20" s="31" t="s">
         <v>566</v>
       </c>
@@ -10633,7 +10903,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{536D4CE8-9D54-40A1-87DF-731652F73D50}">
   <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="E11" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
@@ -10676,10 +10946,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -10720,7 +10990,7 @@
       <c r="A3" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="107" t="s">
         <v>453</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -10746,7 +11016,7 @@
       <c r="A4" s="7" t="s">
         <v>458</v>
       </c>
-      <c r="B4" s="107"/>
+      <c r="B4" s="108"/>
       <c r="C4" s="12" t="s">
         <v>456</v>
       </c>
@@ -10770,7 +11040,7 @@
       <c r="A5" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="B5" s="107"/>
+      <c r="B5" s="108"/>
       <c r="C5" s="12" t="s">
         <v>460</v>
       </c>
@@ -10794,7 +11064,7 @@
       <c r="A6" s="7" t="s">
         <v>461</v>
       </c>
-      <c r="B6" s="107"/>
+      <c r="B6" s="108"/>
       <c r="C6" s="31" t="s">
         <v>471</v>
       </c>
@@ -10818,7 +11088,7 @@
       <c r="A7" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="B7" s="107"/>
+      <c r="B7" s="108"/>
       <c r="C7" s="31" t="s">
         <v>472</v>
       </c>
@@ -10842,7 +11112,7 @@
       <c r="A8" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="B8" s="107"/>
+      <c r="B8" s="108"/>
       <c r="C8" s="31" t="s">
         <v>469</v>
       </c>
@@ -10866,7 +11136,7 @@
       <c r="A9" s="7" t="s">
         <v>465</v>
       </c>
-      <c r="B9" s="107"/>
+      <c r="B9" s="108"/>
       <c r="C9" s="31" t="s">
         <v>467</v>
       </c>
@@ -10890,7 +11160,7 @@
       <c r="A10" s="7" t="s">
         <v>466</v>
       </c>
-      <c r="B10" s="107"/>
+      <c r="B10" s="108"/>
       <c r="C10" s="31" t="s">
         <v>468</v>
       </c>
@@ -10973,8 +11243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9BB30AD-5982-453B-BB21-1F6052C6135A}">
   <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="K1" sqref="K1"/>
       <selection pane="bottomLeft" activeCell="J31" sqref="J31"/>
     </sheetView>
@@ -11018,10 +11288,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="110"/>
+      <c r="I1" s="111"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -11624,7 +11894,7 @@
       <c r="A27" s="22" t="s">
         <v>668</v>
       </c>
-      <c r="B27" s="108" t="s">
+      <c r="B27" s="109" t="s">
         <v>673</v>
       </c>
       <c r="C27" s="44" t="s">
@@ -11650,7 +11920,7 @@
       <c r="A28" s="22" t="s">
         <v>669</v>
       </c>
-      <c r="B28" s="109"/>
+      <c r="B28" s="110"/>
       <c r="C28" s="44" t="s">
         <v>678</v>
       </c>
@@ -11668,7 +11938,7 @@
       <c r="A29" s="22" t="s">
         <v>670</v>
       </c>
-      <c r="B29" s="109"/>
+      <c r="B29" s="110"/>
       <c r="C29" s="10" t="s">
         <v>681</v>
       </c>
@@ -11692,7 +11962,7 @@
       <c r="A30" s="22" t="s">
         <v>671</v>
       </c>
-      <c r="B30" s="109"/>
+      <c r="B30" s="110"/>
       <c r="C30" s="10" t="s">
         <v>684</v>
       </c>
@@ -11716,7 +11986,7 @@
       <c r="A31" s="22" t="s">
         <v>672</v>
       </c>
-      <c r="B31" s="109"/>
+      <c r="B31" s="110"/>
       <c r="C31" s="44" t="s">
         <v>687</v>
       </c>
@@ -11776,11 +12046,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -11804,10 +12074,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -11845,22 +12115,22 @@
       <c r="N4" s="57"/>
     </row>
     <row r="5" spans="1:14" ht="19.2" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="78" t="s">
+      <c r="A5" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="78"/>
-      <c r="C5" s="78"/>
-      <c r="D5" s="78"/>
-      <c r="E5" s="78"/>
-      <c r="F5" s="78"/>
-      <c r="G5" s="78"/>
-      <c r="H5" s="78"/>
-      <c r="I5" s="78"/>
-      <c r="J5" s="78"/>
-      <c r="K5" s="78"/>
-      <c r="L5" s="78"/>
-      <c r="M5" s="78"/>
-      <c r="N5" s="78"/>
+      <c r="B5" s="79"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="79"/>
     </row>
     <row r="6" spans="1:14" ht="119.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
@@ -11945,7 +12215,7 @@
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="82" t="s">
+      <c r="B8" s="83" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -11986,7 +12256,7 @@
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="82"/>
+      <c r="B9" s="83"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -12025,7 +12295,7 @@
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="82"/>
+      <c r="B10" s="83"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -12064,7 +12334,7 @@
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="82"/>
+      <c r="B11" s="83"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -12264,7 +12534,7 @@
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="81" t="s">
+      <c r="B16" s="82" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -12303,7 +12573,7 @@
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="81"/>
+      <c r="B17" s="82"/>
       <c r="C17" s="6" t="s">
         <v>1291</v>
       </c>
@@ -12591,11 +12861,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="80"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="81"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
@@ -12619,10 +12889,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -12880,11 +13150,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
@@ -12908,10 +13178,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -13651,10 +13921,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13680,13 +13950,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="88" t="s">
+      <c r="A3" s="89" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
       <c r="F3" s="15"/>
       <c r="G3" s="15"/>
       <c r="H3" s="15"/>
@@ -13701,7 +13971,7 @@
       <c r="A4" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="91" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="6" t="s">
@@ -13733,7 +14003,7 @@
       <c r="A5" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="91"/>
+      <c r="B5" s="92"/>
       <c r="C5" s="6" t="s">
         <v>169</v>
       </c>
@@ -13763,7 +14033,7 @@
       <c r="A6" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="91"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="6" t="s">
         <v>173</v>
       </c>
@@ -13793,7 +14063,7 @@
       <c r="A7" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="91"/>
+      <c r="B7" s="92"/>
       <c r="C7" s="16" t="s">
         <v>176</v>
       </c>
@@ -13823,7 +14093,7 @@
       <c r="A8" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="91"/>
+      <c r="B8" s="92"/>
       <c r="C8" s="16" t="s">
         <v>179</v>
       </c>
@@ -13851,7 +14121,7 @@
     </row>
     <row r="9" spans="1:14" ht="104.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7"/>
-      <c r="B9" s="91"/>
+      <c r="B9" s="92"/>
       <c r="C9" s="16" t="s">
         <v>1335</v>
       </c>
@@ -13880,7 +14150,7 @@
       <c r="A10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="91"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="16" t="s">
         <v>182</v>
       </c>
@@ -13910,7 +14180,7 @@
       <c r="A11" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="91"/>
+      <c r="B11" s="92"/>
       <c r="C11" s="16" t="s">
         <v>186</v>
       </c>
@@ -13940,7 +14210,7 @@
       <c r="A12" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="91"/>
+      <c r="B12" s="92"/>
       <c r="C12" s="16" t="s">
         <v>190</v>
       </c>
@@ -13970,7 +14240,7 @@
       <c r="A13" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="B13" s="91"/>
+      <c r="B13" s="92"/>
       <c r="C13" s="16" t="s">
         <v>194</v>
       </c>
@@ -14000,7 +14270,7 @@
       <c r="A14" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="B14" s="91"/>
+      <c r="B14" s="92"/>
       <c r="C14" s="16" t="s">
         <v>198</v>
       </c>
@@ -14030,7 +14300,7 @@
       <c r="A15" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B15" s="91"/>
+      <c r="B15" s="92"/>
       <c r="C15" s="16" t="s">
         <v>202</v>
       </c>
@@ -14060,7 +14330,7 @@
       <c r="A16" s="7" t="s">
         <v>205</v>
       </c>
-      <c r="B16" s="91"/>
+      <c r="B16" s="92"/>
       <c r="C16" s="16" t="s">
         <v>206</v>
       </c>
@@ -14090,7 +14360,7 @@
       <c r="A17" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="91"/>
+      <c r="B17" s="92"/>
       <c r="C17" s="16" t="s">
         <v>210</v>
       </c>
@@ -14120,7 +14390,7 @@
       <c r="A18" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="B18" s="91"/>
+      <c r="B18" s="92"/>
       <c r="C18" s="16" t="s">
         <v>214</v>
       </c>
@@ -14150,7 +14420,7 @@
       <c r="A19" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="B19" s="91"/>
+      <c r="B19" s="92"/>
       <c r="C19" s="16" t="s">
         <v>219</v>
       </c>
@@ -14180,7 +14450,7 @@
       <c r="A20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="B20" s="91"/>
+      <c r="B20" s="92"/>
       <c r="C20" s="16" t="s">
         <v>224</v>
       </c>
@@ -14210,7 +14480,7 @@
       <c r="A21" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="B21" s="91"/>
+      <c r="B21" s="92"/>
       <c r="C21" s="16" t="s">
         <v>228</v>
       </c>
@@ -14237,13 +14507,13 @@
       </c>
     </row>
     <row r="22" spans="1:14" ht="18" x14ac:dyDescent="0.3">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="93" t="s">
         <v>230</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="89"/>
-      <c r="E22" s="89"/>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="90"/>
+      <c r="E22" s="90"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="15"/>
@@ -14258,7 +14528,7 @@
       <c r="A23" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="B23" s="86" t="s">
+      <c r="B23" s="87" t="s">
         <v>251</v>
       </c>
       <c r="C23" s="16" t="s">
@@ -14290,7 +14560,7 @@
       <c r="A24" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="B24" s="87"/>
+      <c r="B24" s="88"/>
       <c r="C24" s="16" t="s">
         <v>237</v>
       </c>
@@ -14320,7 +14590,7 @@
       <c r="A25" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="B25" s="87"/>
+      <c r="B25" s="88"/>
       <c r="C25" s="16" t="s">
         <v>242</v>
       </c>
@@ -14350,7 +14620,7 @@
       <c r="A26" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="B26" s="87"/>
+      <c r="B26" s="88"/>
       <c r="C26" s="16" t="s">
         <v>247</v>
       </c>
@@ -14460,10 +14730,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="93" t="s">
+      <c r="H1" s="94" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="94"/>
+      <c r="I1" s="95"/>
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
@@ -14517,7 +14787,7 @@
       <c r="A4" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="96" t="s">
         <v>254</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -14546,7 +14816,7 @@
       <c r="A5" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="B5" s="95"/>
+      <c r="B5" s="96"/>
       <c r="C5" s="12" t="s">
         <v>260</v>
       </c>
@@ -14573,7 +14843,7 @@
       <c r="A6" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="B6" s="95"/>
+      <c r="B6" s="96"/>
       <c r="C6" s="5" t="s">
         <v>264</v>
       </c>
@@ -14600,7 +14870,7 @@
       <c r="A7" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="B7" s="95"/>
+      <c r="B7" s="96"/>
       <c r="C7" s="12" t="s">
         <v>269</v>
       </c>
@@ -14627,7 +14897,7 @@
       <c r="A8" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="B8" s="95"/>
+      <c r="B8" s="96"/>
       <c r="C8" s="12" t="s">
         <v>273</v>
       </c>
@@ -14654,7 +14924,7 @@
       <c r="A9" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="B9" s="95"/>
+      <c r="B9" s="96"/>
       <c r="C9" s="5" t="s">
         <v>278</v>
       </c>
@@ -14681,7 +14951,7 @@
       <c r="A10" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="B10" s="95"/>
+      <c r="B10" s="96"/>
       <c r="C10" s="12" t="s">
         <v>282</v>
       </c>
@@ -14708,7 +14978,7 @@
       <c r="A11" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="B11" s="95"/>
+      <c r="B11" s="96"/>
       <c r="C11" s="12" t="s">
         <v>286</v>
       </c>
@@ -14735,7 +15005,7 @@
       <c r="A12" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="B12" s="95"/>
+      <c r="B12" s="96"/>
       <c r="C12" s="12" t="s">
         <v>290</v>
       </c>
@@ -14762,7 +15032,7 @@
       <c r="A13" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="B13" s="95"/>
+      <c r="B13" s="96"/>
       <c r="C13" s="12" t="s">
         <v>294</v>
       </c>
@@ -14789,7 +15059,7 @@
       <c r="A14" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="B14" s="95"/>
+      <c r="B14" s="96"/>
       <c r="C14" s="12" t="s">
         <v>299</v>
       </c>
@@ -14816,7 +15086,7 @@
       <c r="A15" s="7" t="s">
         <v>303</v>
       </c>
-      <c r="B15" s="95"/>
+      <c r="B15" s="96"/>
       <c r="C15" s="12" t="s">
         <v>304</v>
       </c>
@@ -14843,7 +15113,7 @@
       <c r="A16" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="B16" s="95"/>
+      <c r="B16" s="96"/>
       <c r="C16" s="12" t="s">
         <v>309</v>
       </c>
@@ -14870,7 +15140,7 @@
       <c r="A17" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="B17" s="95"/>
+      <c r="B17" s="96"/>
       <c r="C17" s="12" t="s">
         <v>313</v>
       </c>
@@ -14897,7 +15167,7 @@
       <c r="A18" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="B18" s="95"/>
+      <c r="B18" s="96"/>
       <c r="C18" s="12" t="s">
         <v>317</v>
       </c>
@@ -14924,7 +15194,7 @@
       <c r="A19" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="B19" s="95"/>
+      <c r="B19" s="96"/>
       <c r="C19" s="12" t="s">
         <v>321</v>
       </c>
@@ -14951,7 +15221,7 @@
       <c r="A20" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="B20" s="95"/>
+      <c r="B20" s="96"/>
       <c r="C20" s="12" t="s">
         <v>325</v>
       </c>
@@ -14978,7 +15248,7 @@
       <c r="A21" s="7" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="95"/>
+      <c r="B21" s="96"/>
       <c r="C21" s="12" t="s">
         <v>329</v>
       </c>
@@ -15005,7 +15275,7 @@
       <c r="A22" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="B22" s="95"/>
+      <c r="B22" s="96"/>
       <c r="C22" s="12" t="s">
         <v>333</v>
       </c>
@@ -15032,7 +15302,7 @@
       <c r="A23" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="B23" s="95"/>
+      <c r="B23" s="96"/>
       <c r="C23" s="12" t="s">
         <v>338</v>
       </c>
@@ -15059,7 +15329,7 @@
       <c r="A24" s="7" t="s">
         <v>341</v>
       </c>
-      <c r="B24" s="95"/>
+      <c r="B24" s="96"/>
       <c r="C24" s="12" t="s">
         <v>342</v>
       </c>
@@ -15314,7 +15584,7 @@
       <c r="A34" s="22" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="96" t="s">
+      <c r="B34" s="97" t="s">
         <v>380</v>
       </c>
       <c r="C34" s="12" t="s">
@@ -15340,7 +15610,7 @@
       <c r="A35" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="96"/>
+      <c r="B35" s="97"/>
       <c r="C35" s="5" t="s">
         <v>386</v>
       </c>
@@ -15364,7 +15634,7 @@
       <c r="A36" s="22" t="s">
         <v>389</v>
       </c>
-      <c r="B36" s="96"/>
+      <c r="B36" s="97"/>
       <c r="C36" s="5" t="s">
         <v>390</v>
       </c>
@@ -15388,7 +15658,7 @@
       <c r="A37" s="22" t="s">
         <v>394</v>
       </c>
-      <c r="B37" s="96"/>
+      <c r="B37" s="97"/>
       <c r="C37" s="12" t="s">
         <v>395</v>
       </c>
@@ -15412,7 +15682,7 @@
       <c r="A38" s="22" t="s">
         <v>399</v>
       </c>
-      <c r="B38" s="96"/>
+      <c r="B38" s="97"/>
       <c r="C38" s="12" t="s">
         <v>400</v>
       </c>
@@ -15439,7 +15709,7 @@
       <c r="A39" s="22" t="s">
         <v>403</v>
       </c>
-      <c r="B39" s="96"/>
+      <c r="B39" s="97"/>
       <c r="C39" s="12" t="s">
         <v>286</v>
       </c>
@@ -15463,7 +15733,7 @@
       <c r="A40" s="22" t="s">
         <v>406</v>
       </c>
-      <c r="B40" s="96"/>
+      <c r="B40" s="97"/>
       <c r="C40" s="12" t="s">
         <v>407</v>
       </c>
@@ -15487,7 +15757,7 @@
       <c r="A41" s="22" t="s">
         <v>410</v>
       </c>
-      <c r="B41" s="96"/>
+      <c r="B41" s="97"/>
       <c r="C41" s="12" t="s">
         <v>411</v>
       </c>
@@ -15511,7 +15781,7 @@
       <c r="A42" s="22" t="s">
         <v>414</v>
       </c>
-      <c r="B42" s="96"/>
+      <c r="B42" s="97"/>
       <c r="C42" s="12" t="s">
         <v>415</v>
       </c>
@@ -15535,7 +15805,7 @@
       <c r="A43" s="22" t="s">
         <v>418</v>
       </c>
-      <c r="B43" s="96"/>
+      <c r="B43" s="97"/>
       <c r="C43" s="12" t="s">
         <v>419</v>
       </c>
@@ -15559,7 +15829,7 @@
       <c r="A44" s="22" t="s">
         <v>423</v>
       </c>
-      <c r="B44" s="96"/>
+      <c r="B44" s="97"/>
       <c r="C44" s="12" t="s">
         <v>424</v>
       </c>
@@ -15583,7 +15853,7 @@
       <c r="A45" s="22" t="s">
         <v>427</v>
       </c>
-      <c r="B45" s="96"/>
+      <c r="B45" s="97"/>
       <c r="C45" s="12" t="s">
         <v>342</v>
       </c>
@@ -15627,7 +15897,7 @@
       <c r="A47" s="22" t="s">
         <v>431</v>
       </c>
-      <c r="B47" s="97" t="s">
+      <c r="B47" s="98" t="s">
         <v>430</v>
       </c>
       <c r="C47" s="29" t="s">
@@ -15658,7 +15928,7 @@
       <c r="A48" s="22" t="s">
         <v>436</v>
       </c>
-      <c r="B48" s="97"/>
+      <c r="B48" s="98"/>
       <c r="C48" s="12" t="s">
         <v>354</v>
       </c>
@@ -15685,7 +15955,7 @@
       <c r="A49" s="22" t="s">
         <v>439</v>
       </c>
-      <c r="B49" s="97"/>
+      <c r="B49" s="98"/>
       <c r="C49" s="12" t="s">
         <v>358</v>
       </c>
@@ -15712,7 +15982,7 @@
       <c r="A50" s="22" t="s">
         <v>442</v>
       </c>
-      <c r="B50" s="97"/>
+      <c r="B50" s="98"/>
       <c r="C50" s="12" t="s">
         <v>362</v>
       </c>
@@ -15736,7 +16006,7 @@
       <c r="A51" s="22" t="s">
         <v>445</v>
       </c>
-      <c r="B51" s="97"/>
+      <c r="B51" s="98"/>
       <c r="C51" s="12" t="s">
         <v>446</v>
       </c>
@@ -15760,7 +16030,7 @@
       <c r="A52" s="22" t="s">
         <v>448</v>
       </c>
-      <c r="B52" s="97"/>
+      <c r="B52" s="98"/>
       <c r="C52" s="12" t="s">
         <v>449</v>
       </c>
@@ -15836,11 +16106,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H2" s="79" t="s">
+      <c r="H2" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="79"/>
-      <c r="J2" s="85"/>
+      <c r="I2" s="80"/>
+      <c r="J2" s="86"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
@@ -15864,10 +16134,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="84"/>
+      <c r="I3" s="85"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15908,7 +16178,7 @@
       <c r="A5" s="7" t="s">
         <v>691</v>
       </c>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="99" t="s">
         <v>692</v>
       </c>
       <c r="C5" s="42" t="s">
@@ -15946,7 +16216,7 @@
       <c r="A6" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="B6" s="99"/>
+      <c r="B6" s="100"/>
       <c r="C6" s="42" t="s">
         <v>697</v>
       </c>
@@ -15982,7 +16252,7 @@
       <c r="A7" s="7" t="s">
         <v>700</v>
       </c>
-      <c r="B7" s="99"/>
+      <c r="B7" s="100"/>
       <c r="C7" s="42" t="s">
         <v>701</v>
       </c>
@@ -16018,7 +16288,7 @@
       <c r="A8" s="7" t="s">
         <v>704</v>
       </c>
-      <c r="B8" s="99"/>
+      <c r="B8" s="100"/>
       <c r="C8" s="42" t="s">
         <v>705</v>
       </c>
@@ -16057,7 +16327,7 @@
       <c r="A9" s="7" t="s">
         <v>709</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="42" t="s">
         <v>710</v>
       </c>
@@ -16094,7 +16364,7 @@
       <c r="A10" s="7" t="s">
         <v>713</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="42" t="s">
         <v>714</v>
       </c>
@@ -16133,7 +16403,7 @@
       <c r="A11" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="B11" s="99"/>
+      <c r="B11" s="100"/>
       <c r="C11" s="42" t="s">
         <v>718</v>
       </c>
@@ -16172,7 +16442,7 @@
       <c r="A12" s="7" t="s">
         <v>720</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="42" t="s">
         <v>721</v>
       </c>
@@ -16209,7 +16479,7 @@
       <c r="A13" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="42" t="s">
         <v>726</v>
       </c>
@@ -16246,7 +16516,7 @@
       <c r="A14" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="B14" s="99"/>
+      <c r="B14" s="100"/>
       <c r="C14" s="42" t="s">
         <v>731</v>
       </c>
@@ -16281,7 +16551,7 @@
       <c r="A15" s="7" t="s">
         <v>733</v>
       </c>
-      <c r="B15" s="99"/>
+      <c r="B15" s="100"/>
       <c r="C15" s="42" t="s">
         <v>734</v>
       </c>
@@ -16318,7 +16588,7 @@
       <c r="A16" s="7" t="s">
         <v>737</v>
       </c>
-      <c r="B16" s="99"/>
+      <c r="B16" s="100"/>
       <c r="C16" s="42" t="s">
         <v>738</v>
       </c>
@@ -16355,7 +16625,7 @@
       <c r="A17" s="7" t="s">
         <v>741</v>
       </c>
-      <c r="B17" s="99"/>
+      <c r="B17" s="100"/>
       <c r="C17" s="42" t="s">
         <v>742</v>
       </c>
@@ -16394,7 +16664,7 @@
       <c r="A18" s="7" t="s">
         <v>746</v>
       </c>
-      <c r="B18" s="99"/>
+      <c r="B18" s="100"/>
       <c r="C18" s="42" t="s">
         <v>747</v>
       </c>
@@ -16431,7 +16701,7 @@
       <c r="A19" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="B19" s="99"/>
+      <c r="B19" s="100"/>
       <c r="C19" s="42" t="s">
         <v>751</v>
       </c>
@@ -16468,7 +16738,7 @@
       <c r="A20" s="7" t="s">
         <v>754</v>
       </c>
-      <c r="B20" s="99"/>
+      <c r="B20" s="100"/>
       <c r="C20" s="42" t="s">
         <v>755</v>
       </c>
@@ -16505,7 +16775,7 @@
       <c r="A21" s="7" t="s">
         <v>758</v>
       </c>
-      <c r="B21" s="99"/>
+      <c r="B21" s="100"/>
       <c r="C21" s="42" t="s">
         <v>759</v>
       </c>
@@ -16542,7 +16812,7 @@
       <c r="A22" s="7" t="s">
         <v>762</v>
       </c>
-      <c r="B22" s="99"/>
+      <c r="B22" s="100"/>
       <c r="C22" s="3" t="s">
         <v>763</v>
       </c>
@@ -16579,7 +16849,7 @@
       <c r="A23" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B23" s="100" t="s">
         <v>768</v>
       </c>
       <c r="C23" s="3" t="s">
@@ -16616,7 +16886,7 @@
       <c r="A24" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B24" s="99"/>
+      <c r="B24" s="100"/>
       <c r="C24" s="6" t="s">
         <v>774</v>
       </c>
@@ -16655,7 +16925,7 @@
       <c r="A25" s="7" t="s">
         <v>773</v>
       </c>
-      <c r="B25" s="99"/>
+      <c r="B25" s="100"/>
       <c r="C25" s="6" t="s">
         <v>778</v>
       </c>
@@ -16694,7 +16964,7 @@
       <c r="A26" s="7" t="s">
         <v>781</v>
       </c>
-      <c r="B26" s="99"/>
+      <c r="B26" s="100"/>
       <c r="C26" s="6" t="s">
         <v>782</v>
       </c>
@@ -16733,7 +17003,7 @@
       <c r="A27" s="7" t="s">
         <v>785</v>
       </c>
-      <c r="B27" s="99"/>
+      <c r="B27" s="100"/>
       <c r="C27" s="6" t="s">
         <v>786</v>
       </c>
@@ -16772,7 +17042,7 @@
       <c r="A28" s="7" t="s">
         <v>789</v>
       </c>
-      <c r="B28" s="99" t="s">
+      <c r="B28" s="100" t="s">
         <v>790</v>
       </c>
       <c r="C28" s="6" t="s">
@@ -16811,7 +17081,7 @@
       <c r="A29" s="7" t="s">
         <v>795</v>
       </c>
-      <c r="B29" s="99"/>
+      <c r="B29" s="100"/>
       <c r="C29" s="6" t="s">
         <v>796</v>
       </c>
@@ -16850,7 +17120,7 @@
       <c r="A30" s="7" t="s">
         <v>801</v>
       </c>
-      <c r="B30" s="99"/>
+      <c r="B30" s="100"/>
       <c r="C30" s="6" t="s">
         <v>802</v>
       </c>
@@ -16889,7 +17159,7 @@
       <c r="A31" s="7" t="s">
         <v>805</v>
       </c>
-      <c r="B31" s="99"/>
+      <c r="B31" s="100"/>
       <c r="C31" s="6" t="s">
         <v>806</v>
       </c>
@@ -16928,7 +17198,7 @@
       <c r="A32" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B32" s="99"/>
+      <c r="B32" s="100"/>
       <c r="C32" s="6" t="s">
         <v>811</v>
       </c>
@@ -16967,7 +17237,7 @@
       <c r="A33" s="7" t="s">
         <v>810</v>
       </c>
-      <c r="B33" s="99"/>
+      <c r="B33" s="100"/>
       <c r="C33" s="6" t="s">
         <v>814</v>
       </c>
@@ -17006,7 +17276,7 @@
       <c r="A34" s="7" t="s">
         <v>819</v>
       </c>
-      <c r="B34" s="99"/>
+      <c r="B34" s="100"/>
       <c r="C34" s="6" t="s">
         <v>820</v>
       </c>
@@ -17043,7 +17313,7 @@
       <c r="A35" s="7" t="s">
         <v>824</v>
       </c>
-      <c r="B35" s="99"/>
+      <c r="B35" s="100"/>
       <c r="C35" s="6" t="s">
         <v>738</v>
       </c>
@@ -17080,7 +17350,7 @@
       <c r="A36" s="7" t="s">
         <v>827</v>
       </c>
-      <c r="B36" s="99"/>
+      <c r="B36" s="100"/>
       <c r="C36" s="6" t="s">
         <v>828</v>
       </c>
@@ -17117,7 +17387,7 @@
       <c r="A37" s="7" t="s">
         <v>831</v>
       </c>
-      <c r="B37" s="99"/>
+      <c r="B37" s="100"/>
       <c r="C37" s="6" t="s">
         <v>832</v>
       </c>
@@ -17154,7 +17424,7 @@
       <c r="A38" s="7" t="s">
         <v>835</v>
       </c>
-      <c r="B38" s="99"/>
+      <c r="B38" s="100"/>
       <c r="C38" s="6" t="s">
         <v>836</v>
       </c>
@@ -17191,7 +17461,7 @@
       <c r="A39" s="7" t="s">
         <v>839</v>
       </c>
-      <c r="B39" s="99"/>
+      <c r="B39" s="100"/>
       <c r="C39" s="6" t="s">
         <v>840</v>
       </c>
@@ -17364,7 +17634,7 @@
   <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
@@ -17384,10 +17654,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="79"/>
+      <c r="I1" s="80"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -17411,10 +17681,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="84"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
@@ -17451,7 +17721,7 @@
       <c r="A4" s="7" t="s">
         <v>1310</v>
       </c>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="99" t="s">
         <v>855</v>
       </c>
       <c r="C4" s="68" t="s">
@@ -17480,7 +17750,7 @@
       <c r="A5" s="7" t="s">
         <v>860</v>
       </c>
-      <c r="B5" s="99"/>
+      <c r="B5" s="100"/>
       <c r="C5" s="6" t="s">
         <v>861</v>
       </c>
@@ -17503,21 +17773,21 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="100" t="s">
+    <row r="6" spans="1:13" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="102" t="s">
         <v>864</v>
       </c>
-      <c r="B6" s="101"/>
-      <c r="C6" s="101"/>
-      <c r="D6" s="101"/>
-      <c r="E6" s="101"/>
-      <c r="F6" s="101"/>
-      <c r="G6" s="101"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="101"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="101"/>
-      <c r="L6" s="101"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="103"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="103"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="103"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="103"/>
+      <c r="J6" s="103"/>
+      <c r="K6" s="103"/>
+      <c r="L6" s="103"/>
     </row>
     <row r="7" spans="1:13" ht="193.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
@@ -17552,7 +17822,7 @@
       <c r="A8" s="7" t="s">
         <v>870</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="100" t="s">
         <v>871</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -17584,7 +17854,7 @@
       <c r="A9" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B9" s="99"/>
+      <c r="B9" s="100"/>
       <c r="C9" s="3" t="s">
         <v>878</v>
       </c>
@@ -17614,7 +17884,7 @@
       <c r="A10" s="7" t="s">
         <v>881</v>
       </c>
-      <c r="B10" s="99"/>
+      <c r="B10" s="100"/>
       <c r="C10" s="3" t="s">
         <v>882</v>
       </c>
@@ -17644,7 +17914,7 @@
       <c r="A11" s="7" t="s">
         <v>886</v>
       </c>
-      <c r="B11" s="99" t="s">
+      <c r="B11" s="100" t="s">
         <v>887</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -17674,7 +17944,7 @@
       <c r="A12" s="7" t="s">
         <v>892</v>
       </c>
-      <c r="B12" s="99"/>
+      <c r="B12" s="100"/>
       <c r="C12" s="3" t="s">
         <v>893</v>
       </c>
@@ -17702,7 +17972,7 @@
       <c r="A13" s="7" t="s">
         <v>897</v>
       </c>
-      <c r="B13" s="99"/>
+      <c r="B13" s="100"/>
       <c r="C13" s="3" t="s">
         <v>898</v>
       </c>
@@ -17730,7 +18000,7 @@
       <c r="A14" s="7" t="s">
         <v>901</v>
       </c>
-      <c r="B14" s="103" t="s">
+      <c r="B14" s="101" t="s">
         <v>902</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -17762,7 +18032,7 @@
       <c r="A15" s="7" t="s">
         <v>907</v>
       </c>
-      <c r="B15" s="103"/>
+      <c r="B15" s="101"/>
       <c r="C15" s="3" t="s">
         <v>908</v>
       </c>
@@ -17820,21 +18090,21 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="17" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="100" t="s">
+    <row r="17" spans="1:12" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="102" t="s">
         <v>916</v>
       </c>
-      <c r="B17" s="101"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="101"/>
-      <c r="F17" s="101"/>
-      <c r="G17" s="101"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="101"/>
-      <c r="L17" s="101"/>
+      <c r="B17" s="103"/>
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="103"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="103"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="103"/>
+      <c r="L17" s="103"/>
     </row>
     <row r="18" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
@@ -17934,7 +18204,7 @@
       <c r="A21" s="7" t="s">
         <v>932</v>
       </c>
-      <c r="B21" s="103" t="s">
+      <c r="B21" s="101" t="s">
         <v>918</v>
       </c>
       <c r="C21" s="3" t="s">
@@ -17966,7 +18236,7 @@
       <c r="A22" s="7" t="s">
         <v>936</v>
       </c>
-      <c r="B22" s="103"/>
+      <c r="B22" s="101"/>
       <c r="C22" s="3" t="s">
         <v>937</v>
       </c>
@@ -17996,7 +18266,7 @@
       <c r="A23" s="7" t="s">
         <v>940</v>
       </c>
-      <c r="B23" s="103"/>
+      <c r="B23" s="101"/>
       <c r="C23" s="3" t="s">
         <v>941</v>
       </c>
@@ -18026,7 +18296,7 @@
       <c r="A24" s="7" t="s">
         <v>944</v>
       </c>
-      <c r="B24" s="103"/>
+      <c r="B24" s="101"/>
       <c r="C24" s="3" t="s">
         <v>941</v>
       </c>
@@ -18082,27 +18352,27 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="26" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="100" t="s">
+    <row r="26" spans="1:12" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="102" t="s">
         <v>952</v>
       </c>
-      <c r="B26" s="101"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
-      <c r="G26" s="101"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
+      <c r="B26" s="103"/>
+      <c r="C26" s="103"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="103"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="103"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="103"/>
+      <c r="L26" s="103"/>
     </row>
     <row r="27" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="7" t="s">
         <v>953</v>
       </c>
-      <c r="B27" s="103" t="s">
+      <c r="B27" s="101" t="s">
         <v>954</v>
       </c>
       <c r="C27" s="3" t="s">
@@ -18132,7 +18402,7 @@
       <c r="A28" s="7" t="s">
         <v>957</v>
       </c>
-      <c r="B28" s="103"/>
+      <c r="B28" s="101"/>
       <c r="C28" s="3" t="s">
         <v>958</v>
       </c>
@@ -18160,7 +18430,7 @@
       <c r="A29" s="7" t="s">
         <v>961</v>
       </c>
-      <c r="B29" s="103"/>
+      <c r="B29" s="101"/>
       <c r="C29" s="3" t="s">
         <v>962</v>
       </c>
@@ -18188,7 +18458,7 @@
       <c r="A30" s="7" t="s">
         <v>966</v>
       </c>
-      <c r="B30" s="103"/>
+      <c r="B30" s="101"/>
       <c r="C30" s="3" t="s">
         <v>967</v>
       </c>
@@ -18216,7 +18486,7 @@
       <c r="A31" s="7" t="s">
         <v>971</v>
       </c>
-      <c r="B31" s="103"/>
+      <c r="B31" s="101"/>
       <c r="C31" s="3" t="s">
         <v>972</v>
       </c>
@@ -18244,7 +18514,7 @@
       <c r="A32" s="7" t="s">
         <v>976</v>
       </c>
-      <c r="B32" s="103"/>
+      <c r="B32" s="101"/>
       <c r="C32" s="3" t="s">
         <v>977</v>
       </c>
@@ -18272,7 +18542,7 @@
       <c r="A33" s="7" t="s">
         <v>980</v>
       </c>
-      <c r="B33" s="103"/>
+      <c r="B33" s="101"/>
       <c r="C33" s="3" t="s">
         <v>981</v>
       </c>
@@ -18296,21 +18566,21 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="34" spans="1:12" s="102" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="100" t="s">
+    <row r="34" spans="1:12" s="104" customFormat="1" ht="22.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="102" t="s">
         <v>984</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
+      <c r="B34" s="103"/>
+      <c r="C34" s="103"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="103"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="103"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="103"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="103"/>
+      <c r="L34" s="103"/>
     </row>
     <row r="35" spans="1:12" ht="160.94999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="7" t="s">
@@ -18639,11 +18909,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A17:XFD17"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="A26:XFD26"/>
     <mergeCell ref="A34:XFD34"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:B5"/>
@@ -18651,6 +18916,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B27:B33"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A17:XFD17"/>
+    <mergeCell ref="B21:B24"/>
+    <mergeCell ref="A26:XFD26"/>
   </mergeCells>
   <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -18688,32 +18958,33 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29D5F79E-749A-4C3C-BD92-6C5CCC9618BA}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
-    <col min="2" max="2" width="24" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="31.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="28.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.88671875" customWidth="1"/>
+    <col min="6" max="6" width="32.77734375" customWidth="1"/>
     <col min="7" max="7" width="29.88671875" customWidth="1"/>
     <col min="8" max="9" width="13.6640625" customWidth="1"/>
     <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="H1" s="79" t="s">
+      <c r="H1" s="80" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="79"/>
-      <c r="J1" s="85"/>
+      <c r="I1" s="80"/>
+      <c r="J1" s="86"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
@@ -18737,10 +19008,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="84" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1"/>
+      <c r="I2" s="85"/>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
@@ -18757,68 +19028,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>1026</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C3" s="42" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>1029</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>1030</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>1031</v>
-      </c>
-      <c r="G3" s="12" t="s">
-        <v>1032</v>
-      </c>
-      <c r="H3" s="42" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I3" s="62"/>
-      <c r="J3" s="42" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="12" t="s">
-        <v>1312</v>
-      </c>
-      <c r="M3" s="48">
-        <v>43991</v>
-      </c>
+    <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="65"/>
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="1" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>1332</v>
+      </c>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="65"/>
+      <c r="M3" s="65"/>
+      <c r="N3" s="65"/>
     </row>
     <row r="4" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="7" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="B4" s="12" t="s">
         <v>1027</v>
       </c>
       <c r="C4" s="42" t="s">
-        <v>1034</v>
+        <v>1028</v>
       </c>
       <c r="D4" s="12" t="s">
         <v>1029</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>1035</v>
+        <v>1030</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>1036</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>1037</v>
+        <v>1031</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>1032</v>
       </c>
       <c r="H4" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I4" s="62"/>
+      <c r="I4" s="62" t="s">
+        <v>1305</v>
+      </c>
       <c r="J4" s="42" t="s">
         <v>71</v>
       </c>
@@ -18826,33 +19083,37 @@
         <v>1312</v>
       </c>
       <c r="M4" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
-        <v>1038</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>958</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>1039</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>1040</v>
+        <v>1033</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>1029</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>1041</v>
+        <v>1035</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>1042</v>
-      </c>
-      <c r="G5" s="5"/>
+        <v>1036</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>1037</v>
+      </c>
       <c r="H5" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I5" s="62"/>
+      <c r="I5" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J5" s="42" t="s">
         <v>71</v>
       </c>
@@ -18860,31 +19121,35 @@
         <v>1312</v>
       </c>
       <c r="M5" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
-        <v>1043</v>
-      </c>
-      <c r="B6" s="99"/>
+        <v>1038</v>
+      </c>
+      <c r="B6" s="100" t="s">
+        <v>958</v>
+      </c>
       <c r="C6" s="6" t="s">
-        <v>1044</v>
+        <v>1039</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>1045</v>
+        <v>1041</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>1046</v>
+        <v>1042</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I6" s="62"/>
+      <c r="I6" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J6" s="42" t="s">
         <v>71</v>
       </c>
@@ -18892,31 +19157,33 @@
         <v>1312</v>
       </c>
       <c r="M6" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="7" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B7" s="99"/>
+        <v>1043</v>
+      </c>
+      <c r="B7" s="100"/>
       <c r="C7" s="6" t="s">
-        <v>1048</v>
+        <v>1044</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I7" s="62"/>
+      <c r="I7" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J7" s="42" t="s">
         <v>71</v>
       </c>
@@ -18924,31 +19191,33 @@
         <v>1312</v>
       </c>
       <c r="M7" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
-        <v>1051</v>
-      </c>
-      <c r="B8" s="99"/>
+        <v>1047</v>
+      </c>
+      <c r="B8" s="100"/>
       <c r="C8" s="6" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I8" s="62"/>
+      <c r="I8" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J8" s="42" t="s">
         <v>71</v>
       </c>
@@ -18956,22 +19225,22 @@
         <v>1312</v>
       </c>
       <c r="M8" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="7" t="s">
-        <v>1055</v>
-      </c>
-      <c r="B9" s="99"/>
+        <v>1051</v>
+      </c>
+      <c r="B9" s="100"/>
       <c r="C9" s="6" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>1057</v>
+        <v>1053</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>1054</v>
@@ -18980,7 +19249,9 @@
       <c r="H9" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I9" s="62"/>
+      <c r="I9" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J9" s="42" t="s">
         <v>71</v>
       </c>
@@ -18988,35 +19259,33 @@
         <v>1312</v>
       </c>
       <c r="M9" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
-        <v>1058</v>
-      </c>
-      <c r="B10" s="99" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>1059</v>
+        <v>1055</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="6" t="s">
+        <v>1056</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>1061</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>1062</v>
-      </c>
+        <v>1054</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I10" s="62"/>
+      <c r="I10" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J10" s="42" t="s">
         <v>71</v>
       </c>
@@ -19024,98 +19293,108 @@
         <v>1312</v>
       </c>
       <c r="M10" s="48">
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" ht="104.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7" t="s">
-        <v>1063</v>
-      </c>
-      <c r="B11" s="99"/>
+        <v>1058</v>
+      </c>
+      <c r="B11" s="100" t="s">
+        <v>1027</v>
+      </c>
       <c r="C11" s="42" t="s">
-        <v>1064</v>
+        <v>1059</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>1065</v>
+        <v>1060</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>1066</v>
-      </c>
-      <c r="G11" s="5"/>
+        <v>1061</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>1062</v>
+      </c>
       <c r="H11" s="42" t="s">
-        <v>1304</v>
-      </c>
-      <c r="I11" s="62"/>
+        <v>1305</v>
+      </c>
+      <c r="I11" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J11" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>1313</v>
-      </c>
       <c r="L11" s="12" t="s">
         <v>1312</v>
       </c>
       <c r="M11" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="7" t="s">
-        <v>1067</v>
-      </c>
-      <c r="B12" s="99"/>
+        <v>1063</v>
+      </c>
+      <c r="B12" s="100"/>
       <c r="C12" s="42" t="s">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>1040</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="42" t="s">
-        <v>1305</v>
-      </c>
-      <c r="I12" s="62"/>
+        <v>1304</v>
+      </c>
+      <c r="I12" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J12" s="42" t="s">
         <v>71</v>
       </c>
+      <c r="K12" s="5" t="s">
+        <v>1313</v>
+      </c>
       <c r="L12" s="12" t="s">
         <v>1312</v>
       </c>
       <c r="M12" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="7" t="s">
-        <v>1071</v>
-      </c>
-      <c r="B13" s="99"/>
+        <v>1067</v>
+      </c>
+      <c r="B13" s="100"/>
       <c r="C13" s="42" t="s">
-        <v>1072</v>
+        <v>1068</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>1073</v>
+        <v>1040</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>1074</v>
+        <v>1069</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>1075</v>
+        <v>1070</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I13" s="62"/>
+      <c r="I13" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J13" s="42" t="s">
         <v>71</v>
       </c>
@@ -19123,33 +19402,33 @@
         <v>1312</v>
       </c>
       <c r="M13" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="7" t="s">
-        <v>1076</v>
-      </c>
-      <c r="B14" s="99"/>
+        <v>1071</v>
+      </c>
+      <c r="B14" s="100"/>
       <c r="C14" s="42" t="s">
-        <v>1077</v>
+        <v>1072</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1078</v>
+        <v>1073</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>1079</v>
+        <v>1074</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>1080</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>1081</v>
-      </c>
+        <v>1075</v>
+      </c>
+      <c r="G14" s="5"/>
       <c r="H14" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I14" s="62"/>
+      <c r="I14" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J14" s="42" t="s">
         <v>71</v>
       </c>
@@ -19157,16 +19436,16 @@
         <v>1312</v>
       </c>
       <c r="M14" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="7" t="s">
-        <v>1082</v>
-      </c>
-      <c r="B15" s="99"/>
+        <v>1076</v>
+      </c>
+      <c r="B15" s="100"/>
       <c r="C15" s="42" t="s">
-        <v>1083</v>
+        <v>1077</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>1078</v>
@@ -19175,15 +19454,17 @@
         <v>1079</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>1084</v>
+        <v>1080</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>1085</v>
+        <v>1081</v>
       </c>
       <c r="H15" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I15" s="62"/>
+      <c r="I15" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J15" s="42" t="s">
         <v>71</v>
       </c>
@@ -19191,35 +19472,35 @@
         <v>1312</v>
       </c>
       <c r="M15" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="7" t="s">
-        <v>1086</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>1027</v>
-      </c>
+        <v>1082</v>
+      </c>
+      <c r="B16" s="100"/>
       <c r="C16" s="42" t="s">
-        <v>1087</v>
+        <v>1083</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>1040</v>
+        <v>1078</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>1088</v>
+        <v>1079</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>1090</v>
+        <v>1085</v>
       </c>
       <c r="H16" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I16" s="62"/>
+      <c r="I16" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J16" s="42" t="s">
         <v>71</v>
       </c>
@@ -19227,18 +19508,18 @@
         <v>1312</v>
       </c>
       <c r="M16" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="7" t="s">
-        <v>1091</v>
+        <v>1086</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>1027</v>
       </c>
       <c r="C17" s="42" t="s">
-        <v>1092</v>
+        <v>1087</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>1040</v>
@@ -19247,7 +19528,7 @@
         <v>1088</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>1093</v>
+        <v>1089</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>1090</v>
@@ -19255,7 +19536,9 @@
       <c r="H17" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I17" s="62"/>
+      <c r="I17" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J17" s="42" t="s">
         <v>71</v>
       </c>
@@ -19263,33 +19546,37 @@
         <v>1312</v>
       </c>
       <c r="M17" s="48">
-        <v>43991</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="124.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="7" t="s">
-        <v>1094</v>
-      </c>
-      <c r="B18" s="99" t="s">
-        <v>1095</v>
+        <v>1091</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>1027</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>1096</v>
+        <v>1092</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>1097</v>
+        <v>1040</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>1098</v>
+        <v>1088</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>1314</v>
-      </c>
-      <c r="G18" s="5"/>
+        <v>1093</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>1090</v>
+      </c>
       <c r="H18" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I18" s="62"/>
+      <c r="I18" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J18" s="42" t="s">
         <v>71</v>
       </c>
@@ -19297,33 +19584,35 @@
         <v>1312</v>
       </c>
       <c r="M18" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="7" t="s">
-        <v>1099</v>
-      </c>
-      <c r="B19" s="99"/>
+        <v>1094</v>
+      </c>
+      <c r="B19" s="100" t="s">
+        <v>1095</v>
+      </c>
       <c r="C19" s="42" t="s">
-        <v>1100</v>
+        <v>1096</v>
       </c>
       <c r="D19" s="5" t="s">
         <v>1097</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>1102</v>
-      </c>
-      <c r="G19" s="5" t="s">
-        <v>1103</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I19" s="62"/>
+      <c r="I19" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J19" s="42" t="s">
         <v>71</v>
       </c>
@@ -19331,16 +19620,16 @@
         <v>1312</v>
       </c>
       <c r="M19" s="48">
-        <v>43991</v>
+        <v>44174</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="7" t="s">
-        <v>1104</v>
-      </c>
-      <c r="B20" s="99"/>
+        <v>1099</v>
+      </c>
+      <c r="B20" s="100"/>
       <c r="C20" s="42" t="s">
-        <v>1105</v>
+        <v>1100</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>1097</v>
@@ -19349,15 +19638,17 @@
         <v>1101</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>1106</v>
+        <v>1102</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>1107</v>
+        <v>1103</v>
       </c>
       <c r="H20" s="42" t="s">
         <v>1305</v>
       </c>
-      <c r="I20" s="62"/>
+      <c r="I20" s="73" t="s">
+        <v>1305</v>
+      </c>
       <c r="J20" s="42" t="s">
         <v>71</v>
       </c>
@@ -19365,15 +19656,52 @@
         <v>1312</v>
       </c>
       <c r="M20" s="48">
-        <v>43991</v>
+        <v>44174</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="164.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B21" s="100"/>
+      <c r="C21" s="42" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>1097</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>1101</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>1106</v>
+      </c>
+      <c r="G21" s="5" t="s">
+        <v>1107</v>
+      </c>
+      <c r="H21" s="42" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I21" s="73" t="s">
+        <v>1305</v>
+      </c>
+      <c r="J21" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="L21" s="12" t="s">
+        <v>1312</v>
+      </c>
+      <c r="M21" s="48">
+        <v>44174</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B10:B15"/>
-    <mergeCell ref="B18:B20"/>
+  <mergeCells count="5">
+    <mergeCell ref="B11:B16"/>
+    <mergeCell ref="B19:B21"/>
     <mergeCell ref="H1:J1"/>
-    <mergeCell ref="B5:B9"/>
+    <mergeCell ref="B6:B10"/>
+    <mergeCell ref="H2:I2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1F682AB-08B4-4EBD-B955-A50DBA579309}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3D570A-7BDA-40C8-AC39-3545111710E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9499,8 +9499,9 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9512,6 +9513,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9537,6 +9541,54 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9568,54 +9620,6 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9631,7 +9635,25 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9652,23 +9674,8 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -9684,9 +9691,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -9717,10 +9721,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10080,8 +10080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AEC9BA-C3E5-436B-BD1A-EC8B2D616CA2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:J23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10094,28 +10094,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1"/>
     <row r="2" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="135" t="s">
         <v>1242</v>
       </c>
-      <c r="B2" s="129"/>
+      <c r="B2" s="135"/>
     </row>
     <row r="3" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="131" t="s">
         <v>1243</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="132" t="s">
+      <c r="B3" s="131"/>
+      <c r="C3" s="133" t="s">
         <v>1249</v>
       </c>
-      <c r="D3" s="133"/>
-      <c r="E3" s="133"/>
-      <c r="F3" s="133"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A4" s="130" t="s">
+      <c r="A4" s="131" t="s">
         <v>1244</v>
       </c>
-      <c r="B4" s="131"/>
+      <c r="B4" s="132"/>
       <c r="C4" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10137,35 +10137,35 @@
         <v>8</v>
       </c>
       <c r="E5" s="40">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="F5" s="40">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="135" t="s">
         <v>1325</v>
       </c>
-      <c r="B8" s="129"/>
+      <c r="B8" s="135"/>
     </row>
     <row r="9" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A9" s="130" t="s">
+      <c r="A9" s="131" t="s">
         <v>1243</v>
       </c>
-      <c r="B9" s="130"/>
-      <c r="C9" s="132" t="s">
+      <c r="B9" s="131"/>
+      <c r="C9" s="133" t="s">
         <v>1249</v>
       </c>
-      <c r="D9" s="133"/>
-      <c r="E9" s="133"/>
-      <c r="F9" s="133"/>
+      <c r="D9" s="134"/>
+      <c r="E9" s="134"/>
+      <c r="F9" s="134"/>
     </row>
     <row r="10" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A10" s="130" t="s">
+      <c r="A10" s="131" t="s">
         <v>1244</v>
       </c>
-      <c r="B10" s="131"/>
+      <c r="B10" s="132"/>
       <c r="C10" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10181,7 +10181,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" s="127">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="D11" s="40">
         <v>8</v>
@@ -10190,32 +10190,32 @@
         <v>0</v>
       </c>
       <c r="F11" s="40">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="135" t="s">
         <v>1593</v>
       </c>
-      <c r="B14" s="129"/>
+      <c r="B14" s="135"/>
     </row>
     <row r="15" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A15" s="130" t="s">
+      <c r="A15" s="131" t="s">
         <v>1243</v>
       </c>
-      <c r="B15" s="130"/>
-      <c r="C15" s="132" t="s">
+      <c r="B15" s="131"/>
+      <c r="C15" s="133" t="s">
         <v>1249</v>
       </c>
-      <c r="D15" s="133"/>
-      <c r="E15" s="133"/>
-      <c r="F15" s="133"/>
+      <c r="D15" s="134"/>
+      <c r="E15" s="134"/>
+      <c r="F15" s="134"/>
     </row>
     <row r="16" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A16" s="130" t="s">
+      <c r="A16" s="131" t="s">
         <v>1244</v>
       </c>
-      <c r="B16" s="131"/>
+      <c r="B16" s="132"/>
       <c r="C16" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10244,82 +10244,82 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A19" s="203" t="s">
+      <c r="A19" s="130" t="s">
         <v>1595</v>
       </c>
-      <c r="B19" s="203"/>
-      <c r="C19" s="203"/>
-      <c r="D19" s="203"/>
-      <c r="E19" s="203"/>
-      <c r="F19" s="203"/>
+      <c r="B19" s="130"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
     </row>
     <row r="20" spans="1:10" ht="22.2" customHeight="1">
-      <c r="A20" s="203" t="s">
+      <c r="A20" s="130" t="s">
         <v>1596</v>
       </c>
-      <c r="B20" s="203"/>
-      <c r="C20" s="203"/>
-      <c r="D20" s="203"/>
-      <c r="E20" s="203"/>
-      <c r="F20" s="203"/>
+      <c r="B20" s="130"/>
+      <c r="C20" s="130"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1">
-      <c r="A21" s="203" t="s">
+      <c r="A21" s="130" t="s">
         <v>1597</v>
       </c>
-      <c r="B21" s="203"/>
-      <c r="C21" s="203"/>
-      <c r="D21" s="203"/>
-      <c r="E21" s="203"/>
-      <c r="F21" s="203"/>
+      <c r="B21" s="130"/>
+      <c r="C21" s="130"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="130"/>
+      <c r="F21" s="130"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1">
-      <c r="A22" s="203" t="s">
+      <c r="A22" s="130" t="s">
         <v>1598</v>
       </c>
-      <c r="B22" s="203"/>
-      <c r="C22" s="203"/>
-      <c r="D22" s="203"/>
-      <c r="E22" s="203"/>
-      <c r="F22" s="203"/>
-      <c r="G22" s="203"/>
-      <c r="H22" s="203"/>
-      <c r="I22" s="203"/>
-      <c r="J22" s="203"/>
+      <c r="B22" s="130"/>
+      <c r="C22" s="130"/>
+      <c r="D22" s="130"/>
+      <c r="E22" s="130"/>
+      <c r="F22" s="130"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="130"/>
     </row>
     <row r="23" spans="1:10" ht="22.8" customHeight="1">
-      <c r="A23" s="203" t="s">
+      <c r="A23" s="130" t="s">
         <v>1599</v>
       </c>
-      <c r="B23" s="203"/>
-      <c r="C23" s="203"/>
-      <c r="D23" s="203"/>
-      <c r="E23" s="203"/>
-      <c r="F23" s="203"/>
-      <c r="G23" s="203"/>
-      <c r="H23" s="203"/>
-      <c r="I23" s="203"/>
-      <c r="J23" s="203"/>
+      <c r="B23" s="130"/>
+      <c r="C23" s="130"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="130"/>
+      <c r="F23" s="130"/>
+      <c r="G23" s="130"/>
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="130"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="C15:F15"/>
     <mergeCell ref="A23:J23"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:F19"/>
     <mergeCell ref="A20:F20"/>
     <mergeCell ref="A21:F21"/>
     <mergeCell ref="A22:J22"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10356,11 +10356,11 @@
       <c r="A1" t="s">
         <v>1590</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="135"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="137"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -10384,10 +10384,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="A4" s="7" t="s">
         <v>1002</v>
       </c>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="192" t="s">
         <v>1084</v>
       </c>
       <c r="C4" s="41" t="s">
@@ -10461,7 +10461,7 @@
       <c r="A5" s="7" t="s">
         <v>1009</v>
       </c>
-      <c r="B5" s="190"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="41" t="s">
         <v>1089</v>
       </c>
@@ -10525,7 +10525,7 @@
       <c r="A7" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="B7" s="190" t="s">
+      <c r="B7" s="193" t="s">
         <v>1097</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -10558,7 +10558,7 @@
       <c r="A8" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="190"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="6" t="s">
         <v>1101</v>
       </c>
@@ -10589,7 +10589,7 @@
       <c r="A9" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="B9" s="190" t="s">
+      <c r="B9" s="193" t="s">
         <v>1104</v>
       </c>
       <c r="C9" s="6" t="s">
@@ -10622,7 +10622,7 @@
       <c r="A10" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="B10" s="190"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="6" t="s">
         <v>1108</v>
       </c>
@@ -10653,7 +10653,7 @@
       <c r="A11" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="193" t="s">
         <v>1110</v>
       </c>
       <c r="C11" s="6" t="s">
@@ -10686,7 +10686,7 @@
       <c r="A12" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="B12" s="190"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="6" t="s">
         <v>1115</v>
       </c>
@@ -10717,7 +10717,7 @@
       <c r="A13" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="B13" s="190" t="s">
+      <c r="B13" s="193" t="s">
         <v>1117</v>
       </c>
       <c r="C13" s="6" t="s">
@@ -10750,7 +10750,7 @@
       <c r="A14" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="B14" s="190"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="6" t="s">
         <v>1122</v>
       </c>
@@ -10781,7 +10781,7 @@
       <c r="A15" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="B15" s="190" t="s">
+      <c r="B15" s="193" t="s">
         <v>1124</v>
       </c>
       <c r="C15" s="6" t="s">
@@ -10814,7 +10814,7 @@
       <c r="A16" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="B16" s="190"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="6" t="s">
         <v>1129</v>
       </c>
@@ -10845,7 +10845,7 @@
       <c r="A17" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="B17" s="190" t="s">
+      <c r="B17" s="193" t="s">
         <v>1131</v>
       </c>
       <c r="C17" s="6" t="s">
@@ -10878,7 +10878,7 @@
       <c r="A18" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B18" s="190"/>
+      <c r="B18" s="193"/>
       <c r="C18" s="6" t="s">
         <v>1135</v>
       </c>
@@ -10909,7 +10909,7 @@
       <c r="A19" s="7" t="s">
         <v>1062</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="193" t="s">
         <v>1138</v>
       </c>
       <c r="C19" s="6" t="s">
@@ -10942,7 +10942,7 @@
       <c r="A20" s="7" t="s">
         <v>1067</v>
       </c>
-      <c r="B20" s="190"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="6" t="s">
         <v>1142</v>
       </c>
@@ -11008,7 +11008,7 @@
       <c r="A22" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="B22" s="190" t="s">
+      <c r="B22" s="193" t="s">
         <v>1151</v>
       </c>
       <c r="C22" s="6" t="s">
@@ -11041,7 +11041,7 @@
       <c r="A23" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="B23" s="190"/>
+      <c r="B23" s="193"/>
       <c r="C23" s="6" t="s">
         <v>1155</v>
       </c>
@@ -11072,7 +11072,7 @@
       <c r="A24" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="B24" s="190" t="s">
+      <c r="B24" s="193" t="s">
         <v>1160</v>
       </c>
       <c r="C24" s="6" t="s">
@@ -11105,7 +11105,7 @@
       <c r="A25" s="7" t="s">
         <v>1164</v>
       </c>
-      <c r="B25" s="190"/>
+      <c r="B25" s="193"/>
       <c r="C25" s="6" t="s">
         <v>1165</v>
       </c>
@@ -11136,7 +11136,7 @@
       <c r="A26" s="7" t="s">
         <v>1168</v>
       </c>
-      <c r="B26" s="190"/>
+      <c r="B26" s="193"/>
       <c r="C26" s="6" t="s">
         <v>1169</v>
       </c>
@@ -11167,7 +11167,7 @@
       <c r="A27" s="7" t="s">
         <v>1171</v>
       </c>
-      <c r="B27" s="190"/>
+      <c r="B27" s="193"/>
       <c r="C27" s="6" t="s">
         <v>1172</v>
       </c>
@@ -11198,7 +11198,7 @@
       <c r="A28" s="7" t="s">
         <v>1175</v>
       </c>
-      <c r="B28" s="190"/>
+      <c r="B28" s="193"/>
       <c r="C28" s="6" t="s">
         <v>1176</v>
       </c>
@@ -11229,7 +11229,7 @@
       <c r="A29" s="7" t="s">
         <v>1179</v>
       </c>
-      <c r="B29" s="190"/>
+      <c r="B29" s="193"/>
       <c r="C29" s="6" t="s">
         <v>1180</v>
       </c>
@@ -11259,7 +11259,7 @@
       <c r="A30" s="7" t="s">
         <v>1182</v>
       </c>
-      <c r="B30" s="190" t="s">
+      <c r="B30" s="193" t="s">
         <v>1183</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -11292,7 +11292,7 @@
       <c r="A31" s="7" t="s">
         <v>1186</v>
       </c>
-      <c r="B31" s="190"/>
+      <c r="B31" s="193"/>
       <c r="C31" s="6" t="s">
         <v>1187</v>
       </c>
@@ -11323,7 +11323,7 @@
       <c r="A32" s="7" t="s">
         <v>1189</v>
       </c>
-      <c r="B32" s="190"/>
+      <c r="B32" s="193"/>
       <c r="C32" s="6" t="s">
         <v>1190</v>
       </c>
@@ -11354,7 +11354,7 @@
       <c r="A33" s="7" t="s">
         <v>1192</v>
       </c>
-      <c r="B33" s="190"/>
+      <c r="B33" s="193"/>
       <c r="C33" s="6" t="s">
         <v>1193</v>
       </c>
@@ -11385,7 +11385,7 @@
       <c r="A34" s="7" t="s">
         <v>1195</v>
       </c>
-      <c r="B34" s="190"/>
+      <c r="B34" s="193"/>
       <c r="C34" s="6" t="s">
         <v>1196</v>
       </c>
@@ -11416,7 +11416,7 @@
       <c r="A35" s="7" t="s">
         <v>1198</v>
       </c>
-      <c r="B35" s="190"/>
+      <c r="B35" s="193"/>
       <c r="C35" s="6" t="s">
         <v>1199</v>
       </c>
@@ -11446,7 +11446,7 @@
       <c r="A36" s="7" t="s">
         <v>1201</v>
       </c>
-      <c r="B36" s="190" t="s">
+      <c r="B36" s="193" t="s">
         <v>1202</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -11479,7 +11479,7 @@
       <c r="A37" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="B37" s="190"/>
+      <c r="B37" s="193"/>
       <c r="C37" s="6" t="s">
         <v>1205</v>
       </c>
@@ -11510,7 +11510,7 @@
       <c r="A38" s="7" t="s">
         <v>1207</v>
       </c>
-      <c r="B38" s="190"/>
+      <c r="B38" s="193"/>
       <c r="C38" s="6" t="s">
         <v>1208</v>
       </c>
@@ -11541,7 +11541,7 @@
       <c r="A39" s="7" t="s">
         <v>1210</v>
       </c>
-      <c r="B39" s="190"/>
+      <c r="B39" s="193"/>
       <c r="C39" s="6" t="s">
         <v>1211</v>
       </c>
@@ -11572,7 +11572,7 @@
       <c r="A40" s="7" t="s">
         <v>1213</v>
       </c>
-      <c r="B40" s="190"/>
+      <c r="B40" s="193"/>
       <c r="C40" s="6" t="s">
         <v>1214</v>
       </c>
@@ -11603,7 +11603,7 @@
       <c r="A41" s="7" t="s">
         <v>1216</v>
       </c>
-      <c r="B41" s="190"/>
+      <c r="B41" s="193"/>
       <c r="C41" s="6" t="s">
         <v>1217</v>
       </c>
@@ -11800,11 +11800,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B15:B16"/>
@@ -11814,6 +11809,11 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B29"/>
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11866,10 +11866,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="172"/>
+      <c r="I1" s="174"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="A3" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B3" s="192" t="s">
+      <c r="B3" s="194" t="s">
         <v>495</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -11938,7 +11938,7 @@
       <c r="A4" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="193"/>
+      <c r="B4" s="195"/>
       <c r="C4" s="12" t="s">
         <v>258</v>
       </c>
@@ -11965,7 +11965,7 @@
       <c r="A5" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="B5" s="193"/>
+      <c r="B5" s="195"/>
       <c r="C5" s="5" t="s">
         <v>505</v>
       </c>
@@ -11995,7 +11995,7 @@
       <c r="A6" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="B6" s="193"/>
+      <c r="B6" s="195"/>
       <c r="C6" s="12" t="s">
         <v>267</v>
       </c>
@@ -12025,7 +12025,7 @@
       <c r="A7" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="193"/>
+      <c r="B7" s="195"/>
       <c r="C7" s="30" t="s">
         <v>508</v>
       </c>
@@ -12049,7 +12049,7 @@
       <c r="A8" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="193"/>
+      <c r="B8" s="195"/>
       <c r="C8" s="30" t="s">
         <v>514</v>
       </c>
@@ -12073,7 +12073,7 @@
       <c r="A9" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="B9" s="193"/>
+      <c r="B9" s="195"/>
       <c r="C9" s="30" t="s">
         <v>518</v>
       </c>
@@ -12097,7 +12097,7 @@
       <c r="A10" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="B10" s="193"/>
+      <c r="B10" s="195"/>
       <c r="C10" s="30" t="s">
         <v>520</v>
       </c>
@@ -12121,7 +12121,7 @@
       <c r="A11" s="31" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="193"/>
+      <c r="B11" s="195"/>
       <c r="C11" s="30" t="s">
         <v>524</v>
       </c>
@@ -12145,7 +12145,7 @@
       <c r="A12" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="B12" s="193"/>
+      <c r="B12" s="195"/>
       <c r="C12" s="30" t="s">
         <v>528</v>
       </c>
@@ -12169,7 +12169,7 @@
       <c r="A13" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="B13" s="193"/>
+      <c r="B13" s="195"/>
       <c r="C13" s="30" t="s">
         <v>531</v>
       </c>
@@ -12193,7 +12193,7 @@
       <c r="A14" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="B14" s="193"/>
+      <c r="B14" s="195"/>
       <c r="C14" s="30" t="s">
         <v>534</v>
       </c>
@@ -12288,7 +12288,7 @@
       <c r="A18" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="193" t="s">
+      <c r="B18" s="195" t="s">
         <v>565</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -12314,7 +12314,7 @@
       <c r="A19" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="B19" s="193"/>
+      <c r="B19" s="195"/>
       <c r="C19" s="30" t="s">
         <v>552</v>
       </c>
@@ -12335,7 +12335,7 @@
       <c r="A20" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="193"/>
+      <c r="B20" s="195"/>
       <c r="C20" s="30" t="s">
         <v>556</v>
       </c>
@@ -12356,7 +12356,7 @@
       <c r="A21" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="193"/>
+      <c r="B21" s="195"/>
       <c r="C21" s="30" t="s">
         <v>562</v>
       </c>
@@ -12433,10 +12433,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="172"/>
+      <c r="I1" s="174"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -12479,7 +12479,7 @@
       <c r="A3" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="196" t="s">
         <v>451</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -12511,7 +12511,7 @@
       <c r="A4" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="195"/>
+      <c r="B4" s="197"/>
       <c r="C4" s="70" t="s">
         <v>1355</v>
       </c>
@@ -12541,7 +12541,7 @@
       <c r="A5" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="B5" s="195"/>
+      <c r="B5" s="197"/>
       <c r="C5" s="70" t="s">
         <v>1358</v>
       </c>
@@ -12571,7 +12571,7 @@
       <c r="A6" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="195"/>
+      <c r="B6" s="197"/>
       <c r="C6" s="70" t="s">
         <v>453</v>
       </c>
@@ -12596,7 +12596,7 @@
       <c r="A7" s="68" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="197"/>
       <c r="C7" s="70" t="s">
         <v>457</v>
       </c>
@@ -12621,7 +12621,7 @@
       <c r="A8" s="68" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="195"/>
+      <c r="B8" s="197"/>
       <c r="C8" s="70" t="s">
         <v>468</v>
       </c>
@@ -12646,7 +12646,7 @@
       <c r="A9" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="B9" s="195"/>
+      <c r="B9" s="197"/>
       <c r="C9" s="70" t="s">
         <v>469</v>
       </c>
@@ -12671,7 +12671,7 @@
       <c r="A10" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="195"/>
+      <c r="B10" s="197"/>
       <c r="C10" s="70" t="s">
         <v>466</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="A11" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="B11" s="195"/>
+      <c r="B11" s="197"/>
       <c r="C11" s="70" t="s">
         <v>464</v>
       </c>
@@ -12721,7 +12721,7 @@
       <c r="A12" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="195"/>
+      <c r="B12" s="197"/>
       <c r="C12" s="70" t="s">
         <v>465</v>
       </c>
@@ -13033,10 +13033,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="198"/>
+      <c r="I1" s="200"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13670,7 +13670,7 @@
       <c r="A28" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B28" s="196" t="s">
+      <c r="B28" s="198" t="s">
         <v>669</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -13696,7 +13696,7 @@
       <c r="A29" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="B29" s="197"/>
+      <c r="B29" s="199"/>
       <c r="C29" s="43" t="s">
         <v>674</v>
       </c>
@@ -13714,7 +13714,7 @@
       <c r="A30" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B30" s="197"/>
+      <c r="B30" s="199"/>
       <c r="C30" s="10" t="s">
         <v>677</v>
       </c>
@@ -13738,7 +13738,7 @@
       <c r="A31" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B31" s="197"/>
+      <c r="B31" s="199"/>
       <c r="C31" s="10" t="s">
         <v>680</v>
       </c>
@@ -13762,7 +13762,7 @@
       <c r="A32" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="B32" s="197"/>
+      <c r="B32" s="199"/>
       <c r="C32" s="43" t="s">
         <v>683</v>
       </c>
@@ -13789,7 +13789,7 @@
       <c r="A33" s="76" t="s">
         <v>1379</v>
       </c>
-      <c r="B33" s="199"/>
+      <c r="B33" s="201"/>
       <c r="C33" s="77" t="s">
         <v>1380</v>
       </c>
@@ -13816,7 +13816,7 @@
       <c r="A34" s="76" t="s">
         <v>1384</v>
       </c>
-      <c r="B34" s="200"/>
+      <c r="B34" s="202"/>
       <c r="C34" s="77" t="s">
         <v>1385</v>
       </c>
@@ -13834,7 +13834,7 @@
       <c r="A35" s="76" t="s">
         <v>1388</v>
       </c>
-      <c r="B35" s="200"/>
+      <c r="B35" s="202"/>
       <c r="C35" s="77" t="s">
         <v>1389</v>
       </c>
@@ -13852,7 +13852,7 @@
       <c r="A36" s="76" t="s">
         <v>1392</v>
       </c>
-      <c r="B36" s="200"/>
+      <c r="B36" s="202"/>
       <c r="C36" s="77" t="s">
         <v>1393</v>
       </c>
@@ -13870,7 +13870,7 @@
       <c r="A37" s="76" t="s">
         <v>1396</v>
       </c>
-      <c r="B37" s="201"/>
+      <c r="B37" s="203"/>
       <c r="C37" s="77" t="s">
         <v>1397</v>
       </c>
@@ -13953,16 +13953,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="202" t="s">
+      <c r="A1" s="129" t="s">
         <v>1578</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -13986,10 +13986,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="140"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -14027,22 +14027,22 @@
       <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="19.2" customHeight="1">
-      <c r="A5" s="134" t="s">
+      <c r="A5" s="136" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
-      <c r="K5" s="134"/>
-      <c r="L5" s="134"/>
-      <c r="M5" s="134"/>
-      <c r="N5" s="134"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
+      <c r="N5" s="136"/>
     </row>
     <row r="6" spans="1:14" ht="119.4" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -14127,7 +14127,7 @@
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="138" t="s">
+      <c r="B8" s="140" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -14168,7 +14168,7 @@
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="138"/>
+      <c r="B9" s="140"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -14207,7 +14207,7 @@
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="138"/>
+      <c r="B10" s="140"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -14246,7 +14246,7 @@
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="138"/>
+      <c r="B11" s="140"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -14446,7 +14446,7 @@
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="139" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -14485,7 +14485,7 @@
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="137"/>
+      <c r="B17" s="139"/>
       <c r="C17" s="6" t="s">
         <v>1267</v>
       </c>
@@ -14778,11 +14778,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="136"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="138"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
@@ -14806,10 +14806,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="140"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15072,11 +15072,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="135" t="s">
+      <c r="H2" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="135"/>
-      <c r="J2" s="141"/>
+      <c r="I2" s="137"/>
+      <c r="J2" s="143"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
@@ -15100,10 +15100,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="139" t="s">
+      <c r="H3" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="140"/>
+      <c r="I3" s="142"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15844,10 +15844,10 @@
       <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="167" t="s">
+      <c r="H1" s="148" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="167"/>
+      <c r="I1" s="148"/>
       <c r="J1" s="92" t="s">
         <v>7</v>
       </c>
@@ -15880,13 +15880,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="164" t="s">
+      <c r="A3" s="144" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="165"/>
-      <c r="C3" s="165"/>
-      <c r="D3" s="165"/>
-      <c r="E3" s="165"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
       <c r="F3" s="101"/>
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
@@ -15901,7 +15901,7 @@
       <c r="A4" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="156" t="s">
+      <c r="B4" s="146" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="103" t="s">
@@ -15933,7 +15933,7 @@
       <c r="A5" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="156"/>
+      <c r="B5" s="146"/>
       <c r="C5" s="103" t="s">
         <v>169</v>
       </c>
@@ -15963,7 +15963,7 @@
       <c r="A6" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="156"/>
+      <c r="B6" s="146"/>
       <c r="C6" s="103" t="s">
         <v>173</v>
       </c>
@@ -15993,7 +15993,7 @@
       <c r="A7" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="156"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="106" t="s">
         <v>176</v>
       </c>
@@ -16023,7 +16023,7 @@
       <c r="A8" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="156"/>
+      <c r="B8" s="146"/>
       <c r="C8" s="106" t="s">
         <v>179</v>
       </c>
@@ -16053,7 +16053,7 @@
       <c r="A9" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="156"/>
+      <c r="B9" s="146"/>
       <c r="C9" s="106" t="s">
         <v>1310</v>
       </c>
@@ -16082,7 +16082,7 @@
       <c r="A10" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="156"/>
+      <c r="B10" s="146"/>
       <c r="C10" s="106" t="s">
         <v>182</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="A11" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="156"/>
+      <c r="B11" s="146"/>
       <c r="C11" s="106" t="s">
         <v>186</v>
       </c>
@@ -16142,7 +16142,7 @@
       <c r="A12" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="156"/>
+      <c r="B12" s="146"/>
       <c r="C12" s="106" t="s">
         <v>190</v>
       </c>
@@ -16172,7 +16172,7 @@
       <c r="A13" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="156"/>
+      <c r="B13" s="146"/>
       <c r="C13" s="106" t="s">
         <v>193</v>
       </c>
@@ -16202,7 +16202,7 @@
       <c r="A14" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="156"/>
+      <c r="B14" s="146"/>
       <c r="C14" s="106" t="s">
         <v>197</v>
       </c>
@@ -16232,7 +16232,7 @@
       <c r="A15" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="156"/>
+      <c r="B15" s="146"/>
       <c r="C15" s="106" t="s">
         <v>201</v>
       </c>
@@ -16262,7 +16262,7 @@
       <c r="A16" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="156"/>
+      <c r="B16" s="146"/>
       <c r="C16" s="106" t="s">
         <v>205</v>
       </c>
@@ -16292,7 +16292,7 @@
       <c r="A17" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="156"/>
+      <c r="B17" s="146"/>
       <c r="C17" s="106" t="s">
         <v>209</v>
       </c>
@@ -16322,7 +16322,7 @@
       <c r="A18" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="156"/>
+      <c r="B18" s="146"/>
       <c r="C18" s="106" t="s">
         <v>213</v>
       </c>
@@ -16352,7 +16352,7 @@
       <c r="A19" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="156"/>
+      <c r="B19" s="146"/>
       <c r="C19" s="106" t="s">
         <v>218</v>
       </c>
@@ -16382,7 +16382,7 @@
       <c r="A20" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="156"/>
+      <c r="B20" s="146"/>
       <c r="C20" s="106" t="s">
         <v>223</v>
       </c>
@@ -16412,7 +16412,7 @@
       <c r="A21" s="68" t="s">
         <v>1407</v>
       </c>
-      <c r="B21" s="156"/>
+      <c r="B21" s="146"/>
       <c r="C21" s="106" t="s">
         <v>227</v>
       </c>
@@ -16442,7 +16442,7 @@
       <c r="A22" s="68" t="s">
         <v>1411</v>
       </c>
-      <c r="B22" s="156"/>
+      <c r="B22" s="146"/>
       <c r="C22" s="106" t="s">
         <v>1408</v>
       </c>
@@ -16472,7 +16472,7 @@
       <c r="A23" s="68" t="s">
         <v>1581</v>
       </c>
-      <c r="B23" s="156"/>
+      <c r="B23" s="146"/>
       <c r="C23" s="106" t="s">
         <v>1412</v>
       </c>
@@ -16499,13 +16499,13 @@
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.399999999999999">
-      <c r="A24" s="166" t="s">
+      <c r="A24" s="147" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="165"/>
-      <c r="C24" s="165"/>
-      <c r="D24" s="165"/>
-      <c r="E24" s="165"/>
+      <c r="B24" s="145"/>
+      <c r="C24" s="145"/>
+      <c r="D24" s="145"/>
+      <c r="E24" s="145"/>
       <c r="F24" s="101"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
@@ -16519,7 +16519,7 @@
       <c r="A25" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="155" t="s">
+      <c r="B25" s="152" t="s">
         <v>249</v>
       </c>
       <c r="C25" s="106" t="s">
@@ -16551,7 +16551,7 @@
       <c r="A26" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="156"/>
+      <c r="B26" s="146"/>
       <c r="C26" s="106" t="s">
         <v>235</v>
       </c>
@@ -16581,7 +16581,7 @@
       <c r="A27" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="156"/>
+      <c r="B27" s="146"/>
       <c r="C27" s="106" t="s">
         <v>240</v>
       </c>
@@ -16611,7 +16611,7 @@
       <c r="A28" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="156"/>
+      <c r="B28" s="146"/>
       <c r="C28" s="106" t="s">
         <v>245</v>
       </c>
@@ -16679,13 +16679,13 @@
       <c r="A32" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="152" t="s">
+      <c r="B32" s="151" t="s">
         <v>1454</v>
       </c>
       <c r="C32" s="82" t="s">
         <v>1455</v>
       </c>
-      <c r="D32" s="154" t="s">
+      <c r="D32" s="150" t="s">
         <v>1461</v>
       </c>
       <c r="E32" s="87" t="s">
@@ -16708,11 +16708,11 @@
       <c r="A33" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="152"/>
-      <c r="C33" s="153" t="s">
+      <c r="B33" s="151"/>
+      <c r="C33" s="149" t="s">
         <v>1456</v>
       </c>
-      <c r="D33" s="154"/>
+      <c r="D33" s="150"/>
       <c r="E33" s="87" t="s">
         <v>1464</v>
       </c>
@@ -16733,9 +16733,9 @@
       <c r="A34" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="152"/>
-      <c r="C34" s="153"/>
-      <c r="D34" s="154"/>
+      <c r="B34" s="151"/>
+      <c r="C34" s="149"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="87" t="s">
         <v>1465</v>
       </c>
@@ -16754,11 +16754,11 @@
       <c r="A35" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="153" t="s">
+      <c r="B35" s="151"/>
+      <c r="C35" s="149" t="s">
         <v>1458</v>
       </c>
-      <c r="D35" s="154"/>
+      <c r="D35" s="150"/>
       <c r="E35" s="87" t="s">
         <v>1466</v>
       </c>
@@ -16779,9 +16779,9 @@
       <c r="A36" s="68" t="s">
         <v>1315</v>
       </c>
-      <c r="B36" s="152"/>
-      <c r="C36" s="153"/>
-      <c r="D36" s="154"/>
+      <c r="B36" s="151"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="87" t="s">
         <v>1467</v>
       </c>
@@ -16802,19 +16802,19 @@
       <c r="A37" s="68" t="s">
         <v>1451</v>
       </c>
-      <c r="B37" s="152" t="s">
+      <c r="B37" s="151" t="s">
         <v>1482</v>
       </c>
-      <c r="C37" s="147" t="s">
+      <c r="C37" s="165" t="s">
         <v>1480</v>
       </c>
-      <c r="D37" s="154" t="s">
+      <c r="D37" s="150" t="s">
         <v>1461</v>
       </c>
       <c r="E37" s="90" t="s">
         <v>1483</v>
       </c>
-      <c r="F37" s="142" t="s">
+      <c r="F37" s="160" t="s">
         <v>1459</v>
       </c>
       <c r="I37" s="95" t="s">
@@ -16831,13 +16831,13 @@
       <c r="A38" s="68" t="s">
         <v>1452</v>
       </c>
-      <c r="B38" s="152"/>
-      <c r="C38" s="148"/>
-      <c r="D38" s="154"/>
+      <c r="B38" s="151"/>
+      <c r="C38" s="166"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="90" t="s">
         <v>1484</v>
       </c>
-      <c r="F38" s="143"/>
+      <c r="F38" s="161"/>
       <c r="I38" s="95" t="s">
         <v>1250</v>
       </c>
@@ -16852,13 +16852,13 @@
       <c r="A39" s="68" t="s">
         <v>1453</v>
       </c>
-      <c r="B39" s="152"/>
-      <c r="C39" s="149"/>
-      <c r="D39" s="154"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="167"/>
+      <c r="D39" s="150"/>
       <c r="E39" s="90" t="s">
         <v>1485</v>
       </c>
-      <c r="F39" s="144"/>
+      <c r="F39" s="162"/>
       <c r="I39" s="95" t="s">
         <v>1250</v>
       </c>
@@ -16873,15 +16873,15 @@
       <c r="A40" s="68" t="s">
         <v>1470</v>
       </c>
-      <c r="B40" s="152"/>
-      <c r="C40" s="150" t="s">
+      <c r="B40" s="151"/>
+      <c r="C40" s="168" t="s">
         <v>1481</v>
       </c>
-      <c r="D40" s="154"/>
+      <c r="D40" s="150"/>
       <c r="E40" s="90" t="s">
         <v>1486</v>
       </c>
-      <c r="F40" s="145" t="s">
+      <c r="F40" s="163" t="s">
         <v>1487</v>
       </c>
       <c r="I40" s="95" t="s">
@@ -16898,13 +16898,13 @@
       <c r="A41" s="68" t="s">
         <v>1471</v>
       </c>
-      <c r="B41" s="152"/>
-      <c r="C41" s="151"/>
-      <c r="D41" s="154"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="169"/>
+      <c r="D41" s="150"/>
       <c r="E41" s="90" t="s">
         <v>1486</v>
       </c>
-      <c r="F41" s="146"/>
+      <c r="F41" s="164"/>
       <c r="I41" s="95" t="s">
         <v>1250</v>
       </c>
@@ -16919,13 +16919,13 @@
       <c r="A42" s="68" t="s">
         <v>1472</v>
       </c>
-      <c r="B42" s="157" t="s">
+      <c r="B42" s="153" t="s">
         <v>1488</v>
       </c>
       <c r="C42" s="87" t="s">
         <v>1491</v>
       </c>
-      <c r="D42" s="161" t="s">
+      <c r="D42" s="157" t="s">
         <v>1461</v>
       </c>
       <c r="E42" s="87" t="s">
@@ -16948,11 +16948,11 @@
       <c r="A43" s="68" t="s">
         <v>1473</v>
       </c>
-      <c r="B43" s="158"/>
+      <c r="B43" s="154"/>
       <c r="C43" s="87" t="s">
         <v>1493</v>
       </c>
-      <c r="D43" s="162"/>
+      <c r="D43" s="158"/>
       <c r="E43" s="87" t="s">
         <v>1501</v>
       </c>
@@ -16973,11 +16973,11 @@
       <c r="A44" s="68" t="s">
         <v>1474</v>
       </c>
-      <c r="B44" s="158"/>
+      <c r="B44" s="154"/>
       <c r="C44" s="87" t="s">
         <v>1492</v>
       </c>
-      <c r="D44" s="162"/>
+      <c r="D44" s="158"/>
       <c r="E44" s="87" t="s">
         <v>1500</v>
       </c>
@@ -16998,11 +16998,11 @@
       <c r="A45" s="68" t="s">
         <v>1475</v>
       </c>
-      <c r="B45" s="158"/>
+      <c r="B45" s="154"/>
       <c r="C45" s="87" t="s">
         <v>1495</v>
       </c>
-      <c r="D45" s="162"/>
+      <c r="D45" s="158"/>
       <c r="E45" s="87" t="s">
         <v>1499</v>
       </c>
@@ -17023,11 +17023,11 @@
       <c r="A46" s="68" t="s">
         <v>1476</v>
       </c>
-      <c r="B46" s="158"/>
+      <c r="B46" s="154"/>
       <c r="C46" s="87" t="s">
         <v>1497</v>
       </c>
-      <c r="D46" s="162"/>
+      <c r="D46" s="158"/>
       <c r="E46" s="87" t="s">
         <v>1503</v>
       </c>
@@ -17048,11 +17048,11 @@
       <c r="A47" s="68" t="s">
         <v>1477</v>
       </c>
-      <c r="B47" s="163"/>
+      <c r="B47" s="159"/>
       <c r="C47" s="87" t="s">
         <v>1498</v>
       </c>
-      <c r="D47" s="162"/>
+      <c r="D47" s="158"/>
       <c r="E47" s="87" t="s">
         <v>1504</v>
       </c>
@@ -17073,13 +17073,13 @@
       <c r="A48" s="68" t="s">
         <v>1478</v>
       </c>
-      <c r="B48" s="157" t="s">
+      <c r="B48" s="153" t="s">
         <v>1505</v>
       </c>
       <c r="C48" s="88" t="s">
         <v>1506</v>
       </c>
-      <c r="D48" s="159" t="s">
+      <c r="D48" s="155" t="s">
         <v>1461</v>
       </c>
       <c r="E48" s="87" t="s">
@@ -17102,11 +17102,11 @@
       <c r="A49" s="68" t="s">
         <v>1479</v>
       </c>
-      <c r="B49" s="158"/>
+      <c r="B49" s="154"/>
       <c r="C49" s="88" t="s">
         <v>1507</v>
       </c>
-      <c r="D49" s="160"/>
+      <c r="D49" s="156"/>
       <c r="E49" s="87" t="s">
         <v>1509</v>
       </c>
@@ -17159,11 +17159,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B37:B41"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B32:B36"/>
@@ -17173,11 +17173,11 @@
     <mergeCell ref="D42:D47"/>
     <mergeCell ref="D37:D41"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C33:C34"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17230,10 +17230,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="171" t="s">
+      <c r="H1" s="173" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="172"/>
+      <c r="I1" s="174"/>
       <c r="J1" s="14" t="s">
         <v>9</v>
       </c>
@@ -17289,7 +17289,7 @@
       <c r="A4" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="B4" s="168" t="s">
+      <c r="B4" s="170" t="s">
         <v>252</v>
       </c>
       <c r="C4" s="12" t="s">
@@ -17318,7 +17318,7 @@
       <c r="A5" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="B5" s="168"/>
+      <c r="B5" s="170"/>
       <c r="C5" s="12" t="s">
         <v>258</v>
       </c>
@@ -17345,7 +17345,7 @@
       <c r="A6" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="B6" s="168"/>
+      <c r="B6" s="170"/>
       <c r="C6" s="5" t="s">
         <v>262</v>
       </c>
@@ -17372,7 +17372,7 @@
       <c r="A7" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="B7" s="168"/>
+      <c r="B7" s="170"/>
       <c r="C7" s="12" t="s">
         <v>267</v>
       </c>
@@ -17399,7 +17399,7 @@
       <c r="A8" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="B8" s="168"/>
+      <c r="B8" s="170"/>
       <c r="C8" s="12" t="s">
         <v>271</v>
       </c>
@@ -17426,7 +17426,7 @@
       <c r="A9" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="B9" s="168"/>
+      <c r="B9" s="170"/>
       <c r="C9" s="5" t="s">
         <v>276</v>
       </c>
@@ -17453,7 +17453,7 @@
       <c r="A10" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="B10" s="168"/>
+      <c r="B10" s="170"/>
       <c r="C10" s="12" t="s">
         <v>280</v>
       </c>
@@ -17480,7 +17480,7 @@
       <c r="A11" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="B11" s="168"/>
+      <c r="B11" s="170"/>
       <c r="C11" s="12" t="s">
         <v>284</v>
       </c>
@@ -17507,7 +17507,7 @@
       <c r="A12" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="B12" s="168"/>
+      <c r="B12" s="170"/>
       <c r="C12" s="12" t="s">
         <v>288</v>
       </c>
@@ -17534,7 +17534,7 @@
       <c r="A13" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="B13" s="168"/>
+      <c r="B13" s="170"/>
       <c r="C13" s="12" t="s">
         <v>292</v>
       </c>
@@ -17561,7 +17561,7 @@
       <c r="A14" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="B14" s="168"/>
+      <c r="B14" s="170"/>
       <c r="C14" s="12" t="s">
         <v>297</v>
       </c>
@@ -17588,7 +17588,7 @@
       <c r="A15" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="B15" s="168"/>
+      <c r="B15" s="170"/>
       <c r="C15" s="12" t="s">
         <v>302</v>
       </c>
@@ -17615,7 +17615,7 @@
       <c r="A16" s="7" t="s">
         <v>306</v>
       </c>
-      <c r="B16" s="168"/>
+      <c r="B16" s="170"/>
       <c r="C16" s="12" t="s">
         <v>307</v>
       </c>
@@ -17642,7 +17642,7 @@
       <c r="A17" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="B17" s="168"/>
+      <c r="B17" s="170"/>
       <c r="C17" s="12" t="s">
         <v>311</v>
       </c>
@@ -17669,7 +17669,7 @@
       <c r="A18" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="B18" s="168"/>
+      <c r="B18" s="170"/>
       <c r="C18" s="12" t="s">
         <v>315</v>
       </c>
@@ -17696,7 +17696,7 @@
       <c r="A19" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="B19" s="168"/>
+      <c r="B19" s="170"/>
       <c r="C19" s="12" t="s">
         <v>319</v>
       </c>
@@ -17723,7 +17723,7 @@
       <c r="A20" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="B20" s="168"/>
+      <c r="B20" s="170"/>
       <c r="C20" s="12" t="s">
         <v>323</v>
       </c>
@@ -17750,7 +17750,7 @@
       <c r="A21" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="B21" s="168"/>
+      <c r="B21" s="170"/>
       <c r="C21" s="12" t="s">
         <v>327</v>
       </c>
@@ -17777,7 +17777,7 @@
       <c r="A22" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="B22" s="168"/>
+      <c r="B22" s="170"/>
       <c r="C22" s="12" t="s">
         <v>331</v>
       </c>
@@ -17804,7 +17804,7 @@
       <c r="A23" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="B23" s="168"/>
+      <c r="B23" s="170"/>
       <c r="C23" s="12" t="s">
         <v>336</v>
       </c>
@@ -17831,7 +17831,7 @@
       <c r="A24" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="168"/>
+      <c r="B24" s="170"/>
       <c r="C24" s="12" t="s">
         <v>340</v>
       </c>
@@ -18113,7 +18113,7 @@
       <c r="A35" s="21" t="s">
         <v>377</v>
       </c>
-      <c r="B35" s="169" t="s">
+      <c r="B35" s="171" t="s">
         <v>378</v>
       </c>
       <c r="C35" s="12" t="s">
@@ -18139,7 +18139,7 @@
       <c r="A36" s="21" t="s">
         <v>383</v>
       </c>
-      <c r="B36" s="169"/>
+      <c r="B36" s="171"/>
       <c r="C36" s="5" t="s">
         <v>384</v>
       </c>
@@ -18163,7 +18163,7 @@
       <c r="A37" s="21" t="s">
         <v>387</v>
       </c>
-      <c r="B37" s="169"/>
+      <c r="B37" s="171"/>
       <c r="C37" s="5" t="s">
         <v>388</v>
       </c>
@@ -18187,7 +18187,7 @@
       <c r="A38" s="21" t="s">
         <v>392</v>
       </c>
-      <c r="B38" s="169"/>
+      <c r="B38" s="171"/>
       <c r="C38" s="12" t="s">
         <v>393</v>
       </c>
@@ -18211,7 +18211,7 @@
       <c r="A39" s="21" t="s">
         <v>397</v>
       </c>
-      <c r="B39" s="169"/>
+      <c r="B39" s="171"/>
       <c r="C39" s="12" t="s">
         <v>398</v>
       </c>
@@ -18238,7 +18238,7 @@
       <c r="A40" s="21" t="s">
         <v>401</v>
       </c>
-      <c r="B40" s="169"/>
+      <c r="B40" s="171"/>
       <c r="C40" s="12" t="s">
         <v>284</v>
       </c>
@@ -18262,7 +18262,7 @@
       <c r="A41" s="21" t="s">
         <v>404</v>
       </c>
-      <c r="B41" s="169"/>
+      <c r="B41" s="171"/>
       <c r="C41" s="12" t="s">
         <v>405</v>
       </c>
@@ -18286,7 +18286,7 @@
       <c r="A42" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="B42" s="169"/>
+      <c r="B42" s="171"/>
       <c r="C42" s="12" t="s">
         <v>409</v>
       </c>
@@ -18310,7 +18310,7 @@
       <c r="A43" s="21" t="s">
         <v>412</v>
       </c>
-      <c r="B43" s="169"/>
+      <c r="B43" s="171"/>
       <c r="C43" s="12" t="s">
         <v>413</v>
       </c>
@@ -18334,7 +18334,7 @@
       <c r="A44" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="B44" s="169"/>
+      <c r="B44" s="171"/>
       <c r="C44" s="12" t="s">
         <v>417</v>
       </c>
@@ -18358,7 +18358,7 @@
       <c r="A45" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="B45" s="169"/>
+      <c r="B45" s="171"/>
       <c r="C45" s="12" t="s">
         <v>422</v>
       </c>
@@ -18382,7 +18382,7 @@
       <c r="A46" s="21" t="s">
         <v>425</v>
       </c>
-      <c r="B46" s="169"/>
+      <c r="B46" s="171"/>
       <c r="C46" s="12" t="s">
         <v>340</v>
       </c>
@@ -18455,7 +18455,7 @@
       <c r="A49" s="21" t="s">
         <v>429</v>
       </c>
-      <c r="B49" s="170" t="s">
+      <c r="B49" s="172" t="s">
         <v>428</v>
       </c>
       <c r="C49" s="28" t="s">
@@ -18486,7 +18486,7 @@
       <c r="A50" s="21" t="s">
         <v>434</v>
       </c>
-      <c r="B50" s="170"/>
+      <c r="B50" s="172"/>
       <c r="C50" s="12" t="s">
         <v>352</v>
       </c>
@@ -18513,7 +18513,7 @@
       <c r="A51" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="B51" s="170"/>
+      <c r="B51" s="172"/>
       <c r="C51" s="12" t="s">
         <v>356</v>
       </c>
@@ -18540,7 +18540,7 @@
       <c r="A52" s="21" t="s">
         <v>440</v>
       </c>
-      <c r="B52" s="170"/>
+      <c r="B52" s="172"/>
       <c r="C52" s="12" t="s">
         <v>360</v>
       </c>
@@ -18564,7 +18564,7 @@
       <c r="A53" s="21" t="s">
         <v>443</v>
       </c>
-      <c r="B53" s="170"/>
+      <c r="B53" s="172"/>
       <c r="C53" s="12" t="s">
         <v>444</v>
       </c>
@@ -18588,7 +18588,7 @@
       <c r="A54" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="B54" s="170"/>
+      <c r="B54" s="172"/>
       <c r="C54" s="12" t="s">
         <v>447</v>
       </c>
@@ -18674,11 +18674,11 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="17.399999999999999">
-      <c r="H2" s="180" t="s">
+      <c r="H2" s="178" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="180"/>
-      <c r="J2" s="181"/>
+      <c r="I2" s="178"/>
+      <c r="J2" s="179"/>
     </row>
     <row r="3" spans="1:14" s="120" customFormat="1" ht="24" customHeight="1">
       <c r="A3" s="94" t="s">
@@ -18702,10 +18702,10 @@
       <c r="G3" s="94" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="183" t="s">
+      <c r="H3" s="181" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="183"/>
+      <c r="I3" s="181"/>
       <c r="J3" s="94" t="s">
         <v>7</v>
       </c>
@@ -18746,7 +18746,7 @@
       <c r="A5" s="121" t="s">
         <v>687</v>
       </c>
-      <c r="B5" s="182" t="s">
+      <c r="B5" s="180" t="s">
         <v>688</v>
       </c>
       <c r="C5" s="103" t="s">
@@ -18784,7 +18784,7 @@
       <c r="A6" s="121" t="s">
         <v>691</v>
       </c>
-      <c r="B6" s="182"/>
+      <c r="B6" s="180"/>
       <c r="C6" s="103" t="s">
         <v>692</v>
       </c>
@@ -18820,7 +18820,7 @@
       <c r="A7" s="121" t="s">
         <v>694</v>
       </c>
-      <c r="B7" s="182"/>
+      <c r="B7" s="180"/>
       <c r="C7" s="103" t="s">
         <v>695</v>
       </c>
@@ -18856,7 +18856,7 @@
       <c r="A8" s="121" t="s">
         <v>697</v>
       </c>
-      <c r="B8" s="182"/>
+      <c r="B8" s="180"/>
       <c r="C8" s="103" t="s">
         <v>698</v>
       </c>
@@ -18895,7 +18895,7 @@
       <c r="A9" s="121" t="s">
         <v>700</v>
       </c>
-      <c r="B9" s="182"/>
+      <c r="B9" s="180"/>
       <c r="C9" s="103" t="s">
         <v>701</v>
       </c>
@@ -18931,7 +18931,7 @@
       <c r="A10" s="121" t="s">
         <v>704</v>
       </c>
-      <c r="B10" s="182"/>
+      <c r="B10" s="180"/>
       <c r="C10" s="103" t="s">
         <v>705</v>
       </c>
@@ -18970,7 +18970,7 @@
       <c r="A11" s="121" t="s">
         <v>707</v>
       </c>
-      <c r="B11" s="182"/>
+      <c r="B11" s="180"/>
       <c r="C11" s="103" t="s">
         <v>708</v>
       </c>
@@ -19009,7 +19009,7 @@
       <c r="A12" s="121" t="s">
         <v>709</v>
       </c>
-      <c r="B12" s="182"/>
+      <c r="B12" s="180"/>
       <c r="C12" s="103" t="s">
         <v>710</v>
       </c>
@@ -19045,7 +19045,7 @@
       <c r="A13" s="121" t="s">
         <v>712</v>
       </c>
-      <c r="B13" s="182"/>
+      <c r="B13" s="180"/>
       <c r="C13" s="103" t="s">
         <v>713</v>
       </c>
@@ -19081,7 +19081,7 @@
       <c r="A14" s="121" t="s">
         <v>716</v>
       </c>
-      <c r="B14" s="182"/>
+      <c r="B14" s="180"/>
       <c r="C14" s="103" t="s">
         <v>717</v>
       </c>
@@ -19114,7 +19114,7 @@
       <c r="A15" s="121" t="s">
         <v>718</v>
       </c>
-      <c r="B15" s="182"/>
+      <c r="B15" s="180"/>
       <c r="C15" s="103" t="s">
         <v>719</v>
       </c>
@@ -19150,7 +19150,7 @@
       <c r="A16" s="121" t="s">
         <v>722</v>
       </c>
-      <c r="B16" s="182"/>
+      <c r="B16" s="180"/>
       <c r="C16" s="103" t="s">
         <v>723</v>
       </c>
@@ -19186,7 +19186,7 @@
       <c r="A17" s="121" t="s">
         <v>726</v>
       </c>
-      <c r="B17" s="182"/>
+      <c r="B17" s="180"/>
       <c r="C17" s="103" t="s">
         <v>727</v>
       </c>
@@ -19225,7 +19225,7 @@
       <c r="A18" s="121" t="s">
         <v>731</v>
       </c>
-      <c r="B18" s="182"/>
+      <c r="B18" s="180"/>
       <c r="C18" s="103" t="s">
         <v>732</v>
       </c>
@@ -19261,7 +19261,7 @@
       <c r="A19" s="121" t="s">
         <v>735</v>
       </c>
-      <c r="B19" s="182"/>
+      <c r="B19" s="180"/>
       <c r="C19" s="103" t="s">
         <v>736</v>
       </c>
@@ -19297,7 +19297,7 @@
       <c r="A20" s="121" t="s">
         <v>739</v>
       </c>
-      <c r="B20" s="182"/>
+      <c r="B20" s="180"/>
       <c r="C20" s="103" t="s">
         <v>740</v>
       </c>
@@ -19333,7 +19333,7 @@
       <c r="A21" s="121" t="s">
         <v>743</v>
       </c>
-      <c r="B21" s="182"/>
+      <c r="B21" s="180"/>
       <c r="C21" s="103" t="s">
         <v>744</v>
       </c>
@@ -19369,7 +19369,7 @@
       <c r="A22" s="121" t="s">
         <v>747</v>
       </c>
-      <c r="B22" s="182"/>
+      <c r="B22" s="180"/>
       <c r="C22" s="103" t="s">
         <v>748</v>
       </c>
@@ -19405,7 +19405,7 @@
       <c r="A23" s="121" t="s">
         <v>750</v>
       </c>
-      <c r="B23" s="182" t="s">
+      <c r="B23" s="180" t="s">
         <v>751</v>
       </c>
       <c r="C23" s="103" t="s">
@@ -19440,7 +19440,7 @@
       <c r="A24" s="121" t="s">
         <v>756</v>
       </c>
-      <c r="B24" s="182"/>
+      <c r="B24" s="180"/>
       <c r="C24" s="103" t="s">
         <v>757</v>
       </c>
@@ -19479,7 +19479,7 @@
       <c r="A25" s="121" t="s">
         <v>756</v>
       </c>
-      <c r="B25" s="182"/>
+      <c r="B25" s="180"/>
       <c r="C25" s="103" t="s">
         <v>761</v>
       </c>
@@ -19518,7 +19518,7 @@
       <c r="A26" s="121" t="s">
         <v>764</v>
       </c>
-      <c r="B26" s="182"/>
+      <c r="B26" s="180"/>
       <c r="C26" s="103" t="s">
         <v>765</v>
       </c>
@@ -19557,7 +19557,7 @@
       <c r="A27" s="121" t="s">
         <v>768</v>
       </c>
-      <c r="B27" s="182"/>
+      <c r="B27" s="180"/>
       <c r="C27" s="103" t="s">
         <v>769</v>
       </c>
@@ -19596,7 +19596,7 @@
       <c r="A28" s="121" t="s">
         <v>771</v>
       </c>
-      <c r="B28" s="182" t="s">
+      <c r="B28" s="180" t="s">
         <v>772</v>
       </c>
       <c r="C28" s="103" t="s">
@@ -19634,7 +19634,7 @@
       <c r="A29" s="121" t="s">
         <v>777</v>
       </c>
-      <c r="B29" s="182"/>
+      <c r="B29" s="180"/>
       <c r="C29" s="103" t="s">
         <v>778</v>
       </c>
@@ -19673,7 +19673,7 @@
       <c r="A30" s="121" t="s">
         <v>781</v>
       </c>
-      <c r="B30" s="182"/>
+      <c r="B30" s="180"/>
       <c r="C30" s="103" t="s">
         <v>782</v>
       </c>
@@ -19712,7 +19712,7 @@
       <c r="A31" s="121" t="s">
         <v>784</v>
       </c>
-      <c r="B31" s="182"/>
+      <c r="B31" s="180"/>
       <c r="C31" s="103" t="s">
         <v>785</v>
       </c>
@@ -19751,7 +19751,7 @@
       <c r="A32" s="121" t="s">
         <v>787</v>
       </c>
-      <c r="B32" s="182"/>
+      <c r="B32" s="180"/>
       <c r="C32" s="103" t="s">
         <v>788</v>
       </c>
@@ -19790,7 +19790,7 @@
       <c r="A33" s="121" t="s">
         <v>787</v>
       </c>
-      <c r="B33" s="182"/>
+      <c r="B33" s="180"/>
       <c r="C33" s="103" t="s">
         <v>791</v>
       </c>
@@ -19829,7 +19829,7 @@
       <c r="A34" s="121" t="s">
         <v>795</v>
       </c>
-      <c r="B34" s="182"/>
+      <c r="B34" s="180"/>
       <c r="C34" s="103" t="s">
         <v>796</v>
       </c>
@@ -19865,7 +19865,7 @@
       <c r="A35" s="121" t="s">
         <v>800</v>
       </c>
-      <c r="B35" s="182"/>
+      <c r="B35" s="180"/>
       <c r="C35" s="103" t="s">
         <v>723</v>
       </c>
@@ -19901,7 +19901,7 @@
       <c r="A36" s="121" t="s">
         <v>803</v>
       </c>
-      <c r="B36" s="182"/>
+      <c r="B36" s="180"/>
       <c r="C36" s="103" t="s">
         <v>804</v>
       </c>
@@ -19937,7 +19937,7 @@
       <c r="A37" s="121" t="s">
         <v>807</v>
       </c>
-      <c r="B37" s="182"/>
+      <c r="B37" s="180"/>
       <c r="C37" s="103" t="s">
         <v>808</v>
       </c>
@@ -19973,7 +19973,7 @@
       <c r="A38" s="121" t="s">
         <v>811</v>
       </c>
-      <c r="B38" s="182"/>
+      <c r="B38" s="180"/>
       <c r="C38" s="103" t="s">
         <v>812</v>
       </c>
@@ -20009,7 +20009,7 @@
       <c r="A39" s="121" t="s">
         <v>815</v>
       </c>
-      <c r="B39" s="182"/>
+      <c r="B39" s="180"/>
       <c r="C39" s="103" t="s">
         <v>816</v>
       </c>
@@ -20168,7 +20168,7 @@
       <c r="A43" s="121" t="s">
         <v>1415</v>
       </c>
-      <c r="B43" s="184" t="s">
+      <c r="B43" s="175" t="s">
         <v>1549</v>
       </c>
       <c r="C43" s="106" t="s">
@@ -20200,7 +20200,7 @@
       <c r="A44" s="121" t="s">
         <v>1418</v>
       </c>
-      <c r="B44" s="173"/>
+      <c r="B44" s="176"/>
       <c r="C44" s="106" t="s">
         <v>1417</v>
       </c>
@@ -20230,13 +20230,13 @@
       <c r="A45" s="121" t="s">
         <v>1510</v>
       </c>
-      <c r="B45" s="179" t="s">
+      <c r="B45" s="187" t="s">
         <v>1454</v>
       </c>
       <c r="C45" s="89" t="s">
         <v>1455</v>
       </c>
-      <c r="D45" s="154" t="s">
+      <c r="D45" s="150" t="s">
         <v>1550</v>
       </c>
       <c r="E45" s="87" t="s">
@@ -20251,7 +20251,7 @@
       <c r="L45" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M45" s="173" t="s">
+      <c r="M45" s="176" t="s">
         <v>1469</v>
       </c>
     </row>
@@ -20259,15 +20259,15 @@
       <c r="A46" s="121" t="s">
         <v>1511</v>
       </c>
-      <c r="B46" s="179"/>
-      <c r="C46" s="153" t="s">
+      <c r="B46" s="187"/>
+      <c r="C46" s="149" t="s">
         <v>1456</v>
       </c>
-      <c r="D46" s="154"/>
+      <c r="D46" s="150"/>
       <c r="E46" s="87" t="s">
         <v>1552</v>
       </c>
-      <c r="F46" s="185" t="s">
+      <c r="F46" s="177" t="s">
         <v>1457</v>
       </c>
       <c r="I46" s="103" t="s">
@@ -20276,36 +20276,36 @@
       <c r="L46" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M46" s="173"/>
+      <c r="M46" s="176"/>
     </row>
     <row r="47" spans="1:13" ht="46.8">
       <c r="A47" s="121" t="s">
         <v>1512</v>
       </c>
-      <c r="B47" s="179"/>
-      <c r="C47" s="153"/>
-      <c r="D47" s="154"/>
+      <c r="B47" s="187"/>
+      <c r="C47" s="149"/>
+      <c r="D47" s="150"/>
       <c r="E47" s="87" t="s">
         <v>1465</v>
       </c>
-      <c r="F47" s="185"/>
+      <c r="F47" s="177"/>
       <c r="I47" s="103" t="s">
         <v>1250</v>
       </c>
       <c r="L47" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M47" s="173"/>
+      <c r="M47" s="176"/>
     </row>
     <row r="48" spans="1:13" ht="46.8">
       <c r="A48" s="121" t="s">
         <v>1513</v>
       </c>
-      <c r="B48" s="179"/>
-      <c r="C48" s="153" t="s">
+      <c r="B48" s="187"/>
+      <c r="C48" s="149" t="s">
         <v>1458</v>
       </c>
-      <c r="D48" s="154"/>
+      <c r="D48" s="150"/>
       <c r="E48" s="87" t="s">
         <v>1466</v>
       </c>
@@ -20318,15 +20318,15 @@
       <c r="L48" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M48" s="173"/>
+      <c r="M48" s="176"/>
     </row>
     <row r="49" spans="1:13" ht="46.8">
       <c r="A49" s="121" t="s">
         <v>1514</v>
       </c>
-      <c r="B49" s="179"/>
-      <c r="C49" s="153"/>
-      <c r="D49" s="154"/>
+      <c r="B49" s="187"/>
+      <c r="C49" s="149"/>
+      <c r="D49" s="150"/>
       <c r="E49" s="87" t="s">
         <v>1467</v>
       </c>
@@ -20339,25 +20339,25 @@
       <c r="L49" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M49" s="173"/>
+      <c r="M49" s="176"/>
     </row>
     <row r="50" spans="1:13" ht="46.8">
       <c r="A50" s="121" t="s">
         <v>1515</v>
       </c>
-      <c r="B50" s="179" t="s">
+      <c r="B50" s="187" t="s">
         <v>1482</v>
       </c>
-      <c r="C50" s="177" t="s">
+      <c r="C50" s="185" t="s">
         <v>1480</v>
       </c>
-      <c r="D50" s="154" t="s">
+      <c r="D50" s="150" t="s">
         <v>1551</v>
       </c>
       <c r="E50" s="87" t="s">
         <v>1553</v>
       </c>
-      <c r="F50" s="177" t="s">
+      <c r="F50" s="185" t="s">
         <v>1459</v>
       </c>
       <c r="I50" s="103" t="s">
@@ -20366,59 +20366,59 @@
       <c r="L50" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M50" s="173"/>
+      <c r="M50" s="176"/>
     </row>
     <row r="51" spans="1:13" ht="62.4">
       <c r="A51" s="121" t="s">
         <v>1516</v>
       </c>
-      <c r="B51" s="179"/>
-      <c r="C51" s="177"/>
-      <c r="D51" s="154"/>
+      <c r="B51" s="187"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="150"/>
       <c r="E51" s="87" t="s">
         <v>1556</v>
       </c>
-      <c r="F51" s="177"/>
+      <c r="F51" s="185"/>
       <c r="I51" s="103" t="s">
         <v>1250</v>
       </c>
       <c r="L51" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M51" s="173"/>
+      <c r="M51" s="176"/>
     </row>
     <row r="52" spans="1:13" ht="62.4">
       <c r="A52" s="121" t="s">
         <v>1517</v>
       </c>
-      <c r="B52" s="179"/>
-      <c r="C52" s="177"/>
-      <c r="D52" s="154"/>
+      <c r="B52" s="187"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="150"/>
       <c r="E52" s="87" t="s">
         <v>1554</v>
       </c>
-      <c r="F52" s="177"/>
+      <c r="F52" s="185"/>
       <c r="I52" s="103" t="s">
         <v>1250</v>
       </c>
       <c r="L52" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M52" s="173"/>
+      <c r="M52" s="176"/>
     </row>
     <row r="53" spans="1:13" ht="62.4">
       <c r="A53" s="121" t="s">
         <v>1518</v>
       </c>
-      <c r="B53" s="179"/>
-      <c r="C53" s="177" t="s">
+      <c r="B53" s="187"/>
+      <c r="C53" s="185" t="s">
         <v>1481</v>
       </c>
-      <c r="D53" s="154"/>
+      <c r="D53" s="150"/>
       <c r="E53" s="87" t="s">
         <v>1557</v>
       </c>
-      <c r="F53" s="178" t="s">
+      <c r="F53" s="186" t="s">
         <v>1487</v>
       </c>
       <c r="I53" s="103" t="s">
@@ -20427,38 +20427,38 @@
       <c r="L53" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M53" s="173"/>
+      <c r="M53" s="176"/>
     </row>
     <row r="54" spans="1:13" ht="72.75" customHeight="1">
       <c r="A54" s="121" t="s">
         <v>1519</v>
       </c>
-      <c r="B54" s="179"/>
-      <c r="C54" s="177"/>
-      <c r="D54" s="154"/>
+      <c r="B54" s="187"/>
+      <c r="C54" s="185"/>
+      <c r="D54" s="150"/>
       <c r="E54" s="87" t="s">
         <v>1555</v>
       </c>
-      <c r="F54" s="178"/>
+      <c r="F54" s="186"/>
       <c r="I54" s="103" t="s">
         <v>1250</v>
       </c>
       <c r="L54" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M54" s="173"/>
+      <c r="M54" s="176"/>
     </row>
     <row r="55" spans="1:13" ht="80.25" customHeight="1">
       <c r="A55" s="121" t="s">
         <v>1520</v>
       </c>
-      <c r="B55" s="174" t="s">
+      <c r="B55" s="182" t="s">
         <v>1488</v>
       </c>
       <c r="C55" s="87" t="s">
         <v>1558</v>
       </c>
-      <c r="D55" s="154" t="s">
+      <c r="D55" s="150" t="s">
         <v>1461</v>
       </c>
       <c r="E55" s="87" t="s">
@@ -20473,17 +20473,17 @@
       <c r="L55" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M55" s="173"/>
+      <c r="M55" s="176"/>
     </row>
     <row r="56" spans="1:13" ht="95.25" customHeight="1">
       <c r="A56" s="121" t="s">
         <v>1521</v>
       </c>
-      <c r="B56" s="175"/>
+      <c r="B56" s="183"/>
       <c r="C56" s="87" t="s">
         <v>1560</v>
       </c>
-      <c r="D56" s="154"/>
+      <c r="D56" s="150"/>
       <c r="E56" s="87" t="s">
         <v>1561</v>
       </c>
@@ -20496,17 +20496,17 @@
       <c r="L56" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M56" s="173"/>
+      <c r="M56" s="176"/>
     </row>
     <row r="57" spans="1:13" ht="62.4">
       <c r="A57" s="121" t="s">
         <v>1522</v>
       </c>
-      <c r="B57" s="175"/>
+      <c r="B57" s="183"/>
       <c r="C57" s="87" t="s">
         <v>1563</v>
       </c>
-      <c r="D57" s="154"/>
+      <c r="D57" s="150"/>
       <c r="E57" s="87" t="s">
         <v>1564</v>
       </c>
@@ -20519,17 +20519,17 @@
       <c r="L57" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M57" s="173"/>
+      <c r="M57" s="176"/>
     </row>
     <row r="58" spans="1:13" ht="93.6">
       <c r="A58" s="121" t="s">
         <v>1523</v>
       </c>
-      <c r="B58" s="175"/>
+      <c r="B58" s="183"/>
       <c r="C58" s="87" t="s">
         <v>1565</v>
       </c>
-      <c r="D58" s="154"/>
+      <c r="D58" s="150"/>
       <c r="E58" s="87" t="s">
         <v>1562</v>
       </c>
@@ -20542,17 +20542,17 @@
       <c r="L58" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M58" s="173"/>
+      <c r="M58" s="176"/>
     </row>
     <row r="59" spans="1:13" ht="62.4">
       <c r="A59" s="121" t="s">
         <v>1524</v>
       </c>
-      <c r="B59" s="175"/>
+      <c r="B59" s="183"/>
       <c r="C59" s="87" t="s">
         <v>1566</v>
       </c>
-      <c r="D59" s="154"/>
+      <c r="D59" s="150"/>
       <c r="E59" s="87" t="s">
         <v>1567</v>
       </c>
@@ -20565,17 +20565,17 @@
       <c r="L59" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M59" s="173"/>
+      <c r="M59" s="176"/>
     </row>
     <row r="60" spans="1:13" ht="62.4">
       <c r="A60" s="121" t="s">
         <v>1525</v>
       </c>
-      <c r="B60" s="176"/>
+      <c r="B60" s="184"/>
       <c r="C60" s="87" t="s">
         <v>1568</v>
       </c>
-      <c r="D60" s="154"/>
+      <c r="D60" s="150"/>
       <c r="E60" s="87" t="s">
         <v>1569</v>
       </c>
@@ -20588,19 +20588,19 @@
       <c r="L60" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M60" s="173"/>
+      <c r="M60" s="176"/>
     </row>
     <row r="61" spans="1:13" ht="78">
       <c r="A61" s="121" t="s">
         <v>1526</v>
       </c>
-      <c r="B61" s="179" t="s">
+      <c r="B61" s="187" t="s">
         <v>1505</v>
       </c>
       <c r="C61" s="87" t="s">
         <v>1570</v>
       </c>
-      <c r="D61" s="154" t="s">
+      <c r="D61" s="150" t="s">
         <v>1461</v>
       </c>
       <c r="E61" s="87" t="s">
@@ -20615,17 +20615,17 @@
       <c r="L61" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M61" s="173"/>
+      <c r="M61" s="176"/>
     </row>
     <row r="62" spans="1:13" ht="85.5" customHeight="1">
       <c r="A62" s="121" t="s">
         <v>1527</v>
       </c>
-      <c r="B62" s="179"/>
+      <c r="B62" s="187"/>
       <c r="C62" s="87" t="s">
         <v>1572</v>
       </c>
-      <c r="D62" s="154"/>
+      <c r="D62" s="150"/>
       <c r="E62" s="87" t="s">
         <v>1573</v>
       </c>
@@ -20638,17 +20638,10 @@
       <c r="L62" s="104" t="s">
         <v>1574</v>
       </c>
-      <c r="M62" s="173"/>
+      <c r="M62" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="B5:B22"/>
-    <mergeCell ref="B23:B27"/>
-    <mergeCell ref="B28:B39"/>
-    <mergeCell ref="H3:I3"/>
     <mergeCell ref="M45:M62"/>
     <mergeCell ref="B55:B60"/>
     <mergeCell ref="F50:F52"/>
@@ -20664,6 +20657,13 @@
     <mergeCell ref="B50:B54"/>
     <mergeCell ref="C50:C52"/>
     <mergeCell ref="D50:D54"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="B5:B22"/>
+    <mergeCell ref="B23:B27"/>
+    <mergeCell ref="B28:B39"/>
+    <mergeCell ref="H3:I3"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -20698,10 +20698,10 @@
       <c r="A1" t="s">
         <v>1588</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="135"/>
+      <c r="I1" s="137"/>
     </row>
     <row r="2" spans="1:13" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -20725,10 +20725,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="1" t="s">
         <v>9</v>
       </c>
@@ -20765,7 +20765,7 @@
       <c r="A4" s="7" t="s">
         <v>1285</v>
       </c>
-      <c r="B4" s="189" t="s">
+      <c r="B4" s="192" t="s">
         <v>831</v>
       </c>
       <c r="C4" s="61" t="s">
@@ -20794,7 +20794,7 @@
       <c r="A5" s="7" t="s">
         <v>836</v>
       </c>
-      <c r="B5" s="190"/>
+      <c r="B5" s="193"/>
       <c r="C5" s="6" t="s">
         <v>837</v>
       </c>
@@ -20817,21 +20817,21 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="188" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A6" s="186" t="s">
+    <row r="6" spans="1:13" s="191" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A6" s="189" t="s">
         <v>840</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="187"/>
-      <c r="H6" s="187"/>
-      <c r="I6" s="187"/>
-      <c r="J6" s="187"/>
-      <c r="K6" s="187"/>
-      <c r="L6" s="187"/>
+      <c r="B6" s="190"/>
+      <c r="C6" s="190"/>
+      <c r="D6" s="190"/>
+      <c r="E6" s="190"/>
+      <c r="F6" s="190"/>
+      <c r="G6" s="190"/>
+      <c r="H6" s="190"/>
+      <c r="I6" s="190"/>
+      <c r="J6" s="190"/>
+      <c r="K6" s="190"/>
+      <c r="L6" s="190"/>
     </row>
     <row r="7" spans="1:13" ht="193.95" customHeight="1">
       <c r="A7" s="7" t="s">
@@ -20866,7 +20866,7 @@
       <c r="A8" s="7" t="s">
         <v>846</v>
       </c>
-      <c r="B8" s="190" t="s">
+      <c r="B8" s="193" t="s">
         <v>847</v>
       </c>
       <c r="C8" s="3" t="s">
@@ -20898,7 +20898,7 @@
       <c r="A9" s="7" t="s">
         <v>853</v>
       </c>
-      <c r="B9" s="190"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="3" t="s">
         <v>854</v>
       </c>
@@ -20928,7 +20928,7 @@
       <c r="A10" s="7" t="s">
         <v>857</v>
       </c>
-      <c r="B10" s="190"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="3" t="s">
         <v>858</v>
       </c>
@@ -20958,7 +20958,7 @@
       <c r="A11" s="7" t="s">
         <v>862</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="193" t="s">
         <v>863</v>
       </c>
       <c r="C11" s="3" t="s">
@@ -20988,7 +20988,7 @@
       <c r="A12" s="7" t="s">
         <v>868</v>
       </c>
-      <c r="B12" s="190"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="3" t="s">
         <v>869</v>
       </c>
@@ -21016,7 +21016,7 @@
       <c r="A13" s="7" t="s">
         <v>873</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="193"/>
       <c r="C13" s="3" t="s">
         <v>874</v>
       </c>
@@ -21044,7 +21044,7 @@
       <c r="A14" s="7" t="s">
         <v>877</v>
       </c>
-      <c r="B14" s="191" t="s">
+      <c r="B14" s="188" t="s">
         <v>878</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -21076,7 +21076,7 @@
       <c r="A15" s="7" t="s">
         <v>883</v>
       </c>
-      <c r="B15" s="191"/>
+      <c r="B15" s="188"/>
       <c r="C15" s="3" t="s">
         <v>884</v>
       </c>
@@ -21164,21 +21164,21 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="18" spans="1:12" s="188" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A18" s="186" t="s">
+    <row r="18" spans="1:12" s="191" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A18" s="189" t="s">
         <v>892</v>
       </c>
-      <c r="B18" s="187"/>
-      <c r="C18" s="187"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
+      <c r="B18" s="190"/>
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+      <c r="E18" s="190"/>
+      <c r="F18" s="190"/>
+      <c r="G18" s="190"/>
+      <c r="H18" s="190"/>
+      <c r="I18" s="190"/>
+      <c r="J18" s="190"/>
+      <c r="K18" s="190"/>
+      <c r="L18" s="190"/>
     </row>
     <row r="19" spans="1:12" ht="160.94999999999999" customHeight="1">
       <c r="A19" s="7" t="s">
@@ -21278,7 +21278,7 @@
       <c r="A22" s="7" t="s">
         <v>912</v>
       </c>
-      <c r="B22" s="191" t="s">
+      <c r="B22" s="188" t="s">
         <v>894</v>
       </c>
       <c r="C22" s="3" t="s">
@@ -21310,7 +21310,7 @@
       <c r="A23" s="7" t="s">
         <v>916</v>
       </c>
-      <c r="B23" s="191"/>
+      <c r="B23" s="188"/>
       <c r="C23" s="3" t="s">
         <v>913</v>
       </c>
@@ -21340,7 +21340,7 @@
       <c r="A24" s="7" t="s">
         <v>920</v>
       </c>
-      <c r="B24" s="191"/>
+      <c r="B24" s="188"/>
       <c r="C24" s="3" t="s">
         <v>917</v>
       </c>
@@ -21370,7 +21370,7 @@
       <c r="A25" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="B25" s="191"/>
+      <c r="B25" s="188"/>
       <c r="C25" s="3" t="s">
         <v>917</v>
       </c>
@@ -21426,27 +21426,27 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="27" spans="1:12" s="188" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A27" s="186" t="s">
+    <row r="27" spans="1:12" s="191" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A27" s="189" t="s">
         <v>928</v>
       </c>
-      <c r="B27" s="187"/>
-      <c r="C27" s="187"/>
-      <c r="D27" s="187"/>
-      <c r="E27" s="187"/>
-      <c r="F27" s="187"/>
-      <c r="G27" s="187"/>
-      <c r="H27" s="187"/>
-      <c r="I27" s="187"/>
-      <c r="J27" s="187"/>
-      <c r="K27" s="187"/>
-      <c r="L27" s="187"/>
+      <c r="B27" s="190"/>
+      <c r="C27" s="190"/>
+      <c r="D27" s="190"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="190"/>
+      <c r="G27" s="190"/>
+      <c r="H27" s="190"/>
+      <c r="I27" s="190"/>
+      <c r="J27" s="190"/>
+      <c r="K27" s="190"/>
+      <c r="L27" s="190"/>
     </row>
     <row r="28" spans="1:12" ht="160.94999999999999" customHeight="1">
       <c r="A28" s="7" t="s">
         <v>929</v>
       </c>
-      <c r="B28" s="191" t="s">
+      <c r="B28" s="188" t="s">
         <v>930</v>
       </c>
       <c r="C28" s="3" t="s">
@@ -21476,7 +21476,7 @@
       <c r="A29" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="B29" s="191"/>
+      <c r="B29" s="188"/>
       <c r="C29" s="3" t="s">
         <v>934</v>
       </c>
@@ -21504,7 +21504,7 @@
       <c r="A30" s="7" t="s">
         <v>937</v>
       </c>
-      <c r="B30" s="191"/>
+      <c r="B30" s="188"/>
       <c r="C30" s="3" t="s">
         <v>938</v>
       </c>
@@ -21532,7 +21532,7 @@
       <c r="A31" s="7" t="s">
         <v>942</v>
       </c>
-      <c r="B31" s="191"/>
+      <c r="B31" s="188"/>
       <c r="C31" s="3" t="s">
         <v>943</v>
       </c>
@@ -21560,7 +21560,7 @@
       <c r="A32" s="7" t="s">
         <v>947</v>
       </c>
-      <c r="B32" s="191"/>
+      <c r="B32" s="188"/>
       <c r="C32" s="3" t="s">
         <v>948</v>
       </c>
@@ -21588,7 +21588,7 @@
       <c r="A33" s="7" t="s">
         <v>952</v>
       </c>
-      <c r="B33" s="191"/>
+      <c r="B33" s="188"/>
       <c r="C33" s="3" t="s">
         <v>953</v>
       </c>
@@ -21616,7 +21616,7 @@
       <c r="A34" s="7" t="s">
         <v>956</v>
       </c>
-      <c r="B34" s="191"/>
+      <c r="B34" s="188"/>
       <c r="C34" s="3" t="s">
         <v>957</v>
       </c>
@@ -21640,21 +21640,21 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="35" spans="1:12" s="188" customFormat="1" ht="22.2" customHeight="1">
-      <c r="A35" s="186" t="s">
+    <row r="35" spans="1:12" s="191" customFormat="1" ht="22.2" customHeight="1">
+      <c r="A35" s="189" t="s">
         <v>960</v>
       </c>
-      <c r="B35" s="187"/>
-      <c r="C35" s="187"/>
-      <c r="D35" s="187"/>
-      <c r="E35" s="187"/>
-      <c r="F35" s="187"/>
-      <c r="G35" s="187"/>
-      <c r="H35" s="187"/>
-      <c r="I35" s="187"/>
-      <c r="J35" s="187"/>
-      <c r="K35" s="187"/>
-      <c r="L35" s="187"/>
+      <c r="B35" s="190"/>
+      <c r="C35" s="190"/>
+      <c r="D35" s="190"/>
+      <c r="E35" s="190"/>
+      <c r="F35" s="190"/>
+      <c r="G35" s="190"/>
+      <c r="H35" s="190"/>
+      <c r="I35" s="190"/>
+      <c r="J35" s="190"/>
+      <c r="K35" s="190"/>
+      <c r="L35" s="190"/>
     </row>
     <row r="36" spans="1:12" ht="160.94999999999999" customHeight="1">
       <c r="A36" s="7" t="s">
@@ -21983,11 +21983,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A18:XFD18"/>
-    <mergeCell ref="B22:B25"/>
-    <mergeCell ref="A27:XFD27"/>
     <mergeCell ref="A35:XFD35"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="B4:B5"/>
@@ -21995,6 +21990,11 @@
     <mergeCell ref="B8:B10"/>
     <mergeCell ref="B11:B13"/>
     <mergeCell ref="B28:B34"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A18:XFD18"/>
+    <mergeCell ref="B22:B25"/>
+    <mergeCell ref="A27:XFD27"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -22060,11 +22060,11 @@
       <c r="B1" t="s">
         <v>1594</v>
       </c>
-      <c r="H1" s="135" t="s">
+      <c r="H1" s="137" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="135"/>
-      <c r="J1" s="141"/>
+      <c r="I1" s="137"/>
+      <c r="J1" s="143"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -22088,10 +22088,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="139" t="s">
+      <c r="H2" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="140"/>
+      <c r="I2" s="142"/>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
@@ -22208,7 +22208,7 @@
       <c r="A6" s="7" t="s">
         <v>1014</v>
       </c>
-      <c r="B6" s="190" t="s">
+      <c r="B6" s="193" t="s">
         <v>934</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -22244,7 +22244,7 @@
       <c r="A7" s="7" t="s">
         <v>1019</v>
       </c>
-      <c r="B7" s="190"/>
+      <c r="B7" s="193"/>
       <c r="C7" s="6" t="s">
         <v>1020</v>
       </c>
@@ -22278,7 +22278,7 @@
       <c r="A8" s="7" t="s">
         <v>1023</v>
       </c>
-      <c r="B8" s="190"/>
+      <c r="B8" s="193"/>
       <c r="C8" s="6" t="s">
         <v>1024</v>
       </c>
@@ -22312,7 +22312,7 @@
       <c r="A9" s="7" t="s">
         <v>1027</v>
       </c>
-      <c r="B9" s="190"/>
+      <c r="B9" s="193"/>
       <c r="C9" s="6" t="s">
         <v>1028</v>
       </c>
@@ -22346,7 +22346,7 @@
       <c r="A10" s="7" t="s">
         <v>1031</v>
       </c>
-      <c r="B10" s="190"/>
+      <c r="B10" s="193"/>
       <c r="C10" s="6" t="s">
         <v>1032</v>
       </c>
@@ -22380,7 +22380,7 @@
       <c r="A11" s="7" t="s">
         <v>1034</v>
       </c>
-      <c r="B11" s="190" t="s">
+      <c r="B11" s="193" t="s">
         <v>1003</v>
       </c>
       <c r="C11" s="41" t="s">
@@ -22418,7 +22418,7 @@
       <c r="A12" s="7" t="s">
         <v>1039</v>
       </c>
-      <c r="B12" s="190"/>
+      <c r="B12" s="193"/>
       <c r="C12" s="41" t="s">
         <v>1040</v>
       </c>
@@ -22455,7 +22455,7 @@
       <c r="A13" s="7" t="s">
         <v>1043</v>
       </c>
-      <c r="B13" s="190"/>
+      <c r="B13" s="193"/>
       <c r="C13" s="41" t="s">
         <v>1044</v>
       </c>
@@ -22489,7 +22489,7 @@
       <c r="A14" s="7" t="s">
         <v>1047</v>
       </c>
-      <c r="B14" s="190"/>
+      <c r="B14" s="193"/>
       <c r="C14" s="41" t="s">
         <v>1048</v>
       </c>
@@ -22523,7 +22523,7 @@
       <c r="A15" s="7" t="s">
         <v>1052</v>
       </c>
-      <c r="B15" s="190"/>
+      <c r="B15" s="193"/>
       <c r="C15" s="41" t="s">
         <v>1053</v>
       </c>
@@ -22559,7 +22559,7 @@
       <c r="A16" s="7" t="s">
         <v>1058</v>
       </c>
-      <c r="B16" s="190"/>
+      <c r="B16" s="193"/>
       <c r="C16" s="41" t="s">
         <v>1059</v>
       </c>
@@ -22671,7 +22671,7 @@
       <c r="A19" s="7" t="s">
         <v>1070</v>
       </c>
-      <c r="B19" s="190" t="s">
+      <c r="B19" s="193" t="s">
         <v>1071</v>
       </c>
       <c r="C19" s="41" t="s">
@@ -22707,7 +22707,7 @@
       <c r="A20" s="7" t="s">
         <v>1075</v>
       </c>
-      <c r="B20" s="190"/>
+      <c r="B20" s="193"/>
       <c r="C20" s="41" t="s">
         <v>1076</v>
       </c>
@@ -22743,7 +22743,7 @@
       <c r="A21" s="7" t="s">
         <v>1080</v>
       </c>
-      <c r="B21" s="190"/>
+      <c r="B21" s="193"/>
       <c r="C21" s="67" t="s">
         <v>1081</v>
       </c>
@@ -22779,7 +22779,7 @@
       <c r="A22" s="7" t="s">
         <v>1159</v>
       </c>
-      <c r="B22" s="190"/>
+      <c r="B22" s="193"/>
       <c r="C22" s="41" t="s">
         <v>1445</v>
       </c>

--- a/Test_TPDK_covid19.xlsx
+++ b/Test_TPDK_covid19.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Documents\GitHub\ga-mcovid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C3D570A-7BDA-40C8-AC39-3545111710E9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E14AB557-D0B7-4331-A54C-A555D745E143}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3314" uniqueCount="1600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3308" uniqueCount="1591">
   <si>
     <t xml:space="preserve">ID </t>
   </si>
@@ -6929,23 +6929,6 @@
 2. Cho phép nhấn vào 'All Group'
 3. Tìm thấy đường dẫn trên header-content thể hiện vị trí của bạn trên Website
 4. Đường dẫn hiển thị chính xác vị trí của bạn: 'Dashboard &gt;  Group'</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Khi xóa 1 bản ghi
- màn hình không hiển thị đúng 
-với mô tả </t>
-  </si>
-  <si>
-    <t>khi xét quyền Dashboard 
-thì dữ liệu trang Dashboard k hiển thị</t>
-  </si>
-  <si>
-    <t>Không thông báo lỗi.</t>
-  </si>
-  <si>
-    <t>Khi xét quyền cho ACC 
-thì không hiển thị đầy đủ 
-các quyển đã có.</t>
   </si>
   <si>
     <t>DB-AD-011</t>
@@ -8585,21 +8568,6 @@
   </si>
   <si>
     <t>1faild</t>
-  </si>
-  <si>
-    <t>1. Lỗi hiển thị bản ghi trang All posts khi pagesize = 20</t>
-  </si>
-  <si>
-    <t>2. Lỗi báo server error khi edit/show detail của post bị xóa group</t>
-  </si>
-  <si>
-    <t>3. Hover vào các bản ghi, cusor không phải hand</t>
-  </si>
-  <si>
-    <t>4. Nếu có 1 bản ghi ở trang cuối cùng của list Users, thay đổi trạng thái thì bị chuyển về trang gần kề</t>
-  </si>
-  <si>
-    <t>5. Lỗi upload ảnh ở phần mô tả.</t>
   </si>
 </sst>
 </file>
@@ -9137,7 +9105,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="204">
+  <cellXfs count="205">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -9501,7 +9469,10 @@
     </xf>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -9515,8 +9486,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -9541,54 +9512,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -9620,6 +9543,54 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -9635,25 +9606,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9674,7 +9627,22 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -9691,6 +9659,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -10080,8 +10051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17AEC9BA-C3E5-436B-BD1A-EC8B2D616CA2}">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10094,28 +10065,28 @@
   <sheetData>
     <row r="1" spans="1:6" ht="21.6" customHeight="1"/>
     <row r="2" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A2" s="135" t="s">
+      <c r="A2" s="131" t="s">
         <v>1242</v>
       </c>
-      <c r="B2" s="135"/>
+      <c r="B2" s="131"/>
     </row>
     <row r="3" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A3" s="131" t="s">
+      <c r="A3" s="132" t="s">
         <v>1243</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="133" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="134" t="s">
         <v>1249</v>
       </c>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
+      <c r="D3" s="135"/>
+      <c r="E3" s="135"/>
+      <c r="F3" s="135"/>
     </row>
     <row r="4" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A4" s="131" t="s">
+      <c r="A4" s="132" t="s">
         <v>1244</v>
       </c>
-      <c r="B4" s="132"/>
+      <c r="B4" s="133"/>
       <c r="C4" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10144,28 +10115,28 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A8" s="135" t="s">
+      <c r="A8" s="131" t="s">
         <v>1325</v>
       </c>
-      <c r="B8" s="135"/>
+      <c r="B8" s="131"/>
     </row>
     <row r="9" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A9" s="131" t="s">
+      <c r="A9" s="132" t="s">
         <v>1243</v>
       </c>
-      <c r="B9" s="131"/>
-      <c r="C9" s="133" t="s">
+      <c r="B9" s="132"/>
+      <c r="C9" s="134" t="s">
         <v>1249</v>
       </c>
-      <c r="D9" s="134"/>
-      <c r="E9" s="134"/>
-      <c r="F9" s="134"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="135"/>
+      <c r="F9" s="135"/>
     </row>
     <row r="10" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A10" s="131" t="s">
+      <c r="A10" s="132" t="s">
         <v>1244</v>
       </c>
-      <c r="B10" s="132"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10194,28 +10165,28 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="25.95" customHeight="1">
-      <c r="A14" s="135" t="s">
-        <v>1593</v>
-      </c>
-      <c r="B14" s="135"/>
+      <c r="A14" s="131" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B14" s="131"/>
     </row>
     <row r="15" spans="1:6" ht="31.95" customHeight="1" thickBot="1">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="132" t="s">
         <v>1243</v>
       </c>
-      <c r="B15" s="131"/>
-      <c r="C15" s="133" t="s">
+      <c r="B15" s="132"/>
+      <c r="C15" s="134" t="s">
         <v>1249</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
+      <c r="D15" s="135"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="135"/>
     </row>
     <row r="16" spans="1:6" ht="36.6" customHeight="1" thickBot="1">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="132" t="s">
         <v>1244</v>
       </c>
-      <c r="B16" s="132"/>
+      <c r="B16" s="133"/>
       <c r="C16" s="42" t="s">
         <v>1246</v>
       </c>
@@ -10231,10 +10202,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="C17" s="127">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="D17" s="40">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="E17" s="40">
         <v>0</v>
@@ -10244,82 +10215,68 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="21.6" customHeight="1">
-      <c r="A19" s="130" t="s">
-        <v>1595</v>
-      </c>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="130"/>
-      <c r="E19" s="130"/>
-      <c r="F19" s="130"/>
+      <c r="A19" s="136"/>
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="136"/>
+      <c r="F19" s="136"/>
     </row>
     <row r="20" spans="1:10" ht="22.2" customHeight="1">
-      <c r="A20" s="130" t="s">
-        <v>1596</v>
-      </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="130"/>
-      <c r="E20" s="130"/>
-      <c r="F20" s="130"/>
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
     </row>
     <row r="21" spans="1:10" ht="24" customHeight="1">
-      <c r="A21" s="130" t="s">
-        <v>1597</v>
-      </c>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="130"/>
-      <c r="E21" s="130"/>
-      <c r="F21" s="130"/>
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
     </row>
     <row r="22" spans="1:10" ht="24" customHeight="1">
-      <c r="A22" s="130" t="s">
-        <v>1598</v>
-      </c>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="130"/>
-      <c r="E22" s="130"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="130"/>
-      <c r="I22" s="130"/>
-      <c r="J22" s="130"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
+      <c r="G22" s="12"/>
+      <c r="H22" s="12"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:10" ht="22.8" customHeight="1">
-      <c r="A23" s="130" t="s">
-        <v>1599</v>
-      </c>
-      <c r="B23" s="130"/>
-      <c r="C23" s="130"/>
-      <c r="D23" s="130"/>
-      <c r="E23" s="130"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="130"/>
-      <c r="H23" s="130"/>
-      <c r="I23" s="130"/>
-      <c r="J23" s="130"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="12"/>
+      <c r="F23" s="12"/>
+      <c r="G23" s="12"/>
+      <c r="H23" s="12"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C3:F3"/>
-    <mergeCell ref="A8:B8"/>
+  <mergeCells count="13">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A19:F19"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A15:B15"/>
     <mergeCell ref="C15:F15"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:F19"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="A22:J22"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="A8:B8"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10330,7 +10287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C749C8A-D732-4A5F-83BF-9E94096C24BF}">
   <dimension ref="A1:N46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
@@ -10354,13 +10311,13 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.600000000000001" thickBot="1">
       <c r="A1" t="s">
-        <v>1590</v>
-      </c>
-      <c r="H1" s="137" t="s">
+        <v>1586</v>
+      </c>
+      <c r="H1" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="137"/>
-      <c r="J1" s="137"/>
+      <c r="I1" s="138"/>
+      <c r="J1" s="138"/>
     </row>
     <row r="2" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A2" s="8" t="s">
@@ -10384,10 +10341,10 @@
       <c r="G2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="141" t="s">
+      <c r="H2" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="142"/>
+      <c r="I2" s="143"/>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
@@ -11800,6 +11757,11 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="H1:J1"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="B11:B12"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B15:B16"/>
@@ -11809,11 +11771,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B29"/>
-    <mergeCell ref="H1:J1"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="B11:B12"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11824,8 +11781,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2736D11E-44DF-4420-B2E9-A8DAA7577939}">
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B14"/>
+    <sheetView topLeftCell="E20" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -11866,10 +11823,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="175"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -11888,7 +11845,7 @@
     </row>
     <row r="2" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="57" t="s">
-        <v>1591</v>
+        <v>1587</v>
       </c>
       <c r="B2" s="63"/>
       <c r="C2" s="57"/>
@@ -11912,7 +11869,7 @@
       <c r="A3" s="31" t="s">
         <v>494</v>
       </c>
-      <c r="B3" s="194" t="s">
+      <c r="B3" s="195" t="s">
         <v>495</v>
       </c>
       <c r="C3" s="12" t="s">
@@ -11938,7 +11895,7 @@
       <c r="A4" s="31" t="s">
         <v>500</v>
       </c>
-      <c r="B4" s="195"/>
+      <c r="B4" s="196"/>
       <c r="C4" s="12" t="s">
         <v>258</v>
       </c>
@@ -11965,7 +11922,7 @@
       <c r="A5" s="31" t="s">
         <v>502</v>
       </c>
-      <c r="B5" s="195"/>
+      <c r="B5" s="196"/>
       <c r="C5" s="5" t="s">
         <v>505</v>
       </c>
@@ -11995,7 +11952,7 @@
       <c r="A6" s="31" t="s">
         <v>537</v>
       </c>
-      <c r="B6" s="195"/>
+      <c r="B6" s="196"/>
       <c r="C6" s="12" t="s">
         <v>267</v>
       </c>
@@ -12025,7 +11982,7 @@
       <c r="A7" s="31" t="s">
         <v>538</v>
       </c>
-      <c r="B7" s="195"/>
+      <c r="B7" s="196"/>
       <c r="C7" s="30" t="s">
         <v>508</v>
       </c>
@@ -12049,7 +12006,7 @@
       <c r="A8" s="31" t="s">
         <v>539</v>
       </c>
-      <c r="B8" s="195"/>
+      <c r="B8" s="196"/>
       <c r="C8" s="30" t="s">
         <v>514</v>
       </c>
@@ -12073,7 +12030,7 @@
       <c r="A9" s="31" t="s">
         <v>540</v>
       </c>
-      <c r="B9" s="195"/>
+      <c r="B9" s="196"/>
       <c r="C9" s="30" t="s">
         <v>518</v>
       </c>
@@ -12097,7 +12054,7 @@
       <c r="A10" s="31" t="s">
         <v>541</v>
       </c>
-      <c r="B10" s="195"/>
+      <c r="B10" s="196"/>
       <c r="C10" s="30" t="s">
         <v>520</v>
       </c>
@@ -12121,7 +12078,7 @@
       <c r="A11" s="31" t="s">
         <v>542</v>
       </c>
-      <c r="B11" s="195"/>
+      <c r="B11" s="196"/>
       <c r="C11" s="30" t="s">
         <v>524</v>
       </c>
@@ -12145,7 +12102,7 @@
       <c r="A12" s="31" t="s">
         <v>543</v>
       </c>
-      <c r="B12" s="195"/>
+      <c r="B12" s="196"/>
       <c r="C12" s="30" t="s">
         <v>528</v>
       </c>
@@ -12169,7 +12126,7 @@
       <c r="A13" s="31" t="s">
         <v>544</v>
       </c>
-      <c r="B13" s="195"/>
+      <c r="B13" s="196"/>
       <c r="C13" s="30" t="s">
         <v>531</v>
       </c>
@@ -12193,7 +12150,7 @@
       <c r="A14" s="31" t="s">
         <v>545</v>
       </c>
-      <c r="B14" s="195"/>
+      <c r="B14" s="196"/>
       <c r="C14" s="30" t="s">
         <v>534</v>
       </c>
@@ -12244,26 +12201,26 @@
     </row>
     <row r="16" spans="1:14" ht="171" customHeight="1">
       <c r="A16" s="31" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>1428</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>1429</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>1430</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>1431</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>1432</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>1433</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>1434</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>1435</v>
       </c>
       <c r="G16" s="43"/>
       <c r="H16" s="45" t="s">
         <v>1279</v>
       </c>
-      <c r="I16" s="45" t="s">
-        <v>1279</v>
+      <c r="I16" t="s">
+        <v>1250</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>71</v>
@@ -12288,7 +12245,7 @@
       <c r="A18" s="31" t="s">
         <v>547</v>
       </c>
-      <c r="B18" s="195" t="s">
+      <c r="B18" s="196" t="s">
         <v>565</v>
       </c>
       <c r="C18" s="30" t="s">
@@ -12314,7 +12271,7 @@
       <c r="A19" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="B19" s="195"/>
+      <c r="B19" s="196"/>
       <c r="C19" s="30" t="s">
         <v>552</v>
       </c>
@@ -12328,6 +12285,9 @@
         <v>555</v>
       </c>
       <c r="H19" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I19" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -12335,7 +12295,7 @@
       <c r="A20" s="31" t="s">
         <v>560</v>
       </c>
-      <c r="B20" s="195"/>
+      <c r="B20" s="196"/>
       <c r="C20" s="30" t="s">
         <v>556</v>
       </c>
@@ -12349,6 +12309,9 @@
         <v>559</v>
       </c>
       <c r="H20" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I20" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -12356,7 +12319,7 @@
       <c r="A21" s="31" t="s">
         <v>561</v>
       </c>
-      <c r="B21" s="195"/>
+      <c r="B21" s="196"/>
       <c r="C21" s="30" t="s">
         <v>562</v>
       </c>
@@ -12370,6 +12333,9 @@
         <v>564</v>
       </c>
       <c r="H21" t="s">
+        <v>1250</v>
+      </c>
+      <c r="I21" t="s">
         <v>1250</v>
       </c>
     </row>
@@ -12433,10 +12399,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="174"/>
+      <c r="I1" s="175"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -12456,7 +12422,7 @@
     <row r="2" spans="1:14" s="29" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="A2" s="57"/>
       <c r="B2" s="63" t="s">
-        <v>1592</v>
+        <v>1588</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="57"/>
@@ -12479,7 +12445,7 @@
       <c r="A3" s="68" t="s">
         <v>450</v>
       </c>
-      <c r="B3" s="196" t="s">
+      <c r="B3" s="197" t="s">
         <v>451</v>
       </c>
       <c r="C3" s="70" t="s">
@@ -12489,10 +12455,10 @@
         <v>254</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>1353</v>
+        <v>1349</v>
       </c>
       <c r="F3" s="74" t="s">
-        <v>1354</v>
+        <v>1350</v>
       </c>
       <c r="H3" s="69" t="s">
         <v>1250</v>
@@ -12501,28 +12467,28 @@
         <v>1250</v>
       </c>
       <c r="L3" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M3" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="69" customFormat="1" ht="132.75" customHeight="1">
       <c r="A4" s="68" t="s">
         <v>455</v>
       </c>
-      <c r="B4" s="197"/>
+      <c r="B4" s="198"/>
       <c r="C4" s="70" t="s">
-        <v>1355</v>
+        <v>1351</v>
       </c>
       <c r="D4" s="73" t="s">
         <v>254</v>
       </c>
       <c r="E4" s="74" t="s">
-        <v>1356</v>
+        <v>1352</v>
       </c>
       <c r="F4" s="72" t="s">
-        <v>1357</v>
+        <v>1353</v>
       </c>
       <c r="H4" s="69" t="s">
         <v>1250</v>
@@ -12531,28 +12497,28 @@
         <v>1250</v>
       </c>
       <c r="L4" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M4" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="69" customFormat="1" ht="224.25" customHeight="1">
       <c r="A5" s="68" t="s">
         <v>456</v>
       </c>
-      <c r="B5" s="197"/>
+      <c r="B5" s="198"/>
       <c r="C5" s="70" t="s">
-        <v>1358</v>
+        <v>1354</v>
       </c>
       <c r="D5" s="73" t="s">
         <v>254</v>
       </c>
       <c r="E5" s="74" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="F5" s="72" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="H5" s="69" t="s">
         <v>1250</v>
@@ -12561,17 +12527,17 @@
         <v>1250</v>
       </c>
       <c r="L5" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M5" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="69" customFormat="1" ht="135.75" customHeight="1">
       <c r="A6" s="68" t="s">
         <v>458</v>
       </c>
-      <c r="B6" s="197"/>
+      <c r="B6" s="198"/>
       <c r="C6" s="70" t="s">
         <v>453</v>
       </c>
@@ -12596,7 +12562,7 @@
       <c r="A7" s="68" t="s">
         <v>459</v>
       </c>
-      <c r="B7" s="197"/>
+      <c r="B7" s="198"/>
       <c r="C7" s="70" t="s">
         <v>457</v>
       </c>
@@ -12621,7 +12587,7 @@
       <c r="A8" s="68" t="s">
         <v>460</v>
       </c>
-      <c r="B8" s="197"/>
+      <c r="B8" s="198"/>
       <c r="C8" s="70" t="s">
         <v>468</v>
       </c>
@@ -12646,7 +12612,7 @@
       <c r="A9" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="B9" s="197"/>
+      <c r="B9" s="198"/>
       <c r="C9" s="70" t="s">
         <v>469</v>
       </c>
@@ -12671,7 +12637,7 @@
       <c r="A10" s="68" t="s">
         <v>463</v>
       </c>
-      <c r="B10" s="197"/>
+      <c r="B10" s="198"/>
       <c r="C10" s="70" t="s">
         <v>466</v>
       </c>
@@ -12696,7 +12662,7 @@
       <c r="A11" s="68" t="s">
         <v>487</v>
       </c>
-      <c r="B11" s="197"/>
+      <c r="B11" s="198"/>
       <c r="C11" s="70" t="s">
         <v>464</v>
       </c>
@@ -12721,7 +12687,7 @@
       <c r="A12" s="68" t="s">
         <v>509</v>
       </c>
-      <c r="B12" s="197"/>
+      <c r="B12" s="198"/>
       <c r="C12" s="70" t="s">
         <v>465</v>
       </c>
@@ -12744,7 +12710,7 @@
     </row>
     <row r="13" spans="1:14" s="69" customFormat="1" ht="85.5" customHeight="1">
       <c r="A13" s="68" t="s">
-        <v>1340</v>
+        <v>1336</v>
       </c>
       <c r="B13" s="75"/>
       <c r="C13" s="70" t="s">
@@ -12769,7 +12735,7 @@
     </row>
     <row r="14" spans="1:14" s="69" customFormat="1" ht="96.6">
       <c r="A14" s="68" t="s">
-        <v>1361</v>
+        <v>1357</v>
       </c>
       <c r="B14" s="75"/>
       <c r="C14" s="70" t="s">
@@ -12794,19 +12760,19 @@
     </row>
     <row r="15" spans="1:14" s="69" customFormat="1" ht="189" customHeight="1">
       <c r="A15" s="68" t="s">
-        <v>1341</v>
+        <v>1337</v>
       </c>
       <c r="C15" s="70" t="s">
-        <v>1342</v>
+        <v>1338</v>
       </c>
       <c r="D15" s="71" t="s">
         <v>232</v>
       </c>
       <c r="E15" s="71" t="s">
-        <v>1343</v>
+        <v>1339</v>
       </c>
       <c r="F15" s="72" t="s">
-        <v>1344</v>
+        <v>1340</v>
       </c>
       <c r="H15" s="69" t="s">
         <v>1250</v>
@@ -12815,27 +12781,27 @@
         <v>1250</v>
       </c>
       <c r="L15" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M15" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="69" customFormat="1" ht="69">
       <c r="A16" s="68" t="s">
-        <v>1345</v>
+        <v>1341</v>
       </c>
       <c r="C16" s="70" t="s">
-        <v>1346</v>
+        <v>1342</v>
       </c>
       <c r="D16" s="71" t="s">
         <v>232</v>
       </c>
       <c r="E16" s="71" t="s">
-        <v>1347</v>
+        <v>1343</v>
       </c>
       <c r="F16" s="72" t="s">
-        <v>1348</v>
+        <v>1344</v>
       </c>
       <c r="H16" s="69" t="s">
         <v>1250</v>
@@ -12844,27 +12810,27 @@
         <v>1250</v>
       </c>
       <c r="L16" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M16" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="17" spans="1:13" s="69" customFormat="1" ht="110.4">
       <c r="A17" s="68" t="s">
-        <v>1349</v>
+        <v>1345</v>
       </c>
       <c r="C17" s="70" t="s">
-        <v>1350</v>
+        <v>1346</v>
       </c>
       <c r="D17" s="71" t="s">
         <v>232</v>
       </c>
       <c r="E17" s="71" t="s">
-        <v>1351</v>
+        <v>1347</v>
       </c>
       <c r="F17" s="72" t="s">
-        <v>1352</v>
+        <v>1348</v>
       </c>
       <c r="H17" s="69" t="s">
         <v>1250</v>
@@ -12873,27 +12839,27 @@
         <v>1250</v>
       </c>
       <c r="L17" s="69" t="s">
-        <v>1574</v>
+        <v>1570</v>
       </c>
       <c r="M17" s="128" t="s">
-        <v>1575</v>
+        <v>1571</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="63.6" customHeight="1">
       <c r="A18" s="68" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C18" s="70" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D18" s="71" t="s">
         <v>1362</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="E18" s="71" t="s">
         <v>1363</v>
       </c>
-      <c r="D18" s="71" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E18" s="71" t="s">
-        <v>1367</v>
-      </c>
       <c r="F18" s="4" t="s">
-        <v>1364</v>
+        <v>1360</v>
       </c>
       <c r="H18" s="69" t="s">
         <v>1250</v>
@@ -12905,19 +12871,19 @@
     </row>
     <row r="19" spans="1:13" ht="59.4" customHeight="1">
       <c r="A19" s="68" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>1368</v>
+      </c>
+      <c r="D19" s="71" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E19" s="71" t="s">
+        <v>1364</v>
+      </c>
+      <c r="F19" s="4" t="s">
         <v>1365</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>1372</v>
-      </c>
-      <c r="D19" s="71" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E19" s="71" t="s">
-        <v>1368</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>1369</v>
       </c>
       <c r="H19" s="69" t="s">
         <v>1250</v>
@@ -12929,19 +12895,19 @@
     </row>
     <row r="20" spans="1:13" ht="63.6" customHeight="1">
       <c r="A20" s="68" t="s">
-        <v>1370</v>
+        <v>1366</v>
       </c>
       <c r="C20" s="70" t="s">
+        <v>1369</v>
+      </c>
+      <c r="D20" s="71" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E20" s="71" t="s">
+        <v>1371</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>1373</v>
-      </c>
-      <c r="D20" s="71" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E20" s="71" t="s">
-        <v>1375</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>1377</v>
       </c>
       <c r="H20" s="69" t="s">
         <v>1250</v>
@@ -12952,19 +12918,19 @@
     </row>
     <row r="21" spans="1:13" ht="59.4" customHeight="1">
       <c r="A21" s="68" t="s">
-        <v>1371</v>
+        <v>1367</v>
       </c>
       <c r="C21" s="70" t="s">
+        <v>1370</v>
+      </c>
+      <c r="D21" s="71" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E21" s="71" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>1374</v>
-      </c>
-      <c r="D21" s="71" t="s">
-        <v>1366</v>
-      </c>
-      <c r="E21" s="71" t="s">
-        <v>1376</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>1378</v>
       </c>
       <c r="H21" s="69" t="s">
         <v>1250</v>
@@ -13033,10 +12999,10 @@
       <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="173" t="s">
+      <c r="H1" s="174" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="200"/>
+      <c r="I1" s="201"/>
       <c r="J1" s="14" t="s">
         <v>7</v>
       </c>
@@ -13624,28 +13590,28 @@
     </row>
     <row r="26" spans="1:11" ht="86.4">
       <c r="A26" s="7" t="s">
-        <v>1436</v>
+        <v>1432</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>1438</v>
+        <v>1434</v>
       </c>
       <c r="D26" s="5" t="s">
         <v>341</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>1439</v>
+        <v>1435</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>1440</v>
+        <v>1436</v>
       </c>
       <c r="G26" s="43" t="s">
         <v>160</v>
       </c>
       <c r="H26" s="52" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="I26" s="52" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>71</v>
@@ -13670,7 +13636,7 @@
       <c r="A28" s="21" t="s">
         <v>664</v>
       </c>
-      <c r="B28" s="198" t="s">
+      <c r="B28" s="199" t="s">
         <v>669</v>
       </c>
       <c r="C28" s="43" t="s">
@@ -13686,7 +13652,7 @@
         <v>673</v>
       </c>
       <c r="H28" s="52" t="s">
-        <v>1437</v>
+        <v>1433</v>
       </c>
       <c r="I28" s="65" t="s">
         <v>1280</v>
@@ -13696,7 +13662,7 @@
       <c r="A29" s="21" t="s">
         <v>665</v>
       </c>
-      <c r="B29" s="199"/>
+      <c r="B29" s="200"/>
       <c r="C29" s="43" t="s">
         <v>674</v>
       </c>
@@ -13714,7 +13680,7 @@
       <c r="A30" s="21" t="s">
         <v>666</v>
       </c>
-      <c r="B30" s="199"/>
+      <c r="B30" s="200"/>
       <c r="C30" s="10" t="s">
         <v>677</v>
       </c>
@@ -13738,7 +13704,7 @@
       <c r="A31" s="21" t="s">
         <v>667</v>
       </c>
-      <c r="B31" s="199"/>
+      <c r="B31" s="200"/>
       <c r="C31" s="10" t="s">
         <v>680</v>
       </c>
@@ -13762,7 +13728,7 @@
       <c r="A32" s="21" t="s">
         <v>668</v>
       </c>
-      <c r="B32" s="199"/>
+      <c r="B32" s="200"/>
       <c r="C32" s="43" t="s">
         <v>683</v>
       </c>
@@ -13787,20 +13753,20 @@
     </row>
     <row r="33" spans="1:10" s="80" customFormat="1" ht="154.94999999999999" customHeight="1">
       <c r="A33" s="76" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B33" s="202"/>
+      <c r="C33" s="77" t="s">
+        <v>1376</v>
+      </c>
+      <c r="D33" s="78" t="s">
+        <v>1377</v>
+      </c>
+      <c r="E33" s="77" t="s">
+        <v>1378</v>
+      </c>
+      <c r="F33" s="79" t="s">
         <v>1379</v>
-      </c>
-      <c r="B33" s="201"/>
-      <c r="C33" s="77" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D33" s="78" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E33" s="77" t="s">
-        <v>1382</v>
-      </c>
-      <c r="F33" s="79" t="s">
-        <v>1383</v>
       </c>
       <c r="H33" s="80" t="s">
         <v>1304</v>
@@ -13814,17 +13780,17 @@
     </row>
     <row r="34" spans="1:10" s="80" customFormat="1" ht="146.4" customHeight="1">
       <c r="A34" s="76" t="s">
-        <v>1384</v>
-      </c>
-      <c r="B34" s="202"/>
+        <v>1380</v>
+      </c>
+      <c r="B34" s="203"/>
       <c r="C34" s="77" t="s">
-        <v>1385</v>
+        <v>1381</v>
       </c>
       <c r="E34" s="77" t="s">
-        <v>1386</v>
+        <v>1382</v>
       </c>
       <c r="F34" s="79" t="s">
-        <v>1387</v>
+        <v>1383</v>
       </c>
       <c r="I34" s="80" t="s">
         <v>1250</v>
@@ -13832,17 +13798,17 @@
     </row>
     <row r="35" spans="1:10" s="80" customFormat="1" ht="140.4">
       <c r="A35" s="76" t="s">
-        <v>1388</v>
-      </c>
-      <c r="B35" s="202"/>
+        <v>1384</v>
+      </c>
+      <c r="B35" s="203"/>
       <c r="C35" s="77" t="s">
-        <v>1389</v>
+        <v>1385</v>
       </c>
       <c r="E35" s="77" t="s">
-        <v>1390</v>
+        <v>1386</v>
       </c>
       <c r="F35" s="79" t="s">
-        <v>1391</v>
+        <v>1387</v>
       </c>
       <c r="I35" s="80" t="s">
         <v>1280</v>
@@ -13850,17 +13816,17 @@
     </row>
     <row r="36" spans="1:10" s="80" customFormat="1" ht="140.4">
       <c r="A36" s="76" t="s">
-        <v>1392</v>
-      </c>
-      <c r="B36" s="202"/>
+        <v>1388</v>
+      </c>
+      <c r="B36" s="203"/>
       <c r="C36" s="77" t="s">
-        <v>1393</v>
+        <v>1389</v>
       </c>
       <c r="E36" s="77" t="s">
-        <v>1394</v>
+        <v>1390</v>
       </c>
       <c r="F36" s="79" t="s">
-        <v>1395</v>
+        <v>1391</v>
       </c>
       <c r="I36" s="80" t="s">
         <v>1280</v>
@@ -13868,17 +13834,17 @@
     </row>
     <row r="37" spans="1:10" s="80" customFormat="1" ht="124.8">
       <c r="A37" s="76" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B37" s="203"/>
+        <v>1392</v>
+      </c>
+      <c r="B37" s="204"/>
       <c r="C37" s="77" t="s">
-        <v>1397</v>
+        <v>1393</v>
       </c>
       <c r="E37" s="77" t="s">
-        <v>1398</v>
+        <v>1394</v>
       </c>
       <c r="F37" s="79" t="s">
-        <v>1399</v>
+        <v>1395</v>
       </c>
       <c r="I37" s="80" t="s">
         <v>1280</v>
@@ -13886,31 +13852,31 @@
     </row>
     <row r="38" spans="1:10" s="80" customFormat="1" ht="15.6">
       <c r="A38" s="76" t="s">
-        <v>1400</v>
+        <v>1396</v>
       </c>
       <c r="C38" s="81" t="s">
-        <v>1401</v>
+        <v>1397</v>
       </c>
       <c r="E38" s="82" t="s">
-        <v>1402</v>
+        <v>1398</v>
       </c>
       <c r="F38" s="83" t="s">
-        <v>1403</v>
+        <v>1399</v>
       </c>
       <c r="G38" s="84"/>
     </row>
     <row r="39" spans="1:10" s="80" customFormat="1" ht="27" customHeight="1">
       <c r="A39" s="76" t="s">
-        <v>1404</v>
+        <v>1400</v>
       </c>
       <c r="C39" s="81" t="s">
-        <v>1405</v>
+        <v>1401</v>
       </c>
       <c r="E39" s="85" t="s">
-        <v>1576</v>
+        <v>1572</v>
       </c>
       <c r="F39" s="86" t="s">
-        <v>1406</v>
+        <v>1402</v>
       </c>
       <c r="G39" s="84"/>
     </row>
@@ -13954,15 +13920,15 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="129" t="s">
-        <v>1578</v>
+        <v>1574</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="1" t="s">
@@ -13986,10 +13952,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -14027,22 +13993,22 @@
       <c r="N4" s="51"/>
     </row>
     <row r="5" spans="1:14" ht="19.2" customHeight="1">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="137" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="136"/>
-      <c r="C5" s="136"/>
-      <c r="D5" s="136"/>
-      <c r="E5" s="136"/>
-      <c r="F5" s="136"/>
-      <c r="G5" s="136"/>
-      <c r="H5" s="136"/>
-      <c r="I5" s="136"/>
-      <c r="J5" s="136"/>
-      <c r="K5" s="136"/>
-      <c r="L5" s="136"/>
-      <c r="M5" s="136"/>
-      <c r="N5" s="136"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="137"/>
     </row>
     <row r="6" spans="1:14" ht="119.4" customHeight="1">
       <c r="A6" s="7" t="s">
@@ -14127,7 +14093,7 @@
       <c r="A8" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="140" t="s">
+      <c r="B8" s="141" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="6" t="s">
@@ -14168,7 +14134,7 @@
       <c r="A9" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="140"/>
+      <c r="B9" s="141"/>
       <c r="C9" s="6" t="s">
         <v>35</v>
       </c>
@@ -14207,7 +14173,7 @@
       <c r="A10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B10" s="140"/>
+      <c r="B10" s="141"/>
       <c r="C10" s="6" t="s">
         <v>26</v>
       </c>
@@ -14246,7 +14212,7 @@
       <c r="A11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="140"/>
+      <c r="B11" s="141"/>
       <c r="C11" s="6" t="s">
         <v>36</v>
       </c>
@@ -14446,7 +14412,7 @@
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="139" t="s">
+      <c r="B16" s="140" t="s">
         <v>54</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -14485,7 +14451,7 @@
       <c r="A17" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B17" s="139"/>
+      <c r="B17" s="140"/>
       <c r="C17" s="6" t="s">
         <v>1267</v>
       </c>
@@ -14751,7 +14717,7 @@
   <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -14774,15 +14740,15 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>1579</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="138"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="139"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
@@ -14806,10 +14772,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15068,15 +15034,15 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>1580</v>
+        <v>1576</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="18.600000000000001" thickBot="1">
-      <c r="H2" s="137" t="s">
+      <c r="H2" s="138" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="137"/>
-      <c r="J2" s="143"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="144"/>
     </row>
     <row r="3" spans="1:14" ht="24" customHeight="1" thickBot="1">
       <c r="A3" s="8" t="s">
@@ -15100,10 +15066,10 @@
       <c r="G3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="141" t="s">
+      <c r="H3" s="142" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="142"/>
+      <c r="I3" s="143"/>
       <c r="J3" s="1" t="s">
         <v>7</v>
       </c>
@@ -15799,10 +15765,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E286DF0E-1342-40DF-86C1-7F76A4255313}">
   <dimension ref="A1:N59"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="G1" sqref="G1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B23"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21:I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="21"/>
@@ -15844,10 +15810,10 @@
       <c r="G1" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="148" t="s">
+      <c r="H1" s="170" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="148"/>
+      <c r="I1" s="170"/>
       <c r="J1" s="92" t="s">
         <v>7</v>
       </c>
@@ -15866,7 +15832,7 @@
     </row>
     <row r="2" spans="1:14" s="96" customFormat="1" ht="32.25" customHeight="1">
       <c r="A2" s="96" t="s">
-        <v>1583</v>
+        <v>1579</v>
       </c>
       <c r="B2" s="97"/>
       <c r="C2" s="98"/>
@@ -15880,13 +15846,13 @@
       </c>
     </row>
     <row r="3" spans="1:14" ht="36" customHeight="1">
-      <c r="A3" s="144" t="s">
+      <c r="A3" s="167" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
       <c r="F3" s="101"/>
       <c r="G3" s="102"/>
       <c r="H3" s="102"/>
@@ -15901,7 +15867,7 @@
       <c r="A4" s="68" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="146" t="s">
+      <c r="B4" s="159" t="s">
         <v>158</v>
       </c>
       <c r="C4" s="103" t="s">
@@ -15933,7 +15899,7 @@
       <c r="A5" s="68" t="s">
         <v>161</v>
       </c>
-      <c r="B5" s="146"/>
+      <c r="B5" s="159"/>
       <c r="C5" s="103" t="s">
         <v>169</v>
       </c>
@@ -15963,7 +15929,7 @@
       <c r="A6" s="68" t="s">
         <v>162</v>
       </c>
-      <c r="B6" s="146"/>
+      <c r="B6" s="159"/>
       <c r="C6" s="103" t="s">
         <v>173</v>
       </c>
@@ -15993,7 +15959,7 @@
       <c r="A7" s="68" t="s">
         <v>163</v>
       </c>
-      <c r="B7" s="146"/>
+      <c r="B7" s="159"/>
       <c r="C7" s="106" t="s">
         <v>176</v>
       </c>
@@ -16023,7 +15989,7 @@
       <c r="A8" s="68" t="s">
         <v>164</v>
       </c>
-      <c r="B8" s="146"/>
+      <c r="B8" s="159"/>
       <c r="C8" s="106" t="s">
         <v>179</v>
       </c>
@@ -16053,7 +16019,7 @@
       <c r="A9" s="68" t="s">
         <v>165</v>
       </c>
-      <c r="B9" s="146"/>
+      <c r="B9" s="159"/>
       <c r="C9" s="106" t="s">
         <v>1310</v>
       </c>
@@ -16075,14 +16041,14 @@
       </c>
       <c r="J9" s="104"/>
       <c r="K9" s="104" t="s">
-        <v>1582</v>
+        <v>1578</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="110.4">
       <c r="A10" s="68" t="s">
         <v>185</v>
       </c>
-      <c r="B10" s="146"/>
+      <c r="B10" s="159"/>
       <c r="C10" s="106" t="s">
         <v>182</v>
       </c>
@@ -16112,7 +16078,7 @@
       <c r="A11" s="68" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="146"/>
+      <c r="B11" s="159"/>
       <c r="C11" s="106" t="s">
         <v>186</v>
       </c>
@@ -16142,7 +16108,7 @@
       <c r="A12" s="68" t="s">
         <v>192</v>
       </c>
-      <c r="B12" s="146"/>
+      <c r="B12" s="159"/>
       <c r="C12" s="106" t="s">
         <v>190</v>
       </c>
@@ -16153,7 +16119,7 @@
         <v>191</v>
       </c>
       <c r="F12" s="103" t="s">
-        <v>1489</v>
+        <v>1485</v>
       </c>
       <c r="G12" s="105" t="s">
         <v>160</v>
@@ -16172,7 +16138,7 @@
       <c r="A13" s="68" t="s">
         <v>196</v>
       </c>
-      <c r="B13" s="146"/>
+      <c r="B13" s="159"/>
       <c r="C13" s="106" t="s">
         <v>193</v>
       </c>
@@ -16202,7 +16168,7 @@
       <c r="A14" s="68" t="s">
         <v>200</v>
       </c>
-      <c r="B14" s="146"/>
+      <c r="B14" s="159"/>
       <c r="C14" s="106" t="s">
         <v>197</v>
       </c>
@@ -16232,7 +16198,7 @@
       <c r="A15" s="68" t="s">
         <v>204</v>
       </c>
-      <c r="B15" s="146"/>
+      <c r="B15" s="159"/>
       <c r="C15" s="106" t="s">
         <v>201</v>
       </c>
@@ -16262,7 +16228,7 @@
       <c r="A16" s="68" t="s">
         <v>208</v>
       </c>
-      <c r="B16" s="146"/>
+      <c r="B16" s="159"/>
       <c r="C16" s="106" t="s">
         <v>205</v>
       </c>
@@ -16292,7 +16258,7 @@
       <c r="A17" s="68" t="s">
         <v>212</v>
       </c>
-      <c r="B17" s="146"/>
+      <c r="B17" s="159"/>
       <c r="C17" s="106" t="s">
         <v>209</v>
       </c>
@@ -16322,7 +16288,7 @@
       <c r="A18" s="68" t="s">
         <v>217</v>
       </c>
-      <c r="B18" s="146"/>
+      <c r="B18" s="159"/>
       <c r="C18" s="106" t="s">
         <v>213</v>
       </c>
@@ -16352,7 +16318,7 @@
       <c r="A19" s="68" t="s">
         <v>222</v>
       </c>
-      <c r="B19" s="146"/>
+      <c r="B19" s="159"/>
       <c r="C19" s="106" t="s">
         <v>218</v>
       </c>
@@ -16382,7 +16348,7 @@
       <c r="A20" s="68" t="s">
         <v>226</v>
       </c>
-      <c r="B20" s="146"/>
+      <c r="B20" s="159"/>
       <c r="C20" s="106" t="s">
         <v>223</v>
       </c>
@@ -16410,9 +16376,9 @@
     </row>
     <row r="21" spans="1:14" ht="110.4">
       <c r="A21" s="68" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B21" s="146"/>
+        <v>1403</v>
+      </c>
+      <c r="B21" s="159"/>
       <c r="C21" s="106" t="s">
         <v>227</v>
       </c>
@@ -16440,20 +16406,20 @@
     </row>
     <row r="22" spans="1:14" ht="69">
       <c r="A22" s="68" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B22" s="146"/>
+        <v>1407</v>
+      </c>
+      <c r="B22" s="159"/>
       <c r="C22" s="106" t="s">
-        <v>1408</v>
+        <v>1404</v>
       </c>
       <c r="D22" s="103" t="s">
         <v>170</v>
       </c>
       <c r="E22" s="104" t="s">
-        <v>1409</v>
+        <v>1405</v>
       </c>
       <c r="F22" s="103" t="s">
-        <v>1410</v>
+        <v>1406</v>
       </c>
       <c r="G22" s="105" t="s">
         <v>160</v>
@@ -16461,8 +16427,8 @@
       <c r="H22" s="108" t="s">
         <v>1279</v>
       </c>
-      <c r="I22" s="108" t="s">
-        <v>1279</v>
+      <c r="I22" s="104" t="s">
+        <v>1250</v>
       </c>
       <c r="J22" s="104" t="s">
         <v>71</v>
@@ -16470,20 +16436,20 @@
     </row>
     <row r="23" spans="1:14" ht="112.95" customHeight="1">
       <c r="A23" s="68" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B23" s="146"/>
+        <v>1577</v>
+      </c>
+      <c r="B23" s="159"/>
       <c r="C23" s="106" t="s">
-        <v>1412</v>
+        <v>1408</v>
       </c>
       <c r="D23" s="103" t="s">
         <v>170</v>
       </c>
       <c r="E23" s="104" t="s">
-        <v>1413</v>
+        <v>1409</v>
       </c>
       <c r="F23" s="103" t="s">
-        <v>1414</v>
+        <v>1410</v>
       </c>
       <c r="G23" s="105" t="s">
         <v>160</v>
@@ -16491,21 +16457,21 @@
       <c r="H23" s="108" t="s">
         <v>1279</v>
       </c>
-      <c r="I23" s="108" t="s">
-        <v>1279</v>
+      <c r="I23" s="104" t="s">
+        <v>1250</v>
       </c>
       <c r="J23" s="104" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:14" ht="17.399999999999999">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="169" t="s">
         <v>229</v>
       </c>
-      <c r="B24" s="145"/>
-      <c r="C24" s="145"/>
-      <c r="D24" s="145"/>
-      <c r="E24" s="145"/>
+      <c r="B24" s="168"/>
+      <c r="C24" s="168"/>
+      <c r="D24" s="168"/>
+      <c r="E24" s="168"/>
       <c r="F24" s="101"/>
       <c r="G24" s="102"/>
       <c r="H24" s="102"/>
@@ -16519,7 +16485,7 @@
       <c r="A25" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B25" s="152" t="s">
+      <c r="B25" s="158" t="s">
         <v>249</v>
       </c>
       <c r="C25" s="106" t="s">
@@ -16532,7 +16498,7 @@
         <v>233</v>
       </c>
       <c r="F25" s="103" t="s">
-        <v>1490</v>
+        <v>1486</v>
       </c>
       <c r="G25" s="105" t="s">
         <v>160</v>
@@ -16551,7 +16517,7 @@
       <c r="A26" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="B26" s="146"/>
+      <c r="B26" s="159"/>
       <c r="C26" s="106" t="s">
         <v>235</v>
       </c>
@@ -16581,7 +16547,7 @@
       <c r="A27" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B27" s="146"/>
+      <c r="B27" s="159"/>
       <c r="C27" s="106" t="s">
         <v>240</v>
       </c>
@@ -16611,7 +16577,7 @@
       <c r="A28" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B28" s="146"/>
+      <c r="B28" s="159"/>
       <c r="C28" s="106" t="s">
         <v>245</v>
       </c>
@@ -16669,7 +16635,7 @@
     <row r="31" spans="1:14" s="116" customFormat="1">
       <c r="A31" s="112"/>
       <c r="B31" s="113" t="s">
-        <v>1450</v>
+        <v>1446</v>
       </c>
       <c r="C31" s="114"/>
       <c r="D31" s="115"/>
@@ -16679,448 +16645,448 @@
       <c r="A32" s="68" t="s">
         <v>230</v>
       </c>
-      <c r="B32" s="151" t="s">
-        <v>1454</v>
+      <c r="B32" s="155" t="s">
+        <v>1450</v>
       </c>
       <c r="C32" s="82" t="s">
-        <v>1455</v>
-      </c>
-      <c r="D32" s="150" t="s">
-        <v>1461</v>
+        <v>1451</v>
+      </c>
+      <c r="D32" s="157" t="s">
+        <v>1457</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>1462</v>
+        <v>1458</v>
       </c>
       <c r="F32" s="89" t="s">
-        <v>1463</v>
+        <v>1459</v>
       </c>
       <c r="I32" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L32" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M32" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="46.8">
       <c r="A33" s="68" t="s">
         <v>234</v>
       </c>
-      <c r="B33" s="151"/>
-      <c r="C33" s="149" t="s">
-        <v>1456</v>
-      </c>
-      <c r="D33" s="150"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D33" s="157"/>
       <c r="E33" s="87" t="s">
+        <v>1460</v>
+      </c>
+      <c r="F33" s="86" t="s">
+        <v>1453</v>
+      </c>
+      <c r="I33" s="95" t="s">
+        <v>1250</v>
+      </c>
+      <c r="L33" s="95" t="s">
         <v>1464</v>
       </c>
-      <c r="F33" s="86" t="s">
-        <v>1457</v>
-      </c>
-      <c r="I33" s="95" t="s">
-        <v>1250</v>
-      </c>
-      <c r="L33" s="95" t="s">
-        <v>1468</v>
-      </c>
       <c r="M33" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="46.8">
       <c r="A34" s="68" t="s">
         <v>239</v>
       </c>
-      <c r="B34" s="151"/>
-      <c r="C34" s="149"/>
-      <c r="D34" s="150"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="157"/>
       <c r="E34" s="87" t="s">
-        <v>1465</v>
+        <v>1461</v>
       </c>
       <c r="F34" s="86"/>
       <c r="I34" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L34" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M34" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="46.8">
       <c r="A35" s="68" t="s">
         <v>244</v>
       </c>
-      <c r="B35" s="151"/>
-      <c r="C35" s="149" t="s">
-        <v>1458</v>
-      </c>
-      <c r="D35" s="150"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156" t="s">
+        <v>1454</v>
+      </c>
+      <c r="D35" s="157"/>
       <c r="E35" s="87" t="s">
-        <v>1466</v>
+        <v>1462</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I35" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L35" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M35" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="46.8">
       <c r="A36" s="68" t="s">
         <v>1315</v>
       </c>
-      <c r="B36" s="151"/>
-      <c r="C36" s="149"/>
-      <c r="D36" s="150"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="157"/>
       <c r="E36" s="87" t="s">
-        <v>1467</v>
+        <v>1463</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>1460</v>
+        <v>1456</v>
       </c>
       <c r="I36" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L36" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M36" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="62.4">
       <c r="A37" s="68" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B37" s="151" t="s">
-        <v>1482</v>
-      </c>
-      <c r="C37" s="165" t="s">
-        <v>1480</v>
-      </c>
-      <c r="D37" s="150" t="s">
-        <v>1461</v>
+        <v>1447</v>
+      </c>
+      <c r="B37" s="155" t="s">
+        <v>1478</v>
+      </c>
+      <c r="C37" s="150" t="s">
+        <v>1476</v>
+      </c>
+      <c r="D37" s="157" t="s">
+        <v>1457</v>
       </c>
       <c r="E37" s="90" t="s">
-        <v>1483</v>
-      </c>
-      <c r="F37" s="160" t="s">
-        <v>1459</v>
+        <v>1479</v>
+      </c>
+      <c r="F37" s="145" t="s">
+        <v>1455</v>
       </c>
       <c r="I37" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L37" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M37" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="62.4">
       <c r="A38" s="68" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B38" s="151"/>
-      <c r="C38" s="166"/>
-      <c r="D38" s="150"/>
+        <v>1448</v>
+      </c>
+      <c r="B38" s="155"/>
+      <c r="C38" s="151"/>
+      <c r="D38" s="157"/>
       <c r="E38" s="90" t="s">
-        <v>1484</v>
-      </c>
-      <c r="F38" s="161"/>
+        <v>1480</v>
+      </c>
+      <c r="F38" s="146"/>
       <c r="I38" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L38" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M38" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="62.4">
       <c r="A39" s="68" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B39" s="151"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="150"/>
+        <v>1449</v>
+      </c>
+      <c r="B39" s="155"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="157"/>
       <c r="E39" s="90" t="s">
-        <v>1485</v>
-      </c>
-      <c r="F39" s="162"/>
+        <v>1481</v>
+      </c>
+      <c r="F39" s="147"/>
       <c r="I39" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L39" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M39" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="62.4">
       <c r="A40" s="68" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B40" s="151"/>
-      <c r="C40" s="168" t="s">
-        <v>1481</v>
-      </c>
-      <c r="D40" s="150"/>
+        <v>1466</v>
+      </c>
+      <c r="B40" s="155"/>
+      <c r="C40" s="153" t="s">
+        <v>1477</v>
+      </c>
+      <c r="D40" s="157"/>
       <c r="E40" s="90" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F40" s="163" t="s">
-        <v>1487</v>
+        <v>1482</v>
+      </c>
+      <c r="F40" s="148" t="s">
+        <v>1483</v>
       </c>
       <c r="I40" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L40" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M40" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="62.4">
       <c r="A41" s="68" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B41" s="151"/>
-      <c r="C41" s="169"/>
-      <c r="D41" s="150"/>
+        <v>1467</v>
+      </c>
+      <c r="B41" s="155"/>
+      <c r="C41" s="154"/>
+      <c r="D41" s="157"/>
       <c r="E41" s="90" t="s">
-        <v>1486</v>
-      </c>
-      <c r="F41" s="164"/>
+        <v>1482</v>
+      </c>
+      <c r="F41" s="149"/>
       <c r="I41" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L41" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M41" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="62.4">
       <c r="A42" s="68" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B42" s="153" t="s">
-        <v>1488</v>
+        <v>1468</v>
+      </c>
+      <c r="B42" s="160" t="s">
+        <v>1484</v>
       </c>
       <c r="C42" s="87" t="s">
-        <v>1491</v>
-      </c>
-      <c r="D42" s="157" t="s">
-        <v>1461</v>
+        <v>1487</v>
+      </c>
+      <c r="D42" s="164" t="s">
+        <v>1457</v>
       </c>
       <c r="E42" s="87" t="s">
-        <v>1502</v>
+        <v>1498</v>
       </c>
       <c r="F42" s="88" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I42" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L42" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M42" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="78">
       <c r="A43" s="68" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B43" s="154"/>
+        <v>1469</v>
+      </c>
+      <c r="B43" s="161"/>
       <c r="C43" s="87" t="s">
-        <v>1493</v>
-      </c>
-      <c r="D43" s="158"/>
+        <v>1489</v>
+      </c>
+      <c r="D43" s="165"/>
       <c r="E43" s="87" t="s">
-        <v>1501</v>
+        <v>1497</v>
       </c>
       <c r="F43" s="91" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="I43" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L43" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M43" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="62.4">
       <c r="A44" s="68" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B44" s="154"/>
+        <v>1470</v>
+      </c>
+      <c r="B44" s="161"/>
       <c r="C44" s="87" t="s">
-        <v>1492</v>
-      </c>
-      <c r="D44" s="158"/>
+        <v>1488</v>
+      </c>
+      <c r="D44" s="165"/>
       <c r="E44" s="87" t="s">
-        <v>1500</v>
+        <v>1496</v>
       </c>
       <c r="F44" s="88" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I44" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L44" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M44" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="78">
       <c r="A45" s="68" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B45" s="154"/>
+        <v>1471</v>
+      </c>
+      <c r="B45" s="161"/>
       <c r="C45" s="87" t="s">
+        <v>1491</v>
+      </c>
+      <c r="D45" s="165"/>
+      <c r="E45" s="87" t="s">
         <v>1495</v>
       </c>
-      <c r="D45" s="158"/>
-      <c r="E45" s="87" t="s">
-        <v>1499</v>
-      </c>
       <c r="F45" s="91" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="I45" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L45" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M45" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="62.4">
       <c r="A46" s="68" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B46" s="154"/>
+        <v>1472</v>
+      </c>
+      <c r="B46" s="161"/>
       <c r="C46" s="87" t="s">
-        <v>1497</v>
-      </c>
-      <c r="D46" s="158"/>
+        <v>1493</v>
+      </c>
+      <c r="D46" s="165"/>
       <c r="E46" s="87" t="s">
-        <v>1503</v>
+        <v>1499</v>
       </c>
       <c r="F46" s="88" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I46" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L46" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M46" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="62.4">
       <c r="A47" s="68" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B47" s="159"/>
+        <v>1473</v>
+      </c>
+      <c r="B47" s="166"/>
       <c r="C47" s="87" t="s">
-        <v>1498</v>
-      </c>
-      <c r="D47" s="158"/>
+        <v>1494</v>
+      </c>
+      <c r="D47" s="165"/>
       <c r="E47" s="87" t="s">
-        <v>1504</v>
+        <v>1500</v>
       </c>
       <c r="F47" s="91" t="s">
-        <v>1494</v>
+        <v>1490</v>
       </c>
       <c r="I47" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L47" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M47" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="91.5" customHeight="1">
       <c r="A48" s="68" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B48" s="153" t="s">
-        <v>1505</v>
+        <v>1474</v>
+      </c>
+      <c r="B48" s="160" t="s">
+        <v>1501</v>
       </c>
       <c r="C48" s="88" t="s">
-        <v>1506</v>
-      </c>
-      <c r="D48" s="155" t="s">
-        <v>1461</v>
+        <v>1502</v>
+      </c>
+      <c r="D48" s="162" t="s">
+        <v>1457</v>
       </c>
       <c r="E48" s="87" t="s">
-        <v>1508</v>
+        <v>1504</v>
       </c>
       <c r="F48" s="88" t="s">
-        <v>1459</v>
+        <v>1455</v>
       </c>
       <c r="I48" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L48" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M48" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="78" customHeight="1">
       <c r="A49" s="68" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B49" s="154"/>
+        <v>1475</v>
+      </c>
+      <c r="B49" s="161"/>
       <c r="C49" s="88" t="s">
-        <v>1507</v>
-      </c>
-      <c r="D49" s="156"/>
+        <v>1503</v>
+      </c>
+      <c r="D49" s="163"/>
       <c r="E49" s="87" t="s">
-        <v>1509</v>
+        <v>1505</v>
       </c>
       <c r="F49" s="91" t="s">
-        <v>1496</v>
+        <v>1492</v>
       </c>
       <c r="I49" s="95" t="s">
         <v>1250</v>
       </c>
       <c r="L49" s="95" t="s">
-        <v>1468</v>
+        <v>1464</v>
       </c>
       <c r="M49" s="95" t="s">
-        <v>1469</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="20.25" customHeight="1">
@@ -17159,11 +17125,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F37:F39"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="C37:C39"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="B37:B41"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="B4:B23"/>
+    <mergeCell ref="A24:E24"/>
+    <mergeCell ref="H1:I1"/>
+    <mergeCell ref="C33:C34"/>
     <mergeCell ref="C35:C36"/>
     <mergeCell ref="D32:D36"/>
     <mergeCell ref="B32:B36"/>
@@ -17173,11 +17139,11 @@
     <mergeCell ref="D42:D47"/>
     <mergeCell ref="D37:D41"/>
     <mergeCell ref="B42:B47"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="B4:B23"/>
-    <mergeCell ref="A24:E24"/>
-    <mergeCell ref="H1:I1"/>
-    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="F37:F39"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="C37:C39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="B37:B41"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17189,10 +17155,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D832DF0D-2202-4E41-9976-CE9C5945E6D5}">
   <dimension ref="A1:M55"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4:B24"/>
+      <selection pane="